--- a/ha-asset/01_design/03_batch/設計書_3.2.月次健康情報集計バッチ.xlsx
+++ b/ha-asset/01_design/03_batch/設計書_3.2.月次健康情報集計バッチ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\03_batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A668E965-17AD-4DA0-ADEB-50D2485805D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D12146-D607-406E-9386-E1B3DF6FEC68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="3030" windowWidth="21600" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="930" windowWidth="19320" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -445,6 +445,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -859,58 +860,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -922,8 +878,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1951,12 +1952,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -1966,60 +2015,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2034,9 +2035,7 @@
   </sheetPr>
   <dimension ref="A1:AW31"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AR5" sqref="AR5"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -3644,9 +3643,7 @@
   </sheetPr>
   <dimension ref="A1:BL41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
@@ -4474,7 +4471,7 @@
       <c r="B13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="65"/>
@@ -4482,7 +4479,7 @@
       <c r="F13" s="65"/>
       <c r="G13" s="65"/>
       <c r="H13" s="66"/>
-      <c r="I13" s="74" t="s">
+      <c r="I13" s="78" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="65"/>
@@ -4490,7 +4487,7 @@
       <c r="L13" s="65"/>
       <c r="M13" s="65"/>
       <c r="N13" s="66"/>
-      <c r="O13" s="74" t="s">
+      <c r="O13" s="78" t="s">
         <v>24</v>
       </c>
       <c r="P13" s="65"/>
@@ -4498,13 +4495,13 @@
       <c r="R13" s="65"/>
       <c r="S13" s="65"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="74" t="s">
+      <c r="U13" s="78" t="s">
         <v>25</v>
       </c>
       <c r="V13" s="65"/>
       <c r="W13" s="65"/>
       <c r="X13" s="66"/>
-      <c r="Y13" s="74" t="s">
+      <c r="Y13" s="78" t="s">
         <v>26</v>
       </c>
       <c r="Z13" s="65"/>
@@ -4513,7 +4510,7 @@
       <c r="AC13" s="65"/>
       <c r="AD13" s="65"/>
       <c r="AE13" s="66"/>
-      <c r="AF13" s="74" t="s">
+      <c r="AF13" s="78" t="s">
         <v>27</v>
       </c>
       <c r="AG13" s="65"/>
@@ -4570,7 +4567,7 @@
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
       <c r="N14" s="26"/>
-      <c r="O14" s="78" t="s">
+      <c r="O14" s="79" t="s">
         <v>30</v>
       </c>
       <c r="P14" s="65"/>
@@ -4578,13 +4575,13 @@
       <c r="R14" s="65"/>
       <c r="S14" s="65"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="78">
+      <c r="U14" s="79">
         <v>6</v>
       </c>
       <c r="V14" s="65"/>
       <c r="W14" s="65"/>
       <c r="X14" s="66"/>
-      <c r="Y14" s="78" t="s">
+      <c r="Y14" s="79" t="s">
         <v>31</v>
       </c>
       <c r="Z14" s="65"/>
@@ -4593,7 +4590,7 @@
       <c r="AC14" s="65"/>
       <c r="AD14" s="65"/>
       <c r="AE14" s="66"/>
-      <c r="AF14" s="78" t="s">
+      <c r="AF14" s="79" t="s">
         <v>32</v>
       </c>
       <c r="AG14" s="65"/>
@@ -4846,7 +4843,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
       <c r="L18" s="33"/>
-      <c r="M18" s="74" t="s">
+      <c r="M18" s="78" t="s">
         <v>35</v>
       </c>
       <c r="N18" s="65"/>
@@ -4910,70 +4907,70 @@
       <c r="B19" s="36">
         <v>1</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="87" t="s">
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="82"/>
-      <c r="V19" s="82"/>
-      <c r="W19" s="82"/>
-      <c r="X19" s="82"/>
-      <c r="Y19" s="82"/>
-      <c r="Z19" s="82"/>
-      <c r="AA19" s="82"/>
-      <c r="AB19" s="82"/>
-      <c r="AC19" s="82"/>
-      <c r="AD19" s="82"/>
-      <c r="AE19" s="82"/>
-      <c r="AF19" s="82"/>
-      <c r="AG19" s="82"/>
-      <c r="AH19" s="82"/>
-      <c r="AI19" s="82"/>
-      <c r="AJ19" s="82"/>
-      <c r="AK19" s="82"/>
-      <c r="AL19" s="83"/>
-      <c r="AM19" s="90"/>
-      <c r="AN19" s="91"/>
-      <c r="AO19" s="91"/>
-      <c r="AP19" s="91"/>
-      <c r="AQ19" s="91"/>
-      <c r="AR19" s="91"/>
-      <c r="AS19" s="91"/>
-      <c r="AT19" s="92"/>
-      <c r="AU19" s="90"/>
-      <c r="AV19" s="91"/>
-      <c r="AW19" s="91"/>
-      <c r="AX19" s="91"/>
-      <c r="AY19" s="91"/>
-      <c r="AZ19" s="91"/>
-      <c r="BA19" s="91"/>
-      <c r="BB19" s="91"/>
-      <c r="BC19" s="91"/>
-      <c r="BD19" s="91"/>
-      <c r="BE19" s="91"/>
-      <c r="BF19" s="91"/>
-      <c r="BG19" s="91"/>
-      <c r="BH19" s="91"/>
-      <c r="BI19" s="91"/>
-      <c r="BJ19" s="92"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="81"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="81"/>
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="81"/>
+      <c r="AB19" s="81"/>
+      <c r="AC19" s="81"/>
+      <c r="AD19" s="81"/>
+      <c r="AE19" s="81"/>
+      <c r="AF19" s="81"/>
+      <c r="AG19" s="81"/>
+      <c r="AH19" s="81"/>
+      <c r="AI19" s="81"/>
+      <c r="AJ19" s="81"/>
+      <c r="AK19" s="81"/>
+      <c r="AL19" s="82"/>
+      <c r="AM19" s="73"/>
+      <c r="AN19" s="74"/>
+      <c r="AO19" s="74"/>
+      <c r="AP19" s="74"/>
+      <c r="AQ19" s="74"/>
+      <c r="AR19" s="74"/>
+      <c r="AS19" s="74"/>
+      <c r="AT19" s="75"/>
+      <c r="AU19" s="73"/>
+      <c r="AV19" s="74"/>
+      <c r="AW19" s="74"/>
+      <c r="AX19" s="74"/>
+      <c r="AY19" s="74"/>
+      <c r="AZ19" s="74"/>
+      <c r="BA19" s="74"/>
+      <c r="BB19" s="74"/>
+      <c r="BC19" s="74"/>
+      <c r="BD19" s="74"/>
+      <c r="BE19" s="74"/>
+      <c r="BF19" s="74"/>
+      <c r="BG19" s="74"/>
+      <c r="BH19" s="74"/>
+      <c r="BI19" s="74"/>
+      <c r="BJ19" s="75"/>
       <c r="BK19" s="18"/>
       <c r="BL19" s="19"/>
     </row>
@@ -4983,72 +4980,72 @@
         <f t="shared" ref="B20:B24" si="0">B19+1</f>
         <v>2</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="71" t="s">
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="82"/>
-      <c r="X20" s="82"/>
-      <c r="Y20" s="82"/>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="82"/>
-      <c r="AB20" s="82"/>
-      <c r="AC20" s="82"/>
-      <c r="AD20" s="82"/>
-      <c r="AE20" s="82"/>
-      <c r="AF20" s="82"/>
-      <c r="AG20" s="82"/>
-      <c r="AH20" s="82"/>
-      <c r="AI20" s="82"/>
-      <c r="AJ20" s="82"/>
-      <c r="AK20" s="82"/>
-      <c r="AL20" s="83"/>
-      <c r="AM20" s="93" t="s">
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="81"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="81"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="81"/>
+      <c r="AF20" s="81"/>
+      <c r="AG20" s="81"/>
+      <c r="AH20" s="81"/>
+      <c r="AI20" s="81"/>
+      <c r="AJ20" s="81"/>
+      <c r="AK20" s="81"/>
+      <c r="AL20" s="82"/>
+      <c r="AM20" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="AN20" s="91"/>
-      <c r="AO20" s="91"/>
-      <c r="AP20" s="91"/>
-      <c r="AQ20" s="91"/>
-      <c r="AR20" s="91"/>
-      <c r="AS20" s="91"/>
-      <c r="AT20" s="92"/>
-      <c r="AU20" s="90"/>
-      <c r="AV20" s="91"/>
-      <c r="AW20" s="91"/>
-      <c r="AX20" s="91"/>
-      <c r="AY20" s="91"/>
-      <c r="AZ20" s="91"/>
-      <c r="BA20" s="91"/>
-      <c r="BB20" s="91"/>
-      <c r="BC20" s="91"/>
-      <c r="BD20" s="91"/>
-      <c r="BE20" s="91"/>
-      <c r="BF20" s="91"/>
-      <c r="BG20" s="91"/>
-      <c r="BH20" s="91"/>
-      <c r="BI20" s="91"/>
-      <c r="BJ20" s="92"/>
+      <c r="AN20" s="74"/>
+      <c r="AO20" s="74"/>
+      <c r="AP20" s="74"/>
+      <c r="AQ20" s="74"/>
+      <c r="AR20" s="74"/>
+      <c r="AS20" s="74"/>
+      <c r="AT20" s="75"/>
+      <c r="AU20" s="73"/>
+      <c r="AV20" s="74"/>
+      <c r="AW20" s="74"/>
+      <c r="AX20" s="74"/>
+      <c r="AY20" s="74"/>
+      <c r="AZ20" s="74"/>
+      <c r="BA20" s="74"/>
+      <c r="BB20" s="74"/>
+      <c r="BC20" s="74"/>
+      <c r="BD20" s="74"/>
+      <c r="BE20" s="74"/>
+      <c r="BF20" s="74"/>
+      <c r="BG20" s="74"/>
+      <c r="BH20" s="74"/>
+      <c r="BI20" s="74"/>
+      <c r="BJ20" s="75"/>
       <c r="BK20" s="18"/>
       <c r="BL20" s="19"/>
     </row>
@@ -5058,70 +5055,70 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="71" t="s">
+      <c r="C21" s="88"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="82"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="82"/>
-      <c r="W21" s="82"/>
-      <c r="X21" s="82"/>
-      <c r="Y21" s="82"/>
-      <c r="Z21" s="82"/>
-      <c r="AA21" s="82"/>
-      <c r="AB21" s="82"/>
-      <c r="AC21" s="82"/>
-      <c r="AD21" s="82"/>
-      <c r="AE21" s="82"/>
-      <c r="AF21" s="82"/>
-      <c r="AG21" s="82"/>
-      <c r="AH21" s="82"/>
-      <c r="AI21" s="82"/>
-      <c r="AJ21" s="82"/>
-      <c r="AK21" s="82"/>
-      <c r="AL21" s="83"/>
-      <c r="AM21" s="93" t="s">
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="81"/>
+      <c r="U21" s="81"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="81"/>
+      <c r="X21" s="81"/>
+      <c r="Y21" s="81"/>
+      <c r="Z21" s="81"/>
+      <c r="AA21" s="81"/>
+      <c r="AB21" s="81"/>
+      <c r="AC21" s="81"/>
+      <c r="AD21" s="81"/>
+      <c r="AE21" s="81"/>
+      <c r="AF21" s="81"/>
+      <c r="AG21" s="81"/>
+      <c r="AH21" s="81"/>
+      <c r="AI21" s="81"/>
+      <c r="AJ21" s="81"/>
+      <c r="AK21" s="81"/>
+      <c r="AL21" s="82"/>
+      <c r="AM21" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="AN21" s="91"/>
-      <c r="AO21" s="91"/>
-      <c r="AP21" s="91"/>
-      <c r="AQ21" s="91"/>
-      <c r="AR21" s="91"/>
-      <c r="AS21" s="91"/>
-      <c r="AT21" s="92"/>
-      <c r="AU21" s="90"/>
-      <c r="AV21" s="91"/>
-      <c r="AW21" s="91"/>
-      <c r="AX21" s="91"/>
-      <c r="AY21" s="91"/>
-      <c r="AZ21" s="91"/>
-      <c r="BA21" s="91"/>
-      <c r="BB21" s="91"/>
-      <c r="BC21" s="91"/>
-      <c r="BD21" s="91"/>
-      <c r="BE21" s="91"/>
-      <c r="BF21" s="91"/>
-      <c r="BG21" s="91"/>
-      <c r="BH21" s="91"/>
-      <c r="BI21" s="91"/>
-      <c r="BJ21" s="92"/>
+      <c r="AN21" s="74"/>
+      <c r="AO21" s="74"/>
+      <c r="AP21" s="74"/>
+      <c r="AQ21" s="74"/>
+      <c r="AR21" s="74"/>
+      <c r="AS21" s="74"/>
+      <c r="AT21" s="75"/>
+      <c r="AU21" s="73"/>
+      <c r="AV21" s="74"/>
+      <c r="AW21" s="74"/>
+      <c r="AX21" s="74"/>
+      <c r="AY21" s="74"/>
+      <c r="AZ21" s="74"/>
+      <c r="BA21" s="74"/>
+      <c r="BB21" s="74"/>
+      <c r="BC21" s="74"/>
+      <c r="BD21" s="74"/>
+      <c r="BE21" s="74"/>
+      <c r="BF21" s="74"/>
+      <c r="BG21" s="74"/>
+      <c r="BH21" s="74"/>
+      <c r="BI21" s="74"/>
+      <c r="BJ21" s="75"/>
       <c r="BK21" s="18"/>
       <c r="BL21" s="19"/>
     </row>
@@ -5143,58 +5140,58 @@
       <c r="J22" s="40"/>
       <c r="K22" s="40"/>
       <c r="L22" s="41"/>
-      <c r="M22" s="81" t="s">
+      <c r="M22" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="84"/>
-      <c r="X22" s="84"/>
-      <c r="Y22" s="84"/>
-      <c r="Z22" s="84"/>
-      <c r="AA22" s="84"/>
-      <c r="AB22" s="84"/>
-      <c r="AC22" s="84"/>
-      <c r="AD22" s="84"/>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="84"/>
-      <c r="AG22" s="84"/>
-      <c r="AH22" s="84"/>
-      <c r="AI22" s="84"/>
-      <c r="AJ22" s="84"/>
-      <c r="AK22" s="84"/>
-      <c r="AL22" s="85"/>
-      <c r="AM22" s="90"/>
-      <c r="AN22" s="91"/>
-      <c r="AO22" s="91"/>
-      <c r="AP22" s="91"/>
-      <c r="AQ22" s="91"/>
-      <c r="AR22" s="91"/>
-      <c r="AS22" s="91"/>
-      <c r="AT22" s="92"/>
-      <c r="AU22" s="90"/>
-      <c r="AV22" s="91"/>
-      <c r="AW22" s="91"/>
-      <c r="AX22" s="91"/>
-      <c r="AY22" s="91"/>
-      <c r="AZ22" s="91"/>
-      <c r="BA22" s="91"/>
-      <c r="BB22" s="91"/>
-      <c r="BC22" s="91"/>
-      <c r="BD22" s="91"/>
-      <c r="BE22" s="91"/>
-      <c r="BF22" s="91"/>
-      <c r="BG22" s="91"/>
-      <c r="BH22" s="91"/>
-      <c r="BI22" s="91"/>
-      <c r="BJ22" s="92"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="71"/>
+      <c r="AE22" s="71"/>
+      <c r="AF22" s="71"/>
+      <c r="AG22" s="71"/>
+      <c r="AH22" s="71"/>
+      <c r="AI22" s="71"/>
+      <c r="AJ22" s="71"/>
+      <c r="AK22" s="71"/>
+      <c r="AL22" s="72"/>
+      <c r="AM22" s="73"/>
+      <c r="AN22" s="74"/>
+      <c r="AO22" s="74"/>
+      <c r="AP22" s="74"/>
+      <c r="AQ22" s="74"/>
+      <c r="AR22" s="74"/>
+      <c r="AS22" s="74"/>
+      <c r="AT22" s="75"/>
+      <c r="AU22" s="73"/>
+      <c r="AV22" s="74"/>
+      <c r="AW22" s="74"/>
+      <c r="AX22" s="74"/>
+      <c r="AY22" s="74"/>
+      <c r="AZ22" s="74"/>
+      <c r="BA22" s="74"/>
+      <c r="BB22" s="74"/>
+      <c r="BC22" s="74"/>
+      <c r="BD22" s="74"/>
+      <c r="BE22" s="74"/>
+      <c r="BF22" s="74"/>
+      <c r="BG22" s="74"/>
+      <c r="BH22" s="74"/>
+      <c r="BI22" s="74"/>
+      <c r="BJ22" s="75"/>
       <c r="BK22" s="18"/>
       <c r="BL22" s="19"/>
     </row>
@@ -5216,58 +5213,58 @@
       <c r="J23" s="43"/>
       <c r="K23" s="43"/>
       <c r="L23" s="44"/>
-      <c r="M23" s="86" t="s">
+      <c r="M23" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="84"/>
-      <c r="V23" s="84"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="84"/>
-      <c r="Y23" s="84"/>
-      <c r="Z23" s="84"/>
-      <c r="AA23" s="84"/>
-      <c r="AB23" s="84"/>
-      <c r="AC23" s="84"/>
-      <c r="AD23" s="84"/>
-      <c r="AE23" s="84"/>
-      <c r="AF23" s="84"/>
-      <c r="AG23" s="84"/>
-      <c r="AH23" s="84"/>
-      <c r="AI23" s="84"/>
-      <c r="AJ23" s="84"/>
-      <c r="AK23" s="84"/>
-      <c r="AL23" s="85"/>
-      <c r="AM23" s="90"/>
-      <c r="AN23" s="91"/>
-      <c r="AO23" s="91"/>
-      <c r="AP23" s="91"/>
-      <c r="AQ23" s="91"/>
-      <c r="AR23" s="91"/>
-      <c r="AS23" s="91"/>
-      <c r="AT23" s="92"/>
-      <c r="AU23" s="90"/>
-      <c r="AV23" s="91"/>
-      <c r="AW23" s="91"/>
-      <c r="AX23" s="91"/>
-      <c r="AY23" s="91"/>
-      <c r="AZ23" s="91"/>
-      <c r="BA23" s="91"/>
-      <c r="BB23" s="91"/>
-      <c r="BC23" s="91"/>
-      <c r="BD23" s="91"/>
-      <c r="BE23" s="91"/>
-      <c r="BF23" s="91"/>
-      <c r="BG23" s="91"/>
-      <c r="BH23" s="91"/>
-      <c r="BI23" s="91"/>
-      <c r="BJ23" s="92"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="71"/>
+      <c r="AE23" s="71"/>
+      <c r="AF23" s="71"/>
+      <c r="AG23" s="71"/>
+      <c r="AH23" s="71"/>
+      <c r="AI23" s="71"/>
+      <c r="AJ23" s="71"/>
+      <c r="AK23" s="71"/>
+      <c r="AL23" s="72"/>
+      <c r="AM23" s="73"/>
+      <c r="AN23" s="74"/>
+      <c r="AO23" s="74"/>
+      <c r="AP23" s="74"/>
+      <c r="AQ23" s="74"/>
+      <c r="AR23" s="74"/>
+      <c r="AS23" s="74"/>
+      <c r="AT23" s="75"/>
+      <c r="AU23" s="73"/>
+      <c r="AV23" s="74"/>
+      <c r="AW23" s="74"/>
+      <c r="AX23" s="74"/>
+      <c r="AY23" s="74"/>
+      <c r="AZ23" s="74"/>
+      <c r="BA23" s="74"/>
+      <c r="BB23" s="74"/>
+      <c r="BC23" s="74"/>
+      <c r="BD23" s="74"/>
+      <c r="BE23" s="74"/>
+      <c r="BF23" s="74"/>
+      <c r="BG23" s="74"/>
+      <c r="BH23" s="74"/>
+      <c r="BI23" s="74"/>
+      <c r="BJ23" s="75"/>
       <c r="BK23" s="18"/>
       <c r="BL23" s="19"/>
     </row>
@@ -5289,58 +5286,58 @@
       <c r="J24" s="43"/>
       <c r="K24" s="43"/>
       <c r="L24" s="44"/>
-      <c r="M24" s="86" t="s">
+      <c r="M24" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="84"/>
-      <c r="U24" s="84"/>
-      <c r="V24" s="84"/>
-      <c r="W24" s="84"/>
-      <c r="X24" s="84"/>
-      <c r="Y24" s="84"/>
-      <c r="Z24" s="84"/>
-      <c r="AA24" s="84"/>
-      <c r="AB24" s="84"/>
-      <c r="AC24" s="84"/>
-      <c r="AD24" s="84"/>
-      <c r="AE24" s="84"/>
-      <c r="AF24" s="84"/>
-      <c r="AG24" s="84"/>
-      <c r="AH24" s="84"/>
-      <c r="AI24" s="84"/>
-      <c r="AJ24" s="84"/>
-      <c r="AK24" s="84"/>
-      <c r="AL24" s="85"/>
-      <c r="AM24" s="90"/>
-      <c r="AN24" s="91"/>
-      <c r="AO24" s="91"/>
-      <c r="AP24" s="91"/>
-      <c r="AQ24" s="91"/>
-      <c r="AR24" s="91"/>
-      <c r="AS24" s="91"/>
-      <c r="AT24" s="92"/>
-      <c r="AU24" s="90"/>
-      <c r="AV24" s="91"/>
-      <c r="AW24" s="91"/>
-      <c r="AX24" s="91"/>
-      <c r="AY24" s="91"/>
-      <c r="AZ24" s="91"/>
-      <c r="BA24" s="91"/>
-      <c r="BB24" s="91"/>
-      <c r="BC24" s="91"/>
-      <c r="BD24" s="91"/>
-      <c r="BE24" s="91"/>
-      <c r="BF24" s="91"/>
-      <c r="BG24" s="91"/>
-      <c r="BH24" s="91"/>
-      <c r="BI24" s="91"/>
-      <c r="BJ24" s="92"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="71"/>
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="71"/>
+      <c r="AE24" s="71"/>
+      <c r="AF24" s="71"/>
+      <c r="AG24" s="71"/>
+      <c r="AH24" s="71"/>
+      <c r="AI24" s="71"/>
+      <c r="AJ24" s="71"/>
+      <c r="AK24" s="71"/>
+      <c r="AL24" s="72"/>
+      <c r="AM24" s="73"/>
+      <c r="AN24" s="74"/>
+      <c r="AO24" s="74"/>
+      <c r="AP24" s="74"/>
+      <c r="AQ24" s="74"/>
+      <c r="AR24" s="74"/>
+      <c r="AS24" s="74"/>
+      <c r="AT24" s="75"/>
+      <c r="AU24" s="73"/>
+      <c r="AV24" s="74"/>
+      <c r="AW24" s="74"/>
+      <c r="AX24" s="74"/>
+      <c r="AY24" s="74"/>
+      <c r="AZ24" s="74"/>
+      <c r="BA24" s="74"/>
+      <c r="BB24" s="74"/>
+      <c r="BC24" s="74"/>
+      <c r="BD24" s="74"/>
+      <c r="BE24" s="74"/>
+      <c r="BF24" s="74"/>
+      <c r="BG24" s="74"/>
+      <c r="BH24" s="74"/>
+      <c r="BI24" s="74"/>
+      <c r="BJ24" s="75"/>
       <c r="BK24" s="18"/>
       <c r="BL24" s="19"/>
     </row>
@@ -6492,6 +6489,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="AU21:BJ21"/>
+    <mergeCell ref="AM22:AT22"/>
+    <mergeCell ref="AM20:AT20"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="AM21:AT21"/>
+    <mergeCell ref="M21:AL21"/>
+    <mergeCell ref="M22:AL22"/>
+    <mergeCell ref="AU22:BJ22"/>
+    <mergeCell ref="AU19:BJ19"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="AU20:BJ20"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="M23:AL23"/>
+    <mergeCell ref="Y13:AE13"/>
+    <mergeCell ref="Y14:AE14"/>
+    <mergeCell ref="AF13:BD13"/>
+    <mergeCell ref="AF14:BD14"/>
+    <mergeCell ref="M20:AL20"/>
+    <mergeCell ref="M18:AL18"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="M19:AL19"/>
+    <mergeCell ref="AM19:AT19"/>
+    <mergeCell ref="AM23:AT23"/>
+    <mergeCell ref="AU23:BJ23"/>
     <mergeCell ref="M24:AL24"/>
     <mergeCell ref="AM24:AT24"/>
     <mergeCell ref="AU24:BJ24"/>
@@ -6508,30 +6529,6 @@
     <mergeCell ref="O14:T14"/>
     <mergeCell ref="U14:X14"/>
     <mergeCell ref="U13:X13"/>
-    <mergeCell ref="AU19:BJ19"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="AU20:BJ20"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="M23:AL23"/>
-    <mergeCell ref="Y13:AE13"/>
-    <mergeCell ref="Y14:AE14"/>
-    <mergeCell ref="AF13:BD13"/>
-    <mergeCell ref="AF14:BD14"/>
-    <mergeCell ref="M20:AL20"/>
-    <mergeCell ref="M18:AL18"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="M19:AL19"/>
-    <mergeCell ref="AM19:AT19"/>
-    <mergeCell ref="AM23:AT23"/>
-    <mergeCell ref="AU23:BJ23"/>
-    <mergeCell ref="AU21:BJ21"/>
-    <mergeCell ref="AM22:AT22"/>
-    <mergeCell ref="AM20:AT20"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="AM21:AT21"/>
-    <mergeCell ref="M21:AL21"/>
-    <mergeCell ref="M22:AL22"/>
-    <mergeCell ref="AU22:BJ22"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6570,9 +6567,7 @@
   </sheetPr>
   <dimension ref="A1:BK24"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AI21" sqref="AI21:BJ21"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -6646,7 +6641,7 @@
       <c r="BJ1" s="10"/>
       <c r="BK1" s="10"/>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:63" ht="16.5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6711,7 +6706,7 @@
       <c r="BJ2" s="3"/>
       <c r="BK2" s="3"/>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:63" ht="16.5">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6843,7 +6838,7 @@
       <c r="BJ4" s="10"/>
       <c r="BK4" s="10"/>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:63" ht="16.5">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6908,7 +6903,7 @@
       <c r="BJ5" s="3"/>
       <c r="BK5" s="3"/>
     </row>
-    <row r="6" spans="1:63" outlineLevel="1">
+    <row r="6" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A6" s="3"/>
       <c r="B6" s="51" t="s">
         <v>59</v>
@@ -6975,7 +6970,7 @@
       <c r="BJ6" s="3"/>
       <c r="BK6" s="3"/>
     </row>
-    <row r="7" spans="1:63" outlineLevel="1">
+    <row r="7" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="17" t="s">
@@ -7044,7 +7039,7 @@
       <c r="BJ7" s="66"/>
       <c r="BK7" s="3"/>
     </row>
-    <row r="8" spans="1:63" outlineLevel="1">
+    <row r="8" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="17" t="s">
@@ -7113,7 +7108,7 @@
       <c r="BJ8" s="66"/>
       <c r="BK8" s="3"/>
     </row>
-    <row r="9" spans="1:63" outlineLevel="1">
+    <row r="9" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="17" t="s">
@@ -7182,7 +7177,7 @@
       <c r="BJ9" s="66"/>
       <c r="BK9" s="3"/>
     </row>
-    <row r="10" spans="1:63" outlineLevel="1">
+    <row r="10" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -7247,7 +7242,7 @@
       <c r="BJ10" s="3"/>
       <c r="BK10" s="3"/>
     </row>
-    <row r="11" spans="1:63" outlineLevel="1">
+    <row r="11" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A11" s="3"/>
       <c r="B11" s="51" t="s">
         <v>65</v>
@@ -7314,7 +7309,7 @@
       <c r="BJ11" s="3"/>
       <c r="BK11" s="3"/>
     </row>
-    <row r="12" spans="1:63" outlineLevel="1">
+    <row r="12" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="11" t="s">
@@ -7381,11 +7376,11 @@
       <c r="BJ12" s="55"/>
       <c r="BK12" s="3"/>
     </row>
-    <row r="13" spans="1:63" outlineLevel="1">
+    <row r="13" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="56"/>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="92" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="65"/>
@@ -7406,7 +7401,7 @@
       <c r="T13" s="65"/>
       <c r="U13" s="65"/>
       <c r="V13" s="66"/>
-      <c r="W13" s="79" t="s">
+      <c r="W13" s="92" t="s">
         <v>24</v>
       </c>
       <c r="X13" s="65"/>
@@ -7414,7 +7409,7 @@
       <c r="Z13" s="65"/>
       <c r="AA13" s="65"/>
       <c r="AB13" s="66"/>
-      <c r="AC13" s="79" t="s">
+      <c r="AC13" s="92" t="s">
         <v>26</v>
       </c>
       <c r="AD13" s="65"/>
@@ -7422,43 +7417,43 @@
       <c r="AF13" s="65"/>
       <c r="AG13" s="65"/>
       <c r="AH13" s="66"/>
-      <c r="AI13" s="80" t="s">
+      <c r="AI13" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="72"/>
-      <c r="AL13" s="72"/>
-      <c r="AM13" s="72"/>
-      <c r="AN13" s="72"/>
-      <c r="AO13" s="72"/>
-      <c r="AP13" s="72"/>
-      <c r="AQ13" s="72"/>
-      <c r="AR13" s="72"/>
-      <c r="AS13" s="72"/>
-      <c r="AT13" s="72"/>
-      <c r="AU13" s="72"/>
-      <c r="AV13" s="72"/>
-      <c r="AW13" s="72"/>
-      <c r="AX13" s="72"/>
-      <c r="AY13" s="72"/>
-      <c r="AZ13" s="72"/>
-      <c r="BA13" s="72"/>
-      <c r="BB13" s="72"/>
-      <c r="BC13" s="72"/>
-      <c r="BD13" s="72"/>
-      <c r="BE13" s="72"/>
-      <c r="BF13" s="72"/>
-      <c r="BG13" s="72"/>
-      <c r="BH13" s="72"/>
-      <c r="BI13" s="72"/>
-      <c r="BJ13" s="73"/>
+      <c r="AJ13" s="90"/>
+      <c r="AK13" s="90"/>
+      <c r="AL13" s="90"/>
+      <c r="AM13" s="90"/>
+      <c r="AN13" s="90"/>
+      <c r="AO13" s="90"/>
+      <c r="AP13" s="90"/>
+      <c r="AQ13" s="90"/>
+      <c r="AR13" s="90"/>
+      <c r="AS13" s="90"/>
+      <c r="AT13" s="90"/>
+      <c r="AU13" s="90"/>
+      <c r="AV13" s="90"/>
+      <c r="AW13" s="90"/>
+      <c r="AX13" s="90"/>
+      <c r="AY13" s="90"/>
+      <c r="AZ13" s="90"/>
+      <c r="BA13" s="90"/>
+      <c r="BB13" s="90"/>
+      <c r="BC13" s="90"/>
+      <c r="BD13" s="90"/>
+      <c r="BE13" s="90"/>
+      <c r="BF13" s="90"/>
+      <c r="BG13" s="90"/>
+      <c r="BH13" s="90"/>
+      <c r="BI13" s="90"/>
+      <c r="BJ13" s="91"/>
       <c r="BK13" s="3"/>
     </row>
-    <row r="14" spans="1:63" outlineLevel="1">
+    <row r="14" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="56"/>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="89" t="s">
         <v>68</v>
       </c>
       <c r="E14" s="65"/>
@@ -7479,7 +7474,7 @@
       <c r="T14" s="65"/>
       <c r="U14" s="65"/>
       <c r="V14" s="66"/>
-      <c r="W14" s="81" t="s">
+      <c r="W14" s="89" t="s">
         <v>30</v>
       </c>
       <c r="X14" s="65"/>
@@ -7487,7 +7482,7 @@
       <c r="Z14" s="65"/>
       <c r="AA14" s="65"/>
       <c r="AB14" s="66"/>
-      <c r="AC14" s="81" t="s">
+      <c r="AC14" s="89" t="s">
         <v>69</v>
       </c>
       <c r="AD14" s="65"/>
@@ -7495,7 +7490,7 @@
       <c r="AF14" s="65"/>
       <c r="AG14" s="65"/>
       <c r="AH14" s="66"/>
-      <c r="AI14" s="81" t="s">
+      <c r="AI14" s="89" t="s">
         <v>70</v>
       </c>
       <c r="AJ14" s="65"/>
@@ -7527,32 +7522,32 @@
       <c r="BJ14" s="66"/>
       <c r="BK14" s="3"/>
     </row>
-    <row r="15" spans="1:63" outlineLevel="1">
+    <row r="15" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="56"/>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="81" t="s">
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="91"/>
+      <c r="W15" s="89" t="s">
         <v>72</v>
       </c>
       <c r="X15" s="65"/>
@@ -7560,7 +7555,7 @@
       <c r="Z15" s="65"/>
       <c r="AA15" s="65"/>
       <c r="AB15" s="66"/>
-      <c r="AC15" s="81" t="s">
+      <c r="AC15" s="89" t="s">
         <v>69</v>
       </c>
       <c r="AD15" s="65"/>
@@ -7568,7 +7563,7 @@
       <c r="AF15" s="65"/>
       <c r="AG15" s="65"/>
       <c r="AH15" s="66"/>
-      <c r="AI15" s="81" t="s">
+      <c r="AI15" s="89" t="s">
         <v>73</v>
       </c>
       <c r="AJ15" s="65"/>
@@ -7600,32 +7595,32 @@
       <c r="BJ15" s="66"/>
       <c r="BK15" s="3"/>
     </row>
-    <row r="16" spans="1:63" outlineLevel="1">
+    <row r="16" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="56"/>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="81" t="s">
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="89" t="s">
         <v>72</v>
       </c>
       <c r="X16" s="65"/>
@@ -7633,7 +7628,7 @@
       <c r="Z16" s="65"/>
       <c r="AA16" s="65"/>
       <c r="AB16" s="66"/>
-      <c r="AC16" s="81" t="s">
+      <c r="AC16" s="89" t="s">
         <v>69</v>
       </c>
       <c r="AD16" s="65"/>
@@ -7641,7 +7636,7 @@
       <c r="AF16" s="65"/>
       <c r="AG16" s="65"/>
       <c r="AH16" s="66"/>
-      <c r="AI16" s="81" t="s">
+      <c r="AI16" s="89" t="s">
         <v>75</v>
       </c>
       <c r="AJ16" s="65"/>
@@ -7673,32 +7668,32 @@
       <c r="BJ16" s="66"/>
       <c r="BK16" s="3"/>
     </row>
-    <row r="17" spans="1:63" outlineLevel="1">
+    <row r="17" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="56"/>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="81" t="s">
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="91"/>
+      <c r="W17" s="89" t="s">
         <v>72</v>
       </c>
       <c r="X17" s="65"/>
@@ -7706,7 +7701,7 @@
       <c r="Z17" s="65"/>
       <c r="AA17" s="65"/>
       <c r="AB17" s="66"/>
-      <c r="AC17" s="81" t="s">
+      <c r="AC17" s="89" t="s">
         <v>69</v>
       </c>
       <c r="AD17" s="65"/>
@@ -7714,7 +7709,7 @@
       <c r="AF17" s="65"/>
       <c r="AG17" s="65"/>
       <c r="AH17" s="66"/>
-      <c r="AI17" s="81" t="s">
+      <c r="AI17" s="89" t="s">
         <v>77</v>
       </c>
       <c r="AJ17" s="65"/>
@@ -7746,32 +7741,32 @@
       <c r="BJ17" s="66"/>
       <c r="BK17" s="3"/>
     </row>
-    <row r="18" spans="1:63" outlineLevel="1">
+    <row r="18" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="56"/>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="81" t="s">
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="91"/>
+      <c r="W18" s="89" t="s">
         <v>72</v>
       </c>
       <c r="X18" s="65"/>
@@ -7779,7 +7774,7 @@
       <c r="Z18" s="65"/>
       <c r="AA18" s="65"/>
       <c r="AB18" s="66"/>
-      <c r="AC18" s="81" t="s">
+      <c r="AC18" s="89" t="s">
         <v>69</v>
       </c>
       <c r="AD18" s="65"/>
@@ -7787,7 +7782,7 @@
       <c r="AF18" s="65"/>
       <c r="AG18" s="65"/>
       <c r="AH18" s="66"/>
-      <c r="AI18" s="81" t="s">
+      <c r="AI18" s="89" t="s">
         <v>79</v>
       </c>
       <c r="AJ18" s="65"/>
@@ -7819,11 +7814,11 @@
       <c r="BJ18" s="66"/>
       <c r="BK18" s="3"/>
     </row>
-    <row r="19" spans="1:63" outlineLevel="1">
+    <row r="19" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="56"/>
-      <c r="D19" s="81" t="s">
+      <c r="D19" s="89" t="s">
         <v>80</v>
       </c>
       <c r="E19" s="65"/>
@@ -7844,7 +7839,7 @@
       <c r="T19" s="65"/>
       <c r="U19" s="65"/>
       <c r="V19" s="66"/>
-      <c r="W19" s="81" t="s">
+      <c r="W19" s="89" t="s">
         <v>30</v>
       </c>
       <c r="X19" s="65"/>
@@ -7852,7 +7847,7 @@
       <c r="Z19" s="65"/>
       <c r="AA19" s="65"/>
       <c r="AB19" s="66"/>
-      <c r="AC19" s="81" t="s">
+      <c r="AC19" s="89" t="s">
         <v>69</v>
       </c>
       <c r="AD19" s="65"/>
@@ -7860,7 +7855,7 @@
       <c r="AF19" s="65"/>
       <c r="AG19" s="65"/>
       <c r="AH19" s="66"/>
-      <c r="AI19" s="81" t="s">
+      <c r="AI19" s="89" t="s">
         <v>81</v>
       </c>
       <c r="AJ19" s="65"/>
@@ -7892,11 +7887,11 @@
       <c r="BJ19" s="66"/>
       <c r="BK19" s="3"/>
     </row>
-    <row r="20" spans="1:63" outlineLevel="1">
+    <row r="20" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A20" s="5"/>
       <c r="B20" s="27"/>
       <c r="C20" s="57"/>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="89" t="s">
         <v>82</v>
       </c>
       <c r="E20" s="65"/>
@@ -7917,7 +7912,7 @@
       <c r="T20" s="65"/>
       <c r="U20" s="65"/>
       <c r="V20" s="66"/>
-      <c r="W20" s="81" t="s">
+      <c r="W20" s="89" t="s">
         <v>83</v>
       </c>
       <c r="X20" s="65"/>
@@ -7925,7 +7920,7 @@
       <c r="Z20" s="65"/>
       <c r="AA20" s="65"/>
       <c r="AB20" s="66"/>
-      <c r="AC20" s="81" t="s">
+      <c r="AC20" s="89" t="s">
         <v>69</v>
       </c>
       <c r="AD20" s="65"/>
@@ -7933,7 +7928,7 @@
       <c r="AF20" s="65"/>
       <c r="AG20" s="65"/>
       <c r="AH20" s="66"/>
-      <c r="AI20" s="81" t="s">
+      <c r="AI20" s="89" t="s">
         <v>84</v>
       </c>
       <c r="AJ20" s="65"/>
@@ -7965,11 +7960,11 @@
       <c r="BJ20" s="66"/>
       <c r="BK20" s="5"/>
     </row>
-    <row r="21" spans="1:63" outlineLevel="1">
+    <row r="21" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A21" s="5"/>
       <c r="B21" s="27"/>
       <c r="C21" s="57"/>
-      <c r="D21" s="81" t="s">
+      <c r="D21" s="89" t="s">
         <v>85</v>
       </c>
       <c r="E21" s="65"/>
@@ -7990,7 +7985,7 @@
       <c r="T21" s="65"/>
       <c r="U21" s="65"/>
       <c r="V21" s="66"/>
-      <c r="W21" s="81" t="s">
+      <c r="W21" s="89" t="s">
         <v>30</v>
       </c>
       <c r="X21" s="65"/>
@@ -7998,7 +7993,7 @@
       <c r="Z21" s="65"/>
       <c r="AA21" s="65"/>
       <c r="AB21" s="66"/>
-      <c r="AC21" s="81" t="s">
+      <c r="AC21" s="89" t="s">
         <v>69</v>
       </c>
       <c r="AD21" s="65"/>
@@ -8006,7 +8001,7 @@
       <c r="AF21" s="65"/>
       <c r="AG21" s="65"/>
       <c r="AH21" s="66"/>
-      <c r="AI21" s="81" t="s">
+      <c r="AI21" s="89" t="s">
         <v>86</v>
       </c>
       <c r="AJ21" s="65"/>
@@ -8038,11 +8033,11 @@
       <c r="BJ21" s="66"/>
       <c r="BK21" s="5"/>
     </row>
-    <row r="22" spans="1:63" outlineLevel="1">
+    <row r="22" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A22" s="5"/>
       <c r="B22" s="27"/>
       <c r="C22" s="57"/>
-      <c r="D22" s="81" t="s">
+      <c r="D22" s="89" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="65"/>
@@ -8063,7 +8058,7 @@
       <c r="T22" s="65"/>
       <c r="U22" s="65"/>
       <c r="V22" s="66"/>
-      <c r="W22" s="81" t="s">
+      <c r="W22" s="89" t="s">
         <v>83</v>
       </c>
       <c r="X22" s="65"/>
@@ -8071,7 +8066,7 @@
       <c r="Z22" s="65"/>
       <c r="AA22" s="65"/>
       <c r="AB22" s="66"/>
-      <c r="AC22" s="81" t="s">
+      <c r="AC22" s="89" t="s">
         <v>69</v>
       </c>
       <c r="AD22" s="65"/>
@@ -8079,7 +8074,7 @@
       <c r="AF22" s="65"/>
       <c r="AG22" s="65"/>
       <c r="AH22" s="66"/>
-      <c r="AI22" s="81" t="s">
+      <c r="AI22" s="89" t="s">
         <v>87</v>
       </c>
       <c r="AJ22" s="65"/>
@@ -8111,11 +8106,11 @@
       <c r="BJ22" s="66"/>
       <c r="BK22" s="5"/>
     </row>
-    <row r="23" spans="1:63" outlineLevel="1">
+    <row r="23" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="58"/>
-      <c r="D23" s="81" t="s">
+      <c r="D23" s="89" t="s">
         <v>88</v>
       </c>
       <c r="E23" s="65"/>
@@ -8136,7 +8131,7 @@
       <c r="T23" s="65"/>
       <c r="U23" s="65"/>
       <c r="V23" s="66"/>
-      <c r="W23" s="81" t="s">
+      <c r="W23" s="89" t="s">
         <v>83</v>
       </c>
       <c r="X23" s="65"/>
@@ -8144,7 +8139,7 @@
       <c r="Z23" s="65"/>
       <c r="AA23" s="65"/>
       <c r="AB23" s="66"/>
-      <c r="AC23" s="81" t="s">
+      <c r="AC23" s="89" t="s">
         <v>69</v>
       </c>
       <c r="AD23" s="65"/>
@@ -8152,7 +8147,7 @@
       <c r="AF23" s="65"/>
       <c r="AG23" s="65"/>
       <c r="AH23" s="66"/>
-      <c r="AI23" s="81" t="s">
+      <c r="AI23" s="89" t="s">
         <v>89</v>
       </c>
       <c r="AJ23" s="65"/>
@@ -8184,7 +8179,7 @@
       <c r="BJ23" s="66"/>
       <c r="BK23" s="3"/>
     </row>
-    <row r="24" spans="1:63">
+    <row r="24" spans="1:63" ht="16.5">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -8251,6 +8246,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="D13:V13"/>
+    <mergeCell ref="W13:AB13"/>
+    <mergeCell ref="AC13:AH13"/>
+    <mergeCell ref="AI13:BJ13"/>
+    <mergeCell ref="W14:AB14"/>
+    <mergeCell ref="AC14:AH14"/>
+    <mergeCell ref="AI14:BJ14"/>
+    <mergeCell ref="D14:V14"/>
+    <mergeCell ref="D15:V15"/>
+    <mergeCell ref="W15:AB15"/>
+    <mergeCell ref="AC15:AH15"/>
+    <mergeCell ref="AI15:BJ15"/>
+    <mergeCell ref="D16:V16"/>
+    <mergeCell ref="W16:AB16"/>
+    <mergeCell ref="AC16:AH16"/>
+    <mergeCell ref="AI16:BJ16"/>
+    <mergeCell ref="D17:V17"/>
+    <mergeCell ref="W17:AB17"/>
+    <mergeCell ref="AC17:AH17"/>
+    <mergeCell ref="AI17:BJ17"/>
+    <mergeCell ref="D18:V18"/>
+    <mergeCell ref="AI18:BJ18"/>
+    <mergeCell ref="AC21:AH21"/>
+    <mergeCell ref="W19:AB19"/>
+    <mergeCell ref="W22:AB22"/>
+    <mergeCell ref="AC22:AH22"/>
+    <mergeCell ref="D19:V19"/>
+    <mergeCell ref="D20:V20"/>
+    <mergeCell ref="W20:AB20"/>
+    <mergeCell ref="AC20:AH20"/>
+    <mergeCell ref="D21:V21"/>
     <mergeCell ref="K7:BJ7"/>
     <mergeCell ref="K8:BJ8"/>
     <mergeCell ref="K9:BJ9"/>
@@ -8267,37 +8293,6 @@
     <mergeCell ref="AI21:BJ21"/>
     <mergeCell ref="D22:V22"/>
     <mergeCell ref="W21:AB21"/>
-    <mergeCell ref="AC21:AH21"/>
-    <mergeCell ref="W19:AB19"/>
-    <mergeCell ref="W22:AB22"/>
-    <mergeCell ref="AC22:AH22"/>
-    <mergeCell ref="D19:V19"/>
-    <mergeCell ref="D20:V20"/>
-    <mergeCell ref="W20:AB20"/>
-    <mergeCell ref="AC20:AH20"/>
-    <mergeCell ref="D21:V21"/>
-    <mergeCell ref="D17:V17"/>
-    <mergeCell ref="W17:AB17"/>
-    <mergeCell ref="AC17:AH17"/>
-    <mergeCell ref="AI17:BJ17"/>
-    <mergeCell ref="D18:V18"/>
-    <mergeCell ref="AI18:BJ18"/>
-    <mergeCell ref="D15:V15"/>
-    <mergeCell ref="W15:AB15"/>
-    <mergeCell ref="AC15:AH15"/>
-    <mergeCell ref="AI15:BJ15"/>
-    <mergeCell ref="D16:V16"/>
-    <mergeCell ref="W16:AB16"/>
-    <mergeCell ref="AC16:AH16"/>
-    <mergeCell ref="AI16:BJ16"/>
-    <mergeCell ref="D13:V13"/>
-    <mergeCell ref="W13:AB13"/>
-    <mergeCell ref="AC13:AH13"/>
-    <mergeCell ref="AI13:BJ13"/>
-    <mergeCell ref="W14:AB14"/>
-    <mergeCell ref="AC14:AH14"/>
-    <mergeCell ref="AI14:BJ14"/>
-    <mergeCell ref="D14:V14"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ha-asset/01_design/03_batch/設計書_3.2.月次健康情報集計バッチ.xlsx
+++ b/ha-asset/01_design/03_batch/設計書_3.2.月次健康情報集計バッチ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\03_batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D12146-D607-406E-9386-E1B3DF6FEC68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47435EC-A574-4EA9-8342-AA56011D79E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="930" windowWidth="19320" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="1290" windowWidth="22770" windowHeight="16080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -860,15 +860,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -878,15 +869,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -897,35 +890,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1146,7 +1146,9 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1952,6 +1954,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -1961,66 +2023,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3643,7 +3645,7 @@
   </sheetPr>
   <dimension ref="A1:BL41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
@@ -4055,7 +4057,7 @@
     <row r="7" spans="1:64" ht="16.5" outlineLevel="1">
       <c r="A7" s="5"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="83" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="65"/>
@@ -4063,7 +4065,7 @@
       <c r="F7" s="65"/>
       <c r="G7" s="65"/>
       <c r="H7" s="66"/>
-      <c r="I7" s="77" t="s">
+      <c r="I7" s="89" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="65"/>
@@ -4125,7 +4127,7 @@
     <row r="8" spans="1:64" ht="16.5" outlineLevel="1">
       <c r="A8" s="18"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="83" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="65"/>
@@ -4133,7 +4135,7 @@
       <c r="F8" s="65"/>
       <c r="G8" s="65"/>
       <c r="H8" s="66"/>
-      <c r="I8" s="77" t="s">
+      <c r="I8" s="89" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="65"/>
@@ -4195,7 +4197,7 @@
     <row r="9" spans="1:64" ht="16.5" outlineLevel="1">
       <c r="A9" s="5"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="83" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="65"/>
@@ -4203,7 +4205,7 @@
       <c r="F9" s="65"/>
       <c r="G9" s="65"/>
       <c r="H9" s="66"/>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="89" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="65"/>
@@ -4265,7 +4267,7 @@
     <row r="10" spans="1:64" ht="16.5" outlineLevel="1">
       <c r="A10" s="5"/>
       <c r="B10" s="20"/>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="83" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="65"/>
@@ -4273,7 +4275,7 @@
       <c r="F10" s="65"/>
       <c r="G10" s="65"/>
       <c r="H10" s="66"/>
-      <c r="I10" s="77" t="s">
+      <c r="I10" s="89" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="65"/>
@@ -4471,7 +4473,7 @@
       <c r="B13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="85" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="65"/>
@@ -4479,7 +4481,7 @@
       <c r="F13" s="65"/>
       <c r="G13" s="65"/>
       <c r="H13" s="66"/>
-      <c r="I13" s="78" t="s">
+      <c r="I13" s="85" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="65"/>
@@ -4487,7 +4489,7 @@
       <c r="L13" s="65"/>
       <c r="M13" s="65"/>
       <c r="N13" s="66"/>
-      <c r="O13" s="78" t="s">
+      <c r="O13" s="85" t="s">
         <v>24</v>
       </c>
       <c r="P13" s="65"/>
@@ -4495,13 +4497,13 @@
       <c r="R13" s="65"/>
       <c r="S13" s="65"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="78" t="s">
+      <c r="U13" s="85" t="s">
         <v>25</v>
       </c>
       <c r="V13" s="65"/>
       <c r="W13" s="65"/>
       <c r="X13" s="66"/>
-      <c r="Y13" s="78" t="s">
+      <c r="Y13" s="85" t="s">
         <v>26</v>
       </c>
       <c r="Z13" s="65"/>
@@ -4510,7 +4512,7 @@
       <c r="AC13" s="65"/>
       <c r="AD13" s="65"/>
       <c r="AE13" s="66"/>
-      <c r="AF13" s="78" t="s">
+      <c r="AF13" s="85" t="s">
         <v>27</v>
       </c>
       <c r="AG13" s="65"/>
@@ -4567,7 +4569,7 @@
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
       <c r="N14" s="26"/>
-      <c r="O14" s="79" t="s">
+      <c r="O14" s="86" t="s">
         <v>30</v>
       </c>
       <c r="P14" s="65"/>
@@ -4575,13 +4577,13 @@
       <c r="R14" s="65"/>
       <c r="S14" s="65"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="79">
+      <c r="U14" s="86">
         <v>6</v>
       </c>
       <c r="V14" s="65"/>
       <c r="W14" s="65"/>
       <c r="X14" s="66"/>
-      <c r="Y14" s="79" t="s">
+      <c r="Y14" s="86" t="s">
         <v>31</v>
       </c>
       <c r="Z14" s="65"/>
@@ -4590,7 +4592,7 @@
       <c r="AC14" s="65"/>
       <c r="AD14" s="65"/>
       <c r="AE14" s="66"/>
-      <c r="AF14" s="79" t="s">
+      <c r="AF14" s="86" t="s">
         <v>32</v>
       </c>
       <c r="AG14" s="65"/>
@@ -4843,7 +4845,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
       <c r="L18" s="33"/>
-      <c r="M18" s="78" t="s">
+      <c r="M18" s="85" t="s">
         <v>35</v>
       </c>
       <c r="N18" s="65"/>
@@ -4907,70 +4909,70 @@
       <c r="B19" s="36">
         <v>1</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="86" t="s">
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="81"/>
-      <c r="AB19" s="81"/>
-      <c r="AC19" s="81"/>
-      <c r="AD19" s="81"/>
-      <c r="AE19" s="81"/>
-      <c r="AF19" s="81"/>
-      <c r="AG19" s="81"/>
-      <c r="AH19" s="81"/>
-      <c r="AI19" s="81"/>
-      <c r="AJ19" s="81"/>
-      <c r="AK19" s="81"/>
-      <c r="AL19" s="82"/>
-      <c r="AM19" s="73"/>
-      <c r="AN19" s="74"/>
-      <c r="AO19" s="74"/>
-      <c r="AP19" s="74"/>
-      <c r="AQ19" s="74"/>
-      <c r="AR19" s="74"/>
-      <c r="AS19" s="74"/>
-      <c r="AT19" s="75"/>
-      <c r="AU19" s="73"/>
-      <c r="AV19" s="74"/>
-      <c r="AW19" s="74"/>
-      <c r="AX19" s="74"/>
-      <c r="AY19" s="74"/>
-      <c r="AZ19" s="74"/>
-      <c r="BA19" s="74"/>
-      <c r="BB19" s="74"/>
-      <c r="BC19" s="74"/>
-      <c r="BD19" s="74"/>
-      <c r="BE19" s="74"/>
-      <c r="BF19" s="74"/>
-      <c r="BG19" s="74"/>
-      <c r="BH19" s="74"/>
-      <c r="BI19" s="74"/>
-      <c r="BJ19" s="75"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="78"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="78"/>
+      <c r="AB19" s="78"/>
+      <c r="AC19" s="78"/>
+      <c r="AD19" s="78"/>
+      <c r="AE19" s="78"/>
+      <c r="AF19" s="78"/>
+      <c r="AG19" s="78"/>
+      <c r="AH19" s="78"/>
+      <c r="AI19" s="78"/>
+      <c r="AJ19" s="78"/>
+      <c r="AK19" s="78"/>
+      <c r="AL19" s="79"/>
+      <c r="AM19" s="70"/>
+      <c r="AN19" s="71"/>
+      <c r="AO19" s="71"/>
+      <c r="AP19" s="71"/>
+      <c r="AQ19" s="71"/>
+      <c r="AR19" s="71"/>
+      <c r="AS19" s="71"/>
+      <c r="AT19" s="72"/>
+      <c r="AU19" s="70"/>
+      <c r="AV19" s="71"/>
+      <c r="AW19" s="71"/>
+      <c r="AX19" s="71"/>
+      <c r="AY19" s="71"/>
+      <c r="AZ19" s="71"/>
+      <c r="BA19" s="71"/>
+      <c r="BB19" s="71"/>
+      <c r="BC19" s="71"/>
+      <c r="BD19" s="71"/>
+      <c r="BE19" s="71"/>
+      <c r="BF19" s="71"/>
+      <c r="BG19" s="71"/>
+      <c r="BH19" s="71"/>
+      <c r="BI19" s="71"/>
+      <c r="BJ19" s="72"/>
       <c r="BK19" s="18"/>
       <c r="BL19" s="19"/>
     </row>
@@ -4980,72 +4982,72 @@
         <f t="shared" ref="B20:B24" si="0">B19+1</f>
         <v>2</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="80" t="s">
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="81"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="81"/>
-      <c r="X20" s="81"/>
-      <c r="Y20" s="81"/>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="81"/>
-      <c r="AD20" s="81"/>
-      <c r="AE20" s="81"/>
-      <c r="AF20" s="81"/>
-      <c r="AG20" s="81"/>
-      <c r="AH20" s="81"/>
-      <c r="AI20" s="81"/>
-      <c r="AJ20" s="81"/>
-      <c r="AK20" s="81"/>
-      <c r="AL20" s="82"/>
-      <c r="AM20" s="87" t="s">
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="78"/>
+      <c r="AF20" s="78"/>
+      <c r="AG20" s="78"/>
+      <c r="AH20" s="78"/>
+      <c r="AI20" s="78"/>
+      <c r="AJ20" s="78"/>
+      <c r="AK20" s="78"/>
+      <c r="AL20" s="79"/>
+      <c r="AM20" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="AN20" s="74"/>
-      <c r="AO20" s="74"/>
-      <c r="AP20" s="74"/>
-      <c r="AQ20" s="74"/>
-      <c r="AR20" s="74"/>
-      <c r="AS20" s="74"/>
-      <c r="AT20" s="75"/>
-      <c r="AU20" s="73"/>
-      <c r="AV20" s="74"/>
-      <c r="AW20" s="74"/>
-      <c r="AX20" s="74"/>
-      <c r="AY20" s="74"/>
-      <c r="AZ20" s="74"/>
-      <c r="BA20" s="74"/>
-      <c r="BB20" s="74"/>
-      <c r="BC20" s="74"/>
-      <c r="BD20" s="74"/>
-      <c r="BE20" s="74"/>
-      <c r="BF20" s="74"/>
-      <c r="BG20" s="74"/>
-      <c r="BH20" s="74"/>
-      <c r="BI20" s="74"/>
-      <c r="BJ20" s="75"/>
+      <c r="AN20" s="71"/>
+      <c r="AO20" s="71"/>
+      <c r="AP20" s="71"/>
+      <c r="AQ20" s="71"/>
+      <c r="AR20" s="71"/>
+      <c r="AS20" s="71"/>
+      <c r="AT20" s="72"/>
+      <c r="AU20" s="70"/>
+      <c r="AV20" s="71"/>
+      <c r="AW20" s="71"/>
+      <c r="AX20" s="71"/>
+      <c r="AY20" s="71"/>
+      <c r="AZ20" s="71"/>
+      <c r="BA20" s="71"/>
+      <c r="BB20" s="71"/>
+      <c r="BC20" s="71"/>
+      <c r="BD20" s="71"/>
+      <c r="BE20" s="71"/>
+      <c r="BF20" s="71"/>
+      <c r="BG20" s="71"/>
+      <c r="BH20" s="71"/>
+      <c r="BI20" s="71"/>
+      <c r="BJ20" s="72"/>
       <c r="BK20" s="18"/>
       <c r="BL20" s="19"/>
     </row>
@@ -5055,70 +5057,70 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="80" t="s">
+      <c r="C21" s="74"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="81"/>
-      <c r="T21" s="81"/>
-      <c r="U21" s="81"/>
-      <c r="V21" s="81"/>
-      <c r="W21" s="81"/>
-      <c r="X21" s="81"/>
-      <c r="Y21" s="81"/>
-      <c r="Z21" s="81"/>
-      <c r="AA21" s="81"/>
-      <c r="AB21" s="81"/>
-      <c r="AC21" s="81"/>
-      <c r="AD21" s="81"/>
-      <c r="AE21" s="81"/>
-      <c r="AF21" s="81"/>
-      <c r="AG21" s="81"/>
-      <c r="AH21" s="81"/>
-      <c r="AI21" s="81"/>
-      <c r="AJ21" s="81"/>
-      <c r="AK21" s="81"/>
-      <c r="AL21" s="82"/>
-      <c r="AM21" s="87" t="s">
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="78"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="78"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="78"/>
+      <c r="AC21" s="78"/>
+      <c r="AD21" s="78"/>
+      <c r="AE21" s="78"/>
+      <c r="AF21" s="78"/>
+      <c r="AG21" s="78"/>
+      <c r="AH21" s="78"/>
+      <c r="AI21" s="78"/>
+      <c r="AJ21" s="78"/>
+      <c r="AK21" s="78"/>
+      <c r="AL21" s="79"/>
+      <c r="AM21" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="AN21" s="74"/>
-      <c r="AO21" s="74"/>
-      <c r="AP21" s="74"/>
-      <c r="AQ21" s="74"/>
-      <c r="AR21" s="74"/>
-      <c r="AS21" s="74"/>
-      <c r="AT21" s="75"/>
-      <c r="AU21" s="73"/>
-      <c r="AV21" s="74"/>
-      <c r="AW21" s="74"/>
-      <c r="AX21" s="74"/>
-      <c r="AY21" s="74"/>
-      <c r="AZ21" s="74"/>
-      <c r="BA21" s="74"/>
-      <c r="BB21" s="74"/>
-      <c r="BC21" s="74"/>
-      <c r="BD21" s="74"/>
-      <c r="BE21" s="74"/>
-      <c r="BF21" s="74"/>
-      <c r="BG21" s="74"/>
-      <c r="BH21" s="74"/>
-      <c r="BI21" s="74"/>
-      <c r="BJ21" s="75"/>
+      <c r="AN21" s="71"/>
+      <c r="AO21" s="71"/>
+      <c r="AP21" s="71"/>
+      <c r="AQ21" s="71"/>
+      <c r="AR21" s="71"/>
+      <c r="AS21" s="71"/>
+      <c r="AT21" s="72"/>
+      <c r="AU21" s="70"/>
+      <c r="AV21" s="71"/>
+      <c r="AW21" s="71"/>
+      <c r="AX21" s="71"/>
+      <c r="AY21" s="71"/>
+      <c r="AZ21" s="71"/>
+      <c r="BA21" s="71"/>
+      <c r="BB21" s="71"/>
+      <c r="BC21" s="71"/>
+      <c r="BD21" s="71"/>
+      <c r="BE21" s="71"/>
+      <c r="BF21" s="71"/>
+      <c r="BG21" s="71"/>
+      <c r="BH21" s="71"/>
+      <c r="BI21" s="71"/>
+      <c r="BJ21" s="72"/>
       <c r="BK21" s="18"/>
       <c r="BL21" s="19"/>
     </row>
@@ -5140,58 +5142,58 @@
       <c r="J22" s="40"/>
       <c r="K22" s="40"/>
       <c r="L22" s="41"/>
-      <c r="M22" s="89" t="s">
+      <c r="M22" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="71"/>
-      <c r="AD22" s="71"/>
-      <c r="AE22" s="71"/>
-      <c r="AF22" s="71"/>
-      <c r="AG22" s="71"/>
-      <c r="AH22" s="71"/>
-      <c r="AI22" s="71"/>
-      <c r="AJ22" s="71"/>
-      <c r="AK22" s="71"/>
-      <c r="AL22" s="72"/>
-      <c r="AM22" s="73"/>
-      <c r="AN22" s="74"/>
-      <c r="AO22" s="74"/>
-      <c r="AP22" s="74"/>
-      <c r="AQ22" s="74"/>
-      <c r="AR22" s="74"/>
-      <c r="AS22" s="74"/>
-      <c r="AT22" s="75"/>
-      <c r="AU22" s="73"/>
-      <c r="AV22" s="74"/>
-      <c r="AW22" s="74"/>
-      <c r="AX22" s="74"/>
-      <c r="AY22" s="74"/>
-      <c r="AZ22" s="74"/>
-      <c r="BA22" s="74"/>
-      <c r="BB22" s="74"/>
-      <c r="BC22" s="74"/>
-      <c r="BD22" s="74"/>
-      <c r="BE22" s="74"/>
-      <c r="BF22" s="74"/>
-      <c r="BG22" s="74"/>
-      <c r="BH22" s="74"/>
-      <c r="BI22" s="74"/>
-      <c r="BJ22" s="75"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
+      <c r="W22" s="81"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="81"/>
+      <c r="AD22" s="81"/>
+      <c r="AE22" s="81"/>
+      <c r="AF22" s="81"/>
+      <c r="AG22" s="81"/>
+      <c r="AH22" s="81"/>
+      <c r="AI22" s="81"/>
+      <c r="AJ22" s="81"/>
+      <c r="AK22" s="81"/>
+      <c r="AL22" s="82"/>
+      <c r="AM22" s="70"/>
+      <c r="AN22" s="71"/>
+      <c r="AO22" s="71"/>
+      <c r="AP22" s="71"/>
+      <c r="AQ22" s="71"/>
+      <c r="AR22" s="71"/>
+      <c r="AS22" s="71"/>
+      <c r="AT22" s="72"/>
+      <c r="AU22" s="70"/>
+      <c r="AV22" s="71"/>
+      <c r="AW22" s="71"/>
+      <c r="AX22" s="71"/>
+      <c r="AY22" s="71"/>
+      <c r="AZ22" s="71"/>
+      <c r="BA22" s="71"/>
+      <c r="BB22" s="71"/>
+      <c r="BC22" s="71"/>
+      <c r="BD22" s="71"/>
+      <c r="BE22" s="71"/>
+      <c r="BF22" s="71"/>
+      <c r="BG22" s="71"/>
+      <c r="BH22" s="71"/>
+      <c r="BI22" s="71"/>
+      <c r="BJ22" s="72"/>
       <c r="BK22" s="18"/>
       <c r="BL22" s="19"/>
     </row>
@@ -5213,58 +5215,58 @@
       <c r="J23" s="43"/>
       <c r="K23" s="43"/>
       <c r="L23" s="44"/>
-      <c r="M23" s="70" t="s">
+      <c r="M23" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="71"/>
-      <c r="AC23" s="71"/>
-      <c r="AD23" s="71"/>
-      <c r="AE23" s="71"/>
-      <c r="AF23" s="71"/>
-      <c r="AG23" s="71"/>
-      <c r="AH23" s="71"/>
-      <c r="AI23" s="71"/>
-      <c r="AJ23" s="71"/>
-      <c r="AK23" s="71"/>
-      <c r="AL23" s="72"/>
-      <c r="AM23" s="73"/>
-      <c r="AN23" s="74"/>
-      <c r="AO23" s="74"/>
-      <c r="AP23" s="74"/>
-      <c r="AQ23" s="74"/>
-      <c r="AR23" s="74"/>
-      <c r="AS23" s="74"/>
-      <c r="AT23" s="75"/>
-      <c r="AU23" s="73"/>
-      <c r="AV23" s="74"/>
-      <c r="AW23" s="74"/>
-      <c r="AX23" s="74"/>
-      <c r="AY23" s="74"/>
-      <c r="AZ23" s="74"/>
-      <c r="BA23" s="74"/>
-      <c r="BB23" s="74"/>
-      <c r="BC23" s="74"/>
-      <c r="BD23" s="74"/>
-      <c r="BE23" s="74"/>
-      <c r="BF23" s="74"/>
-      <c r="BG23" s="74"/>
-      <c r="BH23" s="74"/>
-      <c r="BI23" s="74"/>
-      <c r="BJ23" s="75"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
+      <c r="W23" s="81"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="81"/>
+      <c r="Z23" s="81"/>
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="81"/>
+      <c r="AC23" s="81"/>
+      <c r="AD23" s="81"/>
+      <c r="AE23" s="81"/>
+      <c r="AF23" s="81"/>
+      <c r="AG23" s="81"/>
+      <c r="AH23" s="81"/>
+      <c r="AI23" s="81"/>
+      <c r="AJ23" s="81"/>
+      <c r="AK23" s="81"/>
+      <c r="AL23" s="82"/>
+      <c r="AM23" s="70"/>
+      <c r="AN23" s="71"/>
+      <c r="AO23" s="71"/>
+      <c r="AP23" s="71"/>
+      <c r="AQ23" s="71"/>
+      <c r="AR23" s="71"/>
+      <c r="AS23" s="71"/>
+      <c r="AT23" s="72"/>
+      <c r="AU23" s="70"/>
+      <c r="AV23" s="71"/>
+      <c r="AW23" s="71"/>
+      <c r="AX23" s="71"/>
+      <c r="AY23" s="71"/>
+      <c r="AZ23" s="71"/>
+      <c r="BA23" s="71"/>
+      <c r="BB23" s="71"/>
+      <c r="BC23" s="71"/>
+      <c r="BD23" s="71"/>
+      <c r="BE23" s="71"/>
+      <c r="BF23" s="71"/>
+      <c r="BG23" s="71"/>
+      <c r="BH23" s="71"/>
+      <c r="BI23" s="71"/>
+      <c r="BJ23" s="72"/>
       <c r="BK23" s="18"/>
       <c r="BL23" s="19"/>
     </row>
@@ -5286,58 +5288,58 @@
       <c r="J24" s="43"/>
       <c r="K24" s="43"/>
       <c r="L24" s="44"/>
-      <c r="M24" s="70" t="s">
+      <c r="M24" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="71"/>
-      <c r="Z24" s="71"/>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="71"/>
-      <c r="AC24" s="71"/>
-      <c r="AD24" s="71"/>
-      <c r="AE24" s="71"/>
-      <c r="AF24" s="71"/>
-      <c r="AG24" s="71"/>
-      <c r="AH24" s="71"/>
-      <c r="AI24" s="71"/>
-      <c r="AJ24" s="71"/>
-      <c r="AK24" s="71"/>
-      <c r="AL24" s="72"/>
-      <c r="AM24" s="73"/>
-      <c r="AN24" s="74"/>
-      <c r="AO24" s="74"/>
-      <c r="AP24" s="74"/>
-      <c r="AQ24" s="74"/>
-      <c r="AR24" s="74"/>
-      <c r="AS24" s="74"/>
-      <c r="AT24" s="75"/>
-      <c r="AU24" s="73"/>
-      <c r="AV24" s="74"/>
-      <c r="AW24" s="74"/>
-      <c r="AX24" s="74"/>
-      <c r="AY24" s="74"/>
-      <c r="AZ24" s="74"/>
-      <c r="BA24" s="74"/>
-      <c r="BB24" s="74"/>
-      <c r="BC24" s="74"/>
-      <c r="BD24" s="74"/>
-      <c r="BE24" s="74"/>
-      <c r="BF24" s="74"/>
-      <c r="BG24" s="74"/>
-      <c r="BH24" s="74"/>
-      <c r="BI24" s="74"/>
-      <c r="BJ24" s="75"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="81"/>
+      <c r="V24" s="81"/>
+      <c r="W24" s="81"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="81"/>
+      <c r="Z24" s="81"/>
+      <c r="AA24" s="81"/>
+      <c r="AB24" s="81"/>
+      <c r="AC24" s="81"/>
+      <c r="AD24" s="81"/>
+      <c r="AE24" s="81"/>
+      <c r="AF24" s="81"/>
+      <c r="AG24" s="81"/>
+      <c r="AH24" s="81"/>
+      <c r="AI24" s="81"/>
+      <c r="AJ24" s="81"/>
+      <c r="AK24" s="81"/>
+      <c r="AL24" s="82"/>
+      <c r="AM24" s="70"/>
+      <c r="AN24" s="71"/>
+      <c r="AO24" s="71"/>
+      <c r="AP24" s="71"/>
+      <c r="AQ24" s="71"/>
+      <c r="AR24" s="71"/>
+      <c r="AS24" s="71"/>
+      <c r="AT24" s="72"/>
+      <c r="AU24" s="70"/>
+      <c r="AV24" s="71"/>
+      <c r="AW24" s="71"/>
+      <c r="AX24" s="71"/>
+      <c r="AY24" s="71"/>
+      <c r="AZ24" s="71"/>
+      <c r="BA24" s="71"/>
+      <c r="BB24" s="71"/>
+      <c r="BC24" s="71"/>
+      <c r="BD24" s="71"/>
+      <c r="BE24" s="71"/>
+      <c r="BF24" s="71"/>
+      <c r="BG24" s="71"/>
+      <c r="BH24" s="71"/>
+      <c r="BI24" s="71"/>
+      <c r="BJ24" s="72"/>
       <c r="BK24" s="18"/>
       <c r="BL24" s="19"/>
     </row>
@@ -6489,14 +6491,22 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AU21:BJ21"/>
-    <mergeCell ref="AM22:AT22"/>
-    <mergeCell ref="AM20:AT20"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="AM21:AT21"/>
-    <mergeCell ref="M21:AL21"/>
-    <mergeCell ref="M22:AL22"/>
-    <mergeCell ref="AU22:BJ22"/>
+    <mergeCell ref="M24:AL24"/>
+    <mergeCell ref="AM24:AT24"/>
+    <mergeCell ref="AU24:BJ24"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BJ7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BJ8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BJ9"/>
+    <mergeCell ref="I10:BJ10"/>
+    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="O14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="U13:X13"/>
     <mergeCell ref="AU19:BJ19"/>
     <mergeCell ref="C20:L20"/>
     <mergeCell ref="AU20:BJ20"/>
@@ -6513,22 +6523,14 @@
     <mergeCell ref="AM19:AT19"/>
     <mergeCell ref="AM23:AT23"/>
     <mergeCell ref="AU23:BJ23"/>
-    <mergeCell ref="M24:AL24"/>
-    <mergeCell ref="AM24:AT24"/>
-    <mergeCell ref="AU24:BJ24"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BJ7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BJ8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BJ9"/>
-    <mergeCell ref="I10:BJ10"/>
-    <mergeCell ref="O13:T13"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="O14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="AU21:BJ21"/>
+    <mergeCell ref="AM22:AT22"/>
+    <mergeCell ref="AM20:AT20"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="AM21:AT21"/>
+    <mergeCell ref="M21:AL21"/>
+    <mergeCell ref="M22:AL22"/>
+    <mergeCell ref="AU22:BJ22"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6983,7 +6985,7 @@
       <c r="H7" s="52"/>
       <c r="I7" s="52"/>
       <c r="J7" s="52"/>
-      <c r="K7" s="77" t="s">
+      <c r="K7" s="89" t="s">
         <v>61</v>
       </c>
       <c r="L7" s="65"/>
@@ -7052,7 +7054,7 @@
       <c r="H8" s="52"/>
       <c r="I8" s="52"/>
       <c r="J8" s="53"/>
-      <c r="K8" s="77" t="s">
+      <c r="K8" s="89" t="s">
         <v>63</v>
       </c>
       <c r="L8" s="65"/>
@@ -7121,7 +7123,7 @@
       <c r="H9" s="52"/>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
-      <c r="K9" s="77" t="s">
+      <c r="K9" s="89" t="s">
         <v>64</v>
       </c>
       <c r="L9" s="65"/>
@@ -7380,7 +7382,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="56"/>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="90" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="65"/>
@@ -7401,7 +7403,7 @@
       <c r="T13" s="65"/>
       <c r="U13" s="65"/>
       <c r="V13" s="66"/>
-      <c r="W13" s="92" t="s">
+      <c r="W13" s="90" t="s">
         <v>24</v>
       </c>
       <c r="X13" s="65"/>
@@ -7409,7 +7411,7 @@
       <c r="Z13" s="65"/>
       <c r="AA13" s="65"/>
       <c r="AB13" s="66"/>
-      <c r="AC13" s="92" t="s">
+      <c r="AC13" s="90" t="s">
         <v>26</v>
       </c>
       <c r="AD13" s="65"/>
@@ -7417,43 +7419,43 @@
       <c r="AF13" s="65"/>
       <c r="AG13" s="65"/>
       <c r="AH13" s="66"/>
-      <c r="AI13" s="93" t="s">
+      <c r="AI13" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="AJ13" s="90"/>
-      <c r="AK13" s="90"/>
-      <c r="AL13" s="90"/>
-      <c r="AM13" s="90"/>
-      <c r="AN13" s="90"/>
-      <c r="AO13" s="90"/>
-      <c r="AP13" s="90"/>
-      <c r="AQ13" s="90"/>
-      <c r="AR13" s="90"/>
-      <c r="AS13" s="90"/>
-      <c r="AT13" s="90"/>
-      <c r="AU13" s="90"/>
-      <c r="AV13" s="90"/>
-      <c r="AW13" s="90"/>
-      <c r="AX13" s="90"/>
-      <c r="AY13" s="90"/>
-      <c r="AZ13" s="90"/>
-      <c r="BA13" s="90"/>
-      <c r="BB13" s="90"/>
-      <c r="BC13" s="90"/>
-      <c r="BD13" s="90"/>
-      <c r="BE13" s="90"/>
-      <c r="BF13" s="90"/>
-      <c r="BG13" s="90"/>
-      <c r="BH13" s="90"/>
-      <c r="BI13" s="90"/>
-      <c r="BJ13" s="91"/>
+      <c r="AJ13" s="92"/>
+      <c r="AK13" s="92"/>
+      <c r="AL13" s="92"/>
+      <c r="AM13" s="92"/>
+      <c r="AN13" s="92"/>
+      <c r="AO13" s="92"/>
+      <c r="AP13" s="92"/>
+      <c r="AQ13" s="92"/>
+      <c r="AR13" s="92"/>
+      <c r="AS13" s="92"/>
+      <c r="AT13" s="92"/>
+      <c r="AU13" s="92"/>
+      <c r="AV13" s="92"/>
+      <c r="AW13" s="92"/>
+      <c r="AX13" s="92"/>
+      <c r="AY13" s="92"/>
+      <c r="AZ13" s="92"/>
+      <c r="BA13" s="92"/>
+      <c r="BB13" s="92"/>
+      <c r="BC13" s="92"/>
+      <c r="BD13" s="92"/>
+      <c r="BE13" s="92"/>
+      <c r="BF13" s="92"/>
+      <c r="BG13" s="92"/>
+      <c r="BH13" s="92"/>
+      <c r="BI13" s="92"/>
+      <c r="BJ13" s="93"/>
       <c r="BK13" s="3"/>
     </row>
     <row r="14" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="56"/>
-      <c r="D14" s="89" t="s">
+      <c r="D14" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E14" s="65"/>
@@ -7474,7 +7476,7 @@
       <c r="T14" s="65"/>
       <c r="U14" s="65"/>
       <c r="V14" s="66"/>
-      <c r="W14" s="89" t="s">
+      <c r="W14" s="80" t="s">
         <v>30</v>
       </c>
       <c r="X14" s="65"/>
@@ -7482,7 +7484,7 @@
       <c r="Z14" s="65"/>
       <c r="AA14" s="65"/>
       <c r="AB14" s="66"/>
-      <c r="AC14" s="89" t="s">
+      <c r="AC14" s="80" t="s">
         <v>69</v>
       </c>
       <c r="AD14" s="65"/>
@@ -7490,7 +7492,7 @@
       <c r="AF14" s="65"/>
       <c r="AG14" s="65"/>
       <c r="AH14" s="66"/>
-      <c r="AI14" s="89" t="s">
+      <c r="AI14" s="80" t="s">
         <v>70</v>
       </c>
       <c r="AJ14" s="65"/>
@@ -7526,28 +7528,28 @@
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="56"/>
-      <c r="D15" s="80" t="s">
+      <c r="D15" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="91"/>
-      <c r="W15" s="89" t="s">
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="80" t="s">
         <v>72</v>
       </c>
       <c r="X15" s="65"/>
@@ -7555,7 +7557,7 @@
       <c r="Z15" s="65"/>
       <c r="AA15" s="65"/>
       <c r="AB15" s="66"/>
-      <c r="AC15" s="89" t="s">
+      <c r="AC15" s="80" t="s">
         <v>69</v>
       </c>
       <c r="AD15" s="65"/>
@@ -7563,7 +7565,7 @@
       <c r="AF15" s="65"/>
       <c r="AG15" s="65"/>
       <c r="AH15" s="66"/>
-      <c r="AI15" s="89" t="s">
+      <c r="AI15" s="80" t="s">
         <v>73</v>
       </c>
       <c r="AJ15" s="65"/>
@@ -7599,28 +7601,28 @@
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="56"/>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="91"/>
-      <c r="W16" s="89" t="s">
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="80" t="s">
         <v>72</v>
       </c>
       <c r="X16" s="65"/>
@@ -7628,7 +7630,7 @@
       <c r="Z16" s="65"/>
       <c r="AA16" s="65"/>
       <c r="AB16" s="66"/>
-      <c r="AC16" s="89" t="s">
+      <c r="AC16" s="80" t="s">
         <v>69</v>
       </c>
       <c r="AD16" s="65"/>
@@ -7636,7 +7638,7 @@
       <c r="AF16" s="65"/>
       <c r="AG16" s="65"/>
       <c r="AH16" s="66"/>
-      <c r="AI16" s="89" t="s">
+      <c r="AI16" s="80" t="s">
         <v>75</v>
       </c>
       <c r="AJ16" s="65"/>
@@ -7672,28 +7674,28 @@
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="56"/>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="91"/>
-      <c r="W17" s="89" t="s">
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="92"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="92"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="80" t="s">
         <v>72</v>
       </c>
       <c r="X17" s="65"/>
@@ -7701,7 +7703,7 @@
       <c r="Z17" s="65"/>
       <c r="AA17" s="65"/>
       <c r="AB17" s="66"/>
-      <c r="AC17" s="89" t="s">
+      <c r="AC17" s="80" t="s">
         <v>69</v>
       </c>
       <c r="AD17" s="65"/>
@@ -7709,7 +7711,7 @@
       <c r="AF17" s="65"/>
       <c r="AG17" s="65"/>
       <c r="AH17" s="66"/>
-      <c r="AI17" s="89" t="s">
+      <c r="AI17" s="80" t="s">
         <v>77</v>
       </c>
       <c r="AJ17" s="65"/>
@@ -7745,28 +7747,28 @@
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="56"/>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="91"/>
-      <c r="W18" s="89" t="s">
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="80" t="s">
         <v>72</v>
       </c>
       <c r="X18" s="65"/>
@@ -7774,7 +7776,7 @@
       <c r="Z18" s="65"/>
       <c r="AA18" s="65"/>
       <c r="AB18" s="66"/>
-      <c r="AC18" s="89" t="s">
+      <c r="AC18" s="80" t="s">
         <v>69</v>
       </c>
       <c r="AD18" s="65"/>
@@ -7782,7 +7784,7 @@
       <c r="AF18" s="65"/>
       <c r="AG18" s="65"/>
       <c r="AH18" s="66"/>
-      <c r="AI18" s="89" t="s">
+      <c r="AI18" s="80" t="s">
         <v>79</v>
       </c>
       <c r="AJ18" s="65"/>
@@ -7818,7 +7820,7 @@
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="56"/>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="80" t="s">
         <v>80</v>
       </c>
       <c r="E19" s="65"/>
@@ -7839,7 +7841,7 @@
       <c r="T19" s="65"/>
       <c r="U19" s="65"/>
       <c r="V19" s="66"/>
-      <c r="W19" s="89" t="s">
+      <c r="W19" s="80" t="s">
         <v>30</v>
       </c>
       <c r="X19" s="65"/>
@@ -7847,7 +7849,7 @@
       <c r="Z19" s="65"/>
       <c r="AA19" s="65"/>
       <c r="AB19" s="66"/>
-      <c r="AC19" s="89" t="s">
+      <c r="AC19" s="80" t="s">
         <v>69</v>
       </c>
       <c r="AD19" s="65"/>
@@ -7855,7 +7857,7 @@
       <c r="AF19" s="65"/>
       <c r="AG19" s="65"/>
       <c r="AH19" s="66"/>
-      <c r="AI19" s="89" t="s">
+      <c r="AI19" s="80" t="s">
         <v>81</v>
       </c>
       <c r="AJ19" s="65"/>
@@ -7891,7 +7893,7 @@
       <c r="A20" s="5"/>
       <c r="B20" s="27"/>
       <c r="C20" s="57"/>
-      <c r="D20" s="89" t="s">
+      <c r="D20" s="80" t="s">
         <v>82</v>
       </c>
       <c r="E20" s="65"/>
@@ -7912,7 +7914,7 @@
       <c r="T20" s="65"/>
       <c r="U20" s="65"/>
       <c r="V20" s="66"/>
-      <c r="W20" s="89" t="s">
+      <c r="W20" s="80" t="s">
         <v>83</v>
       </c>
       <c r="X20" s="65"/>
@@ -7920,7 +7922,7 @@
       <c r="Z20" s="65"/>
       <c r="AA20" s="65"/>
       <c r="AB20" s="66"/>
-      <c r="AC20" s="89" t="s">
+      <c r="AC20" s="80" t="s">
         <v>69</v>
       </c>
       <c r="AD20" s="65"/>
@@ -7928,7 +7930,7 @@
       <c r="AF20" s="65"/>
       <c r="AG20" s="65"/>
       <c r="AH20" s="66"/>
-      <c r="AI20" s="89" t="s">
+      <c r="AI20" s="80" t="s">
         <v>84</v>
       </c>
       <c r="AJ20" s="65"/>
@@ -7964,7 +7966,7 @@
       <c r="A21" s="5"/>
       <c r="B21" s="27"/>
       <c r="C21" s="57"/>
-      <c r="D21" s="89" t="s">
+      <c r="D21" s="80" t="s">
         <v>85</v>
       </c>
       <c r="E21" s="65"/>
@@ -7985,7 +7987,7 @@
       <c r="T21" s="65"/>
       <c r="U21" s="65"/>
       <c r="V21" s="66"/>
-      <c r="W21" s="89" t="s">
+      <c r="W21" s="80" t="s">
         <v>30</v>
       </c>
       <c r="X21" s="65"/>
@@ -7993,7 +7995,7 @@
       <c r="Z21" s="65"/>
       <c r="AA21" s="65"/>
       <c r="AB21" s="66"/>
-      <c r="AC21" s="89" t="s">
+      <c r="AC21" s="80" t="s">
         <v>69</v>
       </c>
       <c r="AD21" s="65"/>
@@ -8001,7 +8003,7 @@
       <c r="AF21" s="65"/>
       <c r="AG21" s="65"/>
       <c r="AH21" s="66"/>
-      <c r="AI21" s="89" t="s">
+      <c r="AI21" s="80" t="s">
         <v>86</v>
       </c>
       <c r="AJ21" s="65"/>
@@ -8037,7 +8039,7 @@
       <c r="A22" s="5"/>
       <c r="B22" s="27"/>
       <c r="C22" s="57"/>
-      <c r="D22" s="89" t="s">
+      <c r="D22" s="80" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="65"/>
@@ -8058,7 +8060,7 @@
       <c r="T22" s="65"/>
       <c r="U22" s="65"/>
       <c r="V22" s="66"/>
-      <c r="W22" s="89" t="s">
+      <c r="W22" s="80" t="s">
         <v>83</v>
       </c>
       <c r="X22" s="65"/>
@@ -8066,7 +8068,7 @@
       <c r="Z22" s="65"/>
       <c r="AA22" s="65"/>
       <c r="AB22" s="66"/>
-      <c r="AC22" s="89" t="s">
+      <c r="AC22" s="80" t="s">
         <v>69</v>
       </c>
       <c r="AD22" s="65"/>
@@ -8074,7 +8076,7 @@
       <c r="AF22" s="65"/>
       <c r="AG22" s="65"/>
       <c r="AH22" s="66"/>
-      <c r="AI22" s="89" t="s">
+      <c r="AI22" s="80" t="s">
         <v>87</v>
       </c>
       <c r="AJ22" s="65"/>
@@ -8110,7 +8112,7 @@
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="58"/>
-      <c r="D23" s="89" t="s">
+      <c r="D23" s="80" t="s">
         <v>88</v>
       </c>
       <c r="E23" s="65"/>
@@ -8131,7 +8133,7 @@
       <c r="T23" s="65"/>
       <c r="U23" s="65"/>
       <c r="V23" s="66"/>
-      <c r="W23" s="89" t="s">
+      <c r="W23" s="80" t="s">
         <v>83</v>
       </c>
       <c r="X23" s="65"/>
@@ -8139,7 +8141,7 @@
       <c r="Z23" s="65"/>
       <c r="AA23" s="65"/>
       <c r="AB23" s="66"/>
-      <c r="AC23" s="89" t="s">
+      <c r="AC23" s="80" t="s">
         <v>69</v>
       </c>
       <c r="AD23" s="65"/>
@@ -8147,7 +8149,7 @@
       <c r="AF23" s="65"/>
       <c r="AG23" s="65"/>
       <c r="AH23" s="66"/>
-      <c r="AI23" s="89" t="s">
+      <c r="AI23" s="80" t="s">
         <v>89</v>
       </c>
       <c r="AJ23" s="65"/>
@@ -8246,37 +8248,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="D13:V13"/>
-    <mergeCell ref="W13:AB13"/>
-    <mergeCell ref="AC13:AH13"/>
-    <mergeCell ref="AI13:BJ13"/>
-    <mergeCell ref="W14:AB14"/>
-    <mergeCell ref="AC14:AH14"/>
-    <mergeCell ref="AI14:BJ14"/>
-    <mergeCell ref="D14:V14"/>
-    <mergeCell ref="D15:V15"/>
-    <mergeCell ref="W15:AB15"/>
-    <mergeCell ref="AC15:AH15"/>
-    <mergeCell ref="AI15:BJ15"/>
-    <mergeCell ref="D16:V16"/>
-    <mergeCell ref="W16:AB16"/>
-    <mergeCell ref="AC16:AH16"/>
-    <mergeCell ref="AI16:BJ16"/>
-    <mergeCell ref="D17:V17"/>
-    <mergeCell ref="W17:AB17"/>
-    <mergeCell ref="AC17:AH17"/>
-    <mergeCell ref="AI17:BJ17"/>
-    <mergeCell ref="D18:V18"/>
-    <mergeCell ref="AI18:BJ18"/>
-    <mergeCell ref="AC21:AH21"/>
-    <mergeCell ref="W19:AB19"/>
-    <mergeCell ref="W22:AB22"/>
-    <mergeCell ref="AC22:AH22"/>
-    <mergeCell ref="D19:V19"/>
-    <mergeCell ref="D20:V20"/>
-    <mergeCell ref="W20:AB20"/>
-    <mergeCell ref="AC20:AH20"/>
-    <mergeCell ref="D21:V21"/>
     <mergeCell ref="K7:BJ7"/>
     <mergeCell ref="K8:BJ8"/>
     <mergeCell ref="K9:BJ9"/>
@@ -8293,6 +8264,37 @@
     <mergeCell ref="AI21:BJ21"/>
     <mergeCell ref="D22:V22"/>
     <mergeCell ref="W21:AB21"/>
+    <mergeCell ref="AC21:AH21"/>
+    <mergeCell ref="W19:AB19"/>
+    <mergeCell ref="W22:AB22"/>
+    <mergeCell ref="AC22:AH22"/>
+    <mergeCell ref="D19:V19"/>
+    <mergeCell ref="D20:V20"/>
+    <mergeCell ref="W20:AB20"/>
+    <mergeCell ref="AC20:AH20"/>
+    <mergeCell ref="D21:V21"/>
+    <mergeCell ref="D17:V17"/>
+    <mergeCell ref="W17:AB17"/>
+    <mergeCell ref="AC17:AH17"/>
+    <mergeCell ref="AI17:BJ17"/>
+    <mergeCell ref="D18:V18"/>
+    <mergeCell ref="AI18:BJ18"/>
+    <mergeCell ref="D15:V15"/>
+    <mergeCell ref="W15:AB15"/>
+    <mergeCell ref="AC15:AH15"/>
+    <mergeCell ref="AI15:BJ15"/>
+    <mergeCell ref="D16:V16"/>
+    <mergeCell ref="W16:AB16"/>
+    <mergeCell ref="AC16:AH16"/>
+    <mergeCell ref="AI16:BJ16"/>
+    <mergeCell ref="D13:V13"/>
+    <mergeCell ref="W13:AB13"/>
+    <mergeCell ref="AC13:AH13"/>
+    <mergeCell ref="AI13:BJ13"/>
+    <mergeCell ref="W14:AB14"/>
+    <mergeCell ref="AC14:AH14"/>
+    <mergeCell ref="AI14:BJ14"/>
+    <mergeCell ref="D14:V14"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ha-asset/01_design/03_batch/設計書_3.2.月次健康情報集計バッチ.xlsx
+++ b/ha-asset/01_design/03_batch/設計書_3.2.月次健康情報集計バッチ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\03_batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47435EC-A574-4EA9-8342-AA56011D79E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EA615E-A593-4968-B172-3B91FF910DB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1290" windowWidth="22770" windowHeight="16080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="915" yWindow="1275" windowWidth="27015" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0.更新履歴'!$A$1:$AA$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.機能一覧'!$A$1:$AW$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.月次健康情報集計バッチ'!$A$1:$BL$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.月次健康情報集計バッチ'!$A$1:$BP$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'3.1. ファイルIF'!$A$1:$BK$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="133">
   <si>
     <t>0.更新履歴</t>
   </si>
@@ -87,9 +87,6 @@
     <t>YYYY/MM/01 01:00:00</t>
   </si>
   <si>
-    <t>引数1:</t>
-  </si>
-  <si>
     <t>2.1.1.1.引数情報 参照</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
   </si>
   <si>
     <t>属性</t>
-  </si>
-  <si>
-    <t>桁</t>
   </si>
   <si>
     <t>必須</t>
@@ -146,30 +140,6 @@
   </si>
   <si>
     <t>例外詳細</t>
-  </si>
-  <si>
-    <t>処理対象年月取得</t>
-  </si>
-  <si>
-    <t>妥当性チェック実施</t>
-  </si>
-  <si>
-    <t>#1で取得した値が未指定の場合、右記の例外をthrowして処理終了</t>
-  </si>
-  <si>
-    <t>#1で取得した値が「YYYYMM形式」以外の場合、右記の例外をthrowして処理終了</t>
-  </si>
-  <si>
-    <t>健康情報取得</t>
-  </si>
-  <si>
-    <t>2.1.3.1.健康情報検索 参照</t>
-  </si>
-  <si>
-    <t>#3の内容を月次健康情報集計CSVに出力</t>
-  </si>
-  <si>
-    <t>S3にファイルアップロード</t>
   </si>
   <si>
     <t>2.1.3.DB処理</t>
@@ -373,13 +343,78 @@
     <t>MI</t>
   </si>
   <si>
-    <t>エラーコード：CW0017
-エラーメッセージ："-m is required -m=" + date</t>
+    <t>以下の値を取得
+・引数の値が未指定の場合、システム日時を「YYYYMM」形式に変換したものを使用</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>エラーコード：CW0017
-エラーメッセージ："-m is not date format -m=" + date</t>
+    <t>HEALTH_INFO_REG_DATE BETWEEN ${#1で取得した処理対象年月/1 00:00:00} AND ${#1で取得した処理対象年月/月末日 23:59:59}</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>引数</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>エラーコード</t>
+  </si>
+  <si>
+    <t>エラーメッセージ</t>
+  </si>
+  <si>
+    <t>処理対象年月取得</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>妥当性チェック実施</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>#1で取得した値が未指定の場合、右記の例外をthrowして処理終了</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>#1で取得した値が「YYYYMM形式」以外の場合、右記の例外をthrowして処理終了</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>CW0017</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>-m is required -m= ${date}</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>-m is not date format -m= ${date}</t>
+  </si>
+  <si>
+    <t>健康情報取得</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2.1.3.1.健康情報検索 参照</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>#3の内容を月次健康情報集計CSVに出力</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ファイル内容については
+[3.1. ファイルIF]シート
+　3.1.1. 月次健康情報集計CSV 参照</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>S3にファイルアップロード</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -391,18 +426,37 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>ファイル内容については
-[3.1. ファイルIF]シート
-　3.1.1. 月次健康情報集計CSV 参照</t>
-    <phoneticPr fontId="7"/>
+    <t>HHMI</t>
   </si>
   <si>
-    <t>以下の値を取得
-・引数の値が未指定の場合、システム日時を「YYYYMM」形式に変換したものを使用</t>
-    <phoneticPr fontId="7"/>
+    <t>HHMISS</t>
   </si>
   <si>
-    <t>HEALTH_INFO_REG_DATE BETWEEN ${#1で取得した処理対象年月/1 00:00:00} AND ${#1で取得した処理対象年月/月末日 23:59:59}</t>
+    <t>YYYY/MM</t>
+  </si>
+  <si>
+    <t>YYYY/MM/DD</t>
+  </si>
+  <si>
+    <t>HH:MI</t>
+  </si>
+  <si>
+    <t>HH:MI:SS</t>
+  </si>
+  <si>
+    <t>YYYY/MM/DD HH:MI:SS</t>
+  </si>
+  <si>
+    <t>メールアドレス形式</t>
+  </si>
+  <si>
+    <t>URL形式</t>
+  </si>
+  <si>
+    <t>byte数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -413,7 +467,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -466,8 +520,23 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,8 +567,14 @@
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF94E873"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -611,63 +686,10 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -707,11 +729,138 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -772,41 +921,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -829,7 +943,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -841,11 +955,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -860,72 +972,86 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1146,7 +1272,7 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
@@ -1217,681 +1343,681 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="3"/>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67" t="s">
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="66"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="47"/>
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="3"/>
-      <c r="B4" s="68">
+      <c r="B4" s="49">
         <v>44156</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="69" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="64" t="s">
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="66"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="47"/>
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="3"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="66"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="47"/>
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="3"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="66"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="47"/>
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="3"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="66"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="47"/>
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="3"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="66"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="47"/>
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="3"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="66"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="47"/>
       <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="3"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="66"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="47"/>
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="3"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="66"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="47"/>
       <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="3"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="66"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="47"/>
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="3"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="66"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="47"/>
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="3"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="66"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="47"/>
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="3"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="66"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="47"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="3"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="66"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="47"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="3"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="66"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="47"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="3"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="66"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="47"/>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="3"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="66"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="47"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="3"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="66"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="47"/>
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="3"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="66"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="47"/>
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="3"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="66"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="47"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="3"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="66"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="47"/>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="3"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="65"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="66"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="47"/>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="3"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="65"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="66"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="47"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27">
@@ -1954,12 +2080,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -1969,60 +2143,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3643,16 +3769,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BL41"/>
+  <dimension ref="A1:BP42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14:X14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="64" width="3.7109375" customWidth="1"/>
+    <col min="1" max="68" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="16.5">
+    <row r="1" spans="1:68" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3719,8 +3847,12 @@
       <c r="BJ1" s="2"/>
       <c r="BK1" s="2"/>
       <c r="BL1" s="2"/>
-    </row>
-    <row r="2" spans="1:64" ht="16.5">
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+    </row>
+    <row r="2" spans="1:68" ht="16.5">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3785,8 +3917,12 @@
       <c r="BJ2" s="5"/>
       <c r="BK2" s="5"/>
       <c r="BL2" s="3"/>
-    </row>
-    <row r="3" spans="1:64" ht="16.5">
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+    </row>
+    <row r="3" spans="1:68" ht="16.5">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3851,8 +3987,12 @@
       <c r="BJ3" s="5"/>
       <c r="BK3" s="5"/>
       <c r="BL3" s="3"/>
-    </row>
-    <row r="4" spans="1:64" ht="16.5">
+      <c r="BM3" s="4"/>
+      <c r="BN3" s="4"/>
+      <c r="BO3" s="4"/>
+      <c r="BP3" s="4"/>
+    </row>
+    <row r="4" spans="1:68" ht="16.5">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -3919,8 +4059,12 @@
       <c r="BJ4" s="9"/>
       <c r="BK4" s="9"/>
       <c r="BL4" s="10"/>
-    </row>
-    <row r="5" spans="1:64" ht="16.5">
+      <c r="BM4" s="10"/>
+      <c r="BN4" s="10"/>
+      <c r="BO4" s="10"/>
+      <c r="BP4" s="10"/>
+    </row>
+    <row r="5" spans="1:68" ht="16.5">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3985,8 +4129,12 @@
       <c r="BJ5" s="5"/>
       <c r="BK5" s="5"/>
       <c r="BL5" s="3"/>
-    </row>
-    <row r="6" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4"/>
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+    </row>
+    <row r="6" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A6" s="5"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
@@ -4053,288 +4201,308 @@
       <c r="BJ6" s="15"/>
       <c r="BK6" s="5"/>
       <c r="BL6" s="3"/>
-    </row>
-    <row r="7" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="BM6" s="4"/>
+      <c r="BN6" s="4"/>
+      <c r="BO6" s="4"/>
+      <c r="BP6" s="4"/>
+    </row>
+    <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="5"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="89" t="s">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="65"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-      <c r="AG7" s="65"/>
-      <c r="AH7" s="65"/>
-      <c r="AI7" s="65"/>
-      <c r="AJ7" s="65"/>
-      <c r="AK7" s="65"/>
-      <c r="AL7" s="65"/>
-      <c r="AM7" s="65"/>
-      <c r="AN7" s="65"/>
-      <c r="AO7" s="65"/>
-      <c r="AP7" s="65"/>
-      <c r="AQ7" s="65"/>
-      <c r="AR7" s="65"/>
-      <c r="AS7" s="65"/>
-      <c r="AT7" s="65"/>
-      <c r="AU7" s="65"/>
-      <c r="AV7" s="65"/>
-      <c r="AW7" s="65"/>
-      <c r="AX7" s="65"/>
-      <c r="AY7" s="65"/>
-      <c r="AZ7" s="65"/>
-      <c r="BA7" s="65"/>
-      <c r="BB7" s="65"/>
-      <c r="BC7" s="65"/>
-      <c r="BD7" s="65"/>
-      <c r="BE7" s="65"/>
-      <c r="BF7" s="65"/>
-      <c r="BG7" s="65"/>
-      <c r="BH7" s="65"/>
-      <c r="BI7" s="65"/>
-      <c r="BJ7" s="66"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
+      <c r="AG7" s="46"/>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="46"/>
+      <c r="AK7" s="46"/>
+      <c r="AL7" s="46"/>
+      <c r="AM7" s="46"/>
+      <c r="AN7" s="46"/>
+      <c r="AO7" s="46"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="46"/>
+      <c r="AR7" s="46"/>
+      <c r="AS7" s="46"/>
+      <c r="AT7" s="46"/>
+      <c r="AU7" s="46"/>
+      <c r="AV7" s="46"/>
+      <c r="AW7" s="46"/>
+      <c r="AX7" s="46"/>
+      <c r="AY7" s="46"/>
+      <c r="AZ7" s="46"/>
+      <c r="BA7" s="46"/>
+      <c r="BB7" s="46"/>
+      <c r="BC7" s="46"/>
+      <c r="BD7" s="46"/>
+      <c r="BE7" s="46"/>
+      <c r="BF7" s="46"/>
+      <c r="BG7" s="46"/>
+      <c r="BH7" s="46"/>
+      <c r="BI7" s="46"/>
+      <c r="BJ7" s="47"/>
       <c r="BK7" s="5"/>
       <c r="BL7" s="3"/>
-    </row>
-    <row r="8" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="BM7" s="4"/>
+      <c r="BN7" s="4"/>
+      <c r="BO7" s="4"/>
+      <c r="BP7" s="4"/>
+    </row>
+    <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="18"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="89" t="s">
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
-      <c r="AG8" s="65"/>
-      <c r="AH8" s="65"/>
-      <c r="AI8" s="65"/>
-      <c r="AJ8" s="65"/>
-      <c r="AK8" s="65"/>
-      <c r="AL8" s="65"/>
-      <c r="AM8" s="65"/>
-      <c r="AN8" s="65"/>
-      <c r="AO8" s="65"/>
-      <c r="AP8" s="65"/>
-      <c r="AQ8" s="65"/>
-      <c r="AR8" s="65"/>
-      <c r="AS8" s="65"/>
-      <c r="AT8" s="65"/>
-      <c r="AU8" s="65"/>
-      <c r="AV8" s="65"/>
-      <c r="AW8" s="65"/>
-      <c r="AX8" s="65"/>
-      <c r="AY8" s="65"/>
-      <c r="AZ8" s="65"/>
-      <c r="BA8" s="65"/>
-      <c r="BB8" s="65"/>
-      <c r="BC8" s="65"/>
-      <c r="BD8" s="65"/>
-      <c r="BE8" s="65"/>
-      <c r="BF8" s="65"/>
-      <c r="BG8" s="65"/>
-      <c r="BH8" s="65"/>
-      <c r="BI8" s="65"/>
-      <c r="BJ8" s="66"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="46"/>
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="46"/>
+      <c r="AJ8" s="46"/>
+      <c r="AK8" s="46"/>
+      <c r="AL8" s="46"/>
+      <c r="AM8" s="46"/>
+      <c r="AN8" s="46"/>
+      <c r="AO8" s="46"/>
+      <c r="AP8" s="46"/>
+      <c r="AQ8" s="46"/>
+      <c r="AR8" s="46"/>
+      <c r="AS8" s="46"/>
+      <c r="AT8" s="46"/>
+      <c r="AU8" s="46"/>
+      <c r="AV8" s="46"/>
+      <c r="AW8" s="46"/>
+      <c r="AX8" s="46"/>
+      <c r="AY8" s="46"/>
+      <c r="AZ8" s="46"/>
+      <c r="BA8" s="46"/>
+      <c r="BB8" s="46"/>
+      <c r="BC8" s="46"/>
+      <c r="BD8" s="46"/>
+      <c r="BE8" s="46"/>
+      <c r="BF8" s="46"/>
+      <c r="BG8" s="46"/>
+      <c r="BH8" s="46"/>
+      <c r="BI8" s="46"/>
+      <c r="BJ8" s="47"/>
       <c r="BK8" s="18"/>
       <c r="BL8" s="19"/>
-    </row>
-    <row r="9" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="BM8" s="19"/>
+      <c r="BN8" s="19"/>
+      <c r="BO8" s="19"/>
+      <c r="BP8" s="19"/>
+    </row>
+    <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="5"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="89" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="65"/>
-      <c r="AI9" s="65"/>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="65"/>
-      <c r="AL9" s="65"/>
-      <c r="AM9" s="65"/>
-      <c r="AN9" s="65"/>
-      <c r="AO9" s="65"/>
-      <c r="AP9" s="65"/>
-      <c r="AQ9" s="65"/>
-      <c r="AR9" s="65"/>
-      <c r="AS9" s="65"/>
-      <c r="AT9" s="65"/>
-      <c r="AU9" s="65"/>
-      <c r="AV9" s="65"/>
-      <c r="AW9" s="65"/>
-      <c r="AX9" s="65"/>
-      <c r="AY9" s="65"/>
-      <c r="AZ9" s="65"/>
-      <c r="BA9" s="65"/>
-      <c r="BB9" s="65"/>
-      <c r="BC9" s="65"/>
-      <c r="BD9" s="65"/>
-      <c r="BE9" s="65"/>
-      <c r="BF9" s="65"/>
-      <c r="BG9" s="65"/>
-      <c r="BH9" s="65"/>
-      <c r="BI9" s="65"/>
-      <c r="BJ9" s="66"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="46"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="46"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="46"/>
+      <c r="AN9" s="46"/>
+      <c r="AO9" s="46"/>
+      <c r="AP9" s="46"/>
+      <c r="AQ9" s="46"/>
+      <c r="AR9" s="46"/>
+      <c r="AS9" s="46"/>
+      <c r="AT9" s="46"/>
+      <c r="AU9" s="46"/>
+      <c r="AV9" s="46"/>
+      <c r="AW9" s="46"/>
+      <c r="AX9" s="46"/>
+      <c r="AY9" s="46"/>
+      <c r="AZ9" s="46"/>
+      <c r="BA9" s="46"/>
+      <c r="BB9" s="46"/>
+      <c r="BC9" s="46"/>
+      <c r="BD9" s="46"/>
+      <c r="BE9" s="46"/>
+      <c r="BF9" s="46"/>
+      <c r="BG9" s="46"/>
+      <c r="BH9" s="46"/>
+      <c r="BI9" s="46"/>
+      <c r="BJ9" s="47"/>
       <c r="BK9" s="5"/>
       <c r="BL9" s="3"/>
-    </row>
-    <row r="10" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="BM9" s="4"/>
+      <c r="BN9" s="4"/>
+      <c r="BO9" s="4"/>
+      <c r="BP9" s="4"/>
+    </row>
+    <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="5"/>
       <c r="B10" s="20"/>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="65"/>
-      <c r="AV10" s="65"/>
-      <c r="AW10" s="65"/>
-      <c r="AX10" s="65"/>
-      <c r="AY10" s="65"/>
-      <c r="AZ10" s="65"/>
-      <c r="BA10" s="65"/>
-      <c r="BB10" s="65"/>
-      <c r="BC10" s="65"/>
-      <c r="BD10" s="65"/>
-      <c r="BE10" s="65"/>
-      <c r="BF10" s="65"/>
-      <c r="BG10" s="65"/>
-      <c r="BH10" s="65"/>
-      <c r="BI10" s="65"/>
-      <c r="BJ10" s="66"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="46"/>
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="46"/>
+      <c r="AJ10" s="46"/>
+      <c r="AK10" s="46"/>
+      <c r="AL10" s="46"/>
+      <c r="AM10" s="46"/>
+      <c r="AN10" s="46"/>
+      <c r="AO10" s="46"/>
+      <c r="AP10" s="46"/>
+      <c r="AQ10" s="46"/>
+      <c r="AR10" s="46"/>
+      <c r="AS10" s="46"/>
+      <c r="AT10" s="46"/>
+      <c r="AU10" s="46"/>
+      <c r="AV10" s="46"/>
+      <c r="AW10" s="46"/>
+      <c r="AX10" s="46"/>
+      <c r="AY10" s="46"/>
+      <c r="AZ10" s="46"/>
+      <c r="BA10" s="46"/>
+      <c r="BB10" s="46"/>
+      <c r="BC10" s="46"/>
+      <c r="BD10" s="46"/>
+      <c r="BE10" s="46"/>
+      <c r="BF10" s="46"/>
+      <c r="BG10" s="46"/>
+      <c r="BH10" s="46"/>
+      <c r="BI10" s="46"/>
+      <c r="BJ10" s="47"/>
       <c r="BK10" s="5"/>
       <c r="BL10" s="3"/>
-    </row>
-    <row r="11" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="BM10" s="4"/>
+      <c r="BN10" s="4"/>
+      <c r="BO10" s="4"/>
+      <c r="BP10" s="4"/>
+    </row>
+    <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -4399,11 +4567,15 @@
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
       <c r="BL11" s="3"/>
-    </row>
-    <row r="12" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="BM11" s="4"/>
+      <c r="BN11" s="4"/>
+      <c r="BO11" s="4"/>
+      <c r="BP11" s="4"/>
+    </row>
+    <row r="12" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A12" s="5"/>
       <c r="B12" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -4467,78 +4639,82 @@
       <c r="BJ12" s="5"/>
       <c r="BK12" s="5"/>
       <c r="BL12" s="3"/>
-    </row>
-    <row r="13" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="BM12" s="4"/>
+      <c r="BN12" s="4"/>
+      <c r="BO12" s="4"/>
+      <c r="BP12" s="4"/>
+    </row>
+    <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="5"/>
       <c r="B13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="85" t="s">
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="85" t="s">
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="85" t="s">
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG13" s="65"/>
-      <c r="AH13" s="65"/>
-      <c r="AI13" s="65"/>
-      <c r="AJ13" s="65"/>
-      <c r="AK13" s="65"/>
-      <c r="AL13" s="65"/>
-      <c r="AM13" s="65"/>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="65"/>
-      <c r="AQ13" s="65"/>
-      <c r="AR13" s="65"/>
-      <c r="AS13" s="65"/>
-      <c r="AT13" s="65"/>
-      <c r="AU13" s="65"/>
-      <c r="AV13" s="65"/>
-      <c r="AW13" s="65"/>
-      <c r="AX13" s="65"/>
-      <c r="AY13" s="65"/>
-      <c r="AZ13" s="65"/>
-      <c r="BA13" s="65"/>
-      <c r="BB13" s="65"/>
-      <c r="BC13" s="65"/>
-      <c r="BD13" s="66"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="46"/>
+      <c r="AK13" s="46"/>
+      <c r="AL13" s="46"/>
+      <c r="AM13" s="46"/>
+      <c r="AN13" s="46"/>
+      <c r="AO13" s="46"/>
+      <c r="AP13" s="46"/>
+      <c r="AQ13" s="46"/>
+      <c r="AR13" s="46"/>
+      <c r="AS13" s="46"/>
+      <c r="AT13" s="46"/>
+      <c r="AU13" s="46"/>
+      <c r="AV13" s="46"/>
+      <c r="AW13" s="46"/>
+      <c r="AX13" s="46"/>
+      <c r="AY13" s="46"/>
+      <c r="AZ13" s="46"/>
+      <c r="BA13" s="46"/>
+      <c r="BB13" s="46"/>
+      <c r="BC13" s="46"/>
+      <c r="BD13" s="47"/>
       <c r="BE13" s="19"/>
       <c r="BF13" s="19"/>
       <c r="BG13" s="19"/>
@@ -4547,14 +4723,18 @@
       <c r="BJ13" s="19"/>
       <c r="BK13" s="5"/>
       <c r="BL13" s="3"/>
-    </row>
-    <row r="14" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="BM13" s="4"/>
+      <c r="BN13" s="4"/>
+      <c r="BO13" s="4"/>
+      <c r="BP13" s="4"/>
+    </row>
+    <row r="14" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A14" s="5"/>
       <c r="B14" s="23">
         <v>1</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -4562,63 +4742,63 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
       <c r="N14" s="26"/>
-      <c r="O14" s="86" t="s">
+      <c r="O14" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="54">
+        <v>6</v>
+      </c>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="86">
-        <v>6</v>
-      </c>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="65"/>
-      <c r="AB14" s="65"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="65"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG14" s="65"/>
-      <c r="AH14" s="65"/>
-      <c r="AI14" s="65"/>
-      <c r="AJ14" s="65"/>
-      <c r="AK14" s="65"/>
-      <c r="AL14" s="65"/>
-      <c r="AM14" s="65"/>
-      <c r="AN14" s="65"/>
-      <c r="AO14" s="65"/>
-      <c r="AP14" s="65"/>
-      <c r="AQ14" s="65"/>
-      <c r="AR14" s="65"/>
-      <c r="AS14" s="65"/>
-      <c r="AT14" s="65"/>
-      <c r="AU14" s="65"/>
-      <c r="AV14" s="65"/>
-      <c r="AW14" s="65"/>
-      <c r="AX14" s="65"/>
-      <c r="AY14" s="65"/>
-      <c r="AZ14" s="65"/>
-      <c r="BA14" s="65"/>
-      <c r="BB14" s="65"/>
-      <c r="BC14" s="65"/>
-      <c r="BD14" s="66"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="46"/>
+      <c r="AJ14" s="46"/>
+      <c r="AK14" s="46"/>
+      <c r="AL14" s="46"/>
+      <c r="AM14" s="46"/>
+      <c r="AN14" s="46"/>
+      <c r="AO14" s="46"/>
+      <c r="AP14" s="46"/>
+      <c r="AQ14" s="46"/>
+      <c r="AR14" s="46"/>
+      <c r="AS14" s="46"/>
+      <c r="AT14" s="46"/>
+      <c r="AU14" s="46"/>
+      <c r="AV14" s="46"/>
+      <c r="AW14" s="46"/>
+      <c r="AX14" s="46"/>
+      <c r="AY14" s="46"/>
+      <c r="AZ14" s="46"/>
+      <c r="BA14" s="46"/>
+      <c r="BB14" s="46"/>
+      <c r="BC14" s="46"/>
+      <c r="BD14" s="47"/>
       <c r="BE14" s="19"/>
       <c r="BF14" s="19"/>
       <c r="BG14" s="19"/>
@@ -4627,8 +4807,12 @@
       <c r="BJ14" s="19"/>
       <c r="BK14" s="5"/>
       <c r="BL14" s="3"/>
-    </row>
-    <row r="15" spans="1:64" ht="16.5">
+      <c r="BM14" s="4"/>
+      <c r="BN14" s="4"/>
+      <c r="BO14" s="4"/>
+      <c r="BP14" s="4"/>
+    </row>
+    <row r="15" spans="1:68" ht="16.5">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -4693,10 +4877,14 @@
       <c r="BJ15" s="5"/>
       <c r="BK15" s="5"/>
       <c r="BL15" s="3"/>
-    </row>
-    <row r="16" spans="1:64" ht="16.5">
+      <c r="BM15" s="4"/>
+      <c r="BN15" s="4"/>
+      <c r="BO15" s="4"/>
+      <c r="BP15" s="4"/>
+    </row>
+    <row r="16" spans="1:68" ht="16.5">
       <c r="A16" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -4761,8 +4949,12 @@
       <c r="BJ16" s="9"/>
       <c r="BK16" s="9"/>
       <c r="BL16" s="10"/>
-    </row>
-    <row r="17" spans="1:64" ht="16.5">
+      <c r="BM16" s="10"/>
+      <c r="BN16" s="10"/>
+      <c r="BO16" s="10"/>
+      <c r="BP16" s="10"/>
+    </row>
+    <row r="17" spans="1:68" ht="16.5">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4827,900 +5019,1001 @@
       <c r="BJ17" s="5"/>
       <c r="BK17" s="5"/>
       <c r="BL17" s="3"/>
-    </row>
-    <row r="18" spans="1:64" ht="16.5" outlineLevel="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29" t="s">
-        <v>21</v>
+      <c r="BM17" s="4"/>
+      <c r="BN17" s="4"/>
+      <c r="BO17" s="4"/>
+      <c r="BP17" s="4"/>
+    </row>
+    <row r="18" spans="1:68" s="63" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A18" s="27"/>
+      <c r="B18" s="61" t="s">
+        <v>20</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="85" t="s">
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="62"/>
+      <c r="AJ18" s="62"/>
+      <c r="AK18" s="62"/>
+      <c r="AL18" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="65"/>
-      <c r="AI18" s="65"/>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="65"/>
-      <c r="AL18" s="66"/>
-      <c r="AM18" s="30" t="s">
+      <c r="AM18" s="62"/>
+      <c r="AN18" s="62"/>
+      <c r="AO18" s="62"/>
+      <c r="AP18" s="62"/>
+      <c r="AQ18" s="62"/>
+      <c r="AR18" s="62"/>
+      <c r="AS18" s="62"/>
+      <c r="AT18" s="62"/>
+      <c r="AU18" s="62"/>
+      <c r="AV18" s="62"/>
+      <c r="AW18" s="62"/>
+      <c r="AX18" s="62"/>
+      <c r="AY18" s="62"/>
+      <c r="AZ18" s="62"/>
+      <c r="BA18" s="62"/>
+      <c r="BB18" s="62"/>
+      <c r="BC18" s="62"/>
+      <c r="BD18" s="62"/>
+      <c r="BE18" s="62"/>
+      <c r="BF18" s="62"/>
+      <c r="BG18" s="62"/>
+      <c r="BH18" s="62"/>
+      <c r="BI18" s="62"/>
+      <c r="BJ18" s="62"/>
+      <c r="BK18" s="62"/>
+      <c r="BL18" s="62"/>
+      <c r="BM18" s="62"/>
+      <c r="BN18" s="62"/>
+      <c r="BO18" s="62"/>
+      <c r="BP18" s="27"/>
+    </row>
+    <row r="19" spans="1:68" s="63" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A19" s="27"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="62"/>
+      <c r="AJ19" s="62"/>
+      <c r="AK19" s="62"/>
+      <c r="AL19" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM19" s="62"/>
+      <c r="AN19" s="62"/>
+      <c r="AO19" s="62"/>
+      <c r="AP19" s="62"/>
+      <c r="AQ19" s="62"/>
+      <c r="AR19" s="62"/>
+      <c r="AS19" s="62"/>
+      <c r="AT19" s="62"/>
+      <c r="AU19" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV19" s="62"/>
+      <c r="AW19" s="62"/>
+      <c r="AX19" s="62"/>
+      <c r="AY19" s="62"/>
+      <c r="AZ19" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA19" s="62"/>
+      <c r="BB19" s="62"/>
+      <c r="BC19" s="62"/>
+      <c r="BD19" s="62"/>
+      <c r="BE19" s="62"/>
+      <c r="BF19" s="62"/>
+      <c r="BG19" s="62"/>
+      <c r="BH19" s="62"/>
+      <c r="BI19" s="62"/>
+      <c r="BJ19" s="62"/>
+      <c r="BK19" s="62"/>
+      <c r="BL19" s="62"/>
+      <c r="BM19" s="62"/>
+      <c r="BN19" s="62"/>
+      <c r="BO19" s="62"/>
+      <c r="BP19" s="27"/>
+    </row>
+    <row r="20" spans="1:68" s="63" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
+      <c r="A20" s="27"/>
+      <c r="B20" s="64">
+        <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD20" s="66"/>
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="66"/>
+      <c r="AK20" s="66"/>
+      <c r="AL20" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM20" s="66"/>
+      <c r="AN20" s="66"/>
+      <c r="AO20" s="66"/>
+      <c r="AP20" s="66"/>
+      <c r="AQ20" s="66"/>
+      <c r="AR20" s="66"/>
+      <c r="AS20" s="66"/>
+      <c r="AT20" s="66"/>
+      <c r="AU20" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV20" s="66"/>
+      <c r="AW20" s="66"/>
+      <c r="AX20" s="66"/>
+      <c r="AY20" s="66"/>
+      <c r="AZ20" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA20" s="66"/>
+      <c r="BB20" s="66"/>
+      <c r="BC20" s="66"/>
+      <c r="BD20" s="66"/>
+      <c r="BE20" s="66"/>
+      <c r="BF20" s="66"/>
+      <c r="BG20" s="66"/>
+      <c r="BH20" s="66"/>
+      <c r="BI20" s="66"/>
+      <c r="BJ20" s="66"/>
+      <c r="BK20" s="66"/>
+      <c r="BL20" s="66"/>
+      <c r="BM20" s="66"/>
+      <c r="BN20" s="66"/>
+      <c r="BO20" s="66"/>
+      <c r="BP20" s="27"/>
+    </row>
+    <row r="21" spans="1:68" s="63" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A21" s="27"/>
+      <c r="B21" s="68">
+        <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>2</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM21" s="66"/>
+      <c r="AN21" s="66"/>
+      <c r="AO21" s="66"/>
+      <c r="AP21" s="66"/>
+      <c r="AQ21" s="66"/>
+      <c r="AR21" s="66"/>
+      <c r="AS21" s="66"/>
+      <c r="AT21" s="66"/>
+      <c r="AU21" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV21" s="65"/>
+      <c r="AW21" s="65"/>
+      <c r="AX21" s="65"/>
+      <c r="AY21" s="65"/>
+      <c r="AZ21" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="BA21" s="67"/>
+      <c r="BB21" s="67"/>
+      <c r="BC21" s="67"/>
+      <c r="BD21" s="67"/>
+      <c r="BE21" s="67"/>
+      <c r="BF21" s="67"/>
+      <c r="BG21" s="67"/>
+      <c r="BH21" s="67"/>
+      <c r="BI21" s="67"/>
+      <c r="BJ21" s="67"/>
+      <c r="BK21" s="67"/>
+      <c r="BL21" s="67"/>
+      <c r="BM21" s="67"/>
+      <c r="BN21" s="67"/>
+      <c r="BO21" s="67"/>
+      <c r="BP21" s="27"/>
+    </row>
+    <row r="22" spans="1:68" s="63" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
+      <c r="A22" s="27"/>
+      <c r="B22" s="68">
+        <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>3</v>
+      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="66"/>
+      <c r="AF22" s="66"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="66"/>
+      <c r="AK22" s="66"/>
+      <c r="AL22" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM22" s="66"/>
+      <c r="AN22" s="66"/>
+      <c r="AO22" s="66"/>
+      <c r="AP22" s="66"/>
+      <c r="AQ22" s="66"/>
+      <c r="AR22" s="66"/>
+      <c r="AS22" s="66"/>
+      <c r="AT22" s="66"/>
+      <c r="AU22" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV22" s="65"/>
+      <c r="AW22" s="65"/>
+      <c r="AX22" s="65"/>
+      <c r="AY22" s="65"/>
+      <c r="AZ22" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA22" s="67"/>
+      <c r="BB22" s="67"/>
+      <c r="BC22" s="67"/>
+      <c r="BD22" s="67"/>
+      <c r="BE22" s="67"/>
+      <c r="BF22" s="67"/>
+      <c r="BG22" s="67"/>
+      <c r="BH22" s="67"/>
+      <c r="BI22" s="67"/>
+      <c r="BJ22" s="67"/>
+      <c r="BK22" s="67"/>
+      <c r="BL22" s="67"/>
+      <c r="BM22" s="67"/>
+      <c r="BN22" s="67"/>
+      <c r="BO22" s="67"/>
+      <c r="BP22" s="27"/>
+    </row>
+    <row r="23" spans="1:68" s="63" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A23" s="27"/>
+      <c r="B23" s="64">
+        <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>4</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="66"/>
+      <c r="AG23" s="66"/>
+      <c r="AH23" s="66"/>
+      <c r="AI23" s="66"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="66"/>
+      <c r="AL23" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM23" s="66"/>
+      <c r="AN23" s="66"/>
+      <c r="AO23" s="66"/>
+      <c r="AP23" s="66"/>
+      <c r="AQ23" s="66"/>
+      <c r="AR23" s="66"/>
+      <c r="AS23" s="66"/>
+      <c r="AT23" s="66"/>
+      <c r="AU23" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV23" s="66"/>
+      <c r="AW23" s="66"/>
+      <c r="AX23" s="66"/>
+      <c r="AY23" s="66"/>
+      <c r="AZ23" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA23" s="66"/>
+      <c r="BB23" s="66"/>
+      <c r="BC23" s="66"/>
+      <c r="BD23" s="66"/>
+      <c r="BE23" s="66"/>
+      <c r="BF23" s="66"/>
+      <c r="BG23" s="66"/>
+      <c r="BH23" s="66"/>
+      <c r="BI23" s="66"/>
+      <c r="BJ23" s="66"/>
+      <c r="BK23" s="66"/>
+      <c r="BL23" s="66"/>
+      <c r="BM23" s="66"/>
+      <c r="BN23" s="66"/>
+      <c r="BO23" s="66"/>
+      <c r="BP23" s="27"/>
+    </row>
+    <row r="24" spans="1:68" s="63" customFormat="1" ht="49.5" customHeight="1" outlineLevel="1">
+      <c r="A24" s="27"/>
+      <c r="B24" s="64">
+        <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>5</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD24" s="66"/>
+      <c r="AE24" s="66"/>
+      <c r="AF24" s="66"/>
+      <c r="AG24" s="66"/>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="66"/>
+      <c r="AJ24" s="66"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM24" s="66"/>
+      <c r="AN24" s="66"/>
+      <c r="AO24" s="66"/>
+      <c r="AP24" s="66"/>
+      <c r="AQ24" s="66"/>
+      <c r="AR24" s="66"/>
+      <c r="AS24" s="66"/>
+      <c r="AT24" s="66"/>
+      <c r="AU24" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV24" s="66"/>
+      <c r="AW24" s="66"/>
+      <c r="AX24" s="66"/>
+      <c r="AY24" s="66"/>
+      <c r="AZ24" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA24" s="66"/>
+      <c r="BB24" s="66"/>
+      <c r="BC24" s="66"/>
+      <c r="BD24" s="66"/>
+      <c r="BE24" s="66"/>
+      <c r="BF24" s="66"/>
+      <c r="BG24" s="66"/>
+      <c r="BH24" s="66"/>
+      <c r="BI24" s="66"/>
+      <c r="BJ24" s="66"/>
+      <c r="BK24" s="66"/>
+      <c r="BL24" s="66"/>
+      <c r="BM24" s="66"/>
+      <c r="BN24" s="66"/>
+      <c r="BO24" s="66"/>
+      <c r="BP24" s="27"/>
+    </row>
+    <row r="25" spans="1:68" s="63" customFormat="1" ht="81.75" customHeight="1" outlineLevel="1">
+      <c r="A25" s="27"/>
+      <c r="B25" s="64">
+        <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>6</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="76"/>
+      <c r="U25" s="76"/>
+      <c r="V25" s="76"/>
+      <c r="W25" s="76"/>
+      <c r="X25" s="76"/>
+      <c r="Y25" s="76"/>
+      <c r="Z25" s="76"/>
+      <c r="AA25" s="76"/>
+      <c r="AB25" s="76"/>
+      <c r="AC25" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD25" s="77"/>
+      <c r="AE25" s="77"/>
+      <c r="AF25" s="77"/>
+      <c r="AG25" s="77"/>
+      <c r="AH25" s="77"/>
+      <c r="AI25" s="77"/>
+      <c r="AJ25" s="77"/>
+      <c r="AK25" s="77"/>
+      <c r="AL25" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM25" s="77"/>
+      <c r="AN25" s="77"/>
+      <c r="AO25" s="77"/>
+      <c r="AP25" s="77"/>
+      <c r="AQ25" s="77"/>
+      <c r="AR25" s="77"/>
+      <c r="AS25" s="77"/>
+      <c r="AT25" s="77"/>
+      <c r="AU25" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV25" s="77"/>
+      <c r="AW25" s="77"/>
+      <c r="AX25" s="77"/>
+      <c r="AY25" s="77"/>
+      <c r="AZ25" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA25" s="77"/>
+      <c r="BB25" s="77"/>
+      <c r="BC25" s="77"/>
+      <c r="BD25" s="77"/>
+      <c r="BE25" s="77"/>
+      <c r="BF25" s="77"/>
+      <c r="BG25" s="77"/>
+      <c r="BH25" s="77"/>
+      <c r="BI25" s="77"/>
+      <c r="BJ25" s="77"/>
+      <c r="BK25" s="77"/>
+      <c r="BL25" s="77"/>
+      <c r="BM25" s="77"/>
+      <c r="BN25" s="77"/>
+      <c r="BO25" s="77"/>
+      <c r="BP25" s="27"/>
+    </row>
+    <row r="26" spans="1:68" ht="16.5">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="5"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="5"/>
+      <c r="AT26" s="5"/>
+      <c r="AU26" s="5"/>
+      <c r="AV26" s="5"/>
+      <c r="AW26" s="5"/>
+      <c r="AX26" s="5"/>
+      <c r="AY26" s="5"/>
+      <c r="AZ26" s="5"/>
+      <c r="BA26" s="5"/>
+      <c r="BB26" s="5"/>
+      <c r="BC26" s="5"/>
+      <c r="BD26" s="5"/>
+      <c r="BE26" s="5"/>
+      <c r="BF26" s="5"/>
+      <c r="BG26" s="5"/>
+      <c r="BH26" s="5"/>
+      <c r="BI26" s="5"/>
+      <c r="BJ26" s="5"/>
+      <c r="BK26" s="5"/>
+      <c r="BL26" s="3"/>
+      <c r="BM26" s="4"/>
+      <c r="BN26" s="4"/>
+      <c r="BO26" s="4"/>
+      <c r="BP26" s="4"/>
+    </row>
+    <row r="27" spans="1:68" ht="16.5">
+      <c r="A27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="32"/>
-      <c r="AP18" s="32"/>
-      <c r="AQ18" s="32"/>
-      <c r="AR18" s="32"/>
-      <c r="AS18" s="32"/>
-      <c r="AT18" s="33"/>
-      <c r="AU18" s="34" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="9"/>
+      <c r="AK27" s="9"/>
+      <c r="AL27" s="9"/>
+      <c r="AM27" s="9"/>
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="9"/>
+      <c r="AP27" s="9"/>
+      <c r="AQ27" s="9"/>
+      <c r="AR27" s="9"/>
+      <c r="AS27" s="9"/>
+      <c r="AT27" s="9"/>
+      <c r="AU27" s="9"/>
+      <c r="AV27" s="9"/>
+      <c r="AW27" s="9"/>
+      <c r="AX27" s="9"/>
+      <c r="AY27" s="9"/>
+      <c r="AZ27" s="9"/>
+      <c r="BA27" s="9"/>
+      <c r="BB27" s="9"/>
+      <c r="BC27" s="9"/>
+      <c r="BD27" s="9"/>
+      <c r="BE27" s="9"/>
+      <c r="BF27" s="9"/>
+      <c r="BG27" s="9"/>
+      <c r="BH27" s="9"/>
+      <c r="BI27" s="9"/>
+      <c r="BJ27" s="9"/>
+      <c r="BK27" s="9"/>
+      <c r="BL27" s="10"/>
+      <c r="BM27" s="10"/>
+      <c r="BN27" s="10"/>
+      <c r="BO27" s="10"/>
+      <c r="BP27" s="10"/>
+    </row>
+    <row r="28" spans="1:68" ht="16.5">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="5"/>
+      <c r="BA28" s="5"/>
+      <c r="BB28" s="5"/>
+      <c r="BC28" s="5"/>
+      <c r="BD28" s="5"/>
+      <c r="BE28" s="5"/>
+      <c r="BF28" s="5"/>
+      <c r="BG28" s="5"/>
+      <c r="BH28" s="5"/>
+      <c r="BI28" s="5"/>
+      <c r="BJ28" s="5"/>
+      <c r="BK28" s="5"/>
+      <c r="BL28" s="3"/>
+      <c r="BM28" s="4"/>
+      <c r="BN28" s="4"/>
+      <c r="BO28" s="4"/>
+      <c r="BP28" s="4"/>
+    </row>
+    <row r="29" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A29" s="18"/>
+      <c r="B29" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AV18" s="31"/>
-      <c r="AW18" s="32"/>
-      <c r="AX18" s="32"/>
-      <c r="AY18" s="35"/>
-      <c r="AZ18" s="35"/>
-      <c r="BA18" s="35"/>
-      <c r="BB18" s="35"/>
-      <c r="BC18" s="35"/>
-      <c r="BD18" s="35"/>
-      <c r="BE18" s="35"/>
-      <c r="BF18" s="35"/>
-      <c r="BG18" s="35"/>
-      <c r="BH18" s="32"/>
-      <c r="BI18" s="32"/>
-      <c r="BJ18" s="33"/>
-      <c r="BK18" s="18"/>
-      <c r="BL18" s="19"/>
-    </row>
-    <row r="19" spans="1:64" ht="32.25" customHeight="1" outlineLevel="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="36">
-        <v>1</v>
-      </c>
-      <c r="C19" s="87" t="s">
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="29"/>
+      <c r="AI29" s="29"/>
+      <c r="AJ29" s="29"/>
+      <c r="AK29" s="18"/>
+      <c r="AL29" s="18"/>
+      <c r="AM29" s="18"/>
+      <c r="AN29" s="18"/>
+      <c r="AO29" s="18"/>
+      <c r="AP29" s="18"/>
+      <c r="AQ29" s="18"/>
+      <c r="AR29" s="18"/>
+      <c r="AS29" s="18"/>
+      <c r="AT29" s="18"/>
+      <c r="AU29" s="18"/>
+      <c r="AV29" s="18"/>
+      <c r="AW29" s="18"/>
+      <c r="AX29" s="18"/>
+      <c r="AY29" s="18"/>
+      <c r="AZ29" s="18"/>
+      <c r="BA29" s="18"/>
+      <c r="BB29" s="18"/>
+      <c r="BC29" s="18"/>
+      <c r="BD29" s="18"/>
+      <c r="BE29" s="18"/>
+      <c r="BF29" s="18"/>
+      <c r="BG29" s="18"/>
+      <c r="BH29" s="18"/>
+      <c r="BI29" s="18"/>
+      <c r="BJ29" s="18"/>
+      <c r="BK29" s="18"/>
+      <c r="BL29" s="19"/>
+      <c r="BM29" s="19"/>
+      <c r="BN29" s="19"/>
+      <c r="BO29" s="19"/>
+      <c r="BP29" s="19"/>
+    </row>
+    <row r="30" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="78"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="78"/>
-      <c r="AA19" s="78"/>
-      <c r="AB19" s="78"/>
-      <c r="AC19" s="78"/>
-      <c r="AD19" s="78"/>
-      <c r="AE19" s="78"/>
-      <c r="AF19" s="78"/>
-      <c r="AG19" s="78"/>
-      <c r="AH19" s="78"/>
-      <c r="AI19" s="78"/>
-      <c r="AJ19" s="78"/>
-      <c r="AK19" s="78"/>
-      <c r="AL19" s="79"/>
-      <c r="AM19" s="70"/>
-      <c r="AN19" s="71"/>
-      <c r="AO19" s="71"/>
-      <c r="AP19" s="71"/>
-      <c r="AQ19" s="71"/>
-      <c r="AR19" s="71"/>
-      <c r="AS19" s="71"/>
-      <c r="AT19" s="72"/>
-      <c r="AU19" s="70"/>
-      <c r="AV19" s="71"/>
-      <c r="AW19" s="71"/>
-      <c r="AX19" s="71"/>
-      <c r="AY19" s="71"/>
-      <c r="AZ19" s="71"/>
-      <c r="BA19" s="71"/>
-      <c r="BB19" s="71"/>
-      <c r="BC19" s="71"/>
-      <c r="BD19" s="71"/>
-      <c r="BE19" s="71"/>
-      <c r="BF19" s="71"/>
-      <c r="BG19" s="71"/>
-      <c r="BH19" s="71"/>
-      <c r="BI19" s="71"/>
-      <c r="BJ19" s="72"/>
-      <c r="BK19" s="18"/>
-      <c r="BL19" s="19"/>
-    </row>
-    <row r="20" spans="1:64" ht="50.25" customHeight="1" outlineLevel="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="38">
-        <f t="shared" ref="B20:B24" si="0">B19+1</f>
-        <v>2</v>
-      </c>
-      <c r="C20" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="78"/>
-      <c r="AC20" s="78"/>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="78"/>
-      <c r="AF20" s="78"/>
-      <c r="AG20" s="78"/>
-      <c r="AH20" s="78"/>
-      <c r="AI20" s="78"/>
-      <c r="AJ20" s="78"/>
-      <c r="AK20" s="78"/>
-      <c r="AL20" s="79"/>
-      <c r="AM20" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN20" s="71"/>
-      <c r="AO20" s="71"/>
-      <c r="AP20" s="71"/>
-      <c r="AQ20" s="71"/>
-      <c r="AR20" s="71"/>
-      <c r="AS20" s="71"/>
-      <c r="AT20" s="72"/>
-      <c r="AU20" s="70"/>
-      <c r="AV20" s="71"/>
-      <c r="AW20" s="71"/>
-      <c r="AX20" s="71"/>
-      <c r="AY20" s="71"/>
-      <c r="AZ20" s="71"/>
-      <c r="BA20" s="71"/>
-      <c r="BB20" s="71"/>
-      <c r="BC20" s="71"/>
-      <c r="BD20" s="71"/>
-      <c r="BE20" s="71"/>
-      <c r="BF20" s="71"/>
-      <c r="BG20" s="71"/>
-      <c r="BH20" s="71"/>
-      <c r="BI20" s="71"/>
-      <c r="BJ20" s="72"/>
-      <c r="BK20" s="18"/>
-      <c r="BL20" s="19"/>
-    </row>
-    <row r="21" spans="1:64" ht="50.25" customHeight="1" outlineLevel="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="38">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="78"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="78"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="78"/>
-      <c r="AB21" s="78"/>
-      <c r="AC21" s="78"/>
-      <c r="AD21" s="78"/>
-      <c r="AE21" s="78"/>
-      <c r="AF21" s="78"/>
-      <c r="AG21" s="78"/>
-      <c r="AH21" s="78"/>
-      <c r="AI21" s="78"/>
-      <c r="AJ21" s="78"/>
-      <c r="AK21" s="78"/>
-      <c r="AL21" s="79"/>
-      <c r="AM21" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN21" s="71"/>
-      <c r="AO21" s="71"/>
-      <c r="AP21" s="71"/>
-      <c r="AQ21" s="71"/>
-      <c r="AR21" s="71"/>
-      <c r="AS21" s="71"/>
-      <c r="AT21" s="72"/>
-      <c r="AU21" s="70"/>
-      <c r="AV21" s="71"/>
-      <c r="AW21" s="71"/>
-      <c r="AX21" s="71"/>
-      <c r="AY21" s="71"/>
-      <c r="AZ21" s="71"/>
-      <c r="BA21" s="71"/>
-      <c r="BB21" s="71"/>
-      <c r="BC21" s="71"/>
-      <c r="BD21" s="71"/>
-      <c r="BE21" s="71"/>
-      <c r="BF21" s="71"/>
-      <c r="BG21" s="71"/>
-      <c r="BH21" s="71"/>
-      <c r="BI21" s="71"/>
-      <c r="BJ21" s="72"/>
-      <c r="BK21" s="18"/>
-      <c r="BL21" s="19"/>
-    </row>
-    <row r="22" spans="1:64" ht="16.5" outlineLevel="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="38">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="81"/>
-      <c r="X22" s="81"/>
-      <c r="Y22" s="81"/>
-      <c r="Z22" s="81"/>
-      <c r="AA22" s="81"/>
-      <c r="AB22" s="81"/>
-      <c r="AC22" s="81"/>
-      <c r="AD22" s="81"/>
-      <c r="AE22" s="81"/>
-      <c r="AF22" s="81"/>
-      <c r="AG22" s="81"/>
-      <c r="AH22" s="81"/>
-      <c r="AI22" s="81"/>
-      <c r="AJ22" s="81"/>
-      <c r="AK22" s="81"/>
-      <c r="AL22" s="82"/>
-      <c r="AM22" s="70"/>
-      <c r="AN22" s="71"/>
-      <c r="AO22" s="71"/>
-      <c r="AP22" s="71"/>
-      <c r="AQ22" s="71"/>
-      <c r="AR22" s="71"/>
-      <c r="AS22" s="71"/>
-      <c r="AT22" s="72"/>
-      <c r="AU22" s="70"/>
-      <c r="AV22" s="71"/>
-      <c r="AW22" s="71"/>
-      <c r="AX22" s="71"/>
-      <c r="AY22" s="71"/>
-      <c r="AZ22" s="71"/>
-      <c r="BA22" s="71"/>
-      <c r="BB22" s="71"/>
-      <c r="BC22" s="71"/>
-      <c r="BD22" s="71"/>
-      <c r="BE22" s="71"/>
-      <c r="BF22" s="71"/>
-      <c r="BG22" s="71"/>
-      <c r="BH22" s="71"/>
-      <c r="BI22" s="71"/>
-      <c r="BJ22" s="72"/>
-      <c r="BK22" s="18"/>
-      <c r="BL22" s="19"/>
-    </row>
-    <row r="23" spans="1:64" ht="52.5" customHeight="1" outlineLevel="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="42">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="84" t="s">
-        <v>116</v>
-      </c>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
-      <c r="W23" s="81"/>
-      <c r="X23" s="81"/>
-      <c r="Y23" s="81"/>
-      <c r="Z23" s="81"/>
-      <c r="AA23" s="81"/>
-      <c r="AB23" s="81"/>
-      <c r="AC23" s="81"/>
-      <c r="AD23" s="81"/>
-      <c r="AE23" s="81"/>
-      <c r="AF23" s="81"/>
-      <c r="AG23" s="81"/>
-      <c r="AH23" s="81"/>
-      <c r="AI23" s="81"/>
-      <c r="AJ23" s="81"/>
-      <c r="AK23" s="81"/>
-      <c r="AL23" s="82"/>
-      <c r="AM23" s="70"/>
-      <c r="AN23" s="71"/>
-      <c r="AO23" s="71"/>
-      <c r="AP23" s="71"/>
-      <c r="AQ23" s="71"/>
-      <c r="AR23" s="71"/>
-      <c r="AS23" s="71"/>
-      <c r="AT23" s="72"/>
-      <c r="AU23" s="70"/>
-      <c r="AV23" s="71"/>
-      <c r="AW23" s="71"/>
-      <c r="AX23" s="71"/>
-      <c r="AY23" s="71"/>
-      <c r="AZ23" s="71"/>
-      <c r="BA23" s="71"/>
-      <c r="BB23" s="71"/>
-      <c r="BC23" s="71"/>
-      <c r="BD23" s="71"/>
-      <c r="BE23" s="71"/>
-      <c r="BF23" s="71"/>
-      <c r="BG23" s="71"/>
-      <c r="BH23" s="71"/>
-      <c r="BI23" s="71"/>
-      <c r="BJ23" s="72"/>
-      <c r="BK23" s="18"/>
-      <c r="BL23" s="19"/>
-    </row>
-    <row r="24" spans="1:64" ht="83.25" customHeight="1" outlineLevel="1">
-      <c r="A24" s="28"/>
-      <c r="B24" s="42">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="84" t="s">
-        <v>115</v>
-      </c>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
-      <c r="T24" s="81"/>
-      <c r="U24" s="81"/>
-      <c r="V24" s="81"/>
-      <c r="W24" s="81"/>
-      <c r="X24" s="81"/>
-      <c r="Y24" s="81"/>
-      <c r="Z24" s="81"/>
-      <c r="AA24" s="81"/>
-      <c r="AB24" s="81"/>
-      <c r="AC24" s="81"/>
-      <c r="AD24" s="81"/>
-      <c r="AE24" s="81"/>
-      <c r="AF24" s="81"/>
-      <c r="AG24" s="81"/>
-      <c r="AH24" s="81"/>
-      <c r="AI24" s="81"/>
-      <c r="AJ24" s="81"/>
-      <c r="AK24" s="81"/>
-      <c r="AL24" s="82"/>
-      <c r="AM24" s="70"/>
-      <c r="AN24" s="71"/>
-      <c r="AO24" s="71"/>
-      <c r="AP24" s="71"/>
-      <c r="AQ24" s="71"/>
-      <c r="AR24" s="71"/>
-      <c r="AS24" s="71"/>
-      <c r="AT24" s="72"/>
-      <c r="AU24" s="70"/>
-      <c r="AV24" s="71"/>
-      <c r="AW24" s="71"/>
-      <c r="AX24" s="71"/>
-      <c r="AY24" s="71"/>
-      <c r="AZ24" s="71"/>
-      <c r="BA24" s="71"/>
-      <c r="BB24" s="71"/>
-      <c r="BC24" s="71"/>
-      <c r="BD24" s="71"/>
-      <c r="BE24" s="71"/>
-      <c r="BF24" s="71"/>
-      <c r="BG24" s="71"/>
-      <c r="BH24" s="71"/>
-      <c r="BI24" s="71"/>
-      <c r="BJ24" s="72"/>
-      <c r="BK24" s="18"/>
-      <c r="BL24" s="19"/>
-    </row>
-    <row r="25" spans="1:64" ht="16.5">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
-      <c r="AQ25" s="5"/>
-      <c r="AR25" s="5"/>
-      <c r="AS25" s="5"/>
-      <c r="AT25" s="5"/>
-      <c r="AU25" s="5"/>
-      <c r="AV25" s="5"/>
-      <c r="AW25" s="5"/>
-      <c r="AX25" s="5"/>
-      <c r="AY25" s="5"/>
-      <c r="AZ25" s="5"/>
-      <c r="BA25" s="5"/>
-      <c r="BB25" s="5"/>
-      <c r="BC25" s="5"/>
-      <c r="BD25" s="5"/>
-      <c r="BE25" s="5"/>
-      <c r="BF25" s="5"/>
-      <c r="BG25" s="5"/>
-      <c r="BH25" s="5"/>
-      <c r="BI25" s="5"/>
-      <c r="BJ25" s="5"/>
-      <c r="BK25" s="5"/>
-      <c r="BL25" s="3"/>
-    </row>
-    <row r="26" spans="1:64" ht="16.5">
-      <c r="A26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="9"/>
-      <c r="AL26" s="9"/>
-      <c r="AM26" s="9"/>
-      <c r="AN26" s="9"/>
-      <c r="AO26" s="9"/>
-      <c r="AP26" s="9"/>
-      <c r="AQ26" s="9"/>
-      <c r="AR26" s="9"/>
-      <c r="AS26" s="9"/>
-      <c r="AT26" s="9"/>
-      <c r="AU26" s="9"/>
-      <c r="AV26" s="9"/>
-      <c r="AW26" s="9"/>
-      <c r="AX26" s="9"/>
-      <c r="AY26" s="9"/>
-      <c r="AZ26" s="9"/>
-      <c r="BA26" s="9"/>
-      <c r="BB26" s="9"/>
-      <c r="BC26" s="9"/>
-      <c r="BD26" s="9"/>
-      <c r="BE26" s="9"/>
-      <c r="BF26" s="9"/>
-      <c r="BG26" s="9"/>
-      <c r="BH26" s="9"/>
-      <c r="BI26" s="9"/>
-      <c r="BJ26" s="9"/>
-      <c r="BK26" s="9"/>
-      <c r="BL26" s="10"/>
-    </row>
-    <row r="27" spans="1:64" ht="16.5">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
-      <c r="AM27" s="5"/>
-      <c r="AN27" s="5"/>
-      <c r="AO27" s="5"/>
-      <c r="AP27" s="5"/>
-      <c r="AQ27" s="5"/>
-      <c r="AR27" s="5"/>
-      <c r="AS27" s="5"/>
-      <c r="AT27" s="5"/>
-      <c r="AU27" s="5"/>
-      <c r="AV27" s="5"/>
-      <c r="AW27" s="5"/>
-      <c r="AX27" s="5"/>
-      <c r="AY27" s="5"/>
-      <c r="AZ27" s="5"/>
-      <c r="BA27" s="5"/>
-      <c r="BB27" s="5"/>
-      <c r="BC27" s="5"/>
-      <c r="BD27" s="5"/>
-      <c r="BE27" s="5"/>
-      <c r="BF27" s="5"/>
-      <c r="BG27" s="5"/>
-      <c r="BH27" s="5"/>
-      <c r="BI27" s="5"/>
-      <c r="BJ27" s="5"/>
-      <c r="BK27" s="5"/>
-      <c r="BL27" s="3"/>
-    </row>
-    <row r="28" spans="1:64" ht="16.5" outlineLevel="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="46"/>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="46"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="18"/>
-      <c r="AL28" s="18"/>
-      <c r="AM28" s="18"/>
-      <c r="AN28" s="18"/>
-      <c r="AO28" s="18"/>
-      <c r="AP28" s="18"/>
-      <c r="AQ28" s="18"/>
-      <c r="AR28" s="18"/>
-      <c r="AS28" s="18"/>
-      <c r="AT28" s="18"/>
-      <c r="AU28" s="18"/>
-      <c r="AV28" s="18"/>
-      <c r="AW28" s="18"/>
-      <c r="AX28" s="18"/>
-      <c r="AY28" s="18"/>
-      <c r="AZ28" s="18"/>
-      <c r="BA28" s="18"/>
-      <c r="BB28" s="18"/>
-      <c r="BC28" s="18"/>
-      <c r="BD28" s="18"/>
-      <c r="BE28" s="18"/>
-      <c r="BF28" s="18"/>
-      <c r="BG28" s="18"/>
-      <c r="BH28" s="18"/>
-      <c r="BI28" s="18"/>
-      <c r="BJ28" s="18"/>
-      <c r="BK28" s="18"/>
-      <c r="BL28" s="19"/>
-    </row>
-    <row r="29" spans="1:64" ht="16.5" outlineLevel="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="48"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="48"/>
-      <c r="AD29" s="48"/>
-      <c r="AE29" s="48"/>
-      <c r="AF29" s="48"/>
-      <c r="AG29" s="48"/>
-      <c r="AH29" s="48"/>
-      <c r="AI29" s="48"/>
-      <c r="AJ29" s="48"/>
-      <c r="AK29" s="48"/>
-      <c r="AL29" s="48"/>
-      <c r="AM29" s="48"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
-      <c r="AQ29" s="5"/>
-      <c r="AR29" s="5"/>
-      <c r="AS29" s="5"/>
-      <c r="AT29" s="5"/>
-      <c r="AU29" s="5"/>
-      <c r="AV29" s="5"/>
-      <c r="AW29" s="5"/>
-      <c r="AX29" s="5"/>
-      <c r="AY29" s="5"/>
-      <c r="AZ29" s="5"/>
-      <c r="BA29" s="5"/>
-      <c r="BB29" s="5"/>
-      <c r="BC29" s="5"/>
-      <c r="BD29" s="5"/>
-      <c r="BE29" s="5"/>
-      <c r="BF29" s="5"/>
-      <c r="BG29" s="5"/>
-      <c r="BH29" s="5"/>
-      <c r="BI29" s="5"/>
-      <c r="BJ29" s="5"/>
-      <c r="BK29" s="5"/>
-      <c r="BL29" s="3"/>
-    </row>
-    <row r="30" spans="1:64" ht="16.5" outlineLevel="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="48"/>
-      <c r="AA30" s="48"/>
-      <c r="AB30" s="48"/>
-      <c r="AC30" s="48"/>
-      <c r="AD30" s="48"/>
-      <c r="AE30" s="48"/>
-      <c r="AF30" s="48"/>
-      <c r="AG30" s="48"/>
-      <c r="AH30" s="48"/>
-      <c r="AI30" s="48"/>
-      <c r="AJ30" s="48"/>
-      <c r="AK30" s="48"/>
-      <c r="AL30" s="48"/>
-      <c r="AM30" s="48"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="31"/>
+      <c r="AH30" s="31"/>
+      <c r="AI30" s="31"/>
+      <c r="AJ30" s="31"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="31"/>
+      <c r="AM30" s="31"/>
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
@@ -5746,49 +6039,53 @@
       <c r="BJ30" s="5"/>
       <c r="BK30" s="5"/>
       <c r="BL30" s="3"/>
-    </row>
-    <row r="31" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="BM30" s="4"/>
+      <c r="BN30" s="4"/>
+      <c r="BO30" s="4"/>
+      <c r="BP30" s="4"/>
+    </row>
+    <row r="31" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="47" t="s">
-        <v>50</v>
+      <c r="C31" s="31"/>
+      <c r="D31" s="30" t="s">
+        <v>39</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="48"/>
-      <c r="AC31" s="48"/>
-      <c r="AD31" s="48"/>
-      <c r="AE31" s="48"/>
-      <c r="AF31" s="48"/>
-      <c r="AG31" s="48"/>
-      <c r="AH31" s="48"/>
-      <c r="AI31" s="48"/>
-      <c r="AJ31" s="48"/>
-      <c r="AK31" s="48"/>
-      <c r="AL31" s="48"/>
-      <c r="AM31" s="48"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="31"/>
+      <c r="AG31" s="31"/>
+      <c r="AH31" s="31"/>
+      <c r="AI31" s="31"/>
+      <c r="AJ31" s="31"/>
+      <c r="AK31" s="31"/>
+      <c r="AL31" s="31"/>
+      <c r="AM31" s="31"/>
       <c r="AN31" s="5"/>
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
@@ -5814,49 +6111,53 @@
       <c r="BJ31" s="5"/>
       <c r="BK31" s="5"/>
       <c r="BL31" s="3"/>
-    </row>
-    <row r="32" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="BM31" s="4"/>
+      <c r="BN31" s="4"/>
+      <c r="BO31" s="4"/>
+      <c r="BP31" s="4"/>
+    </row>
+    <row r="32" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="47" t="s">
-        <v>51</v>
+      <c r="C32" s="30" t="s">
+        <v>40</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="48"/>
-      <c r="AB32" s="48"/>
-      <c r="AC32" s="48"/>
-      <c r="AD32" s="48"/>
-      <c r="AE32" s="48"/>
-      <c r="AF32" s="48"/>
-      <c r="AG32" s="48"/>
-      <c r="AH32" s="48"/>
-      <c r="AI32" s="48"/>
-      <c r="AJ32" s="48"/>
-      <c r="AK32" s="48"/>
-      <c r="AL32" s="48"/>
-      <c r="AM32" s="48"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="31"/>
+      <c r="AD32" s="31"/>
+      <c r="AE32" s="31"/>
+      <c r="AF32" s="31"/>
+      <c r="AG32" s="31"/>
+      <c r="AH32" s="31"/>
+      <c r="AI32" s="31"/>
+      <c r="AJ32" s="31"/>
+      <c r="AK32" s="31"/>
+      <c r="AL32" s="31"/>
+      <c r="AM32" s="31"/>
       <c r="AN32" s="5"/>
       <c r="AO32" s="5"/>
       <c r="AP32" s="5"/>
@@ -5882,49 +6183,53 @@
       <c r="BJ32" s="5"/>
       <c r="BK32" s="5"/>
       <c r="BL32" s="3"/>
-    </row>
-    <row r="33" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="BM32" s="4"/>
+      <c r="BN32" s="4"/>
+      <c r="BO32" s="4"/>
+      <c r="BP32" s="4"/>
+    </row>
+    <row r="33" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="47" t="s">
-        <v>52</v>
+      <c r="C33" s="31"/>
+      <c r="D33" s="30" t="s">
+        <v>41</v>
       </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="48"/>
-      <c r="AA33" s="48"/>
-      <c r="AB33" s="48"/>
-      <c r="AC33" s="48"/>
-      <c r="AD33" s="48"/>
-      <c r="AE33" s="48"/>
-      <c r="AF33" s="48"/>
-      <c r="AG33" s="48"/>
-      <c r="AH33" s="48"/>
-      <c r="AI33" s="48"/>
-      <c r="AJ33" s="48"/>
-      <c r="AK33" s="48"/>
-      <c r="AL33" s="48"/>
-      <c r="AM33" s="48"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="31"/>
+      <c r="AC33" s="31"/>
+      <c r="AD33" s="31"/>
+      <c r="AE33" s="31"/>
+      <c r="AF33" s="31"/>
+      <c r="AG33" s="31"/>
+      <c r="AH33" s="31"/>
+      <c r="AI33" s="31"/>
+      <c r="AJ33" s="31"/>
+      <c r="AK33" s="31"/>
+      <c r="AL33" s="31"/>
+      <c r="AM33" s="31"/>
       <c r="AN33" s="5"/>
       <c r="AO33" s="5"/>
       <c r="AP33" s="5"/>
@@ -5950,49 +6255,53 @@
       <c r="BJ33" s="5"/>
       <c r="BK33" s="5"/>
       <c r="BL33" s="3"/>
-    </row>
-    <row r="34" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="BM33" s="4"/>
+      <c r="BN33" s="4"/>
+      <c r="BO33" s="4"/>
+      <c r="BP33" s="4"/>
+    </row>
+    <row r="34" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="47" t="s">
-        <v>118</v>
+      <c r="C34" s="30" t="s">
+        <v>42</v>
       </c>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
-      <c r="AA34" s="48"/>
-      <c r="AB34" s="48"/>
-      <c r="AC34" s="48"/>
-      <c r="AD34" s="48"/>
-      <c r="AE34" s="48"/>
-      <c r="AF34" s="48"/>
-      <c r="AG34" s="48"/>
-      <c r="AH34" s="48"/>
-      <c r="AI34" s="48"/>
-      <c r="AJ34" s="48"/>
-      <c r="AK34" s="48"/>
-      <c r="AL34" s="48"/>
-      <c r="AM34" s="48"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="31"/>
+      <c r="AH34" s="31"/>
+      <c r="AI34" s="31"/>
+      <c r="AJ34" s="31"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="31"/>
+      <c r="AM34" s="31"/>
       <c r="AN34" s="5"/>
       <c r="AO34" s="5"/>
       <c r="AP34" s="5"/>
@@ -6018,49 +6327,53 @@
       <c r="BJ34" s="5"/>
       <c r="BK34" s="5"/>
       <c r="BL34" s="3"/>
-    </row>
-    <row r="35" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="BM34" s="4"/>
+      <c r="BN34" s="4"/>
+      <c r="BO34" s="4"/>
+      <c r="BP34" s="4"/>
+    </row>
+    <row r="35" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="47" t="s">
-        <v>53</v>
+      <c r="C35" s="31"/>
+      <c r="D35" s="30" t="s">
+        <v>104</v>
       </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="48"/>
-      <c r="AA35" s="48"/>
-      <c r="AB35" s="48"/>
-      <c r="AC35" s="48"/>
-      <c r="AD35" s="48"/>
-      <c r="AE35" s="48"/>
-      <c r="AF35" s="48"/>
-      <c r="AG35" s="48"/>
-      <c r="AH35" s="48"/>
-      <c r="AI35" s="48"/>
-      <c r="AJ35" s="48"/>
-      <c r="AK35" s="48"/>
-      <c r="AL35" s="48"/>
-      <c r="AM35" s="48"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="31"/>
+      <c r="AG35" s="31"/>
+      <c r="AH35" s="31"/>
+      <c r="AI35" s="31"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="31"/>
+      <c r="AL35" s="31"/>
+      <c r="AM35" s="31"/>
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
       <c r="AP35" s="5"/>
@@ -6086,49 +6399,53 @@
       <c r="BJ35" s="5"/>
       <c r="BK35" s="5"/>
       <c r="BL35" s="3"/>
-    </row>
-    <row r="36" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="BM35" s="4"/>
+      <c r="BN35" s="4"/>
+      <c r="BO35" s="4"/>
+      <c r="BP35" s="4"/>
+    </row>
+    <row r="36" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="47" t="s">
-        <v>54</v>
+      <c r="C36" s="30" t="s">
+        <v>43</v>
       </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="48"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="48"/>
-      <c r="X36" s="48"/>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="48"/>
-      <c r="AA36" s="48"/>
-      <c r="AB36" s="48"/>
-      <c r="AC36" s="48"/>
-      <c r="AD36" s="48"/>
-      <c r="AE36" s="48"/>
-      <c r="AF36" s="48"/>
-      <c r="AG36" s="48"/>
-      <c r="AH36" s="48"/>
-      <c r="AI36" s="48"/>
-      <c r="AJ36" s="48"/>
-      <c r="AK36" s="48"/>
-      <c r="AL36" s="48"/>
-      <c r="AM36" s="48"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
+      <c r="AB36" s="31"/>
+      <c r="AC36" s="31"/>
+      <c r="AD36" s="31"/>
+      <c r="AE36" s="31"/>
+      <c r="AF36" s="31"/>
+      <c r="AG36" s="31"/>
+      <c r="AH36" s="31"/>
+      <c r="AI36" s="31"/>
+      <c r="AJ36" s="31"/>
+      <c r="AK36" s="31"/>
+      <c r="AL36" s="31"/>
+      <c r="AM36" s="31"/>
       <c r="AN36" s="5"/>
       <c r="AO36" s="5"/>
       <c r="AP36" s="5"/>
@@ -6154,49 +6471,53 @@
       <c r="BJ36" s="5"/>
       <c r="BK36" s="5"/>
       <c r="BL36" s="3"/>
-    </row>
-    <row r="37" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="BM36" s="4"/>
+      <c r="BN36" s="4"/>
+      <c r="BO36" s="4"/>
+      <c r="BP36" s="4"/>
+    </row>
+    <row r="37" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="47" t="s">
-        <v>55</v>
+      <c r="C37" s="31"/>
+      <c r="D37" s="30" t="s">
+        <v>44</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="48"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="48"/>
-      <c r="AB37" s="48"/>
-      <c r="AC37" s="48"/>
-      <c r="AD37" s="48"/>
-      <c r="AE37" s="48"/>
-      <c r="AF37" s="48"/>
-      <c r="AG37" s="48"/>
-      <c r="AH37" s="48"/>
-      <c r="AI37" s="48"/>
-      <c r="AJ37" s="48"/>
-      <c r="AK37" s="48"/>
-      <c r="AL37" s="48"/>
-      <c r="AM37" s="48"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="31"/>
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="31"/>
+      <c r="AH37" s="31"/>
+      <c r="AI37" s="31"/>
+      <c r="AJ37" s="31"/>
+      <c r="AK37" s="31"/>
+      <c r="AL37" s="31"/>
+      <c r="AM37" s="31"/>
       <c r="AN37" s="5"/>
       <c r="AO37" s="5"/>
       <c r="AP37" s="5"/>
@@ -6222,47 +6543,53 @@
       <c r="BJ37" s="5"/>
       <c r="BK37" s="5"/>
       <c r="BL37" s="3"/>
-    </row>
-    <row r="38" spans="1:64" ht="16.5">
+      <c r="BM37" s="4"/>
+      <c r="BN37" s="4"/>
+      <c r="BO37" s="4"/>
+      <c r="BP37" s="4"/>
+    </row>
+    <row r="38" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
-      <c r="AM38" s="5"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="31"/>
+      <c r="AE38" s="31"/>
+      <c r="AF38" s="31"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="31"/>
+      <c r="AI38" s="31"/>
+      <c r="AJ38" s="31"/>
+      <c r="AK38" s="31"/>
+      <c r="AL38" s="31"/>
+      <c r="AM38" s="31"/>
       <c r="AN38" s="5"/>
       <c r="AO38" s="5"/>
       <c r="AP38" s="5"/>
@@ -6288,142 +6615,154 @@
       <c r="BJ38" s="5"/>
       <c r="BK38" s="5"/>
       <c r="BL38" s="3"/>
-    </row>
-    <row r="39" spans="1:64" ht="16.5">
-      <c r="A39" s="6" t="s">
-        <v>56</v>
+      <c r="BM38" s="4"/>
+      <c r="BN38" s="4"/>
+      <c r="BO38" s="4"/>
+      <c r="BP38" s="4"/>
+    </row>
+    <row r="39" spans="1:68" ht="16.5">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="5"/>
+      <c r="AQ39" s="5"/>
+      <c r="AR39" s="5"/>
+      <c r="AS39" s="5"/>
+      <c r="AT39" s="5"/>
+      <c r="AU39" s="5"/>
+      <c r="AV39" s="5"/>
+      <c r="AW39" s="5"/>
+      <c r="AX39" s="5"/>
+      <c r="AY39" s="5"/>
+      <c r="AZ39" s="5"/>
+      <c r="BA39" s="5"/>
+      <c r="BB39" s="5"/>
+      <c r="BC39" s="5"/>
+      <c r="BD39" s="5"/>
+      <c r="BE39" s="5"/>
+      <c r="BF39" s="5"/>
+      <c r="BG39" s="5"/>
+      <c r="BH39" s="5"/>
+      <c r="BI39" s="5"/>
+      <c r="BJ39" s="5"/>
+      <c r="BK39" s="5"/>
+      <c r="BL39" s="3"/>
+      <c r="BM39" s="4"/>
+      <c r="BN39" s="4"/>
+      <c r="BO39" s="4"/>
+      <c r="BP39" s="4"/>
+    </row>
+    <row r="40" spans="1:68" ht="16.5">
+      <c r="A40" s="6" t="s">
+        <v>46</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="2"/>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="2"/>
-      <c r="AK39" s="2"/>
-      <c r="AL39" s="2"/>
-      <c r="AM39" s="2"/>
-      <c r="AN39" s="2"/>
-      <c r="AO39" s="2"/>
-      <c r="AP39" s="2"/>
-      <c r="AQ39" s="2"/>
-      <c r="AR39" s="2"/>
-      <c r="AS39" s="2"/>
-      <c r="AT39" s="2"/>
-      <c r="AU39" s="2"/>
-      <c r="AV39" s="2"/>
-      <c r="AW39" s="2"/>
-      <c r="AX39" s="2"/>
-      <c r="AY39" s="2"/>
-      <c r="AZ39" s="2"/>
-      <c r="BA39" s="2"/>
-      <c r="BB39" s="2"/>
-      <c r="BC39" s="2"/>
-      <c r="BD39" s="2"/>
-      <c r="BE39" s="2"/>
-      <c r="BF39" s="2"/>
-      <c r="BG39" s="2"/>
-      <c r="BH39" s="2"/>
-      <c r="BI39" s="2"/>
-      <c r="BJ39" s="2"/>
-      <c r="BK39" s="2"/>
-      <c r="BL39" s="2"/>
-    </row>
-    <row r="40" spans="1:64" ht="16.5">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="5"/>
-      <c r="AH40" s="5"/>
-      <c r="AI40" s="5"/>
-      <c r="AJ40" s="5"/>
-      <c r="AK40" s="5"/>
-      <c r="AL40" s="5"/>
-      <c r="AM40" s="5"/>
-      <c r="AN40" s="5"/>
-      <c r="AO40" s="5"/>
-      <c r="AP40" s="5"/>
-      <c r="AQ40" s="5"/>
-      <c r="AR40" s="5"/>
-      <c r="AS40" s="5"/>
-      <c r="AT40" s="5"/>
-      <c r="AU40" s="5"/>
-      <c r="AV40" s="5"/>
-      <c r="AW40" s="5"/>
-      <c r="AX40" s="5"/>
-      <c r="AY40" s="5"/>
-      <c r="AZ40" s="5"/>
-      <c r="BA40" s="5"/>
-      <c r="BB40" s="5"/>
-      <c r="BC40" s="5"/>
-      <c r="BD40" s="5"/>
-      <c r="BE40" s="5"/>
-      <c r="BF40" s="5"/>
-      <c r="BG40" s="5"/>
-      <c r="BH40" s="5"/>
-      <c r="BI40" s="5"/>
-      <c r="BJ40" s="5"/>
-      <c r="BK40" s="5"/>
-      <c r="BL40" s="3"/>
-    </row>
-    <row r="41" spans="1:64" ht="16.5">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2"/>
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="2"/>
+      <c r="AN40" s="2"/>
+      <c r="AO40" s="2"/>
+      <c r="AP40" s="2"/>
+      <c r="AQ40" s="2"/>
+      <c r="AR40" s="2"/>
+      <c r="AS40" s="2"/>
+      <c r="AT40" s="2"/>
+      <c r="AU40" s="2"/>
+      <c r="AV40" s="2"/>
+      <c r="AW40" s="2"/>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="2"/>
+      <c r="AZ40" s="2"/>
+      <c r="BA40" s="2"/>
+      <c r="BB40" s="2"/>
+      <c r="BC40" s="2"/>
+      <c r="BD40" s="2"/>
+      <c r="BE40" s="2"/>
+      <c r="BF40" s="2"/>
+      <c r="BG40" s="2"/>
+      <c r="BH40" s="2"/>
+      <c r="BI40" s="2"/>
+      <c r="BJ40" s="2"/>
+      <c r="BK40" s="2"/>
+      <c r="BL40" s="2"/>
+      <c r="BM40" s="2"/>
+      <c r="BN40" s="2"/>
+      <c r="BO40" s="2"/>
+      <c r="BP40" s="2"/>
+    </row>
+    <row r="41" spans="1:68" ht="16.5">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -6488,12 +6827,132 @@
       <c r="BJ41" s="5"/>
       <c r="BK41" s="5"/>
       <c r="BL41" s="3"/>
+      <c r="BM41" s="4"/>
+      <c r="BN41" s="4"/>
+      <c r="BO41" s="4"/>
+      <c r="BP41" s="4"/>
+    </row>
+    <row r="42" spans="1:68" ht="16.5">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="5"/>
+      <c r="AQ42" s="5"/>
+      <c r="AR42" s="5"/>
+      <c r="AS42" s="5"/>
+      <c r="AT42" s="5"/>
+      <c r="AU42" s="5"/>
+      <c r="AV42" s="5"/>
+      <c r="AW42" s="5"/>
+      <c r="AX42" s="5"/>
+      <c r="AY42" s="5"/>
+      <c r="AZ42" s="5"/>
+      <c r="BA42" s="5"/>
+      <c r="BB42" s="5"/>
+      <c r="BC42" s="5"/>
+      <c r="BD42" s="5"/>
+      <c r="BE42" s="5"/>
+      <c r="BF42" s="5"/>
+      <c r="BG42" s="5"/>
+      <c r="BH42" s="5"/>
+      <c r="BI42" s="5"/>
+      <c r="BJ42" s="5"/>
+      <c r="BK42" s="5"/>
+      <c r="BL42" s="3"/>
+      <c r="BM42" s="4"/>
+      <c r="BN42" s="4"/>
+      <c r="BO42" s="4"/>
+      <c r="BP42" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="M24:AL24"/>
-    <mergeCell ref="AM24:AT24"/>
-    <mergeCell ref="AU24:BJ24"/>
+  <mergeCells count="62">
+    <mergeCell ref="AZ24:BO24"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="L25:AB25"/>
+    <mergeCell ref="AC25:AK25"/>
+    <mergeCell ref="AL25:AT25"/>
+    <mergeCell ref="AU25:AY25"/>
+    <mergeCell ref="AZ25:BO25"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="L24:AB24"/>
+    <mergeCell ref="AC24:AK24"/>
+    <mergeCell ref="AL24:AT24"/>
+    <mergeCell ref="AU24:AY24"/>
+    <mergeCell ref="AZ22:BO22"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="L23:AB23"/>
+    <mergeCell ref="AC23:AK23"/>
+    <mergeCell ref="AL23:AT23"/>
+    <mergeCell ref="AU23:AY23"/>
+    <mergeCell ref="AZ23:BO23"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="L22:AB22"/>
+    <mergeCell ref="AC22:AK22"/>
+    <mergeCell ref="AL22:AT22"/>
+    <mergeCell ref="AU22:AY22"/>
+    <mergeCell ref="AZ20:BO20"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="L21:AB21"/>
+    <mergeCell ref="AC21:AK21"/>
+    <mergeCell ref="AL21:AT21"/>
+    <mergeCell ref="AU21:AY21"/>
+    <mergeCell ref="AZ21:BO21"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="L20:AB20"/>
+    <mergeCell ref="AC20:AK20"/>
+    <mergeCell ref="AL20:AT20"/>
+    <mergeCell ref="AU20:AY20"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:K19"/>
+    <mergeCell ref="L18:AB19"/>
+    <mergeCell ref="AC18:AK19"/>
+    <mergeCell ref="AL18:BO18"/>
+    <mergeCell ref="AL19:AT19"/>
+    <mergeCell ref="AU19:AY19"/>
+    <mergeCell ref="AZ19:BO19"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="Y13:AE13"/>
+    <mergeCell ref="Y14:AE14"/>
+    <mergeCell ref="AF13:BD13"/>
+    <mergeCell ref="AF14:BD14"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="I7:BJ7"/>
     <mergeCell ref="C8:H8"/>
@@ -6507,30 +6966,6 @@
     <mergeCell ref="O14:T14"/>
     <mergeCell ref="U14:X14"/>
     <mergeCell ref="U13:X13"/>
-    <mergeCell ref="AU19:BJ19"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="AU20:BJ20"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="M23:AL23"/>
-    <mergeCell ref="Y13:AE13"/>
-    <mergeCell ref="Y14:AE14"/>
-    <mergeCell ref="AF13:BD13"/>
-    <mergeCell ref="AF14:BD14"/>
-    <mergeCell ref="M20:AL20"/>
-    <mergeCell ref="M18:AL18"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="M19:AL19"/>
-    <mergeCell ref="AM19:AT19"/>
-    <mergeCell ref="AM23:AT23"/>
-    <mergeCell ref="AU23:BJ23"/>
-    <mergeCell ref="AU21:BJ21"/>
-    <mergeCell ref="AM22:AT22"/>
-    <mergeCell ref="AM20:AT20"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="AM21:AT21"/>
-    <mergeCell ref="M21:AL21"/>
-    <mergeCell ref="M22:AL22"/>
-    <mergeCell ref="AU22:BJ22"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6538,8 +6973,8 @@
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="3" max="16383" man="1"/>
     <brk id="15" max="16383" man="1"/>
-    <brk id="25" max="16383" man="1"/>
-    <brk id="38" max="16383" man="1"/>
+    <brk id="26" max="16383" man="1"/>
+    <brk id="39" max="16383" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -6569,7 +7004,9 @@
   </sheetPr>
   <dimension ref="A1:BK24"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X31" sqref="X31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -6578,12 +7015,12 @@
   <sheetData>
     <row r="1" spans="1:63" ht="15.75" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -6775,12 +7212,12 @@
     </row>
     <row r="4" spans="1:63" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -6907,8 +7344,8 @@
     </row>
     <row r="6" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="51" t="s">
-        <v>59</v>
+      <c r="B6" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -6976,138 +7413,138 @@
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="17" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="89" t="s">
-        <v>61</v>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="52" t="s">
+        <v>51</v>
       </c>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="65"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-      <c r="AG7" s="65"/>
-      <c r="AH7" s="65"/>
-      <c r="AI7" s="65"/>
-      <c r="AJ7" s="65"/>
-      <c r="AK7" s="65"/>
-      <c r="AL7" s="65"/>
-      <c r="AM7" s="65"/>
-      <c r="AN7" s="65"/>
-      <c r="AO7" s="65"/>
-      <c r="AP7" s="65"/>
-      <c r="AQ7" s="65"/>
-      <c r="AR7" s="65"/>
-      <c r="AS7" s="65"/>
-      <c r="AT7" s="65"/>
-      <c r="AU7" s="65"/>
-      <c r="AV7" s="65"/>
-      <c r="AW7" s="65"/>
-      <c r="AX7" s="65"/>
-      <c r="AY7" s="65"/>
-      <c r="AZ7" s="65"/>
-      <c r="BA7" s="65"/>
-      <c r="BB7" s="65"/>
-      <c r="BC7" s="65"/>
-      <c r="BD7" s="65"/>
-      <c r="BE7" s="65"/>
-      <c r="BF7" s="65"/>
-      <c r="BG7" s="65"/>
-      <c r="BH7" s="65"/>
-      <c r="BI7" s="65"/>
-      <c r="BJ7" s="66"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
+      <c r="AG7" s="46"/>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="46"/>
+      <c r="AK7" s="46"/>
+      <c r="AL7" s="46"/>
+      <c r="AM7" s="46"/>
+      <c r="AN7" s="46"/>
+      <c r="AO7" s="46"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="46"/>
+      <c r="AR7" s="46"/>
+      <c r="AS7" s="46"/>
+      <c r="AT7" s="46"/>
+      <c r="AU7" s="46"/>
+      <c r="AV7" s="46"/>
+      <c r="AW7" s="46"/>
+      <c r="AX7" s="46"/>
+      <c r="AY7" s="46"/>
+      <c r="AZ7" s="46"/>
+      <c r="BA7" s="46"/>
+      <c r="BB7" s="46"/>
+      <c r="BC7" s="46"/>
+      <c r="BD7" s="46"/>
+      <c r="BE7" s="46"/>
+      <c r="BF7" s="46"/>
+      <c r="BG7" s="46"/>
+      <c r="BH7" s="46"/>
+      <c r="BI7" s="46"/>
+      <c r="BJ7" s="47"/>
       <c r="BK7" s="3"/>
     </row>
     <row r="8" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="17" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="89" t="s">
-        <v>63</v>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="52" t="s">
+        <v>53</v>
       </c>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
-      <c r="AG8" s="65"/>
-      <c r="AH8" s="65"/>
-      <c r="AI8" s="65"/>
-      <c r="AJ8" s="65"/>
-      <c r="AK8" s="65"/>
-      <c r="AL8" s="65"/>
-      <c r="AM8" s="65"/>
-      <c r="AN8" s="65"/>
-      <c r="AO8" s="65"/>
-      <c r="AP8" s="65"/>
-      <c r="AQ8" s="65"/>
-      <c r="AR8" s="65"/>
-      <c r="AS8" s="65"/>
-      <c r="AT8" s="65"/>
-      <c r="AU8" s="65"/>
-      <c r="AV8" s="65"/>
-      <c r="AW8" s="65"/>
-      <c r="AX8" s="65"/>
-      <c r="AY8" s="65"/>
-      <c r="AZ8" s="65"/>
-      <c r="BA8" s="65"/>
-      <c r="BB8" s="65"/>
-      <c r="BC8" s="65"/>
-      <c r="BD8" s="65"/>
-      <c r="BE8" s="65"/>
-      <c r="BF8" s="65"/>
-      <c r="BG8" s="65"/>
-      <c r="BH8" s="65"/>
-      <c r="BI8" s="65"/>
-      <c r="BJ8" s="66"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="46"/>
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="46"/>
+      <c r="AJ8" s="46"/>
+      <c r="AK8" s="46"/>
+      <c r="AL8" s="46"/>
+      <c r="AM8" s="46"/>
+      <c r="AN8" s="46"/>
+      <c r="AO8" s="46"/>
+      <c r="AP8" s="46"/>
+      <c r="AQ8" s="46"/>
+      <c r="AR8" s="46"/>
+      <c r="AS8" s="46"/>
+      <c r="AT8" s="46"/>
+      <c r="AU8" s="46"/>
+      <c r="AV8" s="46"/>
+      <c r="AW8" s="46"/>
+      <c r="AX8" s="46"/>
+      <c r="AY8" s="46"/>
+      <c r="AZ8" s="46"/>
+      <c r="BA8" s="46"/>
+      <c r="BB8" s="46"/>
+      <c r="BC8" s="46"/>
+      <c r="BD8" s="46"/>
+      <c r="BE8" s="46"/>
+      <c r="BF8" s="46"/>
+      <c r="BG8" s="46"/>
+      <c r="BH8" s="46"/>
+      <c r="BI8" s="46"/>
+      <c r="BJ8" s="47"/>
       <c r="BK8" s="3"/>
     </row>
     <row r="9" spans="1:63" ht="16.5" outlineLevel="1">
@@ -7116,67 +7553,67 @@
       <c r="C9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="89" t="s">
-        <v>64</v>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="52" t="s">
+        <v>54</v>
       </c>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="65"/>
-      <c r="AI9" s="65"/>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="65"/>
-      <c r="AL9" s="65"/>
-      <c r="AM9" s="65"/>
-      <c r="AN9" s="65"/>
-      <c r="AO9" s="65"/>
-      <c r="AP9" s="65"/>
-      <c r="AQ9" s="65"/>
-      <c r="AR9" s="65"/>
-      <c r="AS9" s="65"/>
-      <c r="AT9" s="65"/>
-      <c r="AU9" s="65"/>
-      <c r="AV9" s="65"/>
-      <c r="AW9" s="65"/>
-      <c r="AX9" s="65"/>
-      <c r="AY9" s="65"/>
-      <c r="AZ9" s="65"/>
-      <c r="BA9" s="65"/>
-      <c r="BB9" s="65"/>
-      <c r="BC9" s="65"/>
-      <c r="BD9" s="65"/>
-      <c r="BE9" s="65"/>
-      <c r="BF9" s="65"/>
-      <c r="BG9" s="65"/>
-      <c r="BH9" s="65"/>
-      <c r="BI9" s="65"/>
-      <c r="BJ9" s="66"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="46"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="46"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="46"/>
+      <c r="AN9" s="46"/>
+      <c r="AO9" s="46"/>
+      <c r="AP9" s="46"/>
+      <c r="AQ9" s="46"/>
+      <c r="AR9" s="46"/>
+      <c r="AS9" s="46"/>
+      <c r="AT9" s="46"/>
+      <c r="AU9" s="46"/>
+      <c r="AV9" s="46"/>
+      <c r="AW9" s="46"/>
+      <c r="AX9" s="46"/>
+      <c r="AY9" s="46"/>
+      <c r="AZ9" s="46"/>
+      <c r="BA9" s="46"/>
+      <c r="BB9" s="46"/>
+      <c r="BC9" s="46"/>
+      <c r="BD9" s="46"/>
+      <c r="BE9" s="46"/>
+      <c r="BF9" s="46"/>
+      <c r="BG9" s="46"/>
+      <c r="BH9" s="46"/>
+      <c r="BI9" s="46"/>
+      <c r="BJ9" s="47"/>
       <c r="BK9" s="3"/>
     </row>
     <row r="10" spans="1:63" ht="16.5" outlineLevel="1">
@@ -7246,8 +7683,8 @@
     </row>
     <row r="11" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="51" t="s">
-        <v>65</v>
+      <c r="B11" s="34" t="s">
+        <v>55</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -7315,870 +7752,870 @@
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="11" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="54"/>
-      <c r="AF12" s="54"/>
-      <c r="AG12" s="54"/>
-      <c r="AH12" s="54"/>
-      <c r="AI12" s="54"/>
-      <c r="AJ12" s="54"/>
-      <c r="AK12" s="54"/>
-      <c r="AL12" s="54"/>
-      <c r="AM12" s="54"/>
-      <c r="AN12" s="54"/>
-      <c r="AO12" s="54"/>
-      <c r="AP12" s="54"/>
-      <c r="AQ12" s="54"/>
-      <c r="AR12" s="54"/>
-      <c r="AS12" s="54"/>
-      <c r="AT12" s="54"/>
-      <c r="AU12" s="54"/>
-      <c r="AV12" s="54"/>
-      <c r="AW12" s="54"/>
-      <c r="AX12" s="54"/>
-      <c r="AY12" s="54"/>
-      <c r="AZ12" s="54"/>
-      <c r="BA12" s="54"/>
-      <c r="BB12" s="54"/>
-      <c r="BC12" s="54"/>
-      <c r="BD12" s="54"/>
-      <c r="BE12" s="54"/>
-      <c r="BF12" s="54"/>
-      <c r="BG12" s="54"/>
-      <c r="BH12" s="54"/>
-      <c r="BI12" s="54"/>
-      <c r="BJ12" s="55"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="37"/>
+      <c r="AM12" s="37"/>
+      <c r="AN12" s="37"/>
+      <c r="AO12" s="37"/>
+      <c r="AP12" s="37"/>
+      <c r="AQ12" s="37"/>
+      <c r="AR12" s="37"/>
+      <c r="AS12" s="37"/>
+      <c r="AT12" s="37"/>
+      <c r="AU12" s="37"/>
+      <c r="AV12" s="37"/>
+      <c r="AW12" s="37"/>
+      <c r="AX12" s="37"/>
+      <c r="AY12" s="37"/>
+      <c r="AZ12" s="37"/>
+      <c r="BA12" s="37"/>
+      <c r="BB12" s="37"/>
+      <c r="BC12" s="37"/>
+      <c r="BD12" s="37"/>
+      <c r="BE12" s="37"/>
+      <c r="BF12" s="37"/>
+      <c r="BG12" s="37"/>
+      <c r="BH12" s="37"/>
+      <c r="BI12" s="37"/>
+      <c r="BJ12" s="38"/>
       <c r="BK12" s="3"/>
     </row>
     <row r="13" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="90" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="90" t="s">
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="90" t="s">
-        <v>26</v>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="60" t="s">
+        <v>57</v>
       </c>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="65"/>
-      <c r="AG13" s="65"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ13" s="92"/>
-      <c r="AK13" s="92"/>
-      <c r="AL13" s="92"/>
-      <c r="AM13" s="92"/>
-      <c r="AN13" s="92"/>
-      <c r="AO13" s="92"/>
-      <c r="AP13" s="92"/>
-      <c r="AQ13" s="92"/>
-      <c r="AR13" s="92"/>
-      <c r="AS13" s="92"/>
-      <c r="AT13" s="92"/>
-      <c r="AU13" s="92"/>
-      <c r="AV13" s="92"/>
-      <c r="AW13" s="92"/>
-      <c r="AX13" s="92"/>
-      <c r="AY13" s="92"/>
-      <c r="AZ13" s="92"/>
-      <c r="BA13" s="92"/>
-      <c r="BB13" s="92"/>
-      <c r="BC13" s="92"/>
-      <c r="BD13" s="92"/>
-      <c r="BE13" s="92"/>
-      <c r="BF13" s="92"/>
-      <c r="BG13" s="92"/>
-      <c r="BH13" s="92"/>
-      <c r="BI13" s="92"/>
-      <c r="BJ13" s="93"/>
+      <c r="AJ13" s="57"/>
+      <c r="AK13" s="57"/>
+      <c r="AL13" s="57"/>
+      <c r="AM13" s="57"/>
+      <c r="AN13" s="57"/>
+      <c r="AO13" s="57"/>
+      <c r="AP13" s="57"/>
+      <c r="AQ13" s="57"/>
+      <c r="AR13" s="57"/>
+      <c r="AS13" s="57"/>
+      <c r="AT13" s="57"/>
+      <c r="AU13" s="57"/>
+      <c r="AV13" s="57"/>
+      <c r="AW13" s="57"/>
+      <c r="AX13" s="57"/>
+      <c r="AY13" s="57"/>
+      <c r="AZ13" s="57"/>
+      <c r="BA13" s="57"/>
+      <c r="BB13" s="57"/>
+      <c r="BC13" s="57"/>
+      <c r="BD13" s="57"/>
+      <c r="BE13" s="57"/>
+      <c r="BF13" s="57"/>
+      <c r="BG13" s="57"/>
+      <c r="BH13" s="57"/>
+      <c r="BI13" s="57"/>
+      <c r="BJ13" s="58"/>
       <c r="BK13" s="3"/>
     </row>
     <row r="14" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="80" t="s">
-        <v>68</v>
+      <c r="C14" s="39"/>
+      <c r="D14" s="56" t="s">
+        <v>58</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="80" t="s">
-        <v>30</v>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="56" t="s">
+        <v>28</v>
       </c>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="65"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="80" t="s">
-        <v>69</v>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="56" t="s">
+        <v>59</v>
       </c>
-      <c r="AD14" s="65"/>
-      <c r="AE14" s="65"/>
-      <c r="AF14" s="65"/>
-      <c r="AG14" s="65"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="80" t="s">
-        <v>70</v>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="56" t="s">
+        <v>60</v>
       </c>
-      <c r="AJ14" s="65"/>
-      <c r="AK14" s="65"/>
-      <c r="AL14" s="65"/>
-      <c r="AM14" s="65"/>
-      <c r="AN14" s="65"/>
-      <c r="AO14" s="65"/>
-      <c r="AP14" s="65"/>
-      <c r="AQ14" s="65"/>
-      <c r="AR14" s="65"/>
-      <c r="AS14" s="65"/>
-      <c r="AT14" s="65"/>
-      <c r="AU14" s="65"/>
-      <c r="AV14" s="65"/>
-      <c r="AW14" s="65"/>
-      <c r="AX14" s="65"/>
-      <c r="AY14" s="65"/>
-      <c r="AZ14" s="65"/>
-      <c r="BA14" s="65"/>
-      <c r="BB14" s="65"/>
-      <c r="BC14" s="65"/>
-      <c r="BD14" s="65"/>
-      <c r="BE14" s="65"/>
-      <c r="BF14" s="65"/>
-      <c r="BG14" s="65"/>
-      <c r="BH14" s="65"/>
-      <c r="BI14" s="65"/>
-      <c r="BJ14" s="66"/>
+      <c r="AJ14" s="46"/>
+      <c r="AK14" s="46"/>
+      <c r="AL14" s="46"/>
+      <c r="AM14" s="46"/>
+      <c r="AN14" s="46"/>
+      <c r="AO14" s="46"/>
+      <c r="AP14" s="46"/>
+      <c r="AQ14" s="46"/>
+      <c r="AR14" s="46"/>
+      <c r="AS14" s="46"/>
+      <c r="AT14" s="46"/>
+      <c r="AU14" s="46"/>
+      <c r="AV14" s="46"/>
+      <c r="AW14" s="46"/>
+      <c r="AX14" s="46"/>
+      <c r="AY14" s="46"/>
+      <c r="AZ14" s="46"/>
+      <c r="BA14" s="46"/>
+      <c r="BB14" s="46"/>
+      <c r="BC14" s="46"/>
+      <c r="BD14" s="46"/>
+      <c r="BE14" s="46"/>
+      <c r="BF14" s="46"/>
+      <c r="BG14" s="46"/>
+      <c r="BH14" s="46"/>
+      <c r="BI14" s="46"/>
+      <c r="BJ14" s="47"/>
       <c r="BK14" s="3"/>
     </row>
     <row r="15" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="77" t="s">
-        <v>71</v>
+      <c r="C15" s="39"/>
+      <c r="D15" s="55" t="s">
+        <v>61</v>
       </c>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="92"/>
-      <c r="S15" s="92"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="92"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="80" t="s">
-        <v>72</v>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="56" t="s">
+        <v>62</v>
       </c>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="80" t="s">
-        <v>69</v>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="56" t="s">
+        <v>59</v>
       </c>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="80" t="s">
-        <v>73</v>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="47"/>
+      <c r="AI15" s="56" t="s">
+        <v>63</v>
       </c>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="65"/>
-      <c r="AL15" s="65"/>
-      <c r="AM15" s="65"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="65"/>
-      <c r="AT15" s="65"/>
-      <c r="AU15" s="65"/>
-      <c r="AV15" s="65"/>
-      <c r="AW15" s="65"/>
-      <c r="AX15" s="65"/>
-      <c r="AY15" s="65"/>
-      <c r="AZ15" s="65"/>
-      <c r="BA15" s="65"/>
-      <c r="BB15" s="65"/>
-      <c r="BC15" s="65"/>
-      <c r="BD15" s="65"/>
-      <c r="BE15" s="65"/>
-      <c r="BF15" s="65"/>
-      <c r="BG15" s="65"/>
-      <c r="BH15" s="65"/>
-      <c r="BI15" s="65"/>
-      <c r="BJ15" s="66"/>
+      <c r="AJ15" s="46"/>
+      <c r="AK15" s="46"/>
+      <c r="AL15" s="46"/>
+      <c r="AM15" s="46"/>
+      <c r="AN15" s="46"/>
+      <c r="AO15" s="46"/>
+      <c r="AP15" s="46"/>
+      <c r="AQ15" s="46"/>
+      <c r="AR15" s="46"/>
+      <c r="AS15" s="46"/>
+      <c r="AT15" s="46"/>
+      <c r="AU15" s="46"/>
+      <c r="AV15" s="46"/>
+      <c r="AW15" s="46"/>
+      <c r="AX15" s="46"/>
+      <c r="AY15" s="46"/>
+      <c r="AZ15" s="46"/>
+      <c r="BA15" s="46"/>
+      <c r="BB15" s="46"/>
+      <c r="BC15" s="46"/>
+      <c r="BD15" s="46"/>
+      <c r="BE15" s="46"/>
+      <c r="BF15" s="46"/>
+      <c r="BG15" s="46"/>
+      <c r="BH15" s="46"/>
+      <c r="BI15" s="46"/>
+      <c r="BJ15" s="47"/>
       <c r="BK15" s="3"/>
     </row>
     <row r="16" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="77" t="s">
-        <v>74</v>
+      <c r="C16" s="39"/>
+      <c r="D16" s="55" t="s">
+        <v>64</v>
       </c>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="92"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="92"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="80" t="s">
-        <v>72</v>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="56" t="s">
+        <v>62</v>
       </c>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="65"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="80" t="s">
-        <v>69</v>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="56" t="s">
+        <v>59</v>
       </c>
-      <c r="AD16" s="65"/>
-      <c r="AE16" s="65"/>
-      <c r="AF16" s="65"/>
-      <c r="AG16" s="65"/>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="80" t="s">
-        <v>75</v>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="47"/>
+      <c r="AI16" s="56" t="s">
+        <v>65</v>
       </c>
-      <c r="AJ16" s="65"/>
-      <c r="AK16" s="65"/>
-      <c r="AL16" s="65"/>
-      <c r="AM16" s="65"/>
-      <c r="AN16" s="65"/>
-      <c r="AO16" s="65"/>
-      <c r="AP16" s="65"/>
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="65"/>
-      <c r="AT16" s="65"/>
-      <c r="AU16" s="65"/>
-      <c r="AV16" s="65"/>
-      <c r="AW16" s="65"/>
-      <c r="AX16" s="65"/>
-      <c r="AY16" s="65"/>
-      <c r="AZ16" s="65"/>
-      <c r="BA16" s="65"/>
-      <c r="BB16" s="65"/>
-      <c r="BC16" s="65"/>
-      <c r="BD16" s="65"/>
-      <c r="BE16" s="65"/>
-      <c r="BF16" s="65"/>
-      <c r="BG16" s="65"/>
-      <c r="BH16" s="65"/>
-      <c r="BI16" s="65"/>
-      <c r="BJ16" s="66"/>
+      <c r="AJ16" s="46"/>
+      <c r="AK16" s="46"/>
+      <c r="AL16" s="46"/>
+      <c r="AM16" s="46"/>
+      <c r="AN16" s="46"/>
+      <c r="AO16" s="46"/>
+      <c r="AP16" s="46"/>
+      <c r="AQ16" s="46"/>
+      <c r="AR16" s="46"/>
+      <c r="AS16" s="46"/>
+      <c r="AT16" s="46"/>
+      <c r="AU16" s="46"/>
+      <c r="AV16" s="46"/>
+      <c r="AW16" s="46"/>
+      <c r="AX16" s="46"/>
+      <c r="AY16" s="46"/>
+      <c r="AZ16" s="46"/>
+      <c r="BA16" s="46"/>
+      <c r="BB16" s="46"/>
+      <c r="BC16" s="46"/>
+      <c r="BD16" s="46"/>
+      <c r="BE16" s="46"/>
+      <c r="BF16" s="46"/>
+      <c r="BG16" s="46"/>
+      <c r="BH16" s="46"/>
+      <c r="BI16" s="46"/>
+      <c r="BJ16" s="47"/>
       <c r="BK16" s="3"/>
     </row>
     <row r="17" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="77" t="s">
-        <v>76</v>
+      <c r="C17" s="39"/>
+      <c r="D17" s="55" t="s">
+        <v>66</v>
       </c>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="80" t="s">
-        <v>72</v>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="56" t="s">
+        <v>62</v>
       </c>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="80" t="s">
-        <v>69</v>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="56" t="s">
+        <v>59</v>
       </c>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="65"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="66"/>
-      <c r="AI17" s="80" t="s">
-        <v>77</v>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="56" t="s">
+        <v>67</v>
       </c>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="65"/>
-      <c r="AL17" s="65"/>
-      <c r="AM17" s="65"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="65"/>
-      <c r="AU17" s="65"/>
-      <c r="AV17" s="65"/>
-      <c r="AW17" s="65"/>
-      <c r="AX17" s="65"/>
-      <c r="AY17" s="65"/>
-      <c r="AZ17" s="65"/>
-      <c r="BA17" s="65"/>
-      <c r="BB17" s="65"/>
-      <c r="BC17" s="65"/>
-      <c r="BD17" s="65"/>
-      <c r="BE17" s="65"/>
-      <c r="BF17" s="65"/>
-      <c r="BG17" s="65"/>
-      <c r="BH17" s="65"/>
-      <c r="BI17" s="65"/>
-      <c r="BJ17" s="66"/>
+      <c r="AJ17" s="46"/>
+      <c r="AK17" s="46"/>
+      <c r="AL17" s="46"/>
+      <c r="AM17" s="46"/>
+      <c r="AN17" s="46"/>
+      <c r="AO17" s="46"/>
+      <c r="AP17" s="46"/>
+      <c r="AQ17" s="46"/>
+      <c r="AR17" s="46"/>
+      <c r="AS17" s="46"/>
+      <c r="AT17" s="46"/>
+      <c r="AU17" s="46"/>
+      <c r="AV17" s="46"/>
+      <c r="AW17" s="46"/>
+      <c r="AX17" s="46"/>
+      <c r="AY17" s="46"/>
+      <c r="AZ17" s="46"/>
+      <c r="BA17" s="46"/>
+      <c r="BB17" s="46"/>
+      <c r="BC17" s="46"/>
+      <c r="BD17" s="46"/>
+      <c r="BE17" s="46"/>
+      <c r="BF17" s="46"/>
+      <c r="BG17" s="46"/>
+      <c r="BH17" s="46"/>
+      <c r="BI17" s="46"/>
+      <c r="BJ17" s="47"/>
       <c r="BK17" s="3"/>
     </row>
     <row r="18" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="77" t="s">
-        <v>78</v>
+      <c r="C18" s="39"/>
+      <c r="D18" s="55" t="s">
+        <v>68</v>
       </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="92"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="80" t="s">
-        <v>72</v>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="56" t="s">
+        <v>62</v>
       </c>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="66"/>
-      <c r="AC18" s="80" t="s">
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="66"/>
-      <c r="AI18" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="65"/>
-      <c r="AL18" s="65"/>
-      <c r="AM18" s="65"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="65"/>
-      <c r="AV18" s="65"/>
-      <c r="AW18" s="65"/>
-      <c r="AX18" s="65"/>
-      <c r="AY18" s="65"/>
-      <c r="AZ18" s="65"/>
-      <c r="BA18" s="65"/>
-      <c r="BB18" s="65"/>
-      <c r="BC18" s="65"/>
-      <c r="BD18" s="65"/>
-      <c r="BE18" s="65"/>
-      <c r="BF18" s="65"/>
-      <c r="BG18" s="65"/>
-      <c r="BH18" s="65"/>
-      <c r="BI18" s="65"/>
-      <c r="BJ18" s="66"/>
+      <c r="AJ18" s="46"/>
+      <c r="AK18" s="46"/>
+      <c r="AL18" s="46"/>
+      <c r="AM18" s="46"/>
+      <c r="AN18" s="46"/>
+      <c r="AO18" s="46"/>
+      <c r="AP18" s="46"/>
+      <c r="AQ18" s="46"/>
+      <c r="AR18" s="46"/>
+      <c r="AS18" s="46"/>
+      <c r="AT18" s="46"/>
+      <c r="AU18" s="46"/>
+      <c r="AV18" s="46"/>
+      <c r="AW18" s="46"/>
+      <c r="AX18" s="46"/>
+      <c r="AY18" s="46"/>
+      <c r="AZ18" s="46"/>
+      <c r="BA18" s="46"/>
+      <c r="BB18" s="46"/>
+      <c r="BC18" s="46"/>
+      <c r="BD18" s="46"/>
+      <c r="BE18" s="46"/>
+      <c r="BF18" s="46"/>
+      <c r="BG18" s="46"/>
+      <c r="BH18" s="46"/>
+      <c r="BI18" s="46"/>
+      <c r="BJ18" s="47"/>
       <c r="BK18" s="3"/>
     </row>
     <row r="19" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="80" t="s">
-        <v>80</v>
+      <c r="C19" s="39"/>
+      <c r="D19" s="56" t="s">
+        <v>70</v>
       </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="80" t="s">
-        <v>30</v>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="56" t="s">
+        <v>28</v>
       </c>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="66"/>
-      <c r="AC19" s="80" t="s">
-        <v>69</v>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="56" t="s">
+        <v>59</v>
       </c>
-      <c r="AD19" s="65"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-      <c r="AG19" s="65"/>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="80" t="s">
-        <v>81</v>
+      <c r="AD19" s="46"/>
+      <c r="AE19" s="46"/>
+      <c r="AF19" s="46"/>
+      <c r="AG19" s="46"/>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="56" t="s">
+        <v>71</v>
       </c>
-      <c r="AJ19" s="65"/>
-      <c r="AK19" s="65"/>
-      <c r="AL19" s="65"/>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="65"/>
-      <c r="AV19" s="65"/>
-      <c r="AW19" s="65"/>
-      <c r="AX19" s="65"/>
-      <c r="AY19" s="65"/>
-      <c r="AZ19" s="65"/>
-      <c r="BA19" s="65"/>
-      <c r="BB19" s="65"/>
-      <c r="BC19" s="65"/>
-      <c r="BD19" s="65"/>
-      <c r="BE19" s="65"/>
-      <c r="BF19" s="65"/>
-      <c r="BG19" s="65"/>
-      <c r="BH19" s="65"/>
-      <c r="BI19" s="65"/>
-      <c r="BJ19" s="66"/>
+      <c r="AJ19" s="46"/>
+      <c r="AK19" s="46"/>
+      <c r="AL19" s="46"/>
+      <c r="AM19" s="46"/>
+      <c r="AN19" s="46"/>
+      <c r="AO19" s="46"/>
+      <c r="AP19" s="46"/>
+      <c r="AQ19" s="46"/>
+      <c r="AR19" s="46"/>
+      <c r="AS19" s="46"/>
+      <c r="AT19" s="46"/>
+      <c r="AU19" s="46"/>
+      <c r="AV19" s="46"/>
+      <c r="AW19" s="46"/>
+      <c r="AX19" s="46"/>
+      <c r="AY19" s="46"/>
+      <c r="AZ19" s="46"/>
+      <c r="BA19" s="46"/>
+      <c r="BB19" s="46"/>
+      <c r="BC19" s="46"/>
+      <c r="BD19" s="46"/>
+      <c r="BE19" s="46"/>
+      <c r="BF19" s="46"/>
+      <c r="BG19" s="46"/>
+      <c r="BH19" s="46"/>
+      <c r="BI19" s="46"/>
+      <c r="BJ19" s="47"/>
       <c r="BK19" s="3"/>
     </row>
     <row r="20" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A20" s="5"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="80" t="s">
-        <v>82</v>
+      <c r="C20" s="40"/>
+      <c r="D20" s="56" t="s">
+        <v>72</v>
       </c>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="80" t="s">
-        <v>83</v>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="56" t="s">
+        <v>73</v>
       </c>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="80" t="s">
-        <v>69</v>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="56" t="s">
+        <v>59</v>
       </c>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="65"/>
-      <c r="AF20" s="65"/>
-      <c r="AG20" s="65"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="80" t="s">
-        <v>84</v>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="56" t="s">
+        <v>74</v>
       </c>
-      <c r="AJ20" s="65"/>
-      <c r="AK20" s="65"/>
-      <c r="AL20" s="65"/>
-      <c r="AM20" s="65"/>
-      <c r="AN20" s="65"/>
-      <c r="AO20" s="65"/>
-      <c r="AP20" s="65"/>
-      <c r="AQ20" s="65"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="65"/>
-      <c r="AT20" s="65"/>
-      <c r="AU20" s="65"/>
-      <c r="AV20" s="65"/>
-      <c r="AW20" s="65"/>
-      <c r="AX20" s="65"/>
-      <c r="AY20" s="65"/>
-      <c r="AZ20" s="65"/>
-      <c r="BA20" s="65"/>
-      <c r="BB20" s="65"/>
-      <c r="BC20" s="65"/>
-      <c r="BD20" s="65"/>
-      <c r="BE20" s="65"/>
-      <c r="BF20" s="65"/>
-      <c r="BG20" s="65"/>
-      <c r="BH20" s="65"/>
-      <c r="BI20" s="65"/>
-      <c r="BJ20" s="66"/>
+      <c r="AJ20" s="46"/>
+      <c r="AK20" s="46"/>
+      <c r="AL20" s="46"/>
+      <c r="AM20" s="46"/>
+      <c r="AN20" s="46"/>
+      <c r="AO20" s="46"/>
+      <c r="AP20" s="46"/>
+      <c r="AQ20" s="46"/>
+      <c r="AR20" s="46"/>
+      <c r="AS20" s="46"/>
+      <c r="AT20" s="46"/>
+      <c r="AU20" s="46"/>
+      <c r="AV20" s="46"/>
+      <c r="AW20" s="46"/>
+      <c r="AX20" s="46"/>
+      <c r="AY20" s="46"/>
+      <c r="AZ20" s="46"/>
+      <c r="BA20" s="46"/>
+      <c r="BB20" s="46"/>
+      <c r="BC20" s="46"/>
+      <c r="BD20" s="46"/>
+      <c r="BE20" s="46"/>
+      <c r="BF20" s="46"/>
+      <c r="BG20" s="46"/>
+      <c r="BH20" s="46"/>
+      <c r="BI20" s="46"/>
+      <c r="BJ20" s="47"/>
       <c r="BK20" s="5"/>
     </row>
     <row r="21" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A21" s="5"/>
       <c r="B21" s="27"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="80" t="s">
-        <v>85</v>
+      <c r="C21" s="40"/>
+      <c r="D21" s="56" t="s">
+        <v>75</v>
       </c>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="80" t="s">
-        <v>30</v>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="56" t="s">
+        <v>28</v>
       </c>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="80" t="s">
-        <v>69</v>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="56" t="s">
+        <v>59</v>
       </c>
-      <c r="AD21" s="65"/>
-      <c r="AE21" s="65"/>
-      <c r="AF21" s="65"/>
-      <c r="AG21" s="65"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="80" t="s">
-        <v>86</v>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="56" t="s">
+        <v>76</v>
       </c>
-      <c r="AJ21" s="65"/>
-      <c r="AK21" s="65"/>
-      <c r="AL21" s="65"/>
-      <c r="AM21" s="65"/>
-      <c r="AN21" s="65"/>
-      <c r="AO21" s="65"/>
-      <c r="AP21" s="65"/>
-      <c r="AQ21" s="65"/>
-      <c r="AR21" s="65"/>
-      <c r="AS21" s="65"/>
-      <c r="AT21" s="65"/>
-      <c r="AU21" s="65"/>
-      <c r="AV21" s="65"/>
-      <c r="AW21" s="65"/>
-      <c r="AX21" s="65"/>
-      <c r="AY21" s="65"/>
-      <c r="AZ21" s="65"/>
-      <c r="BA21" s="65"/>
-      <c r="BB21" s="65"/>
-      <c r="BC21" s="65"/>
-      <c r="BD21" s="65"/>
-      <c r="BE21" s="65"/>
-      <c r="BF21" s="65"/>
-      <c r="BG21" s="65"/>
-      <c r="BH21" s="65"/>
-      <c r="BI21" s="65"/>
-      <c r="BJ21" s="66"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="46"/>
+      <c r="AL21" s="46"/>
+      <c r="AM21" s="46"/>
+      <c r="AN21" s="46"/>
+      <c r="AO21" s="46"/>
+      <c r="AP21" s="46"/>
+      <c r="AQ21" s="46"/>
+      <c r="AR21" s="46"/>
+      <c r="AS21" s="46"/>
+      <c r="AT21" s="46"/>
+      <c r="AU21" s="46"/>
+      <c r="AV21" s="46"/>
+      <c r="AW21" s="46"/>
+      <c r="AX21" s="46"/>
+      <c r="AY21" s="46"/>
+      <c r="AZ21" s="46"/>
+      <c r="BA21" s="46"/>
+      <c r="BB21" s="46"/>
+      <c r="BC21" s="46"/>
+      <c r="BD21" s="46"/>
+      <c r="BE21" s="46"/>
+      <c r="BF21" s="46"/>
+      <c r="BG21" s="46"/>
+      <c r="BH21" s="46"/>
+      <c r="BI21" s="46"/>
+      <c r="BJ21" s="47"/>
       <c r="BK21" s="5"/>
     </row>
     <row r="22" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A22" s="5"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="80" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="80" t="s">
-        <v>83</v>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="56" t="s">
+        <v>73</v>
       </c>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="65"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="80" t="s">
-        <v>69</v>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="46"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="56" t="s">
+        <v>59</v>
       </c>
-      <c r="AD22" s="65"/>
-      <c r="AE22" s="65"/>
-      <c r="AF22" s="65"/>
-      <c r="AG22" s="65"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="80" t="s">
-        <v>87</v>
+      <c r="AD22" s="46"/>
+      <c r="AE22" s="46"/>
+      <c r="AF22" s="46"/>
+      <c r="AG22" s="46"/>
+      <c r="AH22" s="47"/>
+      <c r="AI22" s="56" t="s">
+        <v>77</v>
       </c>
-      <c r="AJ22" s="65"/>
-      <c r="AK22" s="65"/>
-      <c r="AL22" s="65"/>
-      <c r="AM22" s="65"/>
-      <c r="AN22" s="65"/>
-      <c r="AO22" s="65"/>
-      <c r="AP22" s="65"/>
-      <c r="AQ22" s="65"/>
-      <c r="AR22" s="65"/>
-      <c r="AS22" s="65"/>
-      <c r="AT22" s="65"/>
-      <c r="AU22" s="65"/>
-      <c r="AV22" s="65"/>
-      <c r="AW22" s="65"/>
-      <c r="AX22" s="65"/>
-      <c r="AY22" s="65"/>
-      <c r="AZ22" s="65"/>
-      <c r="BA22" s="65"/>
-      <c r="BB22" s="65"/>
-      <c r="BC22" s="65"/>
-      <c r="BD22" s="65"/>
-      <c r="BE22" s="65"/>
-      <c r="BF22" s="65"/>
-      <c r="BG22" s="65"/>
-      <c r="BH22" s="65"/>
-      <c r="BI22" s="65"/>
-      <c r="BJ22" s="66"/>
+      <c r="AJ22" s="46"/>
+      <c r="AK22" s="46"/>
+      <c r="AL22" s="46"/>
+      <c r="AM22" s="46"/>
+      <c r="AN22" s="46"/>
+      <c r="AO22" s="46"/>
+      <c r="AP22" s="46"/>
+      <c r="AQ22" s="46"/>
+      <c r="AR22" s="46"/>
+      <c r="AS22" s="46"/>
+      <c r="AT22" s="46"/>
+      <c r="AU22" s="46"/>
+      <c r="AV22" s="46"/>
+      <c r="AW22" s="46"/>
+      <c r="AX22" s="46"/>
+      <c r="AY22" s="46"/>
+      <c r="AZ22" s="46"/>
+      <c r="BA22" s="46"/>
+      <c r="BB22" s="46"/>
+      <c r="BC22" s="46"/>
+      <c r="BD22" s="46"/>
+      <c r="BE22" s="46"/>
+      <c r="BF22" s="46"/>
+      <c r="BG22" s="46"/>
+      <c r="BH22" s="46"/>
+      <c r="BI22" s="46"/>
+      <c r="BJ22" s="47"/>
       <c r="BK22" s="5"/>
     </row>
     <row r="23" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="80" t="s">
-        <v>88</v>
+      <c r="C23" s="41"/>
+      <c r="D23" s="56" t="s">
+        <v>78</v>
       </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="80" t="s">
-        <v>83</v>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="56" t="s">
+        <v>73</v>
       </c>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="66"/>
-      <c r="AC23" s="80" t="s">
-        <v>69</v>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="56" t="s">
+        <v>59</v>
       </c>
-      <c r="AD23" s="65"/>
-      <c r="AE23" s="65"/>
-      <c r="AF23" s="65"/>
-      <c r="AG23" s="65"/>
-      <c r="AH23" s="66"/>
-      <c r="AI23" s="80" t="s">
-        <v>89</v>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="46"/>
+      <c r="AH23" s="47"/>
+      <c r="AI23" s="56" t="s">
+        <v>79</v>
       </c>
-      <c r="AJ23" s="65"/>
-      <c r="AK23" s="65"/>
-      <c r="AL23" s="65"/>
-      <c r="AM23" s="65"/>
-      <c r="AN23" s="65"/>
-      <c r="AO23" s="65"/>
-      <c r="AP23" s="65"/>
-      <c r="AQ23" s="65"/>
-      <c r="AR23" s="65"/>
-      <c r="AS23" s="65"/>
-      <c r="AT23" s="65"/>
-      <c r="AU23" s="65"/>
-      <c r="AV23" s="65"/>
-      <c r="AW23" s="65"/>
-      <c r="AX23" s="65"/>
-      <c r="AY23" s="65"/>
-      <c r="AZ23" s="65"/>
-      <c r="BA23" s="65"/>
-      <c r="BB23" s="65"/>
-      <c r="BC23" s="65"/>
-      <c r="BD23" s="65"/>
-      <c r="BE23" s="65"/>
-      <c r="BF23" s="65"/>
-      <c r="BG23" s="65"/>
-      <c r="BH23" s="65"/>
-      <c r="BI23" s="65"/>
-      <c r="BJ23" s="66"/>
+      <c r="AJ23" s="46"/>
+      <c r="AK23" s="46"/>
+      <c r="AL23" s="46"/>
+      <c r="AM23" s="46"/>
+      <c r="AN23" s="46"/>
+      <c r="AO23" s="46"/>
+      <c r="AP23" s="46"/>
+      <c r="AQ23" s="46"/>
+      <c r="AR23" s="46"/>
+      <c r="AS23" s="46"/>
+      <c r="AT23" s="46"/>
+      <c r="AU23" s="46"/>
+      <c r="AV23" s="46"/>
+      <c r="AW23" s="46"/>
+      <c r="AX23" s="46"/>
+      <c r="AY23" s="46"/>
+      <c r="AZ23" s="46"/>
+      <c r="BA23" s="46"/>
+      <c r="BB23" s="46"/>
+      <c r="BC23" s="46"/>
+      <c r="BD23" s="46"/>
+      <c r="BE23" s="46"/>
+      <c r="BF23" s="46"/>
+      <c r="BG23" s="46"/>
+      <c r="BH23" s="46"/>
+      <c r="BI23" s="46"/>
+      <c r="BJ23" s="47"/>
       <c r="BK23" s="3"/>
     </row>
     <row r="24" spans="1:63" ht="16.5">
@@ -8248,6 +8685,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="D13:V13"/>
+    <mergeCell ref="W13:AB13"/>
+    <mergeCell ref="AC13:AH13"/>
+    <mergeCell ref="AI13:BJ13"/>
+    <mergeCell ref="W14:AB14"/>
+    <mergeCell ref="AC14:AH14"/>
+    <mergeCell ref="AI14:BJ14"/>
+    <mergeCell ref="D14:V14"/>
+    <mergeCell ref="D15:V15"/>
+    <mergeCell ref="W15:AB15"/>
+    <mergeCell ref="AC15:AH15"/>
+    <mergeCell ref="AI15:BJ15"/>
+    <mergeCell ref="D16:V16"/>
+    <mergeCell ref="W16:AB16"/>
+    <mergeCell ref="AC16:AH16"/>
+    <mergeCell ref="AI16:BJ16"/>
+    <mergeCell ref="D17:V17"/>
+    <mergeCell ref="W17:AB17"/>
+    <mergeCell ref="AC17:AH17"/>
+    <mergeCell ref="AI17:BJ17"/>
+    <mergeCell ref="D18:V18"/>
+    <mergeCell ref="AI18:BJ18"/>
+    <mergeCell ref="AC21:AH21"/>
+    <mergeCell ref="W19:AB19"/>
+    <mergeCell ref="W22:AB22"/>
+    <mergeCell ref="AC22:AH22"/>
+    <mergeCell ref="D19:V19"/>
+    <mergeCell ref="D20:V20"/>
+    <mergeCell ref="W20:AB20"/>
+    <mergeCell ref="AC20:AH20"/>
+    <mergeCell ref="D21:V21"/>
     <mergeCell ref="K7:BJ7"/>
     <mergeCell ref="K8:BJ8"/>
     <mergeCell ref="K9:BJ9"/>
@@ -8264,37 +8732,6 @@
     <mergeCell ref="AI21:BJ21"/>
     <mergeCell ref="D22:V22"/>
     <mergeCell ref="W21:AB21"/>
-    <mergeCell ref="AC21:AH21"/>
-    <mergeCell ref="W19:AB19"/>
-    <mergeCell ref="W22:AB22"/>
-    <mergeCell ref="AC22:AH22"/>
-    <mergeCell ref="D19:V19"/>
-    <mergeCell ref="D20:V20"/>
-    <mergeCell ref="W20:AB20"/>
-    <mergeCell ref="AC20:AH20"/>
-    <mergeCell ref="D21:V21"/>
-    <mergeCell ref="D17:V17"/>
-    <mergeCell ref="W17:AB17"/>
-    <mergeCell ref="AC17:AH17"/>
-    <mergeCell ref="AI17:BJ17"/>
-    <mergeCell ref="D18:V18"/>
-    <mergeCell ref="AI18:BJ18"/>
-    <mergeCell ref="D15:V15"/>
-    <mergeCell ref="W15:AB15"/>
-    <mergeCell ref="AC15:AH15"/>
-    <mergeCell ref="AI15:BJ15"/>
-    <mergeCell ref="D16:V16"/>
-    <mergeCell ref="W16:AB16"/>
-    <mergeCell ref="AC16:AH16"/>
-    <mergeCell ref="AI16:BJ16"/>
-    <mergeCell ref="D13:V13"/>
-    <mergeCell ref="W13:AB13"/>
-    <mergeCell ref="AC13:AH13"/>
-    <mergeCell ref="AI13:BJ13"/>
-    <mergeCell ref="W14:AB14"/>
-    <mergeCell ref="AC14:AH14"/>
-    <mergeCell ref="AI14:BJ14"/>
-    <mergeCell ref="D14:V14"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8331,365 +8768,385 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="5" width="23.7109375" customWidth="1"/>
     <col min="6" max="9" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="59" t="s">
-        <v>90</v>
+      <c r="A1" s="78" t="s">
+        <v>80</v>
       </c>
-      <c r="B1" s="59" t="s">
-        <v>30</v>
+      <c r="B1" s="78" t="s">
+        <v>28</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>69</v>
+      <c r="C1" s="79" t="s">
+        <v>59</v>
       </c>
-      <c r="D1" s="60" t="s">
-        <v>91</v>
+      <c r="D1" s="80" t="s">
+        <v>81</v>
       </c>
-      <c r="E1" s="61"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="60" t="s">
-        <v>92</v>
+      <c r="A2" s="43" t="s">
+        <v>82</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>72</v>
+      <c r="B2" s="43" t="s">
+        <v>62</v>
       </c>
-      <c r="C2" s="60" t="s">
-        <v>31</v>
+      <c r="C2" s="81" t="s">
+        <v>29</v>
       </c>
-      <c r="D2" s="60" t="s">
-        <v>93</v>
+      <c r="D2" s="82" t="s">
+        <v>83</v>
       </c>
-      <c r="E2" s="62"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="60" t="s">
-        <v>94</v>
+      <c r="A3" s="43" t="s">
+        <v>84</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>95</v>
+      <c r="B3" s="43" t="s">
+        <v>85</v>
       </c>
-      <c r="C3" s="60" t="s">
-        <v>96</v>
+      <c r="C3" s="81" t="s">
+        <v>86</v>
       </c>
-      <c r="D3" s="60" t="s">
-        <v>97</v>
+      <c r="D3" s="82" t="s">
+        <v>87</v>
       </c>
-      <c r="E3" s="62"/>
+      <c r="E3" s="43"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="60" t="s">
-        <v>98</v>
+      <c r="A4" s="43" t="s">
+        <v>88</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>99</v>
+      <c r="B4" s="43" t="s">
+        <v>89</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60" t="s">
-        <v>100</v>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82" t="s">
+        <v>90</v>
       </c>
-      <c r="E4" s="62"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A5" s="60" t="s">
-        <v>101</v>
+      <c r="A5" s="43" t="s">
+        <v>91</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>102</v>
+      <c r="B5" s="43" t="s">
+        <v>92</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60" t="s">
-        <v>103</v>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82" t="s">
+        <v>93</v>
       </c>
-      <c r="E5" s="62"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="60" t="s">
-        <v>104</v>
+      <c r="A6" s="43" t="s">
+        <v>94</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>105</v>
+      <c r="B6" s="43" t="s">
+        <v>95</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="62"/>
-      <c r="B7" s="60" t="s">
-        <v>106</v>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43" t="s">
+        <v>96</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="60" t="s">
-        <v>107</v>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43" t="s">
+        <v>97</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="62"/>
-      <c r="B9" s="60" t="s">
-        <v>108</v>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43" t="s">
+        <v>98</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="60" t="s">
-        <v>109</v>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43" t="s">
+        <v>101</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A11" s="62"/>
-      <c r="B11" s="60" t="s">
-        <v>110</v>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43" t="s">
+        <v>102</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A12" s="62"/>
-      <c r="B12" s="60" t="s">
-        <v>83</v>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43" t="s">
+        <v>99</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="60" t="s">
-        <v>111</v>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43" t="s">
+        <v>100</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A14" s="62"/>
-      <c r="B14" s="60" t="s">
-        <v>112</v>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43" t="s">
+        <v>123</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="43"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="81"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="81"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="81"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="81"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A23" s="62"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="44"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>

--- a/ha-asset/01_design/03_batch/設計書_3.2.月次健康情報集計バッチ.xlsx
+++ b/ha-asset/01_design/03_batch/設計書_3.2.月次健康情報集計バッチ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\03_batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EA615E-A593-4968-B172-3B91FF910DB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AE507F-EC64-436B-B2ED-3E85C04941B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="1275" windowWidth="27015" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="555" windowWidth="21600" windowHeight="14415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -958,6 +958,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -972,62 +986,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1039,19 +1013,45 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1272,8 +1272,8 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1343,681 +1343,681 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="3"/>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48" t="s">
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="47"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="57"/>
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="3"/>
-      <c r="B4" s="49">
+      <c r="B4" s="59">
         <v>44156</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="50" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="45" t="s">
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="47"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="57"/>
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="3"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="47"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="57"/>
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="3"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="47"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="57"/>
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="3"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="47"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="57"/>
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="3"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="47"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="57"/>
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="3"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="47"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="57"/>
       <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="3"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="47"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="57"/>
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="3"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="47"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="57"/>
       <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="3"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="47"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="57"/>
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="3"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="47"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="57"/>
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="3"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="47"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="57"/>
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="3"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="47"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="57"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="3"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="47"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="57"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="3"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="47"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="57"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="3"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="47"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="57"/>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="3"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="47"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="57"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="3"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="47"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="57"/>
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="3"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="47"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="57"/>
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="3"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="47"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="57"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="3"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="47"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="57"/>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="3"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="47"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="57"/>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="3"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="47"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="57"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27">
@@ -2080,6 +2080,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -2089,66 +2149,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3771,8 +3771,8 @@
   </sheetPr>
   <dimension ref="A1:BP42"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14:X14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25:AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -4209,70 +4209,70 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="5"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="52" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="46"/>
-      <c r="AG7" s="46"/>
-      <c r="AH7" s="46"/>
-      <c r="AI7" s="46"/>
-      <c r="AJ7" s="46"/>
-      <c r="AK7" s="46"/>
-      <c r="AL7" s="46"/>
-      <c r="AM7" s="46"/>
-      <c r="AN7" s="46"/>
-      <c r="AO7" s="46"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="46"/>
-      <c r="AR7" s="46"/>
-      <c r="AS7" s="46"/>
-      <c r="AT7" s="46"/>
-      <c r="AU7" s="46"/>
-      <c r="AV7" s="46"/>
-      <c r="AW7" s="46"/>
-      <c r="AX7" s="46"/>
-      <c r="AY7" s="46"/>
-      <c r="AZ7" s="46"/>
-      <c r="BA7" s="46"/>
-      <c r="BB7" s="46"/>
-      <c r="BC7" s="46"/>
-      <c r="BD7" s="46"/>
-      <c r="BE7" s="46"/>
-      <c r="BF7" s="46"/>
-      <c r="BG7" s="46"/>
-      <c r="BH7" s="46"/>
-      <c r="BI7" s="46"/>
-      <c r="BJ7" s="47"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
+      <c r="AN7" s="56"/>
+      <c r="AO7" s="56"/>
+      <c r="AP7" s="56"/>
+      <c r="AQ7" s="56"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="56"/>
+      <c r="AT7" s="56"/>
+      <c r="AU7" s="56"/>
+      <c r="AV7" s="56"/>
+      <c r="AW7" s="56"/>
+      <c r="AX7" s="56"/>
+      <c r="AY7" s="56"/>
+      <c r="AZ7" s="56"/>
+      <c r="BA7" s="56"/>
+      <c r="BB7" s="56"/>
+      <c r="BC7" s="56"/>
+      <c r="BD7" s="56"/>
+      <c r="BE7" s="56"/>
+      <c r="BF7" s="56"/>
+      <c r="BG7" s="56"/>
+      <c r="BH7" s="56"/>
+      <c r="BI7" s="56"/>
+      <c r="BJ7" s="57"/>
       <c r="BK7" s="5"/>
       <c r="BL7" s="3"/>
       <c r="BM7" s="4"/>
@@ -4283,70 +4283,70 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="18"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="52" t="s">
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="46"/>
-      <c r="AJ8" s="46"/>
-      <c r="AK8" s="46"/>
-      <c r="AL8" s="46"/>
-      <c r="AM8" s="46"/>
-      <c r="AN8" s="46"/>
-      <c r="AO8" s="46"/>
-      <c r="AP8" s="46"/>
-      <c r="AQ8" s="46"/>
-      <c r="AR8" s="46"/>
-      <c r="AS8" s="46"/>
-      <c r="AT8" s="46"/>
-      <c r="AU8" s="46"/>
-      <c r="AV8" s="46"/>
-      <c r="AW8" s="46"/>
-      <c r="AX8" s="46"/>
-      <c r="AY8" s="46"/>
-      <c r="AZ8" s="46"/>
-      <c r="BA8" s="46"/>
-      <c r="BB8" s="46"/>
-      <c r="BC8" s="46"/>
-      <c r="BD8" s="46"/>
-      <c r="BE8" s="46"/>
-      <c r="BF8" s="46"/>
-      <c r="BG8" s="46"/>
-      <c r="BH8" s="46"/>
-      <c r="BI8" s="46"/>
-      <c r="BJ8" s="47"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="56"/>
+      <c r="AP8" s="56"/>
+      <c r="AQ8" s="56"/>
+      <c r="AR8" s="56"/>
+      <c r="AS8" s="56"/>
+      <c r="AT8" s="56"/>
+      <c r="AU8" s="56"/>
+      <c r="AV8" s="56"/>
+      <c r="AW8" s="56"/>
+      <c r="AX8" s="56"/>
+      <c r="AY8" s="56"/>
+      <c r="AZ8" s="56"/>
+      <c r="BA8" s="56"/>
+      <c r="BB8" s="56"/>
+      <c r="BC8" s="56"/>
+      <c r="BD8" s="56"/>
+      <c r="BE8" s="56"/>
+      <c r="BF8" s="56"/>
+      <c r="BG8" s="56"/>
+      <c r="BH8" s="56"/>
+      <c r="BI8" s="56"/>
+      <c r="BJ8" s="57"/>
       <c r="BK8" s="18"/>
       <c r="BL8" s="19"/>
       <c r="BM8" s="19"/>
@@ -4357,70 +4357,70 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="5"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="52" t="s">
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="46"/>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="46"/>
-      <c r="AG9" s="46"/>
-      <c r="AH9" s="46"/>
-      <c r="AI9" s="46"/>
-      <c r="AJ9" s="46"/>
-      <c r="AK9" s="46"/>
-      <c r="AL9" s="46"/>
-      <c r="AM9" s="46"/>
-      <c r="AN9" s="46"/>
-      <c r="AO9" s="46"/>
-      <c r="AP9" s="46"/>
-      <c r="AQ9" s="46"/>
-      <c r="AR9" s="46"/>
-      <c r="AS9" s="46"/>
-      <c r="AT9" s="46"/>
-      <c r="AU9" s="46"/>
-      <c r="AV9" s="46"/>
-      <c r="AW9" s="46"/>
-      <c r="AX9" s="46"/>
-      <c r="AY9" s="46"/>
-      <c r="AZ9" s="46"/>
-      <c r="BA9" s="46"/>
-      <c r="BB9" s="46"/>
-      <c r="BC9" s="46"/>
-      <c r="BD9" s="46"/>
-      <c r="BE9" s="46"/>
-      <c r="BF9" s="46"/>
-      <c r="BG9" s="46"/>
-      <c r="BH9" s="46"/>
-      <c r="BI9" s="46"/>
-      <c r="BJ9" s="47"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="56"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="56"/>
+      <c r="AP9" s="56"/>
+      <c r="AQ9" s="56"/>
+      <c r="AR9" s="56"/>
+      <c r="AS9" s="56"/>
+      <c r="AT9" s="56"/>
+      <c r="AU9" s="56"/>
+      <c r="AV9" s="56"/>
+      <c r="AW9" s="56"/>
+      <c r="AX9" s="56"/>
+      <c r="AY9" s="56"/>
+      <c r="AZ9" s="56"/>
+      <c r="BA9" s="56"/>
+      <c r="BB9" s="56"/>
+      <c r="BC9" s="56"/>
+      <c r="BD9" s="56"/>
+      <c r="BE9" s="56"/>
+      <c r="BF9" s="56"/>
+      <c r="BG9" s="56"/>
+      <c r="BH9" s="56"/>
+      <c r="BI9" s="56"/>
+      <c r="BJ9" s="57"/>
       <c r="BK9" s="5"/>
       <c r="BL9" s="3"/>
       <c r="BM9" s="4"/>
@@ -4431,70 +4431,70 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="5"/>
       <c r="B10" s="20"/>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="52" t="s">
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="46"/>
-      <c r="AC10" s="46"/>
-      <c r="AD10" s="46"/>
-      <c r="AE10" s="46"/>
-      <c r="AF10" s="46"/>
-      <c r="AG10" s="46"/>
-      <c r="AH10" s="46"/>
-      <c r="AI10" s="46"/>
-      <c r="AJ10" s="46"/>
-      <c r="AK10" s="46"/>
-      <c r="AL10" s="46"/>
-      <c r="AM10" s="46"/>
-      <c r="AN10" s="46"/>
-      <c r="AO10" s="46"/>
-      <c r="AP10" s="46"/>
-      <c r="AQ10" s="46"/>
-      <c r="AR10" s="46"/>
-      <c r="AS10" s="46"/>
-      <c r="AT10" s="46"/>
-      <c r="AU10" s="46"/>
-      <c r="AV10" s="46"/>
-      <c r="AW10" s="46"/>
-      <c r="AX10" s="46"/>
-      <c r="AY10" s="46"/>
-      <c r="AZ10" s="46"/>
-      <c r="BA10" s="46"/>
-      <c r="BB10" s="46"/>
-      <c r="BC10" s="46"/>
-      <c r="BD10" s="46"/>
-      <c r="BE10" s="46"/>
-      <c r="BF10" s="46"/>
-      <c r="BG10" s="46"/>
-      <c r="BH10" s="46"/>
-      <c r="BI10" s="46"/>
-      <c r="BJ10" s="47"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="56"/>
+      <c r="AQ10" s="56"/>
+      <c r="AR10" s="56"/>
+      <c r="AS10" s="56"/>
+      <c r="AT10" s="56"/>
+      <c r="AU10" s="56"/>
+      <c r="AV10" s="56"/>
+      <c r="AW10" s="56"/>
+      <c r="AX10" s="56"/>
+      <c r="AY10" s="56"/>
+      <c r="AZ10" s="56"/>
+      <c r="BA10" s="56"/>
+      <c r="BB10" s="56"/>
+      <c r="BC10" s="56"/>
+      <c r="BD10" s="56"/>
+      <c r="BE10" s="56"/>
+      <c r="BF10" s="56"/>
+      <c r="BG10" s="56"/>
+      <c r="BH10" s="56"/>
+      <c r="BI10" s="56"/>
+      <c r="BJ10" s="57"/>
       <c r="BK10" s="5"/>
       <c r="BL10" s="3"/>
       <c r="BM10" s="4"/>
@@ -4649,72 +4649,72 @@
       <c r="B13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="53" t="s">
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="53" t="s">
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="53" t="s">
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="53" t="s">
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="46"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="53" t="s">
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="AG13" s="46"/>
-      <c r="AH13" s="46"/>
-      <c r="AI13" s="46"/>
-      <c r="AJ13" s="46"/>
-      <c r="AK13" s="46"/>
-      <c r="AL13" s="46"/>
-      <c r="AM13" s="46"/>
-      <c r="AN13" s="46"/>
-      <c r="AO13" s="46"/>
-      <c r="AP13" s="46"/>
-      <c r="AQ13" s="46"/>
-      <c r="AR13" s="46"/>
-      <c r="AS13" s="46"/>
-      <c r="AT13" s="46"/>
-      <c r="AU13" s="46"/>
-      <c r="AV13" s="46"/>
-      <c r="AW13" s="46"/>
-      <c r="AX13" s="46"/>
-      <c r="AY13" s="46"/>
-      <c r="AZ13" s="46"/>
-      <c r="BA13" s="46"/>
-      <c r="BB13" s="46"/>
-      <c r="BC13" s="46"/>
-      <c r="BD13" s="47"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="56"/>
+      <c r="AK13" s="56"/>
+      <c r="AL13" s="56"/>
+      <c r="AM13" s="56"/>
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="56"/>
+      <c r="AP13" s="56"/>
+      <c r="AQ13" s="56"/>
+      <c r="AR13" s="56"/>
+      <c r="AS13" s="56"/>
+      <c r="AT13" s="56"/>
+      <c r="AU13" s="56"/>
+      <c r="AV13" s="56"/>
+      <c r="AW13" s="56"/>
+      <c r="AX13" s="56"/>
+      <c r="AY13" s="56"/>
+      <c r="AZ13" s="56"/>
+      <c r="BA13" s="56"/>
+      <c r="BB13" s="56"/>
+      <c r="BC13" s="56"/>
+      <c r="BD13" s="57"/>
       <c r="BE13" s="19"/>
       <c r="BF13" s="19"/>
       <c r="BG13" s="19"/>
@@ -4749,56 +4749,56 @@
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
       <c r="N14" s="26"/>
-      <c r="O14" s="54" t="s">
+      <c r="O14" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="54">
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="77">
         <v>6</v>
       </c>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="54" t="s">
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="54" t="s">
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AG14" s="46"/>
-      <c r="AH14" s="46"/>
-      <c r="AI14" s="46"/>
-      <c r="AJ14" s="46"/>
-      <c r="AK14" s="46"/>
-      <c r="AL14" s="46"/>
-      <c r="AM14" s="46"/>
-      <c r="AN14" s="46"/>
-      <c r="AO14" s="46"/>
-      <c r="AP14" s="46"/>
-      <c r="AQ14" s="46"/>
-      <c r="AR14" s="46"/>
-      <c r="AS14" s="46"/>
-      <c r="AT14" s="46"/>
-      <c r="AU14" s="46"/>
-      <c r="AV14" s="46"/>
-      <c r="AW14" s="46"/>
-      <c r="AX14" s="46"/>
-      <c r="AY14" s="46"/>
-      <c r="AZ14" s="46"/>
-      <c r="BA14" s="46"/>
-      <c r="BB14" s="46"/>
-      <c r="BC14" s="46"/>
-      <c r="BD14" s="47"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="56"/>
+      <c r="AK14" s="56"/>
+      <c r="AL14" s="56"/>
+      <c r="AM14" s="56"/>
+      <c r="AN14" s="56"/>
+      <c r="AO14" s="56"/>
+      <c r="AP14" s="56"/>
+      <c r="AQ14" s="56"/>
+      <c r="AR14" s="56"/>
+      <c r="AS14" s="56"/>
+      <c r="AT14" s="56"/>
+      <c r="AU14" s="56"/>
+      <c r="AV14" s="56"/>
+      <c r="AW14" s="56"/>
+      <c r="AX14" s="56"/>
+      <c r="AY14" s="56"/>
+      <c r="AZ14" s="56"/>
+      <c r="BA14" s="56"/>
+      <c r="BB14" s="56"/>
+      <c r="BC14" s="56"/>
+      <c r="BD14" s="57"/>
       <c r="BE14" s="19"/>
       <c r="BF14" s="19"/>
       <c r="BG14" s="19"/>
@@ -5024,250 +5024,250 @@
       <c r="BO17" s="4"/>
       <c r="BP17" s="4"/>
     </row>
-    <row r="18" spans="1:68" s="63" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="18" spans="1:68" s="45" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A18" s="27"/>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62" t="s">
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="62"/>
-      <c r="AB18" s="62"/>
-      <c r="AC18" s="62" t="s">
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="74"/>
+      <c r="AA18" s="74"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="AD18" s="62"/>
-      <c r="AE18" s="62"/>
-      <c r="AF18" s="62"/>
-      <c r="AG18" s="62"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="62"/>
-      <c r="AJ18" s="62"/>
-      <c r="AK18" s="62"/>
-      <c r="AL18" s="62" t="s">
+      <c r="AD18" s="74"/>
+      <c r="AE18" s="74"/>
+      <c r="AF18" s="74"/>
+      <c r="AG18" s="74"/>
+      <c r="AH18" s="74"/>
+      <c r="AI18" s="74"/>
+      <c r="AJ18" s="74"/>
+      <c r="AK18" s="74"/>
+      <c r="AL18" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="AM18" s="62"/>
-      <c r="AN18" s="62"/>
-      <c r="AO18" s="62"/>
-      <c r="AP18" s="62"/>
-      <c r="AQ18" s="62"/>
-      <c r="AR18" s="62"/>
-      <c r="AS18" s="62"/>
-      <c r="AT18" s="62"/>
-      <c r="AU18" s="62"/>
-      <c r="AV18" s="62"/>
-      <c r="AW18" s="62"/>
-      <c r="AX18" s="62"/>
-      <c r="AY18" s="62"/>
-      <c r="AZ18" s="62"/>
-      <c r="BA18" s="62"/>
-      <c r="BB18" s="62"/>
-      <c r="BC18" s="62"/>
-      <c r="BD18" s="62"/>
-      <c r="BE18" s="62"/>
-      <c r="BF18" s="62"/>
-      <c r="BG18" s="62"/>
-      <c r="BH18" s="62"/>
-      <c r="BI18" s="62"/>
-      <c r="BJ18" s="62"/>
-      <c r="BK18" s="62"/>
-      <c r="BL18" s="62"/>
-      <c r="BM18" s="62"/>
-      <c r="BN18" s="62"/>
-      <c r="BO18" s="62"/>
+      <c r="AM18" s="74"/>
+      <c r="AN18" s="74"/>
+      <c r="AO18" s="74"/>
+      <c r="AP18" s="74"/>
+      <c r="AQ18" s="74"/>
+      <c r="AR18" s="74"/>
+      <c r="AS18" s="74"/>
+      <c r="AT18" s="74"/>
+      <c r="AU18" s="74"/>
+      <c r="AV18" s="74"/>
+      <c r="AW18" s="74"/>
+      <c r="AX18" s="74"/>
+      <c r="AY18" s="74"/>
+      <c r="AZ18" s="74"/>
+      <c r="BA18" s="74"/>
+      <c r="BB18" s="74"/>
+      <c r="BC18" s="74"/>
+      <c r="BD18" s="74"/>
+      <c r="BE18" s="74"/>
+      <c r="BF18" s="74"/>
+      <c r="BG18" s="74"/>
+      <c r="BH18" s="74"/>
+      <c r="BI18" s="74"/>
+      <c r="BJ18" s="74"/>
+      <c r="BK18" s="74"/>
+      <c r="BL18" s="74"/>
+      <c r="BM18" s="74"/>
+      <c r="BN18" s="74"/>
+      <c r="BO18" s="74"/>
       <c r="BP18" s="27"/>
     </row>
-    <row r="19" spans="1:68" s="63" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="19" spans="1:68" s="45" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A19" s="27"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="62"/>
-      <c r="AH19" s="62"/>
-      <c r="AI19" s="62"/>
-      <c r="AJ19" s="62"/>
-      <c r="AK19" s="62"/>
-      <c r="AL19" s="62" t="s">
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="74"/>
+      <c r="V19" s="74"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="74"/>
+      <c r="Y19" s="74"/>
+      <c r="Z19" s="74"/>
+      <c r="AA19" s="74"/>
+      <c r="AB19" s="74"/>
+      <c r="AC19" s="74"/>
+      <c r="AD19" s="74"/>
+      <c r="AE19" s="74"/>
+      <c r="AF19" s="74"/>
+      <c r="AG19" s="74"/>
+      <c r="AH19" s="74"/>
+      <c r="AI19" s="74"/>
+      <c r="AJ19" s="74"/>
+      <c r="AK19" s="74"/>
+      <c r="AL19" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="AM19" s="62"/>
-      <c r="AN19" s="62"/>
-      <c r="AO19" s="62"/>
-      <c r="AP19" s="62"/>
-      <c r="AQ19" s="62"/>
-      <c r="AR19" s="62"/>
-      <c r="AS19" s="62"/>
-      <c r="AT19" s="62"/>
-      <c r="AU19" s="62" t="s">
+      <c r="AM19" s="74"/>
+      <c r="AN19" s="74"/>
+      <c r="AO19" s="74"/>
+      <c r="AP19" s="74"/>
+      <c r="AQ19" s="74"/>
+      <c r="AR19" s="74"/>
+      <c r="AS19" s="74"/>
+      <c r="AT19" s="74"/>
+      <c r="AU19" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="AV19" s="62"/>
-      <c r="AW19" s="62"/>
-      <c r="AX19" s="62"/>
-      <c r="AY19" s="62"/>
-      <c r="AZ19" s="62" t="s">
+      <c r="AV19" s="74"/>
+      <c r="AW19" s="74"/>
+      <c r="AX19" s="74"/>
+      <c r="AY19" s="74"/>
+      <c r="AZ19" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="BA19" s="62"/>
-      <c r="BB19" s="62"/>
-      <c r="BC19" s="62"/>
-      <c r="BD19" s="62"/>
-      <c r="BE19" s="62"/>
-      <c r="BF19" s="62"/>
-      <c r="BG19" s="62"/>
-      <c r="BH19" s="62"/>
-      <c r="BI19" s="62"/>
-      <c r="BJ19" s="62"/>
-      <c r="BK19" s="62"/>
-      <c r="BL19" s="62"/>
-      <c r="BM19" s="62"/>
-      <c r="BN19" s="62"/>
-      <c r="BO19" s="62"/>
+      <c r="BA19" s="74"/>
+      <c r="BB19" s="74"/>
+      <c r="BC19" s="74"/>
+      <c r="BD19" s="74"/>
+      <c r="BE19" s="74"/>
+      <c r="BF19" s="74"/>
+      <c r="BG19" s="74"/>
+      <c r="BH19" s="74"/>
+      <c r="BI19" s="74"/>
+      <c r="BJ19" s="74"/>
+      <c r="BK19" s="74"/>
+      <c r="BL19" s="74"/>
+      <c r="BM19" s="74"/>
+      <c r="BN19" s="74"/>
+      <c r="BO19" s="74"/>
       <c r="BP19" s="27"/>
     </row>
-    <row r="20" spans="1:68" s="63" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
+    <row r="20" spans="1:68" s="45" customFormat="1" ht="48.75" customHeight="1" outlineLevel="1">
       <c r="A20" s="27"/>
-      <c r="B20" s="64">
+      <c r="B20" s="46">
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65" t="s">
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="66" t="s">
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="64"/>
+      <c r="Y20" s="64"/>
+      <c r="Z20" s="64"/>
+      <c r="AA20" s="64"/>
+      <c r="AB20" s="64"/>
+      <c r="AC20" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="66" t="s">
+      <c r="AD20" s="61"/>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="61"/>
+      <c r="AH20" s="61"/>
+      <c r="AI20" s="61"/>
+      <c r="AJ20" s="61"/>
+      <c r="AK20" s="61"/>
+      <c r="AL20" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="AM20" s="66"/>
-      <c r="AN20" s="66"/>
-      <c r="AO20" s="66"/>
-      <c r="AP20" s="66"/>
-      <c r="AQ20" s="66"/>
-      <c r="AR20" s="66"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="66"/>
-      <c r="AU20" s="66" t="s">
+      <c r="AM20" s="61"/>
+      <c r="AN20" s="61"/>
+      <c r="AO20" s="61"/>
+      <c r="AP20" s="61"/>
+      <c r="AQ20" s="61"/>
+      <c r="AR20" s="61"/>
+      <c r="AS20" s="61"/>
+      <c r="AT20" s="61"/>
+      <c r="AU20" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="AV20" s="66"/>
-      <c r="AW20" s="66"/>
-      <c r="AX20" s="66"/>
-      <c r="AY20" s="66"/>
-      <c r="AZ20" s="66" t="s">
+      <c r="AV20" s="61"/>
+      <c r="AW20" s="61"/>
+      <c r="AX20" s="61"/>
+      <c r="AY20" s="61"/>
+      <c r="AZ20" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="BA20" s="66"/>
-      <c r="BB20" s="66"/>
-      <c r="BC20" s="66"/>
-      <c r="BD20" s="66"/>
-      <c r="BE20" s="66"/>
-      <c r="BF20" s="66"/>
-      <c r="BG20" s="66"/>
-      <c r="BH20" s="66"/>
-      <c r="BI20" s="66"/>
-      <c r="BJ20" s="66"/>
-      <c r="BK20" s="66"/>
-      <c r="BL20" s="66"/>
-      <c r="BM20" s="66"/>
-      <c r="BN20" s="66"/>
-      <c r="BO20" s="66"/>
+      <c r="BA20" s="61"/>
+      <c r="BB20" s="61"/>
+      <c r="BC20" s="61"/>
+      <c r="BD20" s="61"/>
+      <c r="BE20" s="61"/>
+      <c r="BF20" s="61"/>
+      <c r="BG20" s="61"/>
+      <c r="BH20" s="61"/>
+      <c r="BI20" s="61"/>
+      <c r="BJ20" s="61"/>
+      <c r="BK20" s="61"/>
+      <c r="BL20" s="61"/>
+      <c r="BM20" s="61"/>
+      <c r="BN20" s="61"/>
+      <c r="BO20" s="61"/>
       <c r="BP20" s="27"/>
     </row>
-    <row r="21" spans="1:68" s="63" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="21" spans="1:68" s="45" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A21" s="27"/>
-      <c r="B21" s="68">
+      <c r="B21" s="47">
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
@@ -5281,411 +5281,411 @@
       <c r="H21" s="72"/>
       <c r="I21" s="72"/>
       <c r="J21" s="72"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69" t="s">
+      <c r="K21" s="70"/>
+      <c r="L21" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="65"/>
-      <c r="AC21" s="66" t="s">
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="64"/>
+      <c r="Y21" s="64"/>
+      <c r="Z21" s="64"/>
+      <c r="AA21" s="64"/>
+      <c r="AB21" s="64"/>
+      <c r="AC21" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66" t="s">
+      <c r="AD21" s="61"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="61"/>
+      <c r="AK21" s="61"/>
+      <c r="AL21" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="AM21" s="66"/>
-      <c r="AN21" s="66"/>
-      <c r="AO21" s="66"/>
-      <c r="AP21" s="66"/>
-      <c r="AQ21" s="66"/>
-      <c r="AR21" s="66"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="66"/>
-      <c r="AU21" s="65" t="s">
+      <c r="AM21" s="61"/>
+      <c r="AN21" s="61"/>
+      <c r="AO21" s="61"/>
+      <c r="AP21" s="61"/>
+      <c r="AQ21" s="61"/>
+      <c r="AR21" s="61"/>
+      <c r="AS21" s="61"/>
+      <c r="AT21" s="61"/>
+      <c r="AU21" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="AV21" s="65"/>
-      <c r="AW21" s="65"/>
-      <c r="AX21" s="65"/>
-      <c r="AY21" s="65"/>
-      <c r="AZ21" s="67" t="s">
+      <c r="AV21" s="64"/>
+      <c r="AW21" s="64"/>
+      <c r="AX21" s="64"/>
+      <c r="AY21" s="64"/>
+      <c r="AZ21" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="BA21" s="67"/>
-      <c r="BB21" s="67"/>
-      <c r="BC21" s="67"/>
-      <c r="BD21" s="67"/>
-      <c r="BE21" s="67"/>
-      <c r="BF21" s="67"/>
-      <c r="BG21" s="67"/>
-      <c r="BH21" s="67"/>
-      <c r="BI21" s="67"/>
-      <c r="BJ21" s="67"/>
-      <c r="BK21" s="67"/>
-      <c r="BL21" s="67"/>
-      <c r="BM21" s="67"/>
-      <c r="BN21" s="67"/>
-      <c r="BO21" s="67"/>
+      <c r="BA21" s="65"/>
+      <c r="BB21" s="65"/>
+      <c r="BC21" s="65"/>
+      <c r="BD21" s="65"/>
+      <c r="BE21" s="65"/>
+      <c r="BF21" s="65"/>
+      <c r="BG21" s="65"/>
+      <c r="BH21" s="65"/>
+      <c r="BI21" s="65"/>
+      <c r="BJ21" s="65"/>
+      <c r="BK21" s="65"/>
+      <c r="BL21" s="65"/>
+      <c r="BM21" s="65"/>
+      <c r="BN21" s="65"/>
+      <c r="BO21" s="65"/>
       <c r="BP21" s="27"/>
     </row>
-    <row r="22" spans="1:68" s="63" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
+    <row r="22" spans="1:68" s="45" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
       <c r="A22" s="27"/>
-      <c r="B22" s="68">
+      <c r="B22" s="47">
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="69" t="s">
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="65"/>
-      <c r="AB22" s="65"/>
-      <c r="AC22" s="66" t="s">
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="64"/>
+      <c r="AB22" s="64"/>
+      <c r="AC22" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
-      <c r="AL22" s="66" t="s">
+      <c r="AD22" s="61"/>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="61"/>
+      <c r="AH22" s="61"/>
+      <c r="AI22" s="61"/>
+      <c r="AJ22" s="61"/>
+      <c r="AK22" s="61"/>
+      <c r="AL22" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="AM22" s="66"/>
-      <c r="AN22" s="66"/>
-      <c r="AO22" s="66"/>
-      <c r="AP22" s="66"/>
-      <c r="AQ22" s="66"/>
-      <c r="AR22" s="66"/>
-      <c r="AS22" s="66"/>
-      <c r="AT22" s="66"/>
-      <c r="AU22" s="65" t="s">
+      <c r="AM22" s="61"/>
+      <c r="AN22" s="61"/>
+      <c r="AO22" s="61"/>
+      <c r="AP22" s="61"/>
+      <c r="AQ22" s="61"/>
+      <c r="AR22" s="61"/>
+      <c r="AS22" s="61"/>
+      <c r="AT22" s="61"/>
+      <c r="AU22" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="AV22" s="65"/>
-      <c r="AW22" s="65"/>
-      <c r="AX22" s="65"/>
-      <c r="AY22" s="65"/>
-      <c r="AZ22" s="67" t="s">
+      <c r="AV22" s="64"/>
+      <c r="AW22" s="64"/>
+      <c r="AX22" s="64"/>
+      <c r="AY22" s="64"/>
+      <c r="AZ22" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="BA22" s="67"/>
-      <c r="BB22" s="67"/>
-      <c r="BC22" s="67"/>
-      <c r="BD22" s="67"/>
-      <c r="BE22" s="67"/>
-      <c r="BF22" s="67"/>
-      <c r="BG22" s="67"/>
-      <c r="BH22" s="67"/>
-      <c r="BI22" s="67"/>
-      <c r="BJ22" s="67"/>
-      <c r="BK22" s="67"/>
-      <c r="BL22" s="67"/>
-      <c r="BM22" s="67"/>
-      <c r="BN22" s="67"/>
-      <c r="BO22" s="67"/>
+      <c r="BA22" s="65"/>
+      <c r="BB22" s="65"/>
+      <c r="BC22" s="65"/>
+      <c r="BD22" s="65"/>
+      <c r="BE22" s="65"/>
+      <c r="BF22" s="65"/>
+      <c r="BG22" s="65"/>
+      <c r="BH22" s="65"/>
+      <c r="BI22" s="65"/>
+      <c r="BJ22" s="65"/>
+      <c r="BK22" s="65"/>
+      <c r="BL22" s="65"/>
+      <c r="BM22" s="65"/>
+      <c r="BN22" s="65"/>
+      <c r="BO22" s="65"/>
       <c r="BP22" s="27"/>
     </row>
-    <row r="23" spans="1:68" s="63" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="23" spans="1:68" s="45" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A23" s="27"/>
-      <c r="B23" s="64">
+      <c r="B23" s="46">
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="65" t="s">
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="65"/>
-      <c r="AC23" s="66" t="s">
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="64"/>
+      <c r="AB23" s="64"/>
+      <c r="AC23" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="66"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="66"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="66"/>
-      <c r="AL23" s="66" t="s">
+      <c r="AD23" s="61"/>
+      <c r="AE23" s="61"/>
+      <c r="AF23" s="61"/>
+      <c r="AG23" s="61"/>
+      <c r="AH23" s="61"/>
+      <c r="AI23" s="61"/>
+      <c r="AJ23" s="61"/>
+      <c r="AK23" s="61"/>
+      <c r="AL23" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="AM23" s="66"/>
-      <c r="AN23" s="66"/>
-      <c r="AO23" s="66"/>
-      <c r="AP23" s="66"/>
-      <c r="AQ23" s="66"/>
-      <c r="AR23" s="66"/>
-      <c r="AS23" s="66"/>
-      <c r="AT23" s="66"/>
-      <c r="AU23" s="66" t="s">
+      <c r="AM23" s="61"/>
+      <c r="AN23" s="61"/>
+      <c r="AO23" s="61"/>
+      <c r="AP23" s="61"/>
+      <c r="AQ23" s="61"/>
+      <c r="AR23" s="61"/>
+      <c r="AS23" s="61"/>
+      <c r="AT23" s="61"/>
+      <c r="AU23" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="AV23" s="66"/>
-      <c r="AW23" s="66"/>
-      <c r="AX23" s="66"/>
-      <c r="AY23" s="66"/>
-      <c r="AZ23" s="66" t="s">
+      <c r="AV23" s="61"/>
+      <c r="AW23" s="61"/>
+      <c r="AX23" s="61"/>
+      <c r="AY23" s="61"/>
+      <c r="AZ23" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="BA23" s="66"/>
-      <c r="BB23" s="66"/>
-      <c r="BC23" s="66"/>
-      <c r="BD23" s="66"/>
-      <c r="BE23" s="66"/>
-      <c r="BF23" s="66"/>
-      <c r="BG23" s="66"/>
-      <c r="BH23" s="66"/>
-      <c r="BI23" s="66"/>
-      <c r="BJ23" s="66"/>
-      <c r="BK23" s="66"/>
-      <c r="BL23" s="66"/>
-      <c r="BM23" s="66"/>
-      <c r="BN23" s="66"/>
-      <c r="BO23" s="66"/>
+      <c r="BA23" s="61"/>
+      <c r="BB23" s="61"/>
+      <c r="BC23" s="61"/>
+      <c r="BD23" s="61"/>
+      <c r="BE23" s="61"/>
+      <c r="BF23" s="61"/>
+      <c r="BG23" s="61"/>
+      <c r="BH23" s="61"/>
+      <c r="BI23" s="61"/>
+      <c r="BJ23" s="61"/>
+      <c r="BK23" s="61"/>
+      <c r="BL23" s="61"/>
+      <c r="BM23" s="61"/>
+      <c r="BN23" s="61"/>
+      <c r="BO23" s="61"/>
       <c r="BP23" s="27"/>
     </row>
-    <row r="24" spans="1:68" s="63" customFormat="1" ht="49.5" customHeight="1" outlineLevel="1">
+    <row r="24" spans="1:68" s="45" customFormat="1" ht="49.5" customHeight="1" outlineLevel="1">
       <c r="A24" s="27"/>
-      <c r="B24" s="64">
+      <c r="B24" s="46">
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>5</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65" t="s">
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="65"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="65"/>
-      <c r="AA24" s="65"/>
-      <c r="AB24" s="65"/>
-      <c r="AC24" s="66" t="s">
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="64"/>
+      <c r="AB24" s="64"/>
+      <c r="AC24" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="AD24" s="66"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="66"/>
-      <c r="AK24" s="66"/>
-      <c r="AL24" s="66" t="s">
+      <c r="AD24" s="61"/>
+      <c r="AE24" s="61"/>
+      <c r="AF24" s="61"/>
+      <c r="AG24" s="61"/>
+      <c r="AH24" s="61"/>
+      <c r="AI24" s="61"/>
+      <c r="AJ24" s="61"/>
+      <c r="AK24" s="61"/>
+      <c r="AL24" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="AM24" s="66"/>
-      <c r="AN24" s="66"/>
-      <c r="AO24" s="66"/>
-      <c r="AP24" s="66"/>
-      <c r="AQ24" s="66"/>
-      <c r="AR24" s="66"/>
-      <c r="AS24" s="66"/>
-      <c r="AT24" s="66"/>
-      <c r="AU24" s="66" t="s">
+      <c r="AM24" s="61"/>
+      <c r="AN24" s="61"/>
+      <c r="AO24" s="61"/>
+      <c r="AP24" s="61"/>
+      <c r="AQ24" s="61"/>
+      <c r="AR24" s="61"/>
+      <c r="AS24" s="61"/>
+      <c r="AT24" s="61"/>
+      <c r="AU24" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="AV24" s="66"/>
-      <c r="AW24" s="66"/>
-      <c r="AX24" s="66"/>
-      <c r="AY24" s="66"/>
-      <c r="AZ24" s="66" t="s">
+      <c r="AV24" s="61"/>
+      <c r="AW24" s="61"/>
+      <c r="AX24" s="61"/>
+      <c r="AY24" s="61"/>
+      <c r="AZ24" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="BA24" s="66"/>
-      <c r="BB24" s="66"/>
-      <c r="BC24" s="66"/>
-      <c r="BD24" s="66"/>
-      <c r="BE24" s="66"/>
-      <c r="BF24" s="66"/>
-      <c r="BG24" s="66"/>
-      <c r="BH24" s="66"/>
-      <c r="BI24" s="66"/>
-      <c r="BJ24" s="66"/>
-      <c r="BK24" s="66"/>
-      <c r="BL24" s="66"/>
-      <c r="BM24" s="66"/>
-      <c r="BN24" s="66"/>
-      <c r="BO24" s="66"/>
+      <c r="BA24" s="61"/>
+      <c r="BB24" s="61"/>
+      <c r="BC24" s="61"/>
+      <c r="BD24" s="61"/>
+      <c r="BE24" s="61"/>
+      <c r="BF24" s="61"/>
+      <c r="BG24" s="61"/>
+      <c r="BH24" s="61"/>
+      <c r="BI24" s="61"/>
+      <c r="BJ24" s="61"/>
+      <c r="BK24" s="61"/>
+      <c r="BL24" s="61"/>
+      <c r="BM24" s="61"/>
+      <c r="BN24" s="61"/>
+      <c r="BO24" s="61"/>
       <c r="BP24" s="27"/>
     </row>
-    <row r="25" spans="1:68" s="63" customFormat="1" ht="81.75" customHeight="1" outlineLevel="1">
+    <row r="25" spans="1:68" s="45" customFormat="1" ht="81.75" customHeight="1" outlineLevel="1">
       <c r="A25" s="27"/>
-      <c r="B25" s="64">
+      <c r="B25" s="46">
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>6</v>
       </c>
-      <c r="C25" s="76" t="s">
+      <c r="C25" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76" t="s">
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="76"/>
-      <c r="R25" s="76"/>
-      <c r="S25" s="76"/>
-      <c r="T25" s="76"/>
-      <c r="U25" s="76"/>
-      <c r="V25" s="76"/>
-      <c r="W25" s="76"/>
-      <c r="X25" s="76"/>
-      <c r="Y25" s="76"/>
-      <c r="Z25" s="76"/>
-      <c r="AA25" s="76"/>
-      <c r="AB25" s="76"/>
-      <c r="AC25" s="77" t="s">
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="AD25" s="77"/>
-      <c r="AE25" s="77"/>
-      <c r="AF25" s="77"/>
-      <c r="AG25" s="77"/>
-      <c r="AH25" s="77"/>
-      <c r="AI25" s="77"/>
-      <c r="AJ25" s="77"/>
-      <c r="AK25" s="77"/>
-      <c r="AL25" s="77" t="s">
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="63"/>
+      <c r="AH25" s="63"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="63"/>
+      <c r="AK25" s="63"/>
+      <c r="AL25" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="AM25" s="77"/>
-      <c r="AN25" s="77"/>
-      <c r="AO25" s="77"/>
-      <c r="AP25" s="77"/>
-      <c r="AQ25" s="77"/>
-      <c r="AR25" s="77"/>
-      <c r="AS25" s="77"/>
-      <c r="AT25" s="77"/>
-      <c r="AU25" s="77" t="s">
+      <c r="AM25" s="63"/>
+      <c r="AN25" s="63"/>
+      <c r="AO25" s="63"/>
+      <c r="AP25" s="63"/>
+      <c r="AQ25" s="63"/>
+      <c r="AR25" s="63"/>
+      <c r="AS25" s="63"/>
+      <c r="AT25" s="63"/>
+      <c r="AU25" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="AV25" s="77"/>
-      <c r="AW25" s="77"/>
-      <c r="AX25" s="77"/>
-      <c r="AY25" s="77"/>
-      <c r="AZ25" s="77" t="s">
+      <c r="AV25" s="63"/>
+      <c r="AW25" s="63"/>
+      <c r="AX25" s="63"/>
+      <c r="AY25" s="63"/>
+      <c r="AZ25" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="BA25" s="77"/>
-      <c r="BB25" s="77"/>
-      <c r="BC25" s="77"/>
-      <c r="BD25" s="77"/>
-      <c r="BE25" s="77"/>
-      <c r="BF25" s="77"/>
-      <c r="BG25" s="77"/>
-      <c r="BH25" s="77"/>
-      <c r="BI25" s="77"/>
-      <c r="BJ25" s="77"/>
-      <c r="BK25" s="77"/>
-      <c r="BL25" s="77"/>
-      <c r="BM25" s="77"/>
-      <c r="BN25" s="77"/>
-      <c r="BO25" s="77"/>
+      <c r="BA25" s="63"/>
+      <c r="BB25" s="63"/>
+      <c r="BC25" s="63"/>
+      <c r="BD25" s="63"/>
+      <c r="BE25" s="63"/>
+      <c r="BF25" s="63"/>
+      <c r="BG25" s="63"/>
+      <c r="BH25" s="63"/>
+      <c r="BI25" s="63"/>
+      <c r="BJ25" s="63"/>
+      <c r="BK25" s="63"/>
+      <c r="BL25" s="63"/>
+      <c r="BM25" s="63"/>
+      <c r="BN25" s="63"/>
+      <c r="BO25" s="63"/>
       <c r="BP25" s="27"/>
     </row>
     <row r="26" spans="1:68" ht="16.5">
@@ -6904,6 +6904,56 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BJ7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BJ8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BJ9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="Y13:AE13"/>
+    <mergeCell ref="Y14:AE14"/>
+    <mergeCell ref="AF13:BD13"/>
+    <mergeCell ref="AF14:BD14"/>
+    <mergeCell ref="I10:BJ10"/>
+    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="O14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:K19"/>
+    <mergeCell ref="L18:AB19"/>
+    <mergeCell ref="AC18:AK19"/>
+    <mergeCell ref="AL18:BO18"/>
+    <mergeCell ref="AL19:AT19"/>
+    <mergeCell ref="AU19:AY19"/>
+    <mergeCell ref="AZ19:BO19"/>
+    <mergeCell ref="AZ20:BO20"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="L21:AB21"/>
+    <mergeCell ref="AC21:AK21"/>
+    <mergeCell ref="AL21:AT21"/>
+    <mergeCell ref="AU21:AY21"/>
+    <mergeCell ref="AZ21:BO21"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="L20:AB20"/>
+    <mergeCell ref="AC20:AK20"/>
+    <mergeCell ref="AL20:AT20"/>
+    <mergeCell ref="AU20:AY20"/>
+    <mergeCell ref="AZ22:BO22"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="L23:AB23"/>
+    <mergeCell ref="AC23:AK23"/>
+    <mergeCell ref="AL23:AT23"/>
+    <mergeCell ref="AU23:AY23"/>
+    <mergeCell ref="AZ23:BO23"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="L22:AB22"/>
+    <mergeCell ref="AC22:AK22"/>
+    <mergeCell ref="AL22:AT22"/>
+    <mergeCell ref="AU22:AY22"/>
     <mergeCell ref="AZ24:BO24"/>
     <mergeCell ref="C25:K25"/>
     <mergeCell ref="L25:AB25"/>
@@ -6916,56 +6966,6 @@
     <mergeCell ref="AC24:AK24"/>
     <mergeCell ref="AL24:AT24"/>
     <mergeCell ref="AU24:AY24"/>
-    <mergeCell ref="AZ22:BO22"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="L23:AB23"/>
-    <mergeCell ref="AC23:AK23"/>
-    <mergeCell ref="AL23:AT23"/>
-    <mergeCell ref="AU23:AY23"/>
-    <mergeCell ref="AZ23:BO23"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="L22:AB22"/>
-    <mergeCell ref="AC22:AK22"/>
-    <mergeCell ref="AL22:AT22"/>
-    <mergeCell ref="AU22:AY22"/>
-    <mergeCell ref="AZ20:BO20"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="L21:AB21"/>
-    <mergeCell ref="AC21:AK21"/>
-    <mergeCell ref="AL21:AT21"/>
-    <mergeCell ref="AU21:AY21"/>
-    <mergeCell ref="AZ21:BO21"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="L20:AB20"/>
-    <mergeCell ref="AC20:AK20"/>
-    <mergeCell ref="AL20:AT20"/>
-    <mergeCell ref="AU20:AY20"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:K19"/>
-    <mergeCell ref="L18:AB19"/>
-    <mergeCell ref="AC18:AK19"/>
-    <mergeCell ref="AL18:BO18"/>
-    <mergeCell ref="AL19:AT19"/>
-    <mergeCell ref="AU19:AY19"/>
-    <mergeCell ref="AZ19:BO19"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="Y13:AE13"/>
-    <mergeCell ref="Y14:AE14"/>
-    <mergeCell ref="AF13:BD13"/>
-    <mergeCell ref="AF14:BD14"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BJ7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BJ8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BJ9"/>
-    <mergeCell ref="I10:BJ10"/>
-    <mergeCell ref="O13:T13"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="O14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="U13:X13"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7005,7 +7005,7 @@
   <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+      <selection activeCell="D23" sqref="D23:V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -7422,60 +7422,60 @@
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
       <c r="J7" s="35"/>
-      <c r="K7" s="52" t="s">
+      <c r="K7" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="46"/>
-      <c r="AG7" s="46"/>
-      <c r="AH7" s="46"/>
-      <c r="AI7" s="46"/>
-      <c r="AJ7" s="46"/>
-      <c r="AK7" s="46"/>
-      <c r="AL7" s="46"/>
-      <c r="AM7" s="46"/>
-      <c r="AN7" s="46"/>
-      <c r="AO7" s="46"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="46"/>
-      <c r="AR7" s="46"/>
-      <c r="AS7" s="46"/>
-      <c r="AT7" s="46"/>
-      <c r="AU7" s="46"/>
-      <c r="AV7" s="46"/>
-      <c r="AW7" s="46"/>
-      <c r="AX7" s="46"/>
-      <c r="AY7" s="46"/>
-      <c r="AZ7" s="46"/>
-      <c r="BA7" s="46"/>
-      <c r="BB7" s="46"/>
-      <c r="BC7" s="46"/>
-      <c r="BD7" s="46"/>
-      <c r="BE7" s="46"/>
-      <c r="BF7" s="46"/>
-      <c r="BG7" s="46"/>
-      <c r="BH7" s="46"/>
-      <c r="BI7" s="46"/>
-      <c r="BJ7" s="47"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
+      <c r="AN7" s="56"/>
+      <c r="AO7" s="56"/>
+      <c r="AP7" s="56"/>
+      <c r="AQ7" s="56"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="56"/>
+      <c r="AT7" s="56"/>
+      <c r="AU7" s="56"/>
+      <c r="AV7" s="56"/>
+      <c r="AW7" s="56"/>
+      <c r="AX7" s="56"/>
+      <c r="AY7" s="56"/>
+      <c r="AZ7" s="56"/>
+      <c r="BA7" s="56"/>
+      <c r="BB7" s="56"/>
+      <c r="BC7" s="56"/>
+      <c r="BD7" s="56"/>
+      <c r="BE7" s="56"/>
+      <c r="BF7" s="56"/>
+      <c r="BG7" s="56"/>
+      <c r="BH7" s="56"/>
+      <c r="BI7" s="56"/>
+      <c r="BJ7" s="57"/>
       <c r="BK7" s="3"/>
     </row>
     <row r="8" spans="1:63" ht="16.5" outlineLevel="1">
@@ -7491,60 +7491,60 @@
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="36"/>
-      <c r="K8" s="52" t="s">
+      <c r="K8" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="46"/>
-      <c r="AJ8" s="46"/>
-      <c r="AK8" s="46"/>
-      <c r="AL8" s="46"/>
-      <c r="AM8" s="46"/>
-      <c r="AN8" s="46"/>
-      <c r="AO8" s="46"/>
-      <c r="AP8" s="46"/>
-      <c r="AQ8" s="46"/>
-      <c r="AR8" s="46"/>
-      <c r="AS8" s="46"/>
-      <c r="AT8" s="46"/>
-      <c r="AU8" s="46"/>
-      <c r="AV8" s="46"/>
-      <c r="AW8" s="46"/>
-      <c r="AX8" s="46"/>
-      <c r="AY8" s="46"/>
-      <c r="AZ8" s="46"/>
-      <c r="BA8" s="46"/>
-      <c r="BB8" s="46"/>
-      <c r="BC8" s="46"/>
-      <c r="BD8" s="46"/>
-      <c r="BE8" s="46"/>
-      <c r="BF8" s="46"/>
-      <c r="BG8" s="46"/>
-      <c r="BH8" s="46"/>
-      <c r="BI8" s="46"/>
-      <c r="BJ8" s="47"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="56"/>
+      <c r="AP8" s="56"/>
+      <c r="AQ8" s="56"/>
+      <c r="AR8" s="56"/>
+      <c r="AS8" s="56"/>
+      <c r="AT8" s="56"/>
+      <c r="AU8" s="56"/>
+      <c r="AV8" s="56"/>
+      <c r="AW8" s="56"/>
+      <c r="AX8" s="56"/>
+      <c r="AY8" s="56"/>
+      <c r="AZ8" s="56"/>
+      <c r="BA8" s="56"/>
+      <c r="BB8" s="56"/>
+      <c r="BC8" s="56"/>
+      <c r="BD8" s="56"/>
+      <c r="BE8" s="56"/>
+      <c r="BF8" s="56"/>
+      <c r="BG8" s="56"/>
+      <c r="BH8" s="56"/>
+      <c r="BI8" s="56"/>
+      <c r="BJ8" s="57"/>
       <c r="BK8" s="3"/>
     </row>
     <row r="9" spans="1:63" ht="16.5" outlineLevel="1">
@@ -7560,60 +7560,60 @@
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
-      <c r="K9" s="52" t="s">
+      <c r="K9" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="46"/>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="46"/>
-      <c r="AG9" s="46"/>
-      <c r="AH9" s="46"/>
-      <c r="AI9" s="46"/>
-      <c r="AJ9" s="46"/>
-      <c r="AK9" s="46"/>
-      <c r="AL9" s="46"/>
-      <c r="AM9" s="46"/>
-      <c r="AN9" s="46"/>
-      <c r="AO9" s="46"/>
-      <c r="AP9" s="46"/>
-      <c r="AQ9" s="46"/>
-      <c r="AR9" s="46"/>
-      <c r="AS9" s="46"/>
-      <c r="AT9" s="46"/>
-      <c r="AU9" s="46"/>
-      <c r="AV9" s="46"/>
-      <c r="AW9" s="46"/>
-      <c r="AX9" s="46"/>
-      <c r="AY9" s="46"/>
-      <c r="AZ9" s="46"/>
-      <c r="BA9" s="46"/>
-      <c r="BB9" s="46"/>
-      <c r="BC9" s="46"/>
-      <c r="BD9" s="46"/>
-      <c r="BE9" s="46"/>
-      <c r="BF9" s="46"/>
-      <c r="BG9" s="46"/>
-      <c r="BH9" s="46"/>
-      <c r="BI9" s="46"/>
-      <c r="BJ9" s="47"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="56"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="56"/>
+      <c r="AP9" s="56"/>
+      <c r="AQ9" s="56"/>
+      <c r="AR9" s="56"/>
+      <c r="AS9" s="56"/>
+      <c r="AT9" s="56"/>
+      <c r="AU9" s="56"/>
+      <c r="AV9" s="56"/>
+      <c r="AW9" s="56"/>
+      <c r="AX9" s="56"/>
+      <c r="AY9" s="56"/>
+      <c r="AZ9" s="56"/>
+      <c r="BA9" s="56"/>
+      <c r="BB9" s="56"/>
+      <c r="BC9" s="56"/>
+      <c r="BD9" s="56"/>
+      <c r="BE9" s="56"/>
+      <c r="BF9" s="56"/>
+      <c r="BG9" s="56"/>
+      <c r="BH9" s="56"/>
+      <c r="BI9" s="56"/>
+      <c r="BJ9" s="57"/>
       <c r="BK9" s="3"/>
     </row>
     <row r="10" spans="1:63" ht="16.5" outlineLevel="1">
@@ -7819,803 +7819,803 @@
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="39"/>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="59" t="s">
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="59" t="s">
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="AD13" s="46"/>
-      <c r="AE13" s="46"/>
-      <c r="AF13" s="46"/>
-      <c r="AG13" s="46"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="60" t="s">
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="57"/>
+      <c r="AI13" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="AJ13" s="57"/>
-      <c r="AK13" s="57"/>
-      <c r="AL13" s="57"/>
-      <c r="AM13" s="57"/>
-      <c r="AN13" s="57"/>
-      <c r="AO13" s="57"/>
-      <c r="AP13" s="57"/>
-      <c r="AQ13" s="57"/>
-      <c r="AR13" s="57"/>
-      <c r="AS13" s="57"/>
-      <c r="AT13" s="57"/>
-      <c r="AU13" s="57"/>
-      <c r="AV13" s="57"/>
-      <c r="AW13" s="57"/>
-      <c r="AX13" s="57"/>
-      <c r="AY13" s="57"/>
-      <c r="AZ13" s="57"/>
-      <c r="BA13" s="57"/>
-      <c r="BB13" s="57"/>
-      <c r="BC13" s="57"/>
-      <c r="BD13" s="57"/>
-      <c r="BE13" s="57"/>
-      <c r="BF13" s="57"/>
-      <c r="BG13" s="57"/>
-      <c r="BH13" s="57"/>
-      <c r="BI13" s="57"/>
-      <c r="BJ13" s="58"/>
+      <c r="AJ13" s="81"/>
+      <c r="AK13" s="81"/>
+      <c r="AL13" s="81"/>
+      <c r="AM13" s="81"/>
+      <c r="AN13" s="81"/>
+      <c r="AO13" s="81"/>
+      <c r="AP13" s="81"/>
+      <c r="AQ13" s="81"/>
+      <c r="AR13" s="81"/>
+      <c r="AS13" s="81"/>
+      <c r="AT13" s="81"/>
+      <c r="AU13" s="81"/>
+      <c r="AV13" s="81"/>
+      <c r="AW13" s="81"/>
+      <c r="AX13" s="81"/>
+      <c r="AY13" s="81"/>
+      <c r="AZ13" s="81"/>
+      <c r="BA13" s="81"/>
+      <c r="BB13" s="81"/>
+      <c r="BC13" s="81"/>
+      <c r="BD13" s="81"/>
+      <c r="BE13" s="81"/>
+      <c r="BF13" s="81"/>
+      <c r="BG13" s="81"/>
+      <c r="BH13" s="81"/>
+      <c r="BI13" s="81"/>
+      <c r="BJ13" s="82"/>
       <c r="BK13" s="3"/>
     </row>
     <row r="14" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="39"/>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="56" t="s">
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="56" t="s">
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="46"/>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="56" t="s">
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="AJ14" s="46"/>
-      <c r="AK14" s="46"/>
-      <c r="AL14" s="46"/>
-      <c r="AM14" s="46"/>
-      <c r="AN14" s="46"/>
-      <c r="AO14" s="46"/>
-      <c r="AP14" s="46"/>
-      <c r="AQ14" s="46"/>
-      <c r="AR14" s="46"/>
-      <c r="AS14" s="46"/>
-      <c r="AT14" s="46"/>
-      <c r="AU14" s="46"/>
-      <c r="AV14" s="46"/>
-      <c r="AW14" s="46"/>
-      <c r="AX14" s="46"/>
-      <c r="AY14" s="46"/>
-      <c r="AZ14" s="46"/>
-      <c r="BA14" s="46"/>
-      <c r="BB14" s="46"/>
-      <c r="BC14" s="46"/>
-      <c r="BD14" s="46"/>
-      <c r="BE14" s="46"/>
-      <c r="BF14" s="46"/>
-      <c r="BG14" s="46"/>
-      <c r="BH14" s="46"/>
-      <c r="BI14" s="46"/>
-      <c r="BJ14" s="47"/>
+      <c r="AJ14" s="56"/>
+      <c r="AK14" s="56"/>
+      <c r="AL14" s="56"/>
+      <c r="AM14" s="56"/>
+      <c r="AN14" s="56"/>
+      <c r="AO14" s="56"/>
+      <c r="AP14" s="56"/>
+      <c r="AQ14" s="56"/>
+      <c r="AR14" s="56"/>
+      <c r="AS14" s="56"/>
+      <c r="AT14" s="56"/>
+      <c r="AU14" s="56"/>
+      <c r="AV14" s="56"/>
+      <c r="AW14" s="56"/>
+      <c r="AX14" s="56"/>
+      <c r="AY14" s="56"/>
+      <c r="AZ14" s="56"/>
+      <c r="BA14" s="56"/>
+      <c r="BB14" s="56"/>
+      <c r="BC14" s="56"/>
+      <c r="BD14" s="56"/>
+      <c r="BE14" s="56"/>
+      <c r="BF14" s="56"/>
+      <c r="BG14" s="56"/>
+      <c r="BH14" s="56"/>
+      <c r="BI14" s="56"/>
+      <c r="BJ14" s="57"/>
       <c r="BK14" s="3"/>
     </row>
     <row r="15" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="39"/>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="56" t="s">
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="56" t="s">
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-      <c r="AG15" s="46"/>
-      <c r="AH15" s="47"/>
-      <c r="AI15" s="56" t="s">
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="57"/>
+      <c r="AI15" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="AJ15" s="46"/>
-      <c r="AK15" s="46"/>
-      <c r="AL15" s="46"/>
-      <c r="AM15" s="46"/>
-      <c r="AN15" s="46"/>
-      <c r="AO15" s="46"/>
-      <c r="AP15" s="46"/>
-      <c r="AQ15" s="46"/>
-      <c r="AR15" s="46"/>
-      <c r="AS15" s="46"/>
-      <c r="AT15" s="46"/>
-      <c r="AU15" s="46"/>
-      <c r="AV15" s="46"/>
-      <c r="AW15" s="46"/>
-      <c r="AX15" s="46"/>
-      <c r="AY15" s="46"/>
-      <c r="AZ15" s="46"/>
-      <c r="BA15" s="46"/>
-      <c r="BB15" s="46"/>
-      <c r="BC15" s="46"/>
-      <c r="BD15" s="46"/>
-      <c r="BE15" s="46"/>
-      <c r="BF15" s="46"/>
-      <c r="BG15" s="46"/>
-      <c r="BH15" s="46"/>
-      <c r="BI15" s="46"/>
-      <c r="BJ15" s="47"/>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="56"/>
+      <c r="AL15" s="56"/>
+      <c r="AM15" s="56"/>
+      <c r="AN15" s="56"/>
+      <c r="AO15" s="56"/>
+      <c r="AP15" s="56"/>
+      <c r="AQ15" s="56"/>
+      <c r="AR15" s="56"/>
+      <c r="AS15" s="56"/>
+      <c r="AT15" s="56"/>
+      <c r="AU15" s="56"/>
+      <c r="AV15" s="56"/>
+      <c r="AW15" s="56"/>
+      <c r="AX15" s="56"/>
+      <c r="AY15" s="56"/>
+      <c r="AZ15" s="56"/>
+      <c r="BA15" s="56"/>
+      <c r="BB15" s="56"/>
+      <c r="BC15" s="56"/>
+      <c r="BD15" s="56"/>
+      <c r="BE15" s="56"/>
+      <c r="BF15" s="56"/>
+      <c r="BG15" s="56"/>
+      <c r="BH15" s="56"/>
+      <c r="BI15" s="56"/>
+      <c r="BJ15" s="57"/>
       <c r="BK15" s="3"/>
     </row>
     <row r="16" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="39"/>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="56" t="s">
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="81"/>
+      <c r="U16" s="81"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="47"/>
-      <c r="AC16" s="56" t="s">
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="AD16" s="46"/>
-      <c r="AE16" s="46"/>
-      <c r="AF16" s="46"/>
-      <c r="AG16" s="46"/>
-      <c r="AH16" s="47"/>
-      <c r="AI16" s="56" t="s">
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="AJ16" s="46"/>
-      <c r="AK16" s="46"/>
-      <c r="AL16" s="46"/>
-      <c r="AM16" s="46"/>
-      <c r="AN16" s="46"/>
-      <c r="AO16" s="46"/>
-      <c r="AP16" s="46"/>
-      <c r="AQ16" s="46"/>
-      <c r="AR16" s="46"/>
-      <c r="AS16" s="46"/>
-      <c r="AT16" s="46"/>
-      <c r="AU16" s="46"/>
-      <c r="AV16" s="46"/>
-      <c r="AW16" s="46"/>
-      <c r="AX16" s="46"/>
-      <c r="AY16" s="46"/>
-      <c r="AZ16" s="46"/>
-      <c r="BA16" s="46"/>
-      <c r="BB16" s="46"/>
-      <c r="BC16" s="46"/>
-      <c r="BD16" s="46"/>
-      <c r="BE16" s="46"/>
-      <c r="BF16" s="46"/>
-      <c r="BG16" s="46"/>
-      <c r="BH16" s="46"/>
-      <c r="BI16" s="46"/>
-      <c r="BJ16" s="47"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="56"/>
+      <c r="AQ16" s="56"/>
+      <c r="AR16" s="56"/>
+      <c r="AS16" s="56"/>
+      <c r="AT16" s="56"/>
+      <c r="AU16" s="56"/>
+      <c r="AV16" s="56"/>
+      <c r="AW16" s="56"/>
+      <c r="AX16" s="56"/>
+      <c r="AY16" s="56"/>
+      <c r="AZ16" s="56"/>
+      <c r="BA16" s="56"/>
+      <c r="BB16" s="56"/>
+      <c r="BC16" s="56"/>
+      <c r="BD16" s="56"/>
+      <c r="BE16" s="56"/>
+      <c r="BF16" s="56"/>
+      <c r="BG16" s="56"/>
+      <c r="BH16" s="56"/>
+      <c r="BI16" s="56"/>
+      <c r="BJ16" s="57"/>
       <c r="BK16" s="3"/>
     </row>
     <row r="17" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="39"/>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="56" t="s">
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="82"/>
+      <c r="W17" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="56" t="s">
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="AD17" s="46"/>
-      <c r="AE17" s="46"/>
-      <c r="AF17" s="46"/>
-      <c r="AG17" s="46"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="56" t="s">
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="57"/>
+      <c r="AI17" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="AJ17" s="46"/>
-      <c r="AK17" s="46"/>
-      <c r="AL17" s="46"/>
-      <c r="AM17" s="46"/>
-      <c r="AN17" s="46"/>
-      <c r="AO17" s="46"/>
-      <c r="AP17" s="46"/>
-      <c r="AQ17" s="46"/>
-      <c r="AR17" s="46"/>
-      <c r="AS17" s="46"/>
-      <c r="AT17" s="46"/>
-      <c r="AU17" s="46"/>
-      <c r="AV17" s="46"/>
-      <c r="AW17" s="46"/>
-      <c r="AX17" s="46"/>
-      <c r="AY17" s="46"/>
-      <c r="AZ17" s="46"/>
-      <c r="BA17" s="46"/>
-      <c r="BB17" s="46"/>
-      <c r="BC17" s="46"/>
-      <c r="BD17" s="46"/>
-      <c r="BE17" s="46"/>
-      <c r="BF17" s="46"/>
-      <c r="BG17" s="46"/>
-      <c r="BH17" s="46"/>
-      <c r="BI17" s="46"/>
-      <c r="BJ17" s="47"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="56"/>
+      <c r="AM17" s="56"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="56"/>
+      <c r="AP17" s="56"/>
+      <c r="AQ17" s="56"/>
+      <c r="AR17" s="56"/>
+      <c r="AS17" s="56"/>
+      <c r="AT17" s="56"/>
+      <c r="AU17" s="56"/>
+      <c r="AV17" s="56"/>
+      <c r="AW17" s="56"/>
+      <c r="AX17" s="56"/>
+      <c r="AY17" s="56"/>
+      <c r="AZ17" s="56"/>
+      <c r="BA17" s="56"/>
+      <c r="BB17" s="56"/>
+      <c r="BC17" s="56"/>
+      <c r="BD17" s="56"/>
+      <c r="BE17" s="56"/>
+      <c r="BF17" s="56"/>
+      <c r="BG17" s="56"/>
+      <c r="BH17" s="56"/>
+      <c r="BI17" s="56"/>
+      <c r="BJ17" s="57"/>
       <c r="BK17" s="3"/>
     </row>
     <row r="18" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="39"/>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="56" t="s">
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="56" t="s">
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="56" t="s">
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="57"/>
+      <c r="AI18" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="AJ18" s="46"/>
-      <c r="AK18" s="46"/>
-      <c r="AL18" s="46"/>
-      <c r="AM18" s="46"/>
-      <c r="AN18" s="46"/>
-      <c r="AO18" s="46"/>
-      <c r="AP18" s="46"/>
-      <c r="AQ18" s="46"/>
-      <c r="AR18" s="46"/>
-      <c r="AS18" s="46"/>
-      <c r="AT18" s="46"/>
-      <c r="AU18" s="46"/>
-      <c r="AV18" s="46"/>
-      <c r="AW18" s="46"/>
-      <c r="AX18" s="46"/>
-      <c r="AY18" s="46"/>
-      <c r="AZ18" s="46"/>
-      <c r="BA18" s="46"/>
-      <c r="BB18" s="46"/>
-      <c r="BC18" s="46"/>
-      <c r="BD18" s="46"/>
-      <c r="BE18" s="46"/>
-      <c r="BF18" s="46"/>
-      <c r="BG18" s="46"/>
-      <c r="BH18" s="46"/>
-      <c r="BI18" s="46"/>
-      <c r="BJ18" s="47"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="56"/>
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="56"/>
+      <c r="AN18" s="56"/>
+      <c r="AO18" s="56"/>
+      <c r="AP18" s="56"/>
+      <c r="AQ18" s="56"/>
+      <c r="AR18" s="56"/>
+      <c r="AS18" s="56"/>
+      <c r="AT18" s="56"/>
+      <c r="AU18" s="56"/>
+      <c r="AV18" s="56"/>
+      <c r="AW18" s="56"/>
+      <c r="AX18" s="56"/>
+      <c r="AY18" s="56"/>
+      <c r="AZ18" s="56"/>
+      <c r="BA18" s="56"/>
+      <c r="BB18" s="56"/>
+      <c r="BC18" s="56"/>
+      <c r="BD18" s="56"/>
+      <c r="BE18" s="56"/>
+      <c r="BF18" s="56"/>
+      <c r="BG18" s="56"/>
+      <c r="BH18" s="56"/>
+      <c r="BI18" s="56"/>
+      <c r="BJ18" s="57"/>
       <c r="BK18" s="3"/>
     </row>
     <row r="19" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="39"/>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="56" t="s">
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="56" t="s">
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="AD19" s="46"/>
-      <c r="AE19" s="46"/>
-      <c r="AF19" s="46"/>
-      <c r="AG19" s="46"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="56" t="s">
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="56"/>
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="AJ19" s="46"/>
-      <c r="AK19" s="46"/>
-      <c r="AL19" s="46"/>
-      <c r="AM19" s="46"/>
-      <c r="AN19" s="46"/>
-      <c r="AO19" s="46"/>
-      <c r="AP19" s="46"/>
-      <c r="AQ19" s="46"/>
-      <c r="AR19" s="46"/>
-      <c r="AS19" s="46"/>
-      <c r="AT19" s="46"/>
-      <c r="AU19" s="46"/>
-      <c r="AV19" s="46"/>
-      <c r="AW19" s="46"/>
-      <c r="AX19" s="46"/>
-      <c r="AY19" s="46"/>
-      <c r="AZ19" s="46"/>
-      <c r="BA19" s="46"/>
-      <c r="BB19" s="46"/>
-      <c r="BC19" s="46"/>
-      <c r="BD19" s="46"/>
-      <c r="BE19" s="46"/>
-      <c r="BF19" s="46"/>
-      <c r="BG19" s="46"/>
-      <c r="BH19" s="46"/>
-      <c r="BI19" s="46"/>
-      <c r="BJ19" s="47"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="56"/>
+      <c r="AQ19" s="56"/>
+      <c r="AR19" s="56"/>
+      <c r="AS19" s="56"/>
+      <c r="AT19" s="56"/>
+      <c r="AU19" s="56"/>
+      <c r="AV19" s="56"/>
+      <c r="AW19" s="56"/>
+      <c r="AX19" s="56"/>
+      <c r="AY19" s="56"/>
+      <c r="AZ19" s="56"/>
+      <c r="BA19" s="56"/>
+      <c r="BB19" s="56"/>
+      <c r="BC19" s="56"/>
+      <c r="BD19" s="56"/>
+      <c r="BE19" s="56"/>
+      <c r="BF19" s="56"/>
+      <c r="BG19" s="56"/>
+      <c r="BH19" s="56"/>
+      <c r="BI19" s="56"/>
+      <c r="BJ19" s="57"/>
       <c r="BK19" s="3"/>
     </row>
     <row r="20" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A20" s="5"/>
       <c r="B20" s="27"/>
       <c r="C20" s="40"/>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="56" t="s">
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="56" t="s">
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="46"/>
-      <c r="AF20" s="46"/>
-      <c r="AG20" s="46"/>
-      <c r="AH20" s="47"/>
-      <c r="AI20" s="56" t="s">
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="AJ20" s="46"/>
-      <c r="AK20" s="46"/>
-      <c r="AL20" s="46"/>
-      <c r="AM20" s="46"/>
-      <c r="AN20" s="46"/>
-      <c r="AO20" s="46"/>
-      <c r="AP20" s="46"/>
-      <c r="AQ20" s="46"/>
-      <c r="AR20" s="46"/>
-      <c r="AS20" s="46"/>
-      <c r="AT20" s="46"/>
-      <c r="AU20" s="46"/>
-      <c r="AV20" s="46"/>
-      <c r="AW20" s="46"/>
-      <c r="AX20" s="46"/>
-      <c r="AY20" s="46"/>
-      <c r="AZ20" s="46"/>
-      <c r="BA20" s="46"/>
-      <c r="BB20" s="46"/>
-      <c r="BC20" s="46"/>
-      <c r="BD20" s="46"/>
-      <c r="BE20" s="46"/>
-      <c r="BF20" s="46"/>
-      <c r="BG20" s="46"/>
-      <c r="BH20" s="46"/>
-      <c r="BI20" s="46"/>
-      <c r="BJ20" s="47"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="56"/>
+      <c r="AN20" s="56"/>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="56"/>
+      <c r="AQ20" s="56"/>
+      <c r="AR20" s="56"/>
+      <c r="AS20" s="56"/>
+      <c r="AT20" s="56"/>
+      <c r="AU20" s="56"/>
+      <c r="AV20" s="56"/>
+      <c r="AW20" s="56"/>
+      <c r="AX20" s="56"/>
+      <c r="AY20" s="56"/>
+      <c r="AZ20" s="56"/>
+      <c r="BA20" s="56"/>
+      <c r="BB20" s="56"/>
+      <c r="BC20" s="56"/>
+      <c r="BD20" s="56"/>
+      <c r="BE20" s="56"/>
+      <c r="BF20" s="56"/>
+      <c r="BG20" s="56"/>
+      <c r="BH20" s="56"/>
+      <c r="BI20" s="56"/>
+      <c r="BJ20" s="57"/>
       <c r="BK20" s="5"/>
     </row>
     <row r="21" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A21" s="5"/>
       <c r="B21" s="27"/>
       <c r="C21" s="40"/>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="56" t="s">
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="56" t="s">
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="57"/>
+      <c r="AC21" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="46"/>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="47"/>
-      <c r="AI21" s="56" t="s">
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="56"/>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="56"/>
+      <c r="AH21" s="57"/>
+      <c r="AI21" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="AJ21" s="46"/>
-      <c r="AK21" s="46"/>
-      <c r="AL21" s="46"/>
-      <c r="AM21" s="46"/>
-      <c r="AN21" s="46"/>
-      <c r="AO21" s="46"/>
-      <c r="AP21" s="46"/>
-      <c r="AQ21" s="46"/>
-      <c r="AR21" s="46"/>
-      <c r="AS21" s="46"/>
-      <c r="AT21" s="46"/>
-      <c r="AU21" s="46"/>
-      <c r="AV21" s="46"/>
-      <c r="AW21" s="46"/>
-      <c r="AX21" s="46"/>
-      <c r="AY21" s="46"/>
-      <c r="AZ21" s="46"/>
-      <c r="BA21" s="46"/>
-      <c r="BB21" s="46"/>
-      <c r="BC21" s="46"/>
-      <c r="BD21" s="46"/>
-      <c r="BE21" s="46"/>
-      <c r="BF21" s="46"/>
-      <c r="BG21" s="46"/>
-      <c r="BH21" s="46"/>
-      <c r="BI21" s="46"/>
-      <c r="BJ21" s="47"/>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="56"/>
+      <c r="AL21" s="56"/>
+      <c r="AM21" s="56"/>
+      <c r="AN21" s="56"/>
+      <c r="AO21" s="56"/>
+      <c r="AP21" s="56"/>
+      <c r="AQ21" s="56"/>
+      <c r="AR21" s="56"/>
+      <c r="AS21" s="56"/>
+      <c r="AT21" s="56"/>
+      <c r="AU21" s="56"/>
+      <c r="AV21" s="56"/>
+      <c r="AW21" s="56"/>
+      <c r="AX21" s="56"/>
+      <c r="AY21" s="56"/>
+      <c r="AZ21" s="56"/>
+      <c r="BA21" s="56"/>
+      <c r="BB21" s="56"/>
+      <c r="BC21" s="56"/>
+      <c r="BD21" s="56"/>
+      <c r="BE21" s="56"/>
+      <c r="BF21" s="56"/>
+      <c r="BG21" s="56"/>
+      <c r="BH21" s="56"/>
+      <c r="BI21" s="56"/>
+      <c r="BJ21" s="57"/>
       <c r="BK21" s="5"/>
     </row>
     <row r="22" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A22" s="5"/>
       <c r="B22" s="27"/>
       <c r="C22" s="40"/>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="56" t="s">
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="46"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="56" t="s">
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="57"/>
+      <c r="AC22" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="AD22" s="46"/>
-      <c r="AE22" s="46"/>
-      <c r="AF22" s="46"/>
-      <c r="AG22" s="46"/>
-      <c r="AH22" s="47"/>
-      <c r="AI22" s="56" t="s">
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="AJ22" s="46"/>
-      <c r="AK22" s="46"/>
-      <c r="AL22" s="46"/>
-      <c r="AM22" s="46"/>
-      <c r="AN22" s="46"/>
-      <c r="AO22" s="46"/>
-      <c r="AP22" s="46"/>
-      <c r="AQ22" s="46"/>
-      <c r="AR22" s="46"/>
-      <c r="AS22" s="46"/>
-      <c r="AT22" s="46"/>
-      <c r="AU22" s="46"/>
-      <c r="AV22" s="46"/>
-      <c r="AW22" s="46"/>
-      <c r="AX22" s="46"/>
-      <c r="AY22" s="46"/>
-      <c r="AZ22" s="46"/>
-      <c r="BA22" s="46"/>
-      <c r="BB22" s="46"/>
-      <c r="BC22" s="46"/>
-      <c r="BD22" s="46"/>
-      <c r="BE22" s="46"/>
-      <c r="BF22" s="46"/>
-      <c r="BG22" s="46"/>
-      <c r="BH22" s="46"/>
-      <c r="BI22" s="46"/>
-      <c r="BJ22" s="47"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="56"/>
+      <c r="AL22" s="56"/>
+      <c r="AM22" s="56"/>
+      <c r="AN22" s="56"/>
+      <c r="AO22" s="56"/>
+      <c r="AP22" s="56"/>
+      <c r="AQ22" s="56"/>
+      <c r="AR22" s="56"/>
+      <c r="AS22" s="56"/>
+      <c r="AT22" s="56"/>
+      <c r="AU22" s="56"/>
+      <c r="AV22" s="56"/>
+      <c r="AW22" s="56"/>
+      <c r="AX22" s="56"/>
+      <c r="AY22" s="56"/>
+      <c r="AZ22" s="56"/>
+      <c r="BA22" s="56"/>
+      <c r="BB22" s="56"/>
+      <c r="BC22" s="56"/>
+      <c r="BD22" s="56"/>
+      <c r="BE22" s="56"/>
+      <c r="BF22" s="56"/>
+      <c r="BG22" s="56"/>
+      <c r="BH22" s="56"/>
+      <c r="BI22" s="56"/>
+      <c r="BJ22" s="57"/>
       <c r="BK22" s="5"/>
     </row>
     <row r="23" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="41"/>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="56" t="s">
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="56" t="s">
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="57"/>
+      <c r="AC23" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="AD23" s="46"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="46"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="56" t="s">
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="56"/>
+      <c r="AF23" s="56"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="57"/>
+      <c r="AI23" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="AJ23" s="46"/>
-      <c r="AK23" s="46"/>
-      <c r="AL23" s="46"/>
-      <c r="AM23" s="46"/>
-      <c r="AN23" s="46"/>
-      <c r="AO23" s="46"/>
-      <c r="AP23" s="46"/>
-      <c r="AQ23" s="46"/>
-      <c r="AR23" s="46"/>
-      <c r="AS23" s="46"/>
-      <c r="AT23" s="46"/>
-      <c r="AU23" s="46"/>
-      <c r="AV23" s="46"/>
-      <c r="AW23" s="46"/>
-      <c r="AX23" s="46"/>
-      <c r="AY23" s="46"/>
-      <c r="AZ23" s="46"/>
-      <c r="BA23" s="46"/>
-      <c r="BB23" s="46"/>
-      <c r="BC23" s="46"/>
-      <c r="BD23" s="46"/>
-      <c r="BE23" s="46"/>
-      <c r="BF23" s="46"/>
-      <c r="BG23" s="46"/>
-      <c r="BH23" s="46"/>
-      <c r="BI23" s="46"/>
-      <c r="BJ23" s="47"/>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="56"/>
+      <c r="AL23" s="56"/>
+      <c r="AM23" s="56"/>
+      <c r="AN23" s="56"/>
+      <c r="AO23" s="56"/>
+      <c r="AP23" s="56"/>
+      <c r="AQ23" s="56"/>
+      <c r="AR23" s="56"/>
+      <c r="AS23" s="56"/>
+      <c r="AT23" s="56"/>
+      <c r="AU23" s="56"/>
+      <c r="AV23" s="56"/>
+      <c r="AW23" s="56"/>
+      <c r="AX23" s="56"/>
+      <c r="AY23" s="56"/>
+      <c r="AZ23" s="56"/>
+      <c r="BA23" s="56"/>
+      <c r="BB23" s="56"/>
+      <c r="BC23" s="56"/>
+      <c r="BD23" s="56"/>
+      <c r="BE23" s="56"/>
+      <c r="BF23" s="56"/>
+      <c r="BG23" s="56"/>
+      <c r="BH23" s="56"/>
+      <c r="BI23" s="56"/>
+      <c r="BJ23" s="57"/>
       <c r="BK23" s="3"/>
     </row>
     <row r="24" spans="1:63" ht="16.5">
@@ -8685,37 +8685,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="D13:V13"/>
-    <mergeCell ref="W13:AB13"/>
-    <mergeCell ref="AC13:AH13"/>
-    <mergeCell ref="AI13:BJ13"/>
-    <mergeCell ref="W14:AB14"/>
-    <mergeCell ref="AC14:AH14"/>
-    <mergeCell ref="AI14:BJ14"/>
-    <mergeCell ref="D14:V14"/>
-    <mergeCell ref="D15:V15"/>
-    <mergeCell ref="W15:AB15"/>
-    <mergeCell ref="AC15:AH15"/>
-    <mergeCell ref="AI15:BJ15"/>
-    <mergeCell ref="D16:V16"/>
-    <mergeCell ref="W16:AB16"/>
-    <mergeCell ref="AC16:AH16"/>
-    <mergeCell ref="AI16:BJ16"/>
-    <mergeCell ref="D17:V17"/>
-    <mergeCell ref="W17:AB17"/>
-    <mergeCell ref="AC17:AH17"/>
-    <mergeCell ref="AI17:BJ17"/>
-    <mergeCell ref="D18:V18"/>
-    <mergeCell ref="AI18:BJ18"/>
-    <mergeCell ref="AC21:AH21"/>
-    <mergeCell ref="W19:AB19"/>
-    <mergeCell ref="W22:AB22"/>
-    <mergeCell ref="AC22:AH22"/>
-    <mergeCell ref="D19:V19"/>
-    <mergeCell ref="D20:V20"/>
-    <mergeCell ref="W20:AB20"/>
-    <mergeCell ref="AC20:AH20"/>
-    <mergeCell ref="D21:V21"/>
     <mergeCell ref="K7:BJ7"/>
     <mergeCell ref="K8:BJ8"/>
     <mergeCell ref="K9:BJ9"/>
@@ -8732,6 +8701,37 @@
     <mergeCell ref="AI21:BJ21"/>
     <mergeCell ref="D22:V22"/>
     <mergeCell ref="W21:AB21"/>
+    <mergeCell ref="AC21:AH21"/>
+    <mergeCell ref="W19:AB19"/>
+    <mergeCell ref="W22:AB22"/>
+    <mergeCell ref="AC22:AH22"/>
+    <mergeCell ref="D19:V19"/>
+    <mergeCell ref="D20:V20"/>
+    <mergeCell ref="W20:AB20"/>
+    <mergeCell ref="AC20:AH20"/>
+    <mergeCell ref="D21:V21"/>
+    <mergeCell ref="D17:V17"/>
+    <mergeCell ref="W17:AB17"/>
+    <mergeCell ref="AC17:AH17"/>
+    <mergeCell ref="AI17:BJ17"/>
+    <mergeCell ref="D18:V18"/>
+    <mergeCell ref="AI18:BJ18"/>
+    <mergeCell ref="D15:V15"/>
+    <mergeCell ref="W15:AB15"/>
+    <mergeCell ref="AC15:AH15"/>
+    <mergeCell ref="AI15:BJ15"/>
+    <mergeCell ref="D16:V16"/>
+    <mergeCell ref="W16:AB16"/>
+    <mergeCell ref="AC16:AH16"/>
+    <mergeCell ref="AI16:BJ16"/>
+    <mergeCell ref="D13:V13"/>
+    <mergeCell ref="W13:AB13"/>
+    <mergeCell ref="AC13:AH13"/>
+    <mergeCell ref="AI13:BJ13"/>
+    <mergeCell ref="W14:AB14"/>
+    <mergeCell ref="AC14:AH14"/>
+    <mergeCell ref="AI14:BJ14"/>
+    <mergeCell ref="D14:V14"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8782,16 +8782,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="50" t="s">
         <v>81</v>
       </c>
       <c r="E1" s="42"/>
@@ -8807,10 +8807,10 @@
       <c r="B2" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="52" t="s">
         <v>83</v>
       </c>
       <c r="E2" s="43"/>
@@ -8826,10 +8826,10 @@
       <c r="B3" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="52" t="s">
         <v>87</v>
       </c>
       <c r="E3" s="43"/>
@@ -8845,8 +8845,8 @@
       <c r="B4" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="52" t="s">
         <v>90</v>
       </c>
       <c r="E4" s="43"/>
@@ -8862,8 +8862,8 @@
       <c r="B5" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="52" t="s">
         <v>93</v>
       </c>
       <c r="E5" s="43"/>
@@ -8879,8 +8879,8 @@
       <c r="B6" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="82"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="43"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -8892,8 +8892,8 @@
       <c r="B7" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="82"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="43"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -8905,8 +8905,8 @@
       <c r="B8" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="43"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -8918,8 +8918,8 @@
       <c r="B9" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="82"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="43"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -8931,8 +8931,8 @@
       <c r="B10" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="82"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="43"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -8944,8 +8944,8 @@
       <c r="B11" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="82"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="43"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -8957,8 +8957,8 @@
       <c r="B12" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="43"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -8970,8 +8970,8 @@
       <c r="B13" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="43"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -8983,8 +8983,8 @@
       <c r="B14" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="82"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="43"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -8996,8 +8996,8 @@
       <c r="B15" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="43"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -9009,8 +9009,8 @@
       <c r="B16" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="43"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -9022,8 +9022,8 @@
       <c r="B17" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="82"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="43"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -9035,8 +9035,8 @@
       <c r="B18" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="43"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -9048,8 +9048,8 @@
       <c r="B19" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="82"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="43"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -9061,8 +9061,8 @@
       <c r="B20" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="82"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="43"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -9074,8 +9074,8 @@
       <c r="B21" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="82"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="43"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -9087,8 +9087,8 @@
       <c r="B22" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="82"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="43"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -9100,8 +9100,8 @@
       <c r="B23" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="43"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -9111,8 +9111,8 @@
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="43"/>
       <c r="B24" s="43"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="82"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="43"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -9122,8 +9122,8 @@
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="43"/>
       <c r="B25" s="43"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="82"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="43"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -9133,8 +9133,8 @@
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="43"/>
       <c r="B26" s="43"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="82"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="43"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -9144,8 +9144,8 @@
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="44"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>

--- a/ha-asset/01_design/03_batch/設計書_3.2.月次健康情報集計バッチ.xlsx
+++ b/ha-asset/01_design/03_batch/設計書_3.2.月次健康情報集計バッチ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\03_batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0268FA-65A4-4214-A1F4-02B56D854014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6AD6AE-96C0-4702-83C2-01CD87084FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8535" yWindow="915" windowWidth="20070" windowHeight="16770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0.更新履歴'!$A$1:$AA$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.機能一覧'!$A$1:$AW$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.月次健康情報集計バッチ'!$A$1:$BP$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.月次健康情報集計バッチ'!$A$1:$BP$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'3.1. ファイルIF'!$A$1:$BK$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="126">
   <si>
     <t>更新日時</t>
   </si>
@@ -109,10 +109,6 @@
   </si>
   <si>
     <t>△：任意</t>
-  </si>
-  <si>
-    <t>処理対象月
-指定方法：-m YYYYMM</t>
   </si>
   <si>
     <t>2.1.2.処理詳細</t>
@@ -244,9 +240,6 @@
     <t>健康情報.健康情報作成日時</t>
   </si>
   <si>
-    <t>BMIマスタID</t>
-  </si>
-  <si>
     <t>健康情報.BMIマスタID</t>
   </si>
   <si>
@@ -354,31 +347,8 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>妥当性チェック実施</t>
     <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>#1で取得した値が未指定の場合、右記の例外をthrowして処理終了</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>#1で取得した値が「YYYYMM形式」以外の場合、右記の例外をthrowして処理終了</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>CW0017</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>-m is required -m= ${date}</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>-m is not date format -m= ${date}</t>
   </si>
   <si>
     <t>健康情報取得</t>
@@ -459,6 +429,25 @@
   </si>
   <si>
     <t>monthlyHealthInfoSummary.bat / monthlyHealthInfoSummary.sh</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>処理対象月
+指定方法：YYYYMM</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>#1で取得した値が「YYYYMM形式」以外</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>job parameter invalid m=${date}</t>
+  </si>
+  <si>
+    <t>BMI範囲マスタID</t>
+    <rPh sb="3" eb="5">
+      <t>ハンイ</t>
+    </rPh>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -576,7 +565,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -760,19 +749,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -818,37 +794,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -862,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -908,15 +853,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -961,16 +897,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1004,13 +937,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1019,16 +952,7 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1053,6 +977,18 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1274,9 +1210,7 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:Z10"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1346,688 +1280,688 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2"/>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57" t="s">
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="56"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="52"/>
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2"/>
-      <c r="B4" s="58">
+      <c r="B4" s="54">
         <v>44156</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="59" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="54" t="s">
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="56"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="52"/>
       <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2"/>
-      <c r="B5" s="84">
+      <c r="B5" s="77">
         <v>44354</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="54">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="50">
         <f>F4+0.01</f>
         <v>1.01</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="54" t="s">
-        <v>128</v>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="50" t="s">
+        <v>120</v>
       </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="56"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="52"/>
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="56"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="52"/>
       <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="56"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="52"/>
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="2"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="56"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="52"/>
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="56"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="52"/>
       <c r="AA9" s="2"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="2"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="56"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="52"/>
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="2"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="55"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="56"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="52"/>
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="2"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="56"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="52"/>
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="2"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="56"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="52"/>
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="2"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="56"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="52"/>
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="2"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="56"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="52"/>
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="2"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="56"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="52"/>
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="2"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="56"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="52"/>
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="2"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="56"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="52"/>
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="2"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="56"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="52"/>
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="2"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="56"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="52"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="2"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="56"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="52"/>
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="2"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="56"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="52"/>
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="2"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="56"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="52"/>
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="2"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="56"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="52"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="2"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="56"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="52"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27">
@@ -3780,11 +3714,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BP42"/>
+  <dimension ref="A1:BP41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
@@ -4221,70 +4153,70 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="4"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="61" t="s">
-        <v>129</v>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="57" t="s">
+        <v>121</v>
       </c>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="55"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="55"/>
-      <c r="AM7" s="55"/>
-      <c r="AN7" s="55"/>
-      <c r="AO7" s="55"/>
-      <c r="AP7" s="55"/>
-      <c r="AQ7" s="55"/>
-      <c r="AR7" s="55"/>
-      <c r="AS7" s="55"/>
-      <c r="AT7" s="55"/>
-      <c r="AU7" s="55"/>
-      <c r="AV7" s="55"/>
-      <c r="AW7" s="55"/>
-      <c r="AX7" s="55"/>
-      <c r="AY7" s="55"/>
-      <c r="AZ7" s="55"/>
-      <c r="BA7" s="55"/>
-      <c r="BB7" s="55"/>
-      <c r="BC7" s="55"/>
-      <c r="BD7" s="55"/>
-      <c r="BE7" s="55"/>
-      <c r="BF7" s="55"/>
-      <c r="BG7" s="55"/>
-      <c r="BH7" s="55"/>
-      <c r="BI7" s="55"/>
-      <c r="BJ7" s="56"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="51"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="51"/>
+      <c r="AI7" s="51"/>
+      <c r="AJ7" s="51"/>
+      <c r="AK7" s="51"/>
+      <c r="AL7" s="51"/>
+      <c r="AM7" s="51"/>
+      <c r="AN7" s="51"/>
+      <c r="AO7" s="51"/>
+      <c r="AP7" s="51"/>
+      <c r="AQ7" s="51"/>
+      <c r="AR7" s="51"/>
+      <c r="AS7" s="51"/>
+      <c r="AT7" s="51"/>
+      <c r="AU7" s="51"/>
+      <c r="AV7" s="51"/>
+      <c r="AW7" s="51"/>
+      <c r="AX7" s="51"/>
+      <c r="AY7" s="51"/>
+      <c r="AZ7" s="51"/>
+      <c r="BA7" s="51"/>
+      <c r="BB7" s="51"/>
+      <c r="BC7" s="51"/>
+      <c r="BD7" s="51"/>
+      <c r="BE7" s="51"/>
+      <c r="BF7" s="51"/>
+      <c r="BG7" s="51"/>
+      <c r="BH7" s="51"/>
+      <c r="BI7" s="51"/>
+      <c r="BJ7" s="52"/>
       <c r="BK7" s="4"/>
       <c r="BL7" s="2"/>
       <c r="BM7" s="3"/>
@@ -4295,70 +4227,70 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="17"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="61" t="s">
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="55"/>
-      <c r="AO8" s="55"/>
-      <c r="AP8" s="55"/>
-      <c r="AQ8" s="55"/>
-      <c r="AR8" s="55"/>
-      <c r="AS8" s="55"/>
-      <c r="AT8" s="55"/>
-      <c r="AU8" s="55"/>
-      <c r="AV8" s="55"/>
-      <c r="AW8" s="55"/>
-      <c r="AX8" s="55"/>
-      <c r="AY8" s="55"/>
-      <c r="AZ8" s="55"/>
-      <c r="BA8" s="55"/>
-      <c r="BB8" s="55"/>
-      <c r="BC8" s="55"/>
-      <c r="BD8" s="55"/>
-      <c r="BE8" s="55"/>
-      <c r="BF8" s="55"/>
-      <c r="BG8" s="55"/>
-      <c r="BH8" s="55"/>
-      <c r="BI8" s="55"/>
-      <c r="BJ8" s="56"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="51"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="51"/>
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="51"/>
+      <c r="AN8" s="51"/>
+      <c r="AO8" s="51"/>
+      <c r="AP8" s="51"/>
+      <c r="AQ8" s="51"/>
+      <c r="AR8" s="51"/>
+      <c r="AS8" s="51"/>
+      <c r="AT8" s="51"/>
+      <c r="AU8" s="51"/>
+      <c r="AV8" s="51"/>
+      <c r="AW8" s="51"/>
+      <c r="AX8" s="51"/>
+      <c r="AY8" s="51"/>
+      <c r="AZ8" s="51"/>
+      <c r="BA8" s="51"/>
+      <c r="BB8" s="51"/>
+      <c r="BC8" s="51"/>
+      <c r="BD8" s="51"/>
+      <c r="BE8" s="51"/>
+      <c r="BF8" s="51"/>
+      <c r="BG8" s="51"/>
+      <c r="BH8" s="51"/>
+      <c r="BI8" s="51"/>
+      <c r="BJ8" s="52"/>
       <c r="BK8" s="17"/>
       <c r="BL8" s="18"/>
       <c r="BM8" s="18"/>
@@ -4369,70 +4301,70 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="4"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="61" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="55"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="55"/>
-      <c r="AN9" s="55"/>
-      <c r="AO9" s="55"/>
-      <c r="AP9" s="55"/>
-      <c r="AQ9" s="55"/>
-      <c r="AR9" s="55"/>
-      <c r="AS9" s="55"/>
-      <c r="AT9" s="55"/>
-      <c r="AU9" s="55"/>
-      <c r="AV9" s="55"/>
-      <c r="AW9" s="55"/>
-      <c r="AX9" s="55"/>
-      <c r="AY9" s="55"/>
-      <c r="AZ9" s="55"/>
-      <c r="BA9" s="55"/>
-      <c r="BB9" s="55"/>
-      <c r="BC9" s="55"/>
-      <c r="BD9" s="55"/>
-      <c r="BE9" s="55"/>
-      <c r="BF9" s="55"/>
-      <c r="BG9" s="55"/>
-      <c r="BH9" s="55"/>
-      <c r="BI9" s="55"/>
-      <c r="BJ9" s="56"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="51"/>
+      <c r="AG9" s="51"/>
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="51"/>
+      <c r="AJ9" s="51"/>
+      <c r="AK9" s="51"/>
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="51"/>
+      <c r="AN9" s="51"/>
+      <c r="AO9" s="51"/>
+      <c r="AP9" s="51"/>
+      <c r="AQ9" s="51"/>
+      <c r="AR9" s="51"/>
+      <c r="AS9" s="51"/>
+      <c r="AT9" s="51"/>
+      <c r="AU9" s="51"/>
+      <c r="AV9" s="51"/>
+      <c r="AW9" s="51"/>
+      <c r="AX9" s="51"/>
+      <c r="AY9" s="51"/>
+      <c r="AZ9" s="51"/>
+      <c r="BA9" s="51"/>
+      <c r="BB9" s="51"/>
+      <c r="BC9" s="51"/>
+      <c r="BD9" s="51"/>
+      <c r="BE9" s="51"/>
+      <c r="BF9" s="51"/>
+      <c r="BG9" s="51"/>
+      <c r="BH9" s="51"/>
+      <c r="BI9" s="51"/>
+      <c r="BJ9" s="52"/>
       <c r="BK9" s="4"/>
       <c r="BL9" s="2"/>
       <c r="BM9" s="3"/>
@@ -4443,70 +4375,70 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="4"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="60" t="s">
-        <v>100</v>
+      <c r="C10" s="56" t="s">
+        <v>98</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="61" t="s">
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="55"/>
-      <c r="AH10" s="55"/>
-      <c r="AI10" s="55"/>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="55"/>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="55"/>
-      <c r="AN10" s="55"/>
-      <c r="AO10" s="55"/>
-      <c r="AP10" s="55"/>
-      <c r="AQ10" s="55"/>
-      <c r="AR10" s="55"/>
-      <c r="AS10" s="55"/>
-      <c r="AT10" s="55"/>
-      <c r="AU10" s="55"/>
-      <c r="AV10" s="55"/>
-      <c r="AW10" s="55"/>
-      <c r="AX10" s="55"/>
-      <c r="AY10" s="55"/>
-      <c r="AZ10" s="55"/>
-      <c r="BA10" s="55"/>
-      <c r="BB10" s="55"/>
-      <c r="BC10" s="55"/>
-      <c r="BD10" s="55"/>
-      <c r="BE10" s="55"/>
-      <c r="BF10" s="55"/>
-      <c r="BG10" s="55"/>
-      <c r="BH10" s="55"/>
-      <c r="BI10" s="55"/>
-      <c r="BJ10" s="56"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="51"/>
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="51"/>
+      <c r="AI10" s="51"/>
+      <c r="AJ10" s="51"/>
+      <c r="AK10" s="51"/>
+      <c r="AL10" s="51"/>
+      <c r="AM10" s="51"/>
+      <c r="AN10" s="51"/>
+      <c r="AO10" s="51"/>
+      <c r="AP10" s="51"/>
+      <c r="AQ10" s="51"/>
+      <c r="AR10" s="51"/>
+      <c r="AS10" s="51"/>
+      <c r="AT10" s="51"/>
+      <c r="AU10" s="51"/>
+      <c r="AV10" s="51"/>
+      <c r="AW10" s="51"/>
+      <c r="AX10" s="51"/>
+      <c r="AY10" s="51"/>
+      <c r="AZ10" s="51"/>
+      <c r="BA10" s="51"/>
+      <c r="BB10" s="51"/>
+      <c r="BC10" s="51"/>
+      <c r="BD10" s="51"/>
+      <c r="BE10" s="51"/>
+      <c r="BF10" s="51"/>
+      <c r="BG10" s="51"/>
+      <c r="BH10" s="51"/>
+      <c r="BI10" s="51"/>
+      <c r="BJ10" s="52"/>
       <c r="BK10" s="4"/>
       <c r="BL10" s="2"/>
       <c r="BM10" s="3"/>
@@ -4661,72 +4593,72 @@
       <c r="B13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="62" t="s">
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="62" t="s">
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="62" t="s">
-        <v>127</v>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="58" t="s">
+        <v>119</v>
       </c>
-      <c r="V13" s="55"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="62" t="s">
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="Z13" s="55"/>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="55"/>
-      <c r="AC13" s="55"/>
-      <c r="AD13" s="55"/>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="62" t="s">
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="AG13" s="55"/>
-      <c r="AH13" s="55"/>
-      <c r="AI13" s="55"/>
-      <c r="AJ13" s="55"/>
-      <c r="AK13" s="55"/>
-      <c r="AL13" s="55"/>
-      <c r="AM13" s="55"/>
-      <c r="AN13" s="55"/>
-      <c r="AO13" s="55"/>
-      <c r="AP13" s="55"/>
-      <c r="AQ13" s="55"/>
-      <c r="AR13" s="55"/>
-      <c r="AS13" s="55"/>
-      <c r="AT13" s="55"/>
-      <c r="AU13" s="55"/>
-      <c r="AV13" s="55"/>
-      <c r="AW13" s="55"/>
-      <c r="AX13" s="55"/>
-      <c r="AY13" s="55"/>
-      <c r="AZ13" s="55"/>
-      <c r="BA13" s="55"/>
-      <c r="BB13" s="55"/>
-      <c r="BC13" s="55"/>
-      <c r="BD13" s="56"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="51"/>
+      <c r="AJ13" s="51"/>
+      <c r="AK13" s="51"/>
+      <c r="AL13" s="51"/>
+      <c r="AM13" s="51"/>
+      <c r="AN13" s="51"/>
+      <c r="AO13" s="51"/>
+      <c r="AP13" s="51"/>
+      <c r="AQ13" s="51"/>
+      <c r="AR13" s="51"/>
+      <c r="AS13" s="51"/>
+      <c r="AT13" s="51"/>
+      <c r="AU13" s="51"/>
+      <c r="AV13" s="51"/>
+      <c r="AW13" s="51"/>
+      <c r="AX13" s="51"/>
+      <c r="AY13" s="51"/>
+      <c r="AZ13" s="51"/>
+      <c r="BA13" s="51"/>
+      <c r="BB13" s="51"/>
+      <c r="BC13" s="51"/>
+      <c r="BD13" s="52"/>
       <c r="BE13" s="18"/>
       <c r="BF13" s="18"/>
       <c r="BG13" s="18"/>
@@ -4740,77 +4672,77 @@
       <c r="BO13" s="3"/>
       <c r="BP13" s="3"/>
     </row>
-    <row r="14" spans="1:68" ht="16.5" outlineLevel="1">
+    <row r="14" spans="1:68" ht="34.5" customHeight="1" outlineLevel="1">
       <c r="A14" s="4"/>
       <c r="B14" s="22">
         <v>1</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="23" t="s">
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="63" t="s">
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="63">
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="59">
         <v>6</v>
       </c>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="63" t="s">
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="56"/>
-      <c r="AF14" s="63" t="s">
-        <v>26</v>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="81" t="s">
+        <v>122</v>
       </c>
-      <c r="AG14" s="55"/>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="55"/>
-      <c r="AJ14" s="55"/>
-      <c r="AK14" s="55"/>
-      <c r="AL14" s="55"/>
-      <c r="AM14" s="55"/>
-      <c r="AN14" s="55"/>
-      <c r="AO14" s="55"/>
-      <c r="AP14" s="55"/>
-      <c r="AQ14" s="55"/>
-      <c r="AR14" s="55"/>
-      <c r="AS14" s="55"/>
-      <c r="AT14" s="55"/>
-      <c r="AU14" s="55"/>
-      <c r="AV14" s="55"/>
-      <c r="AW14" s="55"/>
-      <c r="AX14" s="55"/>
-      <c r="AY14" s="55"/>
-      <c r="AZ14" s="55"/>
-      <c r="BA14" s="55"/>
-      <c r="BB14" s="55"/>
-      <c r="BC14" s="55"/>
-      <c r="BD14" s="56"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="51"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="51"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
+      <c r="AQ14" s="51"/>
+      <c r="AR14" s="51"/>
+      <c r="AS14" s="51"/>
+      <c r="AT14" s="51"/>
+      <c r="AU14" s="51"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="51"/>
+      <c r="AX14" s="51"/>
+      <c r="AY14" s="51"/>
+      <c r="AZ14" s="51"/>
+      <c r="BA14" s="51"/>
+      <c r="BB14" s="51"/>
+      <c r="BC14" s="51"/>
+      <c r="BD14" s="52"/>
       <c r="BE14" s="18"/>
       <c r="BF14" s="18"/>
       <c r="BG14" s="18"/>
@@ -4896,7 +4828,7 @@
     </row>
     <row r="16" spans="1:68" ht="16.5">
       <c r="A16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -4979,25 +4911,25 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
@@ -5005,26 +4937,26 @@
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
-      <c r="AM17" s="26"/>
-      <c r="AN17" s="26"/>
-      <c r="AO17" s="26"/>
-      <c r="AP17" s="26"/>
-      <c r="AQ17" s="26"/>
-      <c r="AR17" s="26"/>
-      <c r="AS17" s="26"/>
-      <c r="AT17" s="26"/>
-      <c r="AU17" s="26"/>
-      <c r="AV17" s="26"/>
-      <c r="AW17" s="26"/>
-      <c r="AX17" s="26"/>
-      <c r="AY17" s="26"/>
-      <c r="AZ17" s="26"/>
-      <c r="BA17" s="26"/>
-      <c r="BB17" s="26"/>
-      <c r="BC17" s="26"/>
-      <c r="BD17" s="26"/>
-      <c r="BE17" s="26"/>
-      <c r="BF17" s="26"/>
+      <c r="AM17" s="23"/>
+      <c r="AN17" s="23"/>
+      <c r="AO17" s="23"/>
+      <c r="AP17" s="23"/>
+      <c r="AQ17" s="23"/>
+      <c r="AR17" s="23"/>
+      <c r="AS17" s="23"/>
+      <c r="AT17" s="23"/>
+      <c r="AU17" s="23"/>
+      <c r="AV17" s="23"/>
+      <c r="AW17" s="23"/>
+      <c r="AX17" s="23"/>
+      <c r="AY17" s="23"/>
+      <c r="AZ17" s="23"/>
+      <c r="BA17" s="23"/>
+      <c r="BB17" s="23"/>
+      <c r="BC17" s="23"/>
+      <c r="BD17" s="23"/>
+      <c r="BE17" s="23"/>
+      <c r="BF17" s="23"/>
       <c r="BG17" s="4"/>
       <c r="BH17" s="4"/>
       <c r="BI17" s="4"/>
@@ -5036,996 +4968,947 @@
       <c r="BO17" s="3"/>
       <c r="BP17" s="3"/>
     </row>
-    <row r="18" spans="1:68" s="44" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A18" s="26"/>
-      <c r="B18" s="64" t="s">
+    <row r="18" spans="1:68" s="41" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A18" s="23"/>
+      <c r="B18" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65" t="s">
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65" t="s">
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="61"/>
+      <c r="AL18" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="65"/>
-      <c r="AI18" s="65"/>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="65"/>
-      <c r="AL18" s="65" t="s">
-        <v>31</v>
+      <c r="AM18" s="61"/>
+      <c r="AN18" s="61"/>
+      <c r="AO18" s="61"/>
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="61"/>
+      <c r="AR18" s="61"/>
+      <c r="AS18" s="61"/>
+      <c r="AT18" s="61"/>
+      <c r="AU18" s="61"/>
+      <c r="AV18" s="61"/>
+      <c r="AW18" s="61"/>
+      <c r="AX18" s="61"/>
+      <c r="AY18" s="61"/>
+      <c r="AZ18" s="61"/>
+      <c r="BA18" s="61"/>
+      <c r="BB18" s="61"/>
+      <c r="BC18" s="61"/>
+      <c r="BD18" s="61"/>
+      <c r="BE18" s="61"/>
+      <c r="BF18" s="61"/>
+      <c r="BG18" s="61"/>
+      <c r="BH18" s="61"/>
+      <c r="BI18" s="61"/>
+      <c r="BJ18" s="61"/>
+      <c r="BK18" s="61"/>
+      <c r="BL18" s="61"/>
+      <c r="BM18" s="61"/>
+      <c r="BN18" s="61"/>
+      <c r="BO18" s="61"/>
+      <c r="BP18" s="23"/>
+    </row>
+    <row r="19" spans="1:68" s="41" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A19" s="23"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="61"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="61"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="61"/>
+      <c r="AH19" s="61"/>
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="61"/>
+      <c r="AK19" s="61"/>
+      <c r="AL19" s="61" t="s">
+        <v>99</v>
       </c>
-      <c r="AM18" s="65"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="65"/>
-      <c r="AV18" s="65"/>
-      <c r="AW18" s="65"/>
-      <c r="AX18" s="65"/>
-      <c r="AY18" s="65"/>
-      <c r="AZ18" s="65"/>
-      <c r="BA18" s="65"/>
-      <c r="BB18" s="65"/>
-      <c r="BC18" s="65"/>
-      <c r="BD18" s="65"/>
-      <c r="BE18" s="65"/>
-      <c r="BF18" s="65"/>
-      <c r="BG18" s="65"/>
-      <c r="BH18" s="65"/>
-      <c r="BI18" s="65"/>
-      <c r="BJ18" s="65"/>
-      <c r="BK18" s="65"/>
-      <c r="BL18" s="65"/>
-      <c r="BM18" s="65"/>
-      <c r="BN18" s="65"/>
-      <c r="BO18" s="65"/>
-      <c r="BP18" s="26"/>
-    </row>
-    <row r="19" spans="1:68" s="44" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A19" s="26"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="65"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-      <c r="AG19" s="65"/>
-      <c r="AH19" s="65"/>
-      <c r="AI19" s="65"/>
-      <c r="AJ19" s="65"/>
-      <c r="AK19" s="65"/>
-      <c r="AL19" s="65" t="s">
+      <c r="AM19" s="61"/>
+      <c r="AN19" s="61"/>
+      <c r="AO19" s="61"/>
+      <c r="AP19" s="61"/>
+      <c r="AQ19" s="61"/>
+      <c r="AR19" s="61"/>
+      <c r="AS19" s="61"/>
+      <c r="AT19" s="61"/>
+      <c r="AU19" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV19" s="61"/>
+      <c r="AW19" s="61"/>
+      <c r="AX19" s="61"/>
+      <c r="AY19" s="61"/>
+      <c r="AZ19" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="AV19" s="65"/>
-      <c r="AW19" s="65"/>
-      <c r="AX19" s="65"/>
-      <c r="AY19" s="65"/>
-      <c r="AZ19" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA19" s="65"/>
-      <c r="BB19" s="65"/>
-      <c r="BC19" s="65"/>
-      <c r="BD19" s="65"/>
-      <c r="BE19" s="65"/>
-      <c r="BF19" s="65"/>
-      <c r="BG19" s="65"/>
-      <c r="BH19" s="65"/>
-      <c r="BI19" s="65"/>
-      <c r="BJ19" s="65"/>
-      <c r="BK19" s="65"/>
-      <c r="BL19" s="65"/>
-      <c r="BM19" s="65"/>
-      <c r="BN19" s="65"/>
-      <c r="BO19" s="65"/>
-      <c r="BP19" s="26"/>
-    </row>
-    <row r="20" spans="1:68" s="44" customFormat="1" ht="48.75" customHeight="1" outlineLevel="1">
-      <c r="A20" s="26"/>
-      <c r="B20" s="45">
+      <c r="BA19" s="61"/>
+      <c r="BB19" s="61"/>
+      <c r="BC19" s="61"/>
+      <c r="BD19" s="61"/>
+      <c r="BE19" s="61"/>
+      <c r="BF19" s="61"/>
+      <c r="BG19" s="61"/>
+      <c r="BH19" s="61"/>
+      <c r="BI19" s="61"/>
+      <c r="BJ19" s="61"/>
+      <c r="BK19" s="61"/>
+      <c r="BL19" s="61"/>
+      <c r="BM19" s="61"/>
+      <c r="BN19" s="61"/>
+      <c r="BO19" s="61"/>
+      <c r="BP19" s="23"/>
+    </row>
+    <row r="20" spans="1:68" s="41" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
+      <c r="A20" s="23"/>
+      <c r="B20" s="42">
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C20" s="70" t="s">
-        <v>104</v>
+      <c r="C20" s="63" t="s">
+        <v>103</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70" t="s">
-        <v>98</v>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="62"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="62"/>
+      <c r="AK20" s="62"/>
+      <c r="AL20" s="62" t="s">
+        <v>123</v>
       </c>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="70"/>
-      <c r="Y20" s="70"/>
-      <c r="Z20" s="70"/>
-      <c r="AA20" s="70"/>
-      <c r="AB20" s="70"/>
-      <c r="AC20" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM20" s="66"/>
-      <c r="AN20" s="66"/>
-      <c r="AO20" s="66"/>
-      <c r="AP20" s="66"/>
-      <c r="AQ20" s="66"/>
-      <c r="AR20" s="66"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="66"/>
-      <c r="AU20" s="66" t="s">
-        <v>105</v>
-      </c>
+      <c r="AM20" s="62"/>
+      <c r="AN20" s="62"/>
+      <c r="AO20" s="62"/>
+      <c r="AP20" s="62"/>
+      <c r="AQ20" s="62"/>
+      <c r="AR20" s="62"/>
+      <c r="AS20" s="62"/>
+      <c r="AT20" s="62"/>
+      <c r="AU20" s="66"/>
       <c r="AV20" s="66"/>
       <c r="AW20" s="66"/>
       <c r="AX20" s="66"/>
       <c r="AY20" s="66"/>
-      <c r="AZ20" s="66" t="s">
-        <v>105</v>
+      <c r="AZ20" s="67" t="s">
+        <v>124</v>
       </c>
-      <c r="BA20" s="66"/>
-      <c r="BB20" s="66"/>
-      <c r="BC20" s="66"/>
-      <c r="BD20" s="66"/>
-      <c r="BE20" s="66"/>
-      <c r="BF20" s="66"/>
-      <c r="BG20" s="66"/>
-      <c r="BH20" s="66"/>
-      <c r="BI20" s="66"/>
-      <c r="BJ20" s="66"/>
-      <c r="BK20" s="66"/>
-      <c r="BL20" s="66"/>
-      <c r="BM20" s="66"/>
-      <c r="BN20" s="66"/>
-      <c r="BO20" s="66"/>
-      <c r="BP20" s="26"/>
-    </row>
-    <row r="21" spans="1:68" s="44" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A21" s="26"/>
-      <c r="B21" s="46">
+      <c r="BA20" s="67"/>
+      <c r="BB20" s="67"/>
+      <c r="BC20" s="67"/>
+      <c r="BD20" s="67"/>
+      <c r="BE20" s="67"/>
+      <c r="BF20" s="67"/>
+      <c r="BG20" s="67"/>
+      <c r="BH20" s="67"/>
+      <c r="BI20" s="67"/>
+      <c r="BJ20" s="67"/>
+      <c r="BK20" s="67"/>
+      <c r="BL20" s="67"/>
+      <c r="BM20" s="67"/>
+      <c r="BN20" s="67"/>
+      <c r="BO20" s="67"/>
+      <c r="BP20" s="23"/>
+    </row>
+    <row r="21" spans="1:68" s="41" customFormat="1" ht="48.75" customHeight="1" outlineLevel="1">
+      <c r="A21" s="23"/>
+      <c r="B21" s="42">
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C21" s="67" t="s">
-        <v>106</v>
+      <c r="C21" s="69" t="s">
+        <v>102</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
       <c r="K21" s="69"/>
-      <c r="L21" s="69" t="s">
-        <v>107</v>
+      <c r="L21" s="66" t="s">
+        <v>96</v>
       </c>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="70"/>
-      <c r="Y21" s="70"/>
-      <c r="Z21" s="70"/>
-      <c r="AA21" s="70"/>
-      <c r="AB21" s="70"/>
-      <c r="AC21" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM21" s="66"/>
-      <c r="AN21" s="66"/>
-      <c r="AO21" s="66"/>
-      <c r="AP21" s="66"/>
-      <c r="AQ21" s="66"/>
-      <c r="AR21" s="66"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="66"/>
-      <c r="AU21" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV21" s="70"/>
-      <c r="AW21" s="70"/>
-      <c r="AX21" s="70"/>
-      <c r="AY21" s="70"/>
-      <c r="AZ21" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA21" s="71"/>
-      <c r="BB21" s="71"/>
-      <c r="BC21" s="71"/>
-      <c r="BD21" s="71"/>
-      <c r="BE21" s="71"/>
-      <c r="BF21" s="71"/>
-      <c r="BG21" s="71"/>
-      <c r="BH21" s="71"/>
-      <c r="BI21" s="71"/>
-      <c r="BJ21" s="71"/>
-      <c r="BK21" s="71"/>
-      <c r="BL21" s="71"/>
-      <c r="BM21" s="71"/>
-      <c r="BN21" s="71"/>
-      <c r="BO21" s="71"/>
-      <c r="BP21" s="26"/>
-    </row>
-    <row r="22" spans="1:68" s="44" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
-      <c r="A22" s="26"/>
-      <c r="B22" s="46">
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="62"/>
+      <c r="AI21" s="62"/>
+      <c r="AJ21" s="62"/>
+      <c r="AK21" s="62"/>
+      <c r="AL21" s="62"/>
+      <c r="AM21" s="62"/>
+      <c r="AN21" s="62"/>
+      <c r="AO21" s="62"/>
+      <c r="AP21" s="62"/>
+      <c r="AQ21" s="62"/>
+      <c r="AR21" s="62"/>
+      <c r="AS21" s="62"/>
+      <c r="AT21" s="62"/>
+      <c r="AU21" s="62"/>
+      <c r="AV21" s="62"/>
+      <c r="AW21" s="62"/>
+      <c r="AX21" s="62"/>
+      <c r="AY21" s="62"/>
+      <c r="AZ21" s="62"/>
+      <c r="BA21" s="62"/>
+      <c r="BB21" s="62"/>
+      <c r="BC21" s="62"/>
+      <c r="BD21" s="62"/>
+      <c r="BE21" s="62"/>
+      <c r="BF21" s="62"/>
+      <c r="BG21" s="62"/>
+      <c r="BH21" s="62"/>
+      <c r="BI21" s="62"/>
+      <c r="BJ21" s="62"/>
+      <c r="BK21" s="62"/>
+      <c r="BL21" s="62"/>
+      <c r="BM21" s="62"/>
+      <c r="BN21" s="62"/>
+      <c r="BO21" s="62"/>
+      <c r="BP21" s="23"/>
+    </row>
+    <row r="22" spans="1:68" s="41" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A22" s="23"/>
+      <c r="B22" s="42">
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="69" t="s">
-        <v>108</v>
+      <c r="C22" s="68" t="s">
+        <v>104</v>
       </c>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="70"/>
-      <c r="AB22" s="70"/>
-      <c r="AC22" s="66" t="s">
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
-      <c r="AL22" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM22" s="66"/>
-      <c r="AN22" s="66"/>
-      <c r="AO22" s="66"/>
-      <c r="AP22" s="66"/>
-      <c r="AQ22" s="66"/>
-      <c r="AR22" s="66"/>
-      <c r="AS22" s="66"/>
-      <c r="AT22" s="66"/>
-      <c r="AU22" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV22" s="70"/>
-      <c r="AW22" s="70"/>
-      <c r="AX22" s="70"/>
-      <c r="AY22" s="70"/>
-      <c r="AZ22" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="BA22" s="71"/>
-      <c r="BB22" s="71"/>
-      <c r="BC22" s="71"/>
-      <c r="BD22" s="71"/>
-      <c r="BE22" s="71"/>
-      <c r="BF22" s="71"/>
-      <c r="BG22" s="71"/>
-      <c r="BH22" s="71"/>
-      <c r="BI22" s="71"/>
-      <c r="BJ22" s="71"/>
-      <c r="BK22" s="71"/>
-      <c r="BL22" s="71"/>
-      <c r="BM22" s="71"/>
-      <c r="BN22" s="71"/>
-      <c r="BO22" s="71"/>
-      <c r="BP22" s="26"/>
-    </row>
-    <row r="23" spans="1:68" s="44" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A23" s="26"/>
-      <c r="B23" s="45">
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="66"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="62"/>
+      <c r="AE22" s="62"/>
+      <c r="AF22" s="62"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="62"/>
+      <c r="AJ22" s="62"/>
+      <c r="AK22" s="62"/>
+      <c r="AL22" s="62"/>
+      <c r="AM22" s="62"/>
+      <c r="AN22" s="62"/>
+      <c r="AO22" s="62"/>
+      <c r="AP22" s="62"/>
+      <c r="AQ22" s="62"/>
+      <c r="AR22" s="62"/>
+      <c r="AS22" s="62"/>
+      <c r="AT22" s="62"/>
+      <c r="AU22" s="62"/>
+      <c r="AV22" s="62"/>
+      <c r="AW22" s="62"/>
+      <c r="AX22" s="62"/>
+      <c r="AY22" s="62"/>
+      <c r="AZ22" s="62"/>
+      <c r="BA22" s="62"/>
+      <c r="BB22" s="62"/>
+      <c r="BC22" s="62"/>
+      <c r="BD22" s="62"/>
+      <c r="BE22" s="62"/>
+      <c r="BF22" s="62"/>
+      <c r="BG22" s="62"/>
+      <c r="BH22" s="62"/>
+      <c r="BI22" s="62"/>
+      <c r="BJ22" s="62"/>
+      <c r="BK22" s="62"/>
+      <c r="BL22" s="62"/>
+      <c r="BM22" s="62"/>
+      <c r="BN22" s="62"/>
+      <c r="BO22" s="62"/>
+      <c r="BP22" s="23"/>
+    </row>
+    <row r="23" spans="1:68" s="41" customFormat="1" ht="49.5" customHeight="1" outlineLevel="1">
+      <c r="A23" s="23"/>
+      <c r="B23" s="42">
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C23" s="72" t="s">
-        <v>112</v>
+      <c r="C23" s="66" t="s">
+        <v>106</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="70" t="s">
-        <v>113</v>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66" t="s">
+        <v>107</v>
       </c>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="70"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="70"/>
-      <c r="W23" s="70"/>
-      <c r="X23" s="70"/>
-      <c r="Y23" s="70"/>
-      <c r="Z23" s="70"/>
-      <c r="AA23" s="70"/>
-      <c r="AB23" s="70"/>
-      <c r="AC23" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="66"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="66"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="66"/>
-      <c r="AL23" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM23" s="66"/>
-      <c r="AN23" s="66"/>
-      <c r="AO23" s="66"/>
-      <c r="AP23" s="66"/>
-      <c r="AQ23" s="66"/>
-      <c r="AR23" s="66"/>
-      <c r="AS23" s="66"/>
-      <c r="AT23" s="66"/>
-      <c r="AU23" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="AV23" s="66"/>
-      <c r="AW23" s="66"/>
-      <c r="AX23" s="66"/>
-      <c r="AY23" s="66"/>
-      <c r="AZ23" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="BA23" s="66"/>
-      <c r="BB23" s="66"/>
-      <c r="BC23" s="66"/>
-      <c r="BD23" s="66"/>
-      <c r="BE23" s="66"/>
-      <c r="BF23" s="66"/>
-      <c r="BG23" s="66"/>
-      <c r="BH23" s="66"/>
-      <c r="BI23" s="66"/>
-      <c r="BJ23" s="66"/>
-      <c r="BK23" s="66"/>
-      <c r="BL23" s="66"/>
-      <c r="BM23" s="66"/>
-      <c r="BN23" s="66"/>
-      <c r="BO23" s="66"/>
-      <c r="BP23" s="26"/>
-    </row>
-    <row r="24" spans="1:68" s="44" customFormat="1" ht="49.5" customHeight="1" outlineLevel="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="45">
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="66"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="62"/>
+      <c r="AJ23" s="62"/>
+      <c r="AK23" s="62"/>
+      <c r="AL23" s="62"/>
+      <c r="AM23" s="62"/>
+      <c r="AN23" s="62"/>
+      <c r="AO23" s="62"/>
+      <c r="AP23" s="62"/>
+      <c r="AQ23" s="62"/>
+      <c r="AR23" s="62"/>
+      <c r="AS23" s="62"/>
+      <c r="AT23" s="62"/>
+      <c r="AU23" s="62"/>
+      <c r="AV23" s="62"/>
+      <c r="AW23" s="62"/>
+      <c r="AX23" s="62"/>
+      <c r="AY23" s="62"/>
+      <c r="AZ23" s="62"/>
+      <c r="BA23" s="62"/>
+      <c r="BB23" s="62"/>
+      <c r="BC23" s="62"/>
+      <c r="BD23" s="62"/>
+      <c r="BE23" s="62"/>
+      <c r="BF23" s="62"/>
+      <c r="BG23" s="62"/>
+      <c r="BH23" s="62"/>
+      <c r="BI23" s="62"/>
+      <c r="BJ23" s="62"/>
+      <c r="BK23" s="62"/>
+      <c r="BL23" s="62"/>
+      <c r="BM23" s="62"/>
+      <c r="BN23" s="62"/>
+      <c r="BO23" s="62"/>
+      <c r="BP23" s="23"/>
+    </row>
+    <row r="24" spans="1:68" s="41" customFormat="1" ht="81.75" customHeight="1" outlineLevel="1">
+      <c r="A24" s="23"/>
+      <c r="B24" s="42">
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>5</v>
       </c>
-      <c r="C24" s="70" t="s">
-        <v>114</v>
+      <c r="C24" s="69" t="s">
+        <v>108</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70" t="s">
-        <v>115</v>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69" t="s">
+        <v>109</v>
       </c>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="70"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="70"/>
-      <c r="Y24" s="70"/>
-      <c r="Z24" s="70"/>
-      <c r="AA24" s="70"/>
-      <c r="AB24" s="70"/>
-      <c r="AC24" s="66" t="s">
-        <v>105</v>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="69"/>
+      <c r="Z24" s="69"/>
+      <c r="AA24" s="69"/>
+      <c r="AB24" s="69"/>
+      <c r="AC24" s="70"/>
+      <c r="AD24" s="70"/>
+      <c r="AE24" s="70"/>
+      <c r="AF24" s="70"/>
+      <c r="AG24" s="70"/>
+      <c r="AH24" s="70"/>
+      <c r="AI24" s="70"/>
+      <c r="AJ24" s="70"/>
+      <c r="AK24" s="70"/>
+      <c r="AL24" s="70"/>
+      <c r="AM24" s="70"/>
+      <c r="AN24" s="70"/>
+      <c r="AO24" s="70"/>
+      <c r="AP24" s="70"/>
+      <c r="AQ24" s="70"/>
+      <c r="AR24" s="70"/>
+      <c r="AS24" s="70"/>
+      <c r="AT24" s="70"/>
+      <c r="AU24" s="70"/>
+      <c r="AV24" s="70"/>
+      <c r="AW24" s="70"/>
+      <c r="AX24" s="70"/>
+      <c r="AY24" s="70"/>
+      <c r="AZ24" s="70"/>
+      <c r="BA24" s="70"/>
+      <c r="BB24" s="70"/>
+      <c r="BC24" s="70"/>
+      <c r="BD24" s="70"/>
+      <c r="BE24" s="70"/>
+      <c r="BF24" s="70"/>
+      <c r="BG24" s="70"/>
+      <c r="BH24" s="70"/>
+      <c r="BI24" s="70"/>
+      <c r="BJ24" s="70"/>
+      <c r="BK24" s="70"/>
+      <c r="BL24" s="70"/>
+      <c r="BM24" s="70"/>
+      <c r="BN24" s="70"/>
+      <c r="BO24" s="70"/>
+      <c r="BP24" s="23"/>
+    </row>
+    <row r="25" spans="1:68" ht="16.5">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="4"/>
+      <c r="AT25" s="4"/>
+      <c r="AU25" s="4"/>
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4"/>
+      <c r="AX25" s="4"/>
+      <c r="AY25" s="4"/>
+      <c r="AZ25" s="4"/>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="4"/>
+      <c r="BF25" s="4"/>
+      <c r="BG25" s="4"/>
+      <c r="BH25" s="4"/>
+      <c r="BI25" s="4"/>
+      <c r="BJ25" s="4"/>
+      <c r="BK25" s="4"/>
+      <c r="BL25" s="2"/>
+      <c r="BM25" s="3"/>
+      <c r="BN25" s="3"/>
+      <c r="BO25" s="3"/>
+      <c r="BP25" s="3"/>
+    </row>
+    <row r="26" spans="1:68" ht="16.5">
+      <c r="A26" s="5" t="s">
+        <v>31</v>
       </c>
-      <c r="AD24" s="66"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="66"/>
-      <c r="AK24" s="66"/>
-      <c r="AL24" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM24" s="66"/>
-      <c r="AN24" s="66"/>
-      <c r="AO24" s="66"/>
-      <c r="AP24" s="66"/>
-      <c r="AQ24" s="66"/>
-      <c r="AR24" s="66"/>
-      <c r="AS24" s="66"/>
-      <c r="AT24" s="66"/>
-      <c r="AU24" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="AV24" s="66"/>
-      <c r="AW24" s="66"/>
-      <c r="AX24" s="66"/>
-      <c r="AY24" s="66"/>
-      <c r="AZ24" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="BA24" s="66"/>
-      <c r="BB24" s="66"/>
-      <c r="BC24" s="66"/>
-      <c r="BD24" s="66"/>
-      <c r="BE24" s="66"/>
-      <c r="BF24" s="66"/>
-      <c r="BG24" s="66"/>
-      <c r="BH24" s="66"/>
-      <c r="BI24" s="66"/>
-      <c r="BJ24" s="66"/>
-      <c r="BK24" s="66"/>
-      <c r="BL24" s="66"/>
-      <c r="BM24" s="66"/>
-      <c r="BN24" s="66"/>
-      <c r="BO24" s="66"/>
-      <c r="BP24" s="26"/>
-    </row>
-    <row r="25" spans="1:68" s="44" customFormat="1" ht="81.75" customHeight="1" outlineLevel="1">
-      <c r="A25" s="26"/>
-      <c r="B25" s="45">
-        <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>6</v>
-      </c>
-      <c r="C25" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="76"/>
-      <c r="R25" s="76"/>
-      <c r="S25" s="76"/>
-      <c r="T25" s="76"/>
-      <c r="U25" s="76"/>
-      <c r="V25" s="76"/>
-      <c r="W25" s="76"/>
-      <c r="X25" s="76"/>
-      <c r="Y25" s="76"/>
-      <c r="Z25" s="76"/>
-      <c r="AA25" s="76"/>
-      <c r="AB25" s="76"/>
-      <c r="AC25" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD25" s="77"/>
-      <c r="AE25" s="77"/>
-      <c r="AF25" s="77"/>
-      <c r="AG25" s="77"/>
-      <c r="AH25" s="77"/>
-      <c r="AI25" s="77"/>
-      <c r="AJ25" s="77"/>
-      <c r="AK25" s="77"/>
-      <c r="AL25" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM25" s="77"/>
-      <c r="AN25" s="77"/>
-      <c r="AO25" s="77"/>
-      <c r="AP25" s="77"/>
-      <c r="AQ25" s="77"/>
-      <c r="AR25" s="77"/>
-      <c r="AS25" s="77"/>
-      <c r="AT25" s="77"/>
-      <c r="AU25" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="AV25" s="77"/>
-      <c r="AW25" s="77"/>
-      <c r="AX25" s="77"/>
-      <c r="AY25" s="77"/>
-      <c r="AZ25" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="BA25" s="77"/>
-      <c r="BB25" s="77"/>
-      <c r="BC25" s="77"/>
-      <c r="BD25" s="77"/>
-      <c r="BE25" s="77"/>
-      <c r="BF25" s="77"/>
-      <c r="BG25" s="77"/>
-      <c r="BH25" s="77"/>
-      <c r="BI25" s="77"/>
-      <c r="BJ25" s="77"/>
-      <c r="BK25" s="77"/>
-      <c r="BL25" s="77"/>
-      <c r="BM25" s="77"/>
-      <c r="BN25" s="77"/>
-      <c r="BO25" s="77"/>
-      <c r="BP25" s="26"/>
-    </row>
-    <row r="26" spans="1:68" ht="16.5">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
-      <c r="AJ26" s="4"/>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="4"/>
-      <c r="AM26" s="4"/>
-      <c r="AN26" s="4"/>
-      <c r="AO26" s="4"/>
-      <c r="AP26" s="4"/>
-      <c r="AQ26" s="4"/>
-      <c r="AR26" s="4"/>
-      <c r="AS26" s="4"/>
-      <c r="AT26" s="4"/>
-      <c r="AU26" s="4"/>
-      <c r="AV26" s="4"/>
-      <c r="AW26" s="4"/>
-      <c r="AX26" s="4"/>
-      <c r="AY26" s="4"/>
-      <c r="AZ26" s="4"/>
-      <c r="BA26" s="4"/>
-      <c r="BB26" s="4"/>
-      <c r="BC26" s="4"/>
-      <c r="BD26" s="4"/>
-      <c r="BE26" s="4"/>
-      <c r="BF26" s="4"/>
-      <c r="BG26" s="4"/>
-      <c r="BH26" s="4"/>
-      <c r="BI26" s="4"/>
-      <c r="BJ26" s="4"/>
-      <c r="BK26" s="4"/>
-      <c r="BL26" s="2"/>
-      <c r="BM26" s="3"/>
-      <c r="BN26" s="3"/>
-      <c r="BO26" s="3"/>
-      <c r="BP26" s="3"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="8"/>
+      <c r="AO26" s="8"/>
+      <c r="AP26" s="8"/>
+      <c r="AQ26" s="8"/>
+      <c r="AR26" s="8"/>
+      <c r="AS26" s="8"/>
+      <c r="AT26" s="8"/>
+      <c r="AU26" s="8"/>
+      <c r="AV26" s="8"/>
+      <c r="AW26" s="8"/>
+      <c r="AX26" s="8"/>
+      <c r="AY26" s="8"/>
+      <c r="AZ26" s="8"/>
+      <c r="BA26" s="8"/>
+      <c r="BB26" s="8"/>
+      <c r="BC26" s="8"/>
+      <c r="BD26" s="8"/>
+      <c r="BE26" s="8"/>
+      <c r="BF26" s="8"/>
+      <c r="BG26" s="8"/>
+      <c r="BH26" s="8"/>
+      <c r="BI26" s="8"/>
+      <c r="BJ26" s="8"/>
+      <c r="BK26" s="8"/>
+      <c r="BL26" s="9"/>
+      <c r="BM26" s="9"/>
+      <c r="BN26" s="9"/>
+      <c r="BO26" s="9"/>
+      <c r="BP26" s="9"/>
     </row>
     <row r="27" spans="1:68" ht="16.5">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="4"/>
+      <c r="AR27" s="4"/>
+      <c r="AS27" s="4"/>
+      <c r="AT27" s="4"/>
+      <c r="AU27" s="4"/>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="4"/>
+      <c r="AX27" s="4"/>
+      <c r="AY27" s="4"/>
+      <c r="AZ27" s="4"/>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="4"/>
+      <c r="BE27" s="4"/>
+      <c r="BF27" s="4"/>
+      <c r="BG27" s="4"/>
+      <c r="BH27" s="4"/>
+      <c r="BI27" s="4"/>
+      <c r="BJ27" s="4"/>
+      <c r="BK27" s="4"/>
+      <c r="BL27" s="2"/>
+      <c r="BM27" s="3"/>
+      <c r="BN27" s="3"/>
+      <c r="BO27" s="3"/>
+      <c r="BP27" s="3"/>
+    </row>
+    <row r="28" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A28" s="17"/>
+      <c r="B28" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="8"/>
-      <c r="AH27" s="8"/>
-      <c r="AI27" s="8"/>
-      <c r="AJ27" s="8"/>
-      <c r="AK27" s="8"/>
-      <c r="AL27" s="8"/>
-      <c r="AM27" s="8"/>
-      <c r="AN27" s="8"/>
-      <c r="AO27" s="8"/>
-      <c r="AP27" s="8"/>
-      <c r="AQ27" s="8"/>
-      <c r="AR27" s="8"/>
-      <c r="AS27" s="8"/>
-      <c r="AT27" s="8"/>
-      <c r="AU27" s="8"/>
-      <c r="AV27" s="8"/>
-      <c r="AW27" s="8"/>
-      <c r="AX27" s="8"/>
-      <c r="AY27" s="8"/>
-      <c r="AZ27" s="8"/>
-      <c r="BA27" s="8"/>
-      <c r="BB27" s="8"/>
-      <c r="BC27" s="8"/>
-      <c r="BD27" s="8"/>
-      <c r="BE27" s="8"/>
-      <c r="BF27" s="8"/>
-      <c r="BG27" s="8"/>
-      <c r="BH27" s="8"/>
-      <c r="BI27" s="8"/>
-      <c r="BJ27" s="8"/>
-      <c r="BK27" s="8"/>
-      <c r="BL27" s="9"/>
-      <c r="BM27" s="9"/>
-      <c r="BN27" s="9"/>
-      <c r="BO27" s="9"/>
-      <c r="BP27" s="9"/>
-    </row>
-    <row r="28" spans="1:68" ht="16.5">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="4"/>
-      <c r="AM28" s="4"/>
-      <c r="AN28" s="4"/>
-      <c r="AO28" s="4"/>
-      <c r="AP28" s="4"/>
-      <c r="AQ28" s="4"/>
-      <c r="AR28" s="4"/>
-      <c r="AS28" s="4"/>
-      <c r="AT28" s="4"/>
-      <c r="AU28" s="4"/>
-      <c r="AV28" s="4"/>
-      <c r="AW28" s="4"/>
-      <c r="AX28" s="4"/>
-      <c r="AY28" s="4"/>
-      <c r="AZ28" s="4"/>
-      <c r="BA28" s="4"/>
-      <c r="BB28" s="4"/>
-      <c r="BC28" s="4"/>
-      <c r="BD28" s="4"/>
-      <c r="BE28" s="4"/>
-      <c r="BF28" s="4"/>
-      <c r="BG28" s="4"/>
-      <c r="BH28" s="4"/>
-      <c r="BI28" s="4"/>
-      <c r="BJ28" s="4"/>
-      <c r="BK28" s="4"/>
-      <c r="BL28" s="2"/>
-      <c r="BM28" s="3"/>
-      <c r="BN28" s="3"/>
-      <c r="BO28" s="3"/>
-      <c r="BP28" s="3"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="25"/>
+      <c r="AI28" s="25"/>
+      <c r="AJ28" s="25"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="17"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="17"/>
+      <c r="AO28" s="17"/>
+      <c r="AP28" s="17"/>
+      <c r="AQ28" s="17"/>
+      <c r="AR28" s="17"/>
+      <c r="AS28" s="17"/>
+      <c r="AT28" s="17"/>
+      <c r="AU28" s="17"/>
+      <c r="AV28" s="17"/>
+      <c r="AW28" s="17"/>
+      <c r="AX28" s="17"/>
+      <c r="AY28" s="17"/>
+      <c r="AZ28" s="17"/>
+      <c r="BA28" s="17"/>
+      <c r="BB28" s="17"/>
+      <c r="BC28" s="17"/>
+      <c r="BD28" s="17"/>
+      <c r="BE28" s="17"/>
+      <c r="BF28" s="17"/>
+      <c r="BG28" s="17"/>
+      <c r="BH28" s="17"/>
+      <c r="BI28" s="17"/>
+      <c r="BJ28" s="17"/>
+      <c r="BK28" s="17"/>
+      <c r="BL28" s="18"/>
+      <c r="BM28" s="18"/>
+      <c r="BN28" s="18"/>
+      <c r="BO28" s="18"/>
+      <c r="BP28" s="18"/>
     </row>
     <row r="29" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="27" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="28"/>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="28"/>
-      <c r="AJ29" s="28"/>
-      <c r="AK29" s="17"/>
-      <c r="AL29" s="17"/>
-      <c r="AM29" s="17"/>
-      <c r="AN29" s="17"/>
-      <c r="AO29" s="17"/>
-      <c r="AP29" s="17"/>
-      <c r="AQ29" s="17"/>
-      <c r="AR29" s="17"/>
-      <c r="AS29" s="17"/>
-      <c r="AT29" s="17"/>
-      <c r="AU29" s="17"/>
-      <c r="AV29" s="17"/>
-      <c r="AW29" s="17"/>
-      <c r="AX29" s="17"/>
-      <c r="AY29" s="17"/>
-      <c r="AZ29" s="17"/>
-      <c r="BA29" s="17"/>
-      <c r="BB29" s="17"/>
-      <c r="BC29" s="17"/>
-      <c r="BD29" s="17"/>
-      <c r="BE29" s="17"/>
-      <c r="BF29" s="17"/>
-      <c r="BG29" s="17"/>
-      <c r="BH29" s="17"/>
-      <c r="BI29" s="17"/>
-      <c r="BJ29" s="17"/>
-      <c r="BK29" s="17"/>
-      <c r="BL29" s="18"/>
-      <c r="BM29" s="18"/>
-      <c r="BN29" s="18"/>
-      <c r="BO29" s="18"/>
-      <c r="BP29" s="18"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
+      <c r="AI29" s="27"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="27"/>
+      <c r="AL29" s="27"/>
+      <c r="AM29" s="27"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="4"/>
+      <c r="AS29" s="4"/>
+      <c r="AT29" s="4"/>
+      <c r="AU29" s="4"/>
+      <c r="AV29" s="4"/>
+      <c r="AW29" s="4"/>
+      <c r="AX29" s="4"/>
+      <c r="AY29" s="4"/>
+      <c r="AZ29" s="4"/>
+      <c r="BA29" s="4"/>
+      <c r="BB29" s="4"/>
+      <c r="BC29" s="4"/>
+      <c r="BD29" s="4"/>
+      <c r="BE29" s="4"/>
+      <c r="BF29" s="4"/>
+      <c r="BG29" s="4"/>
+      <c r="BH29" s="4"/>
+      <c r="BI29" s="4"/>
+      <c r="BJ29" s="4"/>
+      <c r="BK29" s="4"/>
+      <c r="BL29" s="2"/>
+      <c r="BM29" s="3"/>
+      <c r="BN29" s="3"/>
+      <c r="BO29" s="3"/>
+      <c r="BP29" s="3"/>
     </row>
     <row r="30" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="27"/>
+      <c r="D30" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
-      <c r="AA30" s="30"/>
-      <c r="AB30" s="30"/>
-      <c r="AC30" s="30"/>
-      <c r="AD30" s="30"/>
-      <c r="AE30" s="30"/>
-      <c r="AF30" s="30"/>
-      <c r="AG30" s="30"/>
-      <c r="AH30" s="30"/>
-      <c r="AI30" s="30"/>
-      <c r="AJ30" s="30"/>
-      <c r="AK30" s="30"/>
-      <c r="AL30" s="30"/>
-      <c r="AM30" s="30"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="27"/>
+      <c r="AI30" s="27"/>
+      <c r="AJ30" s="27"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="27"/>
+      <c r="AM30" s="27"/>
       <c r="AN30" s="4"/>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4"/>
@@ -6059,45 +5942,45 @@
     <row r="31" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="29" t="s">
+      <c r="C31" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="30"/>
-      <c r="AA31" s="30"/>
-      <c r="AB31" s="30"/>
-      <c r="AC31" s="30"/>
-      <c r="AD31" s="30"/>
-      <c r="AE31" s="30"/>
-      <c r="AF31" s="30"/>
-      <c r="AG31" s="30"/>
-      <c r="AH31" s="30"/>
-      <c r="AI31" s="30"/>
-      <c r="AJ31" s="30"/>
-      <c r="AK31" s="30"/>
-      <c r="AL31" s="30"/>
-      <c r="AM31" s="30"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="27"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="27"/>
+      <c r="AM31" s="27"/>
       <c r="AN31" s="4"/>
       <c r="AO31" s="4"/>
       <c r="AP31" s="4"/>
@@ -6131,45 +6014,45 @@
     <row r="32" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="27"/>
+      <c r="D32" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="30"/>
-      <c r="AB32" s="30"/>
-      <c r="AC32" s="30"/>
-      <c r="AD32" s="30"/>
-      <c r="AE32" s="30"/>
-      <c r="AF32" s="30"/>
-      <c r="AG32" s="30"/>
-      <c r="AH32" s="30"/>
-      <c r="AI32" s="30"/>
-      <c r="AJ32" s="30"/>
-      <c r="AK32" s="30"/>
-      <c r="AL32" s="30"/>
-      <c r="AM32" s="30"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="27"/>
+      <c r="AH32" s="27"/>
+      <c r="AI32" s="27"/>
+      <c r="AJ32" s="27"/>
+      <c r="AK32" s="27"/>
+      <c r="AL32" s="27"/>
+      <c r="AM32" s="27"/>
       <c r="AN32" s="4"/>
       <c r="AO32" s="4"/>
       <c r="AP32" s="4"/>
@@ -6203,45 +6086,45 @@
     <row r="33" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="29" t="s">
+      <c r="C33" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="30"/>
-      <c r="AC33" s="30"/>
-      <c r="AD33" s="30"/>
-      <c r="AE33" s="30"/>
-      <c r="AF33" s="30"/>
-      <c r="AG33" s="30"/>
-      <c r="AH33" s="30"/>
-      <c r="AI33" s="30"/>
-      <c r="AJ33" s="30"/>
-      <c r="AK33" s="30"/>
-      <c r="AL33" s="30"/>
-      <c r="AM33" s="30"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="27"/>
+      <c r="AJ33" s="27"/>
+      <c r="AK33" s="27"/>
+      <c r="AL33" s="27"/>
+      <c r="AM33" s="27"/>
       <c r="AN33" s="4"/>
       <c r="AO33" s="4"/>
       <c r="AP33" s="4"/>
@@ -6275,45 +6158,45 @@
     <row r="34" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="29" t="s">
-        <v>38</v>
+      <c r="C34" s="27"/>
+      <c r="D34" s="26" t="s">
+        <v>97</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="30"/>
-      <c r="AB34" s="30"/>
-      <c r="AC34" s="30"/>
-      <c r="AD34" s="30"/>
-      <c r="AE34" s="30"/>
-      <c r="AF34" s="30"/>
-      <c r="AG34" s="30"/>
-      <c r="AH34" s="30"/>
-      <c r="AI34" s="30"/>
-      <c r="AJ34" s="30"/>
-      <c r="AK34" s="30"/>
-      <c r="AL34" s="30"/>
-      <c r="AM34" s="30"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="27"/>
+      <c r="AI34" s="27"/>
+      <c r="AJ34" s="27"/>
+      <c r="AK34" s="27"/>
+      <c r="AL34" s="27"/>
+      <c r="AM34" s="27"/>
       <c r="AN34" s="4"/>
       <c r="AO34" s="4"/>
       <c r="AP34" s="4"/>
@@ -6347,45 +6230,45 @@
     <row r="35" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="29" t="s">
-        <v>99</v>
+      <c r="C35" s="26" t="s">
+        <v>38</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="30"/>
-      <c r="AB35" s="30"/>
-      <c r="AC35" s="30"/>
-      <c r="AD35" s="30"/>
-      <c r="AE35" s="30"/>
-      <c r="AF35" s="30"/>
-      <c r="AG35" s="30"/>
-      <c r="AH35" s="30"/>
-      <c r="AI35" s="30"/>
-      <c r="AJ35" s="30"/>
-      <c r="AK35" s="30"/>
-      <c r="AL35" s="30"/>
-      <c r="AM35" s="30"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="27"/>
+      <c r="AE35" s="27"/>
+      <c r="AF35" s="27"/>
+      <c r="AG35" s="27"/>
+      <c r="AH35" s="27"/>
+      <c r="AI35" s="27"/>
+      <c r="AJ35" s="27"/>
+      <c r="AK35" s="27"/>
+      <c r="AL35" s="27"/>
+      <c r="AM35" s="27"/>
       <c r="AN35" s="4"/>
       <c r="AO35" s="4"/>
       <c r="AP35" s="4"/>
@@ -6419,45 +6302,45 @@
     <row r="36" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="27"/>
+      <c r="D36" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
-      <c r="AB36" s="30"/>
-      <c r="AC36" s="30"/>
-      <c r="AD36" s="30"/>
-      <c r="AE36" s="30"/>
-      <c r="AF36" s="30"/>
-      <c r="AG36" s="30"/>
-      <c r="AH36" s="30"/>
-      <c r="AI36" s="30"/>
-      <c r="AJ36" s="30"/>
-      <c r="AK36" s="30"/>
-      <c r="AL36" s="30"/>
-      <c r="AM36" s="30"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27"/>
+      <c r="AE36" s="27"/>
+      <c r="AF36" s="27"/>
+      <c r="AG36" s="27"/>
+      <c r="AH36" s="27"/>
+      <c r="AI36" s="27"/>
+      <c r="AJ36" s="27"/>
+      <c r="AK36" s="27"/>
+      <c r="AL36" s="27"/>
+      <c r="AM36" s="27"/>
       <c r="AN36" s="4"/>
       <c r="AO36" s="4"/>
       <c r="AP36" s="4"/>
@@ -6491,45 +6374,45 @@
     <row r="37" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="29" t="s">
+      <c r="C37" s="27"/>
+      <c r="D37" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="30"/>
-      <c r="AB37" s="30"/>
-      <c r="AC37" s="30"/>
-      <c r="AD37" s="30"/>
-      <c r="AE37" s="30"/>
-      <c r="AF37" s="30"/>
-      <c r="AG37" s="30"/>
-      <c r="AH37" s="30"/>
-      <c r="AI37" s="30"/>
-      <c r="AJ37" s="30"/>
-      <c r="AK37" s="30"/>
-      <c r="AL37" s="30"/>
-      <c r="AM37" s="30"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27"/>
+      <c r="AE37" s="27"/>
+      <c r="AF37" s="27"/>
+      <c r="AG37" s="27"/>
+      <c r="AH37" s="27"/>
+      <c r="AI37" s="27"/>
+      <c r="AJ37" s="27"/>
+      <c r="AK37" s="27"/>
+      <c r="AL37" s="27"/>
+      <c r="AM37" s="27"/>
       <c r="AN37" s="4"/>
       <c r="AO37" s="4"/>
       <c r="AP37" s="4"/>
@@ -6560,48 +6443,46 @@
       <c r="BO37" s="3"/>
       <c r="BP37" s="3"/>
     </row>
-    <row r="38" spans="1:68" ht="16.5" outlineLevel="1">
+    <row r="38" spans="1:68" ht="16.5">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="30"/>
-      <c r="AB38" s="30"/>
-      <c r="AC38" s="30"/>
-      <c r="AD38" s="30"/>
-      <c r="AE38" s="30"/>
-      <c r="AF38" s="30"/>
-      <c r="AG38" s="30"/>
-      <c r="AH38" s="30"/>
-      <c r="AI38" s="30"/>
-      <c r="AJ38" s="30"/>
-      <c r="AK38" s="30"/>
-      <c r="AL38" s="30"/>
-      <c r="AM38" s="30"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="4"/>
       <c r="AN38" s="4"/>
       <c r="AO38" s="4"/>
       <c r="AP38" s="4"/>
@@ -6633,146 +6514,146 @@
       <c r="BP38" s="3"/>
     </row>
     <row r="39" spans="1:68" ht="16.5">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
-      <c r="AH39" s="4"/>
-      <c r="AI39" s="4"/>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="4"/>
-      <c r="AL39" s="4"/>
-      <c r="AM39" s="4"/>
-      <c r="AN39" s="4"/>
-      <c r="AO39" s="4"/>
-      <c r="AP39" s="4"/>
-      <c r="AQ39" s="4"/>
-      <c r="AR39" s="4"/>
-      <c r="AS39" s="4"/>
-      <c r="AT39" s="4"/>
-      <c r="AU39" s="4"/>
-      <c r="AV39" s="4"/>
-      <c r="AW39" s="4"/>
-      <c r="AX39" s="4"/>
-      <c r="AY39" s="4"/>
-      <c r="AZ39" s="4"/>
-      <c r="BA39" s="4"/>
-      <c r="BB39" s="4"/>
-      <c r="BC39" s="4"/>
-      <c r="BD39" s="4"/>
-      <c r="BE39" s="4"/>
-      <c r="BF39" s="4"/>
-      <c r="BG39" s="4"/>
-      <c r="BH39" s="4"/>
-      <c r="BI39" s="4"/>
-      <c r="BJ39" s="4"/>
-      <c r="BK39" s="4"/>
-      <c r="BL39" s="2"/>
-      <c r="BM39" s="3"/>
-      <c r="BN39" s="3"/>
-      <c r="BO39" s="3"/>
-      <c r="BP39" s="3"/>
+      <c r="A39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="1"/>
+      <c r="BJ39" s="1"/>
+      <c r="BK39" s="1"/>
+      <c r="BL39" s="1"/>
+      <c r="BM39" s="1"/>
+      <c r="BN39" s="1"/>
+      <c r="BO39" s="1"/>
+      <c r="BP39" s="1"/>
     </row>
     <row r="40" spans="1:68" ht="16.5">
-      <c r="A40" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
-      <c r="AE40" s="1"/>
-      <c r="AF40" s="1"/>
-      <c r="AG40" s="1"/>
-      <c r="AH40" s="1"/>
-      <c r="AI40" s="1"/>
-      <c r="AJ40" s="1"/>
-      <c r="AK40" s="1"/>
-      <c r="AL40" s="1"/>
-      <c r="AM40" s="1"/>
-      <c r="AN40" s="1"/>
-      <c r="AO40" s="1"/>
-      <c r="AP40" s="1"/>
-      <c r="AQ40" s="1"/>
-      <c r="AR40" s="1"/>
-      <c r="AS40" s="1"/>
-      <c r="AT40" s="1"/>
-      <c r="AU40" s="1"/>
-      <c r="AV40" s="1"/>
-      <c r="AW40" s="1"/>
-      <c r="AX40" s="1"/>
-      <c r="AY40" s="1"/>
-      <c r="AZ40" s="1"/>
-      <c r="BA40" s="1"/>
-      <c r="BB40" s="1"/>
-      <c r="BC40" s="1"/>
-      <c r="BD40" s="1"/>
-      <c r="BE40" s="1"/>
-      <c r="BF40" s="1"/>
-      <c r="BG40" s="1"/>
-      <c r="BH40" s="1"/>
-      <c r="BI40" s="1"/>
-      <c r="BJ40" s="1"/>
-      <c r="BK40" s="1"/>
-      <c r="BL40" s="1"/>
-      <c r="BM40" s="1"/>
-      <c r="BN40" s="1"/>
-      <c r="BO40" s="1"/>
-      <c r="BP40" s="1"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4"/>
+      <c r="AO40" s="4"/>
+      <c r="AP40" s="4"/>
+      <c r="AQ40" s="4"/>
+      <c r="AR40" s="4"/>
+      <c r="AS40" s="4"/>
+      <c r="AT40" s="4"/>
+      <c r="AU40" s="4"/>
+      <c r="AV40" s="4"/>
+      <c r="AW40" s="4"/>
+      <c r="AX40" s="4"/>
+      <c r="AY40" s="4"/>
+      <c r="AZ40" s="4"/>
+      <c r="BA40" s="4"/>
+      <c r="BB40" s="4"/>
+      <c r="BC40" s="4"/>
+      <c r="BD40" s="4"/>
+      <c r="BE40" s="4"/>
+      <c r="BF40" s="4"/>
+      <c r="BG40" s="4"/>
+      <c r="BH40" s="4"/>
+      <c r="BI40" s="4"/>
+      <c r="BJ40" s="4"/>
+      <c r="BK40" s="4"/>
+      <c r="BL40" s="2"/>
+      <c r="BM40" s="3"/>
+      <c r="BN40" s="3"/>
+      <c r="BO40" s="3"/>
+      <c r="BP40" s="3"/>
     </row>
     <row r="41" spans="1:68" ht="16.5">
       <c r="A41" s="4"/>
@@ -6844,114 +6725,38 @@
       <c r="BO41" s="3"/>
       <c r="BP41" s="3"/>
     </row>
-    <row r="42" spans="1:68" ht="16.5">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
-      <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
-      <c r="AI42" s="4"/>
-      <c r="AJ42" s="4"/>
-      <c r="AK42" s="4"/>
-      <c r="AL42" s="4"/>
-      <c r="AM42" s="4"/>
-      <c r="AN42" s="4"/>
-      <c r="AO42" s="4"/>
-      <c r="AP42" s="4"/>
-      <c r="AQ42" s="4"/>
-      <c r="AR42" s="4"/>
-      <c r="AS42" s="4"/>
-      <c r="AT42" s="4"/>
-      <c r="AU42" s="4"/>
-      <c r="AV42" s="4"/>
-      <c r="AW42" s="4"/>
-      <c r="AX42" s="4"/>
-      <c r="AY42" s="4"/>
-      <c r="AZ42" s="4"/>
-      <c r="BA42" s="4"/>
-      <c r="BB42" s="4"/>
-      <c r="BC42" s="4"/>
-      <c r="BD42" s="4"/>
-      <c r="BE42" s="4"/>
-      <c r="BF42" s="4"/>
-      <c r="BG42" s="4"/>
-      <c r="BH42" s="4"/>
-      <c r="BI42" s="4"/>
-      <c r="BJ42" s="4"/>
-      <c r="BK42" s="4"/>
-      <c r="BL42" s="2"/>
-      <c r="BM42" s="3"/>
-      <c r="BN42" s="3"/>
-      <c r="BO42" s="3"/>
-      <c r="BP42" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="AZ24:BO24"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="L25:AB25"/>
-    <mergeCell ref="AC25:AK25"/>
-    <mergeCell ref="AL25:AT25"/>
-    <mergeCell ref="AU25:AY25"/>
-    <mergeCell ref="AZ25:BO25"/>
+  <mergeCells count="58">
+    <mergeCell ref="AZ20:BO20"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="L20:AB20"/>
+    <mergeCell ref="AC20:AK20"/>
+    <mergeCell ref="AL20:AT20"/>
+    <mergeCell ref="AU20:AY20"/>
+    <mergeCell ref="AZ23:BO23"/>
     <mergeCell ref="C24:K24"/>
     <mergeCell ref="L24:AB24"/>
     <mergeCell ref="AC24:AK24"/>
     <mergeCell ref="AL24:AT24"/>
     <mergeCell ref="AU24:AY24"/>
-    <mergeCell ref="AZ22:BO22"/>
+    <mergeCell ref="AZ24:BO24"/>
     <mergeCell ref="C23:K23"/>
     <mergeCell ref="L23:AB23"/>
     <mergeCell ref="AC23:AK23"/>
     <mergeCell ref="AL23:AT23"/>
     <mergeCell ref="AU23:AY23"/>
-    <mergeCell ref="AZ23:BO23"/>
     <mergeCell ref="C22:K22"/>
     <mergeCell ref="L22:AB22"/>
     <mergeCell ref="AC22:AK22"/>
     <mergeCell ref="AL22:AT22"/>
     <mergeCell ref="AU22:AY22"/>
-    <mergeCell ref="AZ20:BO20"/>
+    <mergeCell ref="AZ22:BO22"/>
+    <mergeCell ref="AZ21:BO21"/>
     <mergeCell ref="C21:K21"/>
     <mergeCell ref="L21:AB21"/>
     <mergeCell ref="AC21:AK21"/>
     <mergeCell ref="AL21:AT21"/>
     <mergeCell ref="AU21:AY21"/>
-    <mergeCell ref="AZ21:BO21"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="L20:AB20"/>
-    <mergeCell ref="AC20:AK20"/>
-    <mergeCell ref="AL20:AT20"/>
-    <mergeCell ref="AU20:AY20"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:K19"/>
     <mergeCell ref="L18:AB19"/>
@@ -6972,6 +6777,8 @@
     <mergeCell ref="O14:T14"/>
     <mergeCell ref="U14:X14"/>
     <mergeCell ref="U13:X13"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="C14:H14"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="I7:BJ7"/>
     <mergeCell ref="C8:H8"/>
@@ -6985,8 +6792,8 @@
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="3" max="16383" man="1"/>
     <brk id="15" max="16383" man="1"/>
-    <brk id="26" max="16383" man="1"/>
-    <brk id="39" max="16383" man="1"/>
+    <brk id="25" max="16383" man="1"/>
+    <brk id="38" max="16383" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -7028,10 +6835,10 @@
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>3.1. ファイルIF</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
@@ -7223,12 +7030,12 @@
     </row>
     <row r="4" spans="1:63" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -7355,8 +7162,8 @@
     </row>
     <row r="6" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="33" t="s">
-        <v>44</v>
+      <c r="B6" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -7424,138 +7231,138 @@
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="55"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="55"/>
-      <c r="AM7" s="55"/>
-      <c r="AN7" s="55"/>
-      <c r="AO7" s="55"/>
-      <c r="AP7" s="55"/>
-      <c r="AQ7" s="55"/>
-      <c r="AR7" s="55"/>
-      <c r="AS7" s="55"/>
-      <c r="AT7" s="55"/>
-      <c r="AU7" s="55"/>
-      <c r="AV7" s="55"/>
-      <c r="AW7" s="55"/>
-      <c r="AX7" s="55"/>
-      <c r="AY7" s="55"/>
-      <c r="AZ7" s="55"/>
-      <c r="BA7" s="55"/>
-      <c r="BB7" s="55"/>
-      <c r="BC7" s="55"/>
-      <c r="BD7" s="55"/>
-      <c r="BE7" s="55"/>
-      <c r="BF7" s="55"/>
-      <c r="BG7" s="55"/>
-      <c r="BH7" s="55"/>
-      <c r="BI7" s="55"/>
-      <c r="BJ7" s="56"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="51"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="51"/>
+      <c r="AI7" s="51"/>
+      <c r="AJ7" s="51"/>
+      <c r="AK7" s="51"/>
+      <c r="AL7" s="51"/>
+      <c r="AM7" s="51"/>
+      <c r="AN7" s="51"/>
+      <c r="AO7" s="51"/>
+      <c r="AP7" s="51"/>
+      <c r="AQ7" s="51"/>
+      <c r="AR7" s="51"/>
+      <c r="AS7" s="51"/>
+      <c r="AT7" s="51"/>
+      <c r="AU7" s="51"/>
+      <c r="AV7" s="51"/>
+      <c r="AW7" s="51"/>
+      <c r="AX7" s="51"/>
+      <c r="AY7" s="51"/>
+      <c r="AZ7" s="51"/>
+      <c r="BA7" s="51"/>
+      <c r="BB7" s="51"/>
+      <c r="BC7" s="51"/>
+      <c r="BD7" s="51"/>
+      <c r="BE7" s="51"/>
+      <c r="BF7" s="51"/>
+      <c r="BG7" s="51"/>
+      <c r="BH7" s="51"/>
+      <c r="BI7" s="51"/>
+      <c r="BJ7" s="52"/>
       <c r="BK7" s="2"/>
     </row>
     <row r="8" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="55"/>
-      <c r="AO8" s="55"/>
-      <c r="AP8" s="55"/>
-      <c r="AQ8" s="55"/>
-      <c r="AR8" s="55"/>
-      <c r="AS8" s="55"/>
-      <c r="AT8" s="55"/>
-      <c r="AU8" s="55"/>
-      <c r="AV8" s="55"/>
-      <c r="AW8" s="55"/>
-      <c r="AX8" s="55"/>
-      <c r="AY8" s="55"/>
-      <c r="AZ8" s="55"/>
-      <c r="BA8" s="55"/>
-      <c r="BB8" s="55"/>
-      <c r="BC8" s="55"/>
-      <c r="BD8" s="55"/>
-      <c r="BE8" s="55"/>
-      <c r="BF8" s="55"/>
-      <c r="BG8" s="55"/>
-      <c r="BH8" s="55"/>
-      <c r="BI8" s="55"/>
-      <c r="BJ8" s="56"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="51"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="51"/>
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="51"/>
+      <c r="AN8" s="51"/>
+      <c r="AO8" s="51"/>
+      <c r="AP8" s="51"/>
+      <c r="AQ8" s="51"/>
+      <c r="AR8" s="51"/>
+      <c r="AS8" s="51"/>
+      <c r="AT8" s="51"/>
+      <c r="AU8" s="51"/>
+      <c r="AV8" s="51"/>
+      <c r="AW8" s="51"/>
+      <c r="AX8" s="51"/>
+      <c r="AY8" s="51"/>
+      <c r="AZ8" s="51"/>
+      <c r="BA8" s="51"/>
+      <c r="BB8" s="51"/>
+      <c r="BC8" s="51"/>
+      <c r="BD8" s="51"/>
+      <c r="BE8" s="51"/>
+      <c r="BF8" s="51"/>
+      <c r="BG8" s="51"/>
+      <c r="BH8" s="51"/>
+      <c r="BI8" s="51"/>
+      <c r="BJ8" s="52"/>
       <c r="BK8" s="2"/>
     </row>
     <row r="9" spans="1:63" ht="16.5" outlineLevel="1">
@@ -7564,67 +7371,67 @@
       <c r="C9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="61" t="s">
-        <v>49</v>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="57" t="s">
+        <v>48</v>
       </c>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="55"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="55"/>
-      <c r="AN9" s="55"/>
-      <c r="AO9" s="55"/>
-      <c r="AP9" s="55"/>
-      <c r="AQ9" s="55"/>
-      <c r="AR9" s="55"/>
-      <c r="AS9" s="55"/>
-      <c r="AT9" s="55"/>
-      <c r="AU9" s="55"/>
-      <c r="AV9" s="55"/>
-      <c r="AW9" s="55"/>
-      <c r="AX9" s="55"/>
-      <c r="AY9" s="55"/>
-      <c r="AZ9" s="55"/>
-      <c r="BA9" s="55"/>
-      <c r="BB9" s="55"/>
-      <c r="BC9" s="55"/>
-      <c r="BD9" s="55"/>
-      <c r="BE9" s="55"/>
-      <c r="BF9" s="55"/>
-      <c r="BG9" s="55"/>
-      <c r="BH9" s="55"/>
-      <c r="BI9" s="55"/>
-      <c r="BJ9" s="56"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="51"/>
+      <c r="AG9" s="51"/>
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="51"/>
+      <c r="AJ9" s="51"/>
+      <c r="AK9" s="51"/>
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="51"/>
+      <c r="AN9" s="51"/>
+      <c r="AO9" s="51"/>
+      <c r="AP9" s="51"/>
+      <c r="AQ9" s="51"/>
+      <c r="AR9" s="51"/>
+      <c r="AS9" s="51"/>
+      <c r="AT9" s="51"/>
+      <c r="AU9" s="51"/>
+      <c r="AV9" s="51"/>
+      <c r="AW9" s="51"/>
+      <c r="AX9" s="51"/>
+      <c r="AY9" s="51"/>
+      <c r="AZ9" s="51"/>
+      <c r="BA9" s="51"/>
+      <c r="BB9" s="51"/>
+      <c r="BC9" s="51"/>
+      <c r="BD9" s="51"/>
+      <c r="BE9" s="51"/>
+      <c r="BF9" s="51"/>
+      <c r="BG9" s="51"/>
+      <c r="BH9" s="51"/>
+      <c r="BI9" s="51"/>
+      <c r="BJ9" s="52"/>
       <c r="BK9" s="2"/>
     </row>
     <row r="10" spans="1:63" ht="16.5" outlineLevel="1">
@@ -7694,8 +7501,8 @@
     </row>
     <row r="11" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="33" t="s">
-        <v>50</v>
+      <c r="B11" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -7763,870 +7570,870 @@
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="36"/>
-      <c r="AL12" s="36"/>
-      <c r="AM12" s="36"/>
-      <c r="AN12" s="36"/>
-      <c r="AO12" s="36"/>
-      <c r="AP12" s="36"/>
-      <c r="AQ12" s="36"/>
-      <c r="AR12" s="36"/>
-      <c r="AS12" s="36"/>
-      <c r="AT12" s="36"/>
-      <c r="AU12" s="36"/>
-      <c r="AV12" s="36"/>
-      <c r="AW12" s="36"/>
-      <c r="AX12" s="36"/>
-      <c r="AY12" s="36"/>
-      <c r="AZ12" s="36"/>
-      <c r="BA12" s="36"/>
-      <c r="BB12" s="36"/>
-      <c r="BC12" s="36"/>
-      <c r="BD12" s="36"/>
-      <c r="BE12" s="36"/>
-      <c r="BF12" s="36"/>
-      <c r="BG12" s="36"/>
-      <c r="BH12" s="36"/>
-      <c r="BI12" s="36"/>
-      <c r="BJ12" s="37"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="33"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="33"/>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="33"/>
+      <c r="AO12" s="33"/>
+      <c r="AP12" s="33"/>
+      <c r="AQ12" s="33"/>
+      <c r="AR12" s="33"/>
+      <c r="AS12" s="33"/>
+      <c r="AT12" s="33"/>
+      <c r="AU12" s="33"/>
+      <c r="AV12" s="33"/>
+      <c r="AW12" s="33"/>
+      <c r="AX12" s="33"/>
+      <c r="AY12" s="33"/>
+      <c r="AZ12" s="33"/>
+      <c r="BA12" s="33"/>
+      <c r="BB12" s="33"/>
+      <c r="BC12" s="33"/>
+      <c r="BD12" s="33"/>
+      <c r="BE12" s="33"/>
+      <c r="BF12" s="33"/>
+      <c r="BG12" s="33"/>
+      <c r="BH12" s="33"/>
+      <c r="BI12" s="33"/>
+      <c r="BJ12" s="34"/>
       <c r="BK12" s="2"/>
     </row>
     <row r="13" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="82" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="82" t="s">
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="55"/>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="82" t="s">
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="AD13" s="55"/>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="55"/>
-      <c r="AG13" s="55"/>
-      <c r="AH13" s="56"/>
-      <c r="AI13" s="83" t="s">
-        <v>52</v>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="76" t="s">
+        <v>51</v>
       </c>
-      <c r="AJ13" s="80"/>
-      <c r="AK13" s="80"/>
-      <c r="AL13" s="80"/>
-      <c r="AM13" s="80"/>
-      <c r="AN13" s="80"/>
-      <c r="AO13" s="80"/>
-      <c r="AP13" s="80"/>
-      <c r="AQ13" s="80"/>
-      <c r="AR13" s="80"/>
-      <c r="AS13" s="80"/>
-      <c r="AT13" s="80"/>
-      <c r="AU13" s="80"/>
-      <c r="AV13" s="80"/>
-      <c r="AW13" s="80"/>
-      <c r="AX13" s="80"/>
-      <c r="AY13" s="80"/>
-      <c r="AZ13" s="80"/>
-      <c r="BA13" s="80"/>
-      <c r="BB13" s="80"/>
-      <c r="BC13" s="80"/>
-      <c r="BD13" s="80"/>
-      <c r="BE13" s="80"/>
-      <c r="BF13" s="80"/>
-      <c r="BG13" s="80"/>
-      <c r="BH13" s="80"/>
-      <c r="BI13" s="80"/>
-      <c r="BJ13" s="81"/>
+      <c r="AJ13" s="73"/>
+      <c r="AK13" s="73"/>
+      <c r="AL13" s="73"/>
+      <c r="AM13" s="73"/>
+      <c r="AN13" s="73"/>
+      <c r="AO13" s="73"/>
+      <c r="AP13" s="73"/>
+      <c r="AQ13" s="73"/>
+      <c r="AR13" s="73"/>
+      <c r="AS13" s="73"/>
+      <c r="AT13" s="73"/>
+      <c r="AU13" s="73"/>
+      <c r="AV13" s="73"/>
+      <c r="AW13" s="73"/>
+      <c r="AX13" s="73"/>
+      <c r="AY13" s="73"/>
+      <c r="AZ13" s="73"/>
+      <c r="BA13" s="73"/>
+      <c r="BB13" s="73"/>
+      <c r="BC13" s="73"/>
+      <c r="BD13" s="73"/>
+      <c r="BE13" s="73"/>
+      <c r="BF13" s="73"/>
+      <c r="BG13" s="73"/>
+      <c r="BH13" s="73"/>
+      <c r="BI13" s="73"/>
+      <c r="BJ13" s="74"/>
       <c r="BK13" s="2"/>
     </row>
     <row r="14" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="78" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="78" t="s">
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="52"/>
+      <c r="AI14" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="55"/>
-      <c r="AH14" s="56"/>
-      <c r="AI14" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ14" s="55"/>
-      <c r="AK14" s="55"/>
-      <c r="AL14" s="55"/>
-      <c r="AM14" s="55"/>
-      <c r="AN14" s="55"/>
-      <c r="AO14" s="55"/>
-      <c r="AP14" s="55"/>
-      <c r="AQ14" s="55"/>
-      <c r="AR14" s="55"/>
-      <c r="AS14" s="55"/>
-      <c r="AT14" s="55"/>
-      <c r="AU14" s="55"/>
-      <c r="AV14" s="55"/>
-      <c r="AW14" s="55"/>
-      <c r="AX14" s="55"/>
-      <c r="AY14" s="55"/>
-      <c r="AZ14" s="55"/>
-      <c r="BA14" s="55"/>
-      <c r="BB14" s="55"/>
-      <c r="BC14" s="55"/>
-      <c r="BD14" s="55"/>
-      <c r="BE14" s="55"/>
-      <c r="BF14" s="55"/>
-      <c r="BG14" s="55"/>
-      <c r="BH14" s="55"/>
-      <c r="BI14" s="55"/>
-      <c r="BJ14" s="56"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="51"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
+      <c r="AQ14" s="51"/>
+      <c r="AR14" s="51"/>
+      <c r="AS14" s="51"/>
+      <c r="AT14" s="51"/>
+      <c r="AU14" s="51"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="51"/>
+      <c r="AX14" s="51"/>
+      <c r="AY14" s="51"/>
+      <c r="AZ14" s="51"/>
+      <c r="BA14" s="51"/>
+      <c r="BB14" s="51"/>
+      <c r="BC14" s="51"/>
+      <c r="BD14" s="51"/>
+      <c r="BE14" s="51"/>
+      <c r="BF14" s="51"/>
+      <c r="BG14" s="51"/>
+      <c r="BH14" s="51"/>
+      <c r="BI14" s="51"/>
+      <c r="BJ14" s="52"/>
       <c r="BK14" s="2"/>
     </row>
     <row r="15" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="79" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="80"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="78" t="s">
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="52"/>
+      <c r="AI15" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="55"/>
-      <c r="AA15" s="55"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="55"/>
-      <c r="AF15" s="55"/>
-      <c r="AG15" s="55"/>
-      <c r="AH15" s="56"/>
-      <c r="AI15" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ15" s="55"/>
-      <c r="AK15" s="55"/>
-      <c r="AL15" s="55"/>
-      <c r="AM15" s="55"/>
-      <c r="AN15" s="55"/>
-      <c r="AO15" s="55"/>
-      <c r="AP15" s="55"/>
-      <c r="AQ15" s="55"/>
-      <c r="AR15" s="55"/>
-      <c r="AS15" s="55"/>
-      <c r="AT15" s="55"/>
-      <c r="AU15" s="55"/>
-      <c r="AV15" s="55"/>
-      <c r="AW15" s="55"/>
-      <c r="AX15" s="55"/>
-      <c r="AY15" s="55"/>
-      <c r="AZ15" s="55"/>
-      <c r="BA15" s="55"/>
-      <c r="BB15" s="55"/>
-      <c r="BC15" s="55"/>
-      <c r="BD15" s="55"/>
-      <c r="BE15" s="55"/>
-      <c r="BF15" s="55"/>
-      <c r="BG15" s="55"/>
-      <c r="BH15" s="55"/>
-      <c r="BI15" s="55"/>
-      <c r="BJ15" s="56"/>
+      <c r="AJ15" s="51"/>
+      <c r="AK15" s="51"/>
+      <c r="AL15" s="51"/>
+      <c r="AM15" s="51"/>
+      <c r="AN15" s="51"/>
+      <c r="AO15" s="51"/>
+      <c r="AP15" s="51"/>
+      <c r="AQ15" s="51"/>
+      <c r="AR15" s="51"/>
+      <c r="AS15" s="51"/>
+      <c r="AT15" s="51"/>
+      <c r="AU15" s="51"/>
+      <c r="AV15" s="51"/>
+      <c r="AW15" s="51"/>
+      <c r="AX15" s="51"/>
+      <c r="AY15" s="51"/>
+      <c r="AZ15" s="51"/>
+      <c r="BA15" s="51"/>
+      <c r="BB15" s="51"/>
+      <c r="BC15" s="51"/>
+      <c r="BD15" s="51"/>
+      <c r="BE15" s="51"/>
+      <c r="BF15" s="51"/>
+      <c r="BG15" s="51"/>
+      <c r="BH15" s="51"/>
+      <c r="BI15" s="51"/>
+      <c r="BJ15" s="52"/>
       <c r="BK15" s="2"/>
     </row>
     <row r="16" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="79" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="81"/>
-      <c r="W16" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="55"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD16" s="55"/>
-      <c r="AE16" s="55"/>
-      <c r="AF16" s="55"/>
-      <c r="AG16" s="55"/>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ16" s="55"/>
-      <c r="AK16" s="55"/>
-      <c r="AL16" s="55"/>
-      <c r="AM16" s="55"/>
-      <c r="AN16" s="55"/>
-      <c r="AO16" s="55"/>
-      <c r="AP16" s="55"/>
-      <c r="AQ16" s="55"/>
-      <c r="AR16" s="55"/>
-      <c r="AS16" s="55"/>
-      <c r="AT16" s="55"/>
-      <c r="AU16" s="55"/>
-      <c r="AV16" s="55"/>
-      <c r="AW16" s="55"/>
-      <c r="AX16" s="55"/>
-      <c r="AY16" s="55"/>
-      <c r="AZ16" s="55"/>
-      <c r="BA16" s="55"/>
-      <c r="BB16" s="55"/>
-      <c r="BC16" s="55"/>
-      <c r="BD16" s="55"/>
-      <c r="BE16" s="55"/>
-      <c r="BF16" s="55"/>
-      <c r="BG16" s="55"/>
-      <c r="BH16" s="55"/>
-      <c r="BI16" s="55"/>
-      <c r="BJ16" s="56"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="51"/>
+      <c r="AM16" s="51"/>
+      <c r="AN16" s="51"/>
+      <c r="AO16" s="51"/>
+      <c r="AP16" s="51"/>
+      <c r="AQ16" s="51"/>
+      <c r="AR16" s="51"/>
+      <c r="AS16" s="51"/>
+      <c r="AT16" s="51"/>
+      <c r="AU16" s="51"/>
+      <c r="AV16" s="51"/>
+      <c r="AW16" s="51"/>
+      <c r="AX16" s="51"/>
+      <c r="AY16" s="51"/>
+      <c r="AZ16" s="51"/>
+      <c r="BA16" s="51"/>
+      <c r="BB16" s="51"/>
+      <c r="BC16" s="51"/>
+      <c r="BD16" s="51"/>
+      <c r="BE16" s="51"/>
+      <c r="BF16" s="51"/>
+      <c r="BG16" s="51"/>
+      <c r="BH16" s="51"/>
+      <c r="BI16" s="51"/>
+      <c r="BJ16" s="52"/>
       <c r="BK16" s="2"/>
     </row>
     <row r="17" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="79" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="80"/>
-      <c r="T17" s="80"/>
-      <c r="U17" s="80"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="55"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD17" s="55"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="55"/>
-      <c r="AG17" s="55"/>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ17" s="55"/>
-      <c r="AK17" s="55"/>
-      <c r="AL17" s="55"/>
-      <c r="AM17" s="55"/>
-      <c r="AN17" s="55"/>
-      <c r="AO17" s="55"/>
-      <c r="AP17" s="55"/>
-      <c r="AQ17" s="55"/>
-      <c r="AR17" s="55"/>
-      <c r="AS17" s="55"/>
-      <c r="AT17" s="55"/>
-      <c r="AU17" s="55"/>
-      <c r="AV17" s="55"/>
-      <c r="AW17" s="55"/>
-      <c r="AX17" s="55"/>
-      <c r="AY17" s="55"/>
-      <c r="AZ17" s="55"/>
-      <c r="BA17" s="55"/>
-      <c r="BB17" s="55"/>
-      <c r="BC17" s="55"/>
-      <c r="BD17" s="55"/>
-      <c r="BE17" s="55"/>
-      <c r="BF17" s="55"/>
-      <c r="BG17" s="55"/>
-      <c r="BH17" s="55"/>
-      <c r="BI17" s="55"/>
-      <c r="BJ17" s="56"/>
+      <c r="AJ17" s="51"/>
+      <c r="AK17" s="51"/>
+      <c r="AL17" s="51"/>
+      <c r="AM17" s="51"/>
+      <c r="AN17" s="51"/>
+      <c r="AO17" s="51"/>
+      <c r="AP17" s="51"/>
+      <c r="AQ17" s="51"/>
+      <c r="AR17" s="51"/>
+      <c r="AS17" s="51"/>
+      <c r="AT17" s="51"/>
+      <c r="AU17" s="51"/>
+      <c r="AV17" s="51"/>
+      <c r="AW17" s="51"/>
+      <c r="AX17" s="51"/>
+      <c r="AY17" s="51"/>
+      <c r="AZ17" s="51"/>
+      <c r="BA17" s="51"/>
+      <c r="BB17" s="51"/>
+      <c r="BC17" s="51"/>
+      <c r="BD17" s="51"/>
+      <c r="BE17" s="51"/>
+      <c r="BF17" s="51"/>
+      <c r="BG17" s="51"/>
+      <c r="BH17" s="51"/>
+      <c r="BI17" s="51"/>
+      <c r="BJ17" s="52"/>
       <c r="BK17" s="2"/>
     </row>
     <row r="18" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="79" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="80"/>
-      <c r="R18" s="80"/>
-      <c r="S18" s="80"/>
-      <c r="T18" s="80"/>
-      <c r="U18" s="80"/>
-      <c r="V18" s="81"/>
-      <c r="W18" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="X18" s="55"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="55"/>
-      <c r="AA18" s="55"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD18" s="55"/>
-      <c r="AE18" s="55"/>
-      <c r="AF18" s="55"/>
-      <c r="AG18" s="55"/>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ18" s="55"/>
-      <c r="AK18" s="55"/>
-      <c r="AL18" s="55"/>
-      <c r="AM18" s="55"/>
-      <c r="AN18" s="55"/>
-      <c r="AO18" s="55"/>
-      <c r="AP18" s="55"/>
-      <c r="AQ18" s="55"/>
-      <c r="AR18" s="55"/>
-      <c r="AS18" s="55"/>
-      <c r="AT18" s="55"/>
-      <c r="AU18" s="55"/>
-      <c r="AV18" s="55"/>
-      <c r="AW18" s="55"/>
-      <c r="AX18" s="55"/>
-      <c r="AY18" s="55"/>
-      <c r="AZ18" s="55"/>
-      <c r="BA18" s="55"/>
-      <c r="BB18" s="55"/>
-      <c r="BC18" s="55"/>
-      <c r="BD18" s="55"/>
-      <c r="BE18" s="55"/>
-      <c r="BF18" s="55"/>
-      <c r="BG18" s="55"/>
-      <c r="BH18" s="55"/>
-      <c r="BI18" s="55"/>
-      <c r="BJ18" s="56"/>
+      <c r="AJ18" s="51"/>
+      <c r="AK18" s="51"/>
+      <c r="AL18" s="51"/>
+      <c r="AM18" s="51"/>
+      <c r="AN18" s="51"/>
+      <c r="AO18" s="51"/>
+      <c r="AP18" s="51"/>
+      <c r="AQ18" s="51"/>
+      <c r="AR18" s="51"/>
+      <c r="AS18" s="51"/>
+      <c r="AT18" s="51"/>
+      <c r="AU18" s="51"/>
+      <c r="AV18" s="51"/>
+      <c r="AW18" s="51"/>
+      <c r="AX18" s="51"/>
+      <c r="AY18" s="51"/>
+      <c r="AZ18" s="51"/>
+      <c r="BA18" s="51"/>
+      <c r="BB18" s="51"/>
+      <c r="BC18" s="51"/>
+      <c r="BD18" s="51"/>
+      <c r="BE18" s="51"/>
+      <c r="BF18" s="51"/>
+      <c r="BG18" s="51"/>
+      <c r="BH18" s="51"/>
+      <c r="BI18" s="51"/>
+      <c r="BJ18" s="52"/>
       <c r="BK18" s="2"/>
     </row>
     <row r="19" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="78" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="78" t="s">
+      <c r="AJ19" s="51"/>
+      <c r="AK19" s="51"/>
+      <c r="AL19" s="51"/>
+      <c r="AM19" s="51"/>
+      <c r="AN19" s="51"/>
+      <c r="AO19" s="51"/>
+      <c r="AP19" s="51"/>
+      <c r="AQ19" s="51"/>
+      <c r="AR19" s="51"/>
+      <c r="AS19" s="51"/>
+      <c r="AT19" s="51"/>
+      <c r="AU19" s="51"/>
+      <c r="AV19" s="51"/>
+      <c r="AW19" s="51"/>
+      <c r="AX19" s="51"/>
+      <c r="AY19" s="51"/>
+      <c r="AZ19" s="51"/>
+      <c r="BA19" s="51"/>
+      <c r="BB19" s="51"/>
+      <c r="BC19" s="51"/>
+      <c r="BD19" s="51"/>
+      <c r="BE19" s="51"/>
+      <c r="BF19" s="51"/>
+      <c r="BG19" s="51"/>
+      <c r="BH19" s="51"/>
+      <c r="BI19" s="51"/>
+      <c r="BJ19" s="52"/>
+      <c r="BK19" s="2"/>
+    </row>
+    <row r="20" spans="1:63" ht="16.5" outlineLevel="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="51"/>
+      <c r="AG20" s="51"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ20" s="51"/>
+      <c r="AK20" s="51"/>
+      <c r="AL20" s="51"/>
+      <c r="AM20" s="51"/>
+      <c r="AN20" s="51"/>
+      <c r="AO20" s="51"/>
+      <c r="AP20" s="51"/>
+      <c r="AQ20" s="51"/>
+      <c r="AR20" s="51"/>
+      <c r="AS20" s="51"/>
+      <c r="AT20" s="51"/>
+      <c r="AU20" s="51"/>
+      <c r="AV20" s="51"/>
+      <c r="AW20" s="51"/>
+      <c r="AX20" s="51"/>
+      <c r="AY20" s="51"/>
+      <c r="AZ20" s="51"/>
+      <c r="BA20" s="51"/>
+      <c r="BB20" s="51"/>
+      <c r="BC20" s="51"/>
+      <c r="BD20" s="51"/>
+      <c r="BE20" s="51"/>
+      <c r="BF20" s="51"/>
+      <c r="BG20" s="51"/>
+      <c r="BH20" s="51"/>
+      <c r="BI20" s="51"/>
+      <c r="BJ20" s="52"/>
+      <c r="BK20" s="4"/>
+    </row>
+    <row r="21" spans="1:63" ht="16.5" outlineLevel="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="55"/>
-      <c r="AA19" s="55"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="78" t="s">
-        <v>54</v>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="51"/>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="71" t="s">
+        <v>53</v>
       </c>
-      <c r="AD19" s="55"/>
-      <c r="AE19" s="55"/>
-      <c r="AF19" s="55"/>
-      <c r="AG19" s="55"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="78" t="s">
-        <v>66</v>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="51"/>
+      <c r="AG21" s="51"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="71" t="s">
+        <v>69</v>
       </c>
-      <c r="AJ19" s="55"/>
-      <c r="AK19" s="55"/>
-      <c r="AL19" s="55"/>
-      <c r="AM19" s="55"/>
-      <c r="AN19" s="55"/>
-      <c r="AO19" s="55"/>
-      <c r="AP19" s="55"/>
-      <c r="AQ19" s="55"/>
-      <c r="AR19" s="55"/>
-      <c r="AS19" s="55"/>
-      <c r="AT19" s="55"/>
-      <c r="AU19" s="55"/>
-      <c r="AV19" s="55"/>
-      <c r="AW19" s="55"/>
-      <c r="AX19" s="55"/>
-      <c r="AY19" s="55"/>
-      <c r="AZ19" s="55"/>
-      <c r="BA19" s="55"/>
-      <c r="BB19" s="55"/>
-      <c r="BC19" s="55"/>
-      <c r="BD19" s="55"/>
-      <c r="BE19" s="55"/>
-      <c r="BF19" s="55"/>
-      <c r="BG19" s="55"/>
-      <c r="BH19" s="55"/>
-      <c r="BI19" s="55"/>
-      <c r="BJ19" s="56"/>
-      <c r="BK19" s="2"/>
-    </row>
-    <row r="20" spans="1:63" ht="16.5" outlineLevel="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="78" t="s">
+      <c r="AJ21" s="51"/>
+      <c r="AK21" s="51"/>
+      <c r="AL21" s="51"/>
+      <c r="AM21" s="51"/>
+      <c r="AN21" s="51"/>
+      <c r="AO21" s="51"/>
+      <c r="AP21" s="51"/>
+      <c r="AQ21" s="51"/>
+      <c r="AR21" s="51"/>
+      <c r="AS21" s="51"/>
+      <c r="AT21" s="51"/>
+      <c r="AU21" s="51"/>
+      <c r="AV21" s="51"/>
+      <c r="AW21" s="51"/>
+      <c r="AX21" s="51"/>
+      <c r="AY21" s="51"/>
+      <c r="AZ21" s="51"/>
+      <c r="BA21" s="51"/>
+      <c r="BB21" s="51"/>
+      <c r="BC21" s="51"/>
+      <c r="BD21" s="51"/>
+      <c r="BE21" s="51"/>
+      <c r="BF21" s="51"/>
+      <c r="BG21" s="51"/>
+      <c r="BH21" s="51"/>
+      <c r="BI21" s="51"/>
+      <c r="BJ21" s="52"/>
+      <c r="BK21" s="4"/>
+    </row>
+    <row r="22" spans="1:63" ht="16.5" outlineLevel="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="78" t="s">
-        <v>68</v>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="71" t="s">
+        <v>53</v>
       </c>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="55"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD20" s="55"/>
-      <c r="AE20" s="55"/>
-      <c r="AF20" s="55"/>
-      <c r="AG20" s="55"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ20" s="55"/>
-      <c r="AK20" s="55"/>
-      <c r="AL20" s="55"/>
-      <c r="AM20" s="55"/>
-      <c r="AN20" s="55"/>
-      <c r="AO20" s="55"/>
-      <c r="AP20" s="55"/>
-      <c r="AQ20" s="55"/>
-      <c r="AR20" s="55"/>
-      <c r="AS20" s="55"/>
-      <c r="AT20" s="55"/>
-      <c r="AU20" s="55"/>
-      <c r="AV20" s="55"/>
-      <c r="AW20" s="55"/>
-      <c r="AX20" s="55"/>
-      <c r="AY20" s="55"/>
-      <c r="AZ20" s="55"/>
-      <c r="BA20" s="55"/>
-      <c r="BB20" s="55"/>
-      <c r="BC20" s="55"/>
-      <c r="BD20" s="55"/>
-      <c r="BE20" s="55"/>
-      <c r="BF20" s="55"/>
-      <c r="BG20" s="55"/>
-      <c r="BH20" s="55"/>
-      <c r="BI20" s="55"/>
-      <c r="BJ20" s="56"/>
-      <c r="BK20" s="4"/>
-    </row>
-    <row r="21" spans="1:63" ht="16.5" outlineLevel="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="78" t="s">
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="52"/>
+      <c r="AI22" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD21" s="55"/>
-      <c r="AE21" s="55"/>
-      <c r="AF21" s="55"/>
-      <c r="AG21" s="55"/>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ21" s="55"/>
-      <c r="AK21" s="55"/>
-      <c r="AL21" s="55"/>
-      <c r="AM21" s="55"/>
-      <c r="AN21" s="55"/>
-      <c r="AO21" s="55"/>
-      <c r="AP21" s="55"/>
-      <c r="AQ21" s="55"/>
-      <c r="AR21" s="55"/>
-      <c r="AS21" s="55"/>
-      <c r="AT21" s="55"/>
-      <c r="AU21" s="55"/>
-      <c r="AV21" s="55"/>
-      <c r="AW21" s="55"/>
-      <c r="AX21" s="55"/>
-      <c r="AY21" s="55"/>
-      <c r="AZ21" s="55"/>
-      <c r="BA21" s="55"/>
-      <c r="BB21" s="55"/>
-      <c r="BC21" s="55"/>
-      <c r="BD21" s="55"/>
-      <c r="BE21" s="55"/>
-      <c r="BF21" s="55"/>
-      <c r="BG21" s="55"/>
-      <c r="BH21" s="55"/>
-      <c r="BI21" s="55"/>
-      <c r="BJ21" s="56"/>
-      <c r="BK21" s="4"/>
-    </row>
-    <row r="22" spans="1:63" ht="16.5" outlineLevel="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="55"/>
-      <c r="AA22" s="55"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD22" s="55"/>
-      <c r="AE22" s="55"/>
-      <c r="AF22" s="55"/>
-      <c r="AG22" s="55"/>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ22" s="55"/>
-      <c r="AK22" s="55"/>
-      <c r="AL22" s="55"/>
-      <c r="AM22" s="55"/>
-      <c r="AN22" s="55"/>
-      <c r="AO22" s="55"/>
-      <c r="AP22" s="55"/>
-      <c r="AQ22" s="55"/>
-      <c r="AR22" s="55"/>
-      <c r="AS22" s="55"/>
-      <c r="AT22" s="55"/>
-      <c r="AU22" s="55"/>
-      <c r="AV22" s="55"/>
-      <c r="AW22" s="55"/>
-      <c r="AX22" s="55"/>
-      <c r="AY22" s="55"/>
-      <c r="AZ22" s="55"/>
-      <c r="BA22" s="55"/>
-      <c r="BB22" s="55"/>
-      <c r="BC22" s="55"/>
-      <c r="BD22" s="55"/>
-      <c r="BE22" s="55"/>
-      <c r="BF22" s="55"/>
-      <c r="BG22" s="55"/>
-      <c r="BH22" s="55"/>
-      <c r="BI22" s="55"/>
-      <c r="BJ22" s="56"/>
+      <c r="AJ22" s="51"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="51"/>
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="51"/>
+      <c r="AO22" s="51"/>
+      <c r="AP22" s="51"/>
+      <c r="AQ22" s="51"/>
+      <c r="AR22" s="51"/>
+      <c r="AS22" s="51"/>
+      <c r="AT22" s="51"/>
+      <c r="AU22" s="51"/>
+      <c r="AV22" s="51"/>
+      <c r="AW22" s="51"/>
+      <c r="AX22" s="51"/>
+      <c r="AY22" s="51"/>
+      <c r="AZ22" s="51"/>
+      <c r="BA22" s="51"/>
+      <c r="BB22" s="51"/>
+      <c r="BC22" s="51"/>
+      <c r="BD22" s="51"/>
+      <c r="BE22" s="51"/>
+      <c r="BF22" s="51"/>
+      <c r="BG22" s="51"/>
+      <c r="BH22" s="51"/>
+      <c r="BI22" s="51"/>
+      <c r="BJ22" s="52"/>
       <c r="BK22" s="4"/>
     </row>
     <row r="23" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="78" t="s">
-        <v>73</v>
+      <c r="C23" s="37"/>
+      <c r="D23" s="71" t="s">
+        <v>71</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="78" t="s">
-        <v>68</v>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="71" t="s">
+        <v>67</v>
       </c>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="55"/>
-      <c r="AA23" s="55"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="78" t="s">
-        <v>54</v>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="71" t="s">
+        <v>53</v>
       </c>
-      <c r="AD23" s="55"/>
-      <c r="AE23" s="55"/>
-      <c r="AF23" s="55"/>
-      <c r="AG23" s="55"/>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="78" t="s">
-        <v>74</v>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="51"/>
+      <c r="AH23" s="52"/>
+      <c r="AI23" s="71" t="s">
+        <v>72</v>
       </c>
-      <c r="AJ23" s="55"/>
-      <c r="AK23" s="55"/>
-      <c r="AL23" s="55"/>
-      <c r="AM23" s="55"/>
-      <c r="AN23" s="55"/>
-      <c r="AO23" s="55"/>
-      <c r="AP23" s="55"/>
-      <c r="AQ23" s="55"/>
-      <c r="AR23" s="55"/>
-      <c r="AS23" s="55"/>
-      <c r="AT23" s="55"/>
-      <c r="AU23" s="55"/>
-      <c r="AV23" s="55"/>
-      <c r="AW23" s="55"/>
-      <c r="AX23" s="55"/>
-      <c r="AY23" s="55"/>
-      <c r="AZ23" s="55"/>
-      <c r="BA23" s="55"/>
-      <c r="BB23" s="55"/>
-      <c r="BC23" s="55"/>
-      <c r="BD23" s="55"/>
-      <c r="BE23" s="55"/>
-      <c r="BF23" s="55"/>
-      <c r="BG23" s="55"/>
-      <c r="BH23" s="55"/>
-      <c r="BI23" s="55"/>
-      <c r="BJ23" s="56"/>
+      <c r="AJ23" s="51"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="51"/>
+      <c r="AM23" s="51"/>
+      <c r="AN23" s="51"/>
+      <c r="AO23" s="51"/>
+      <c r="AP23" s="51"/>
+      <c r="AQ23" s="51"/>
+      <c r="AR23" s="51"/>
+      <c r="AS23" s="51"/>
+      <c r="AT23" s="51"/>
+      <c r="AU23" s="51"/>
+      <c r="AV23" s="51"/>
+      <c r="AW23" s="51"/>
+      <c r="AX23" s="51"/>
+      <c r="AY23" s="51"/>
+      <c r="AZ23" s="51"/>
+      <c r="BA23" s="51"/>
+      <c r="BB23" s="51"/>
+      <c r="BC23" s="51"/>
+      <c r="BD23" s="51"/>
+      <c r="BE23" s="51"/>
+      <c r="BF23" s="51"/>
+      <c r="BG23" s="51"/>
+      <c r="BH23" s="51"/>
+      <c r="BI23" s="51"/>
+      <c r="BJ23" s="52"/>
       <c r="BK23" s="2"/>
     </row>
     <row r="24" spans="1:63" ht="16.5">
@@ -8793,371 +8600,371 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="47" t="s">
-        <v>75</v>
+      <c r="A1" s="43" t="s">
+        <v>73</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>54</v>
+      <c r="C1" s="44" t="s">
+        <v>53</v>
       </c>
-      <c r="D1" s="49" t="s">
-        <v>76</v>
+      <c r="D1" s="45" t="s">
+        <v>74</v>
       </c>
-      <c r="E1" s="41"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="42" t="s">
-        <v>77</v>
+      <c r="A2" s="39" t="s">
+        <v>75</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>57</v>
+      <c r="B2" s="39" t="s">
+        <v>56</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>78</v>
+      <c r="D2" s="47" t="s">
+        <v>76</v>
       </c>
-      <c r="E2" s="42"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="D3" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="42"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="42"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="42"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="42" t="s">
-        <v>89</v>
+      <c r="A6" s="39" t="s">
+        <v>87</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>90</v>
+      <c r="B6" s="39" t="s">
+        <v>88</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="42"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42" t="s">
-        <v>91</v>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39" t="s">
+        <v>89</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="42"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42" t="s">
-        <v>92</v>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39" t="s">
+        <v>90</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="42"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42" t="s">
-        <v>93</v>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39" t="s">
+        <v>91</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="42"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42" t="s">
-        <v>96</v>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39" t="s">
+        <v>94</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="42"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42" t="s">
-        <v>97</v>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39" t="s">
+        <v>95</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="42"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42" t="s">
-        <v>94</v>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39" t="s">
+        <v>92</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="42"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42" t="s">
-        <v>95</v>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39" t="s">
+        <v>93</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="42"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42" t="s">
-        <v>118</v>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39" t="s">
+        <v>110</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="42"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42" t="s">
-        <v>119</v>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39" t="s">
+        <v>111</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="42"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42" t="s">
-        <v>68</v>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39" t="s">
+        <v>67</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="42"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42" t="s">
-        <v>120</v>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39" t="s">
+        <v>112</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="42"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42" t="s">
-        <v>121</v>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39" t="s">
+        <v>113</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="42"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42" t="s">
-        <v>122</v>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39" t="s">
+        <v>114</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="42"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42" t="s">
-        <v>123</v>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39" t="s">
+        <v>115</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="42"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42" t="s">
-        <v>124</v>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39" t="s">
+        <v>116</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="42"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42" t="s">
-        <v>125</v>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39" t="s">
+        <v>117</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="42"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42" t="s">
-        <v>126</v>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39" t="s">
+        <v>118</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="42"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="42"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="42"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="42"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="43"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="40"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>

--- a/ha-asset/01_design/03_batch/設計書_3.2.月次健康情報集計バッチ.xlsx
+++ b/ha-asset/01_design/03_batch/設計書_3.2.月次健康情報集計バッチ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\03_batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6AD6AE-96C0-4702-83C2-01CD87084FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9803D62B-9BF4-4096-A3F9-D5B3536EBD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="690" windowWidth="23730" windowHeight="17310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="122">
   <si>
     <t>更新日時</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>ユーザが登録した健康情報を指定年月で検索し、CSVに出力する</t>
-  </si>
-  <si>
-    <t>2.1.1.バッチ仕様</t>
   </si>
   <si>
     <t>バッチ</t>
@@ -111,9 +108,6 @@
     <t>△：任意</t>
   </si>
   <si>
-    <t>2.1.2.処理詳細</t>
-  </si>
-  <si>
     <t>処理概要</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
   </si>
   <si>
     <t>例外詳細</t>
-  </si>
-  <si>
-    <t>2.1.3.DB処理</t>
   </si>
   <si>
     <t>2.1.3.1.健康情報検索</t>
@@ -154,9 +145,6 @@
   </si>
   <si>
     <t>, SEQ_USER_ID ASC</t>
-  </si>
-  <si>
-    <t>2.1.4.備考</t>
   </si>
   <si>
     <t>3.1.1. 月次健康情報集計CSV</t>
@@ -807,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -918,24 +906,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -949,11 +924,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -961,22 +933,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -987,8 +964,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1210,7 +1201,9 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1350,7 +1343,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2"/>
-      <c r="B5" s="77">
+      <c r="B5" s="56">
         <v>44354</v>
       </c>
       <c r="C5" s="51"/>
@@ -1364,7 +1357,7 @@
       <c r="H5" s="51"/>
       <c r="I5" s="52"/>
       <c r="J5" s="50" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K5" s="51"/>
       <c r="L5" s="51"/>
@@ -2024,6 +2017,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -2033,66 +2086,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3716,7 +3709,7 @@
   </sheetPr>
   <dimension ref="A1:BP41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
@@ -3937,8 +3930,9 @@
       <c r="BP3" s="3"/>
     </row>
     <row r="4" spans="1:68" ht="16.5">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
+      <c r="A4" s="82" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"1.バッチ仕様"</f>
+        <v>2.1.1.バッチ仕様</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -4081,7 +4075,7 @@
     <row r="6" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A6" s="4"/>
       <c r="B6" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -4153,16 +4147,16 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="4"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
-        <v>9</v>
+      <c r="C7" s="68" t="s">
+        <v>8</v>
       </c>
       <c r="D7" s="51"/>
       <c r="E7" s="51"/>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
       <c r="H7" s="52"/>
-      <c r="I7" s="57" t="s">
-        <v>121</v>
+      <c r="I7" s="72" t="s">
+        <v>117</v>
       </c>
       <c r="J7" s="51"/>
       <c r="K7" s="51"/>
@@ -4227,16 +4221,16 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="17"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="56" t="s">
-        <v>10</v>
+      <c r="C8" s="68" t="s">
+        <v>9</v>
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
       <c r="H8" s="52"/>
-      <c r="I8" s="57" t="s">
-        <v>11</v>
+      <c r="I8" s="72" t="s">
+        <v>10</v>
       </c>
       <c r="J8" s="51"/>
       <c r="K8" s="51"/>
@@ -4301,16 +4295,16 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="4"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="56" t="s">
-        <v>12</v>
+      <c r="C9" s="68" t="s">
+        <v>11</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
       <c r="H9" s="52"/>
-      <c r="I9" s="57" t="s">
-        <v>13</v>
+      <c r="I9" s="72" t="s">
+        <v>12</v>
       </c>
       <c r="J9" s="51"/>
       <c r="K9" s="51"/>
@@ -4375,16 +4369,16 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="4"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="56" t="s">
-        <v>98</v>
+      <c r="C10" s="68" t="s">
+        <v>94</v>
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
       <c r="H10" s="52"/>
-      <c r="I10" s="57" t="s">
-        <v>14</v>
+      <c r="I10" s="72" t="s">
+        <v>13</v>
       </c>
       <c r="J10" s="51"/>
       <c r="K10" s="51"/>
@@ -4519,7 +4513,7 @@
     <row r="12" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A12" s="4"/>
       <c r="B12" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -4591,40 +4585,40 @@
     <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="4"/>
       <c r="B13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="69" t="s">
         <v>16</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>17</v>
       </c>
       <c r="D13" s="51"/>
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
       <c r="H13" s="52"/>
-      <c r="I13" s="58" t="s">
-        <v>18</v>
+      <c r="I13" s="69" t="s">
+        <v>17</v>
       </c>
       <c r="J13" s="51"/>
       <c r="K13" s="51"/>
       <c r="L13" s="51"/>
       <c r="M13" s="51"/>
       <c r="N13" s="52"/>
-      <c r="O13" s="58" t="s">
-        <v>19</v>
+      <c r="O13" s="69" t="s">
+        <v>18</v>
       </c>
       <c r="P13" s="51"/>
       <c r="Q13" s="51"/>
       <c r="R13" s="51"/>
       <c r="S13" s="51"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="58" t="s">
-        <v>119</v>
+      <c r="U13" s="69" t="s">
+        <v>115</v>
       </c>
       <c r="V13" s="51"/>
       <c r="W13" s="51"/>
       <c r="X13" s="52"/>
-      <c r="Y13" s="58" t="s">
-        <v>20</v>
+      <c r="Y13" s="69" t="s">
+        <v>19</v>
       </c>
       <c r="Z13" s="51"/>
       <c r="AA13" s="51"/>
@@ -4632,8 +4626,8 @@
       <c r="AC13" s="51"/>
       <c r="AD13" s="51"/>
       <c r="AE13" s="52"/>
-      <c r="AF13" s="58" t="s">
-        <v>21</v>
+      <c r="AF13" s="69" t="s">
+        <v>20</v>
       </c>
       <c r="AG13" s="51"/>
       <c r="AH13" s="51"/>
@@ -4677,38 +4671,38 @@
       <c r="B14" s="22">
         <v>1</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="78" t="s">
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="70" t="s">
         <v>23</v>
-      </c>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="59" t="s">
-        <v>24</v>
       </c>
       <c r="P14" s="51"/>
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
       <c r="S14" s="51"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="59">
+      <c r="U14" s="70">
         <v>6</v>
       </c>
       <c r="V14" s="51"/>
       <c r="W14" s="51"/>
       <c r="X14" s="52"/>
-      <c r="Y14" s="59" t="s">
-        <v>25</v>
+      <c r="Y14" s="70" t="s">
+        <v>24</v>
       </c>
       <c r="Z14" s="51"/>
       <c r="AA14" s="51"/>
@@ -4716,8 +4710,8 @@
       <c r="AC14" s="51"/>
       <c r="AD14" s="51"/>
       <c r="AE14" s="52"/>
-      <c r="AF14" s="81" t="s">
-        <v>122</v>
+      <c r="AF14" s="71" t="s">
+        <v>118</v>
       </c>
       <c r="AG14" s="51"/>
       <c r="AH14" s="51"/>
@@ -4827,8 +4821,9 @@
       <c r="BP15" s="3"/>
     </row>
     <row r="16" spans="1:68" ht="16.5">
-      <c r="A16" s="5" t="s">
-        <v>26</v>
+      <c r="A16" s="82" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"2.処理詳細"</f>
+        <v>2.1.2.処理詳細</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -4970,158 +4965,158 @@
     </row>
     <row r="18" spans="1:68" s="41" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A18" s="23"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="66" t="s">
+        <v>15</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="67"/>
+      <c r="AC18" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61" t="s">
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="67"/>
+      <c r="AF18" s="67"/>
+      <c r="AG18" s="67"/>
+      <c r="AH18" s="67"/>
+      <c r="AI18" s="67"/>
+      <c r="AJ18" s="67"/>
+      <c r="AK18" s="67"/>
+      <c r="AL18" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="61"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
-      <c r="AG18" s="61"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="61"/>
-      <c r="AJ18" s="61"/>
-      <c r="AK18" s="61"/>
-      <c r="AL18" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM18" s="61"/>
-      <c r="AN18" s="61"/>
-      <c r="AO18" s="61"/>
-      <c r="AP18" s="61"/>
-      <c r="AQ18" s="61"/>
-      <c r="AR18" s="61"/>
-      <c r="AS18" s="61"/>
-      <c r="AT18" s="61"/>
-      <c r="AU18" s="61"/>
-      <c r="AV18" s="61"/>
-      <c r="AW18" s="61"/>
-      <c r="AX18" s="61"/>
-      <c r="AY18" s="61"/>
-      <c r="AZ18" s="61"/>
-      <c r="BA18" s="61"/>
-      <c r="BB18" s="61"/>
-      <c r="BC18" s="61"/>
-      <c r="BD18" s="61"/>
-      <c r="BE18" s="61"/>
-      <c r="BF18" s="61"/>
-      <c r="BG18" s="61"/>
-      <c r="BH18" s="61"/>
-      <c r="BI18" s="61"/>
-      <c r="BJ18" s="61"/>
-      <c r="BK18" s="61"/>
-      <c r="BL18" s="61"/>
-      <c r="BM18" s="61"/>
-      <c r="BN18" s="61"/>
-      <c r="BO18" s="61"/>
+      <c r="AM18" s="67"/>
+      <c r="AN18" s="67"/>
+      <c r="AO18" s="67"/>
+      <c r="AP18" s="67"/>
+      <c r="AQ18" s="67"/>
+      <c r="AR18" s="67"/>
+      <c r="AS18" s="67"/>
+      <c r="AT18" s="67"/>
+      <c r="AU18" s="67"/>
+      <c r="AV18" s="67"/>
+      <c r="AW18" s="67"/>
+      <c r="AX18" s="67"/>
+      <c r="AY18" s="67"/>
+      <c r="AZ18" s="67"/>
+      <c r="BA18" s="67"/>
+      <c r="BB18" s="67"/>
+      <c r="BC18" s="67"/>
+      <c r="BD18" s="67"/>
+      <c r="BE18" s="67"/>
+      <c r="BF18" s="67"/>
+      <c r="BG18" s="67"/>
+      <c r="BH18" s="67"/>
+      <c r="BI18" s="67"/>
+      <c r="BJ18" s="67"/>
+      <c r="BK18" s="67"/>
+      <c r="BL18" s="67"/>
+      <c r="BM18" s="67"/>
+      <c r="BN18" s="67"/>
+      <c r="BO18" s="67"/>
       <c r="BP18" s="23"/>
     </row>
     <row r="19" spans="1:68" s="41" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A19" s="23"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="61"/>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="61"/>
-      <c r="AE19" s="61"/>
-      <c r="AF19" s="61"/>
-      <c r="AG19" s="61"/>
-      <c r="AH19" s="61"/>
-      <c r="AI19" s="61"/>
-      <c r="AJ19" s="61"/>
-      <c r="AK19" s="61"/>
-      <c r="AL19" s="61" t="s">
-        <v>99</v>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="67"/>
+      <c r="AC19" s="67"/>
+      <c r="AD19" s="67"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="67"/>
+      <c r="AG19" s="67"/>
+      <c r="AH19" s="67"/>
+      <c r="AI19" s="67"/>
+      <c r="AJ19" s="67"/>
+      <c r="AK19" s="67"/>
+      <c r="AL19" s="67" t="s">
+        <v>95</v>
       </c>
-      <c r="AM19" s="61"/>
-      <c r="AN19" s="61"/>
-      <c r="AO19" s="61"/>
-      <c r="AP19" s="61"/>
-      <c r="AQ19" s="61"/>
-      <c r="AR19" s="61"/>
-      <c r="AS19" s="61"/>
-      <c r="AT19" s="61"/>
-      <c r="AU19" s="61" t="s">
-        <v>100</v>
+      <c r="AM19" s="67"/>
+      <c r="AN19" s="67"/>
+      <c r="AO19" s="67"/>
+      <c r="AP19" s="67"/>
+      <c r="AQ19" s="67"/>
+      <c r="AR19" s="67"/>
+      <c r="AS19" s="67"/>
+      <c r="AT19" s="67"/>
+      <c r="AU19" s="67" t="s">
+        <v>96</v>
       </c>
-      <c r="AV19" s="61"/>
-      <c r="AW19" s="61"/>
-      <c r="AX19" s="61"/>
-      <c r="AY19" s="61"/>
-      <c r="AZ19" s="61" t="s">
-        <v>101</v>
+      <c r="AV19" s="67"/>
+      <c r="AW19" s="67"/>
+      <c r="AX19" s="67"/>
+      <c r="AY19" s="67"/>
+      <c r="AZ19" s="67" t="s">
+        <v>97</v>
       </c>
-      <c r="BA19" s="61"/>
-      <c r="BB19" s="61"/>
-      <c r="BC19" s="61"/>
-      <c r="BD19" s="61"/>
-      <c r="BE19" s="61"/>
-      <c r="BF19" s="61"/>
-      <c r="BG19" s="61"/>
-      <c r="BH19" s="61"/>
-      <c r="BI19" s="61"/>
-      <c r="BJ19" s="61"/>
-      <c r="BK19" s="61"/>
-      <c r="BL19" s="61"/>
-      <c r="BM19" s="61"/>
-      <c r="BN19" s="61"/>
-      <c r="BO19" s="61"/>
+      <c r="BA19" s="67"/>
+      <c r="BB19" s="67"/>
+      <c r="BC19" s="67"/>
+      <c r="BD19" s="67"/>
+      <c r="BE19" s="67"/>
+      <c r="BF19" s="67"/>
+      <c r="BG19" s="67"/>
+      <c r="BH19" s="67"/>
+      <c r="BI19" s="67"/>
+      <c r="BJ19" s="67"/>
+      <c r="BK19" s="67"/>
+      <c r="BL19" s="67"/>
+      <c r="BM19" s="67"/>
+      <c r="BN19" s="67"/>
+      <c r="BO19" s="67"/>
       <c r="BP19" s="23"/>
     </row>
     <row r="20" spans="1:68" s="41" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
@@ -5130,34 +5125,34 @@
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C20" s="63" t="s">
-        <v>103</v>
+      <c r="C20" s="58" t="s">
+        <v>99</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="61"/>
       <c r="AC20" s="62"/>
       <c r="AD20" s="62"/>
       <c r="AE20" s="62"/>
@@ -5168,7 +5163,7 @@
       <c r="AJ20" s="62"/>
       <c r="AK20" s="62"/>
       <c r="AL20" s="62" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AM20" s="62"/>
       <c r="AN20" s="62"/>
@@ -5178,29 +5173,29 @@
       <c r="AR20" s="62"/>
       <c r="AS20" s="62"/>
       <c r="AT20" s="62"/>
-      <c r="AU20" s="66"/>
-      <c r="AV20" s="66"/>
-      <c r="AW20" s="66"/>
-      <c r="AX20" s="66"/>
-      <c r="AY20" s="66"/>
-      <c r="AZ20" s="67" t="s">
-        <v>124</v>
+      <c r="AU20" s="61"/>
+      <c r="AV20" s="61"/>
+      <c r="AW20" s="61"/>
+      <c r="AX20" s="61"/>
+      <c r="AY20" s="61"/>
+      <c r="AZ20" s="57" t="s">
+        <v>120</v>
       </c>
-      <c r="BA20" s="67"/>
-      <c r="BB20" s="67"/>
-      <c r="BC20" s="67"/>
-      <c r="BD20" s="67"/>
-      <c r="BE20" s="67"/>
-      <c r="BF20" s="67"/>
-      <c r="BG20" s="67"/>
-      <c r="BH20" s="67"/>
-      <c r="BI20" s="67"/>
-      <c r="BJ20" s="67"/>
-      <c r="BK20" s="67"/>
-      <c r="BL20" s="67"/>
-      <c r="BM20" s="67"/>
-      <c r="BN20" s="67"/>
-      <c r="BO20" s="67"/>
+      <c r="BA20" s="57"/>
+      <c r="BB20" s="57"/>
+      <c r="BC20" s="57"/>
+      <c r="BD20" s="57"/>
+      <c r="BE20" s="57"/>
+      <c r="BF20" s="57"/>
+      <c r="BG20" s="57"/>
+      <c r="BH20" s="57"/>
+      <c r="BI20" s="57"/>
+      <c r="BJ20" s="57"/>
+      <c r="BK20" s="57"/>
+      <c r="BL20" s="57"/>
+      <c r="BM20" s="57"/>
+      <c r="BN20" s="57"/>
+      <c r="BO20" s="57"/>
       <c r="BP20" s="23"/>
     </row>
     <row r="21" spans="1:68" s="41" customFormat="1" ht="48.75" customHeight="1" outlineLevel="1">
@@ -5209,36 +5204,36 @@
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C21" s="69" t="s">
-        <v>102</v>
+      <c r="C21" s="63" t="s">
+        <v>98</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="66" t="s">
-        <v>96</v>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="61" t="s">
+        <v>92</v>
       </c>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="61"/>
       <c r="AC21" s="62"/>
       <c r="AD21" s="62"/>
       <c r="AE21" s="62"/>
@@ -5286,36 +5281,36 @@
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C22" s="68" t="s">
-        <v>104</v>
+      <c r="C22" s="65" t="s">
+        <v>100</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="66" t="s">
-        <v>105</v>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="61" t="s">
+        <v>101</v>
       </c>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="66"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="61"/>
       <c r="AC22" s="62"/>
       <c r="AD22" s="62"/>
       <c r="AE22" s="62"/>
@@ -5363,36 +5358,36 @@
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C23" s="66" t="s">
-        <v>106</v>
+      <c r="C23" s="61" t="s">
+        <v>102</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66" t="s">
-        <v>107</v>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61" t="s">
+        <v>103</v>
       </c>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="66"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="61"/>
       <c r="AC23" s="62"/>
       <c r="AD23" s="62"/>
       <c r="AE23" s="62"/>
@@ -5440,75 +5435,75 @@
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>5</v>
       </c>
-      <c r="C24" s="69" t="s">
-        <v>108</v>
+      <c r="C24" s="63" t="s">
+        <v>104</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69" t="s">
-        <v>109</v>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63" t="s">
+        <v>105</v>
       </c>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="69"/>
-      <c r="Z24" s="69"/>
-      <c r="AA24" s="69"/>
-      <c r="AB24" s="69"/>
-      <c r="AC24" s="70"/>
-      <c r="AD24" s="70"/>
-      <c r="AE24" s="70"/>
-      <c r="AF24" s="70"/>
-      <c r="AG24" s="70"/>
-      <c r="AH24" s="70"/>
-      <c r="AI24" s="70"/>
-      <c r="AJ24" s="70"/>
-      <c r="AK24" s="70"/>
-      <c r="AL24" s="70"/>
-      <c r="AM24" s="70"/>
-      <c r="AN24" s="70"/>
-      <c r="AO24" s="70"/>
-      <c r="AP24" s="70"/>
-      <c r="AQ24" s="70"/>
-      <c r="AR24" s="70"/>
-      <c r="AS24" s="70"/>
-      <c r="AT24" s="70"/>
-      <c r="AU24" s="70"/>
-      <c r="AV24" s="70"/>
-      <c r="AW24" s="70"/>
-      <c r="AX24" s="70"/>
-      <c r="AY24" s="70"/>
-      <c r="AZ24" s="70"/>
-      <c r="BA24" s="70"/>
-      <c r="BB24" s="70"/>
-      <c r="BC24" s="70"/>
-      <c r="BD24" s="70"/>
-      <c r="BE24" s="70"/>
-      <c r="BF24" s="70"/>
-      <c r="BG24" s="70"/>
-      <c r="BH24" s="70"/>
-      <c r="BI24" s="70"/>
-      <c r="BJ24" s="70"/>
-      <c r="BK24" s="70"/>
-      <c r="BL24" s="70"/>
-      <c r="BM24" s="70"/>
-      <c r="BN24" s="70"/>
-      <c r="BO24" s="70"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="63"/>
+      <c r="AC24" s="64"/>
+      <c r="AD24" s="64"/>
+      <c r="AE24" s="64"/>
+      <c r="AF24" s="64"/>
+      <c r="AG24" s="64"/>
+      <c r="AH24" s="64"/>
+      <c r="AI24" s="64"/>
+      <c r="AJ24" s="64"/>
+      <c r="AK24" s="64"/>
+      <c r="AL24" s="64"/>
+      <c r="AM24" s="64"/>
+      <c r="AN24" s="64"/>
+      <c r="AO24" s="64"/>
+      <c r="AP24" s="64"/>
+      <c r="AQ24" s="64"/>
+      <c r="AR24" s="64"/>
+      <c r="AS24" s="64"/>
+      <c r="AT24" s="64"/>
+      <c r="AU24" s="64"/>
+      <c r="AV24" s="64"/>
+      <c r="AW24" s="64"/>
+      <c r="AX24" s="64"/>
+      <c r="AY24" s="64"/>
+      <c r="AZ24" s="64"/>
+      <c r="BA24" s="64"/>
+      <c r="BB24" s="64"/>
+      <c r="BC24" s="64"/>
+      <c r="BD24" s="64"/>
+      <c r="BE24" s="64"/>
+      <c r="BF24" s="64"/>
+      <c r="BG24" s="64"/>
+      <c r="BH24" s="64"/>
+      <c r="BI24" s="64"/>
+      <c r="BJ24" s="64"/>
+      <c r="BK24" s="64"/>
+      <c r="BL24" s="64"/>
+      <c r="BM24" s="64"/>
+      <c r="BN24" s="64"/>
+      <c r="BO24" s="64"/>
       <c r="BP24" s="23"/>
     </row>
     <row r="25" spans="1:68" ht="16.5">
@@ -5582,8 +5577,9 @@
       <c r="BP25" s="3"/>
     </row>
     <row r="26" spans="1:68" ht="16.5">
-      <c r="A26" s="5" t="s">
-        <v>31</v>
+      <c r="A26" s="82" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"3.DB処理"</f>
+        <v>2.1.3.DB処理</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -5726,7 +5722,7 @@
     <row r="28" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A28" s="17"/>
       <c r="B28" s="24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -5799,7 +5795,7 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
@@ -5872,7 +5868,7 @@
       <c r="B30" s="4"/>
       <c r="C30" s="27"/>
       <c r="D30" s="26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
@@ -5943,7 +5939,7 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
@@ -6016,7 +6012,7 @@
       <c r="B32" s="4"/>
       <c r="C32" s="27"/>
       <c r="D32" s="26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
@@ -6087,7 +6083,7 @@
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
@@ -6160,7 +6156,7 @@
       <c r="B34" s="4"/>
       <c r="C34" s="27"/>
       <c r="D34" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
@@ -6231,7 +6227,7 @@
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="27"/>
@@ -6304,7 +6300,7 @@
       <c r="B36" s="4"/>
       <c r="C36" s="27"/>
       <c r="D36" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
@@ -6376,7 +6372,7 @@
       <c r="B37" s="4"/>
       <c r="C37" s="27"/>
       <c r="D37" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E37" s="27"/>
       <c r="F37" s="27"/>
@@ -6514,8 +6510,9 @@
       <c r="BP38" s="3"/>
     </row>
     <row r="39" spans="1:68" ht="16.5">
-      <c r="A39" s="5" t="s">
-        <v>41</v>
+      <c r="A39" s="82" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"4.備考"</f>
+        <v>2.1.4.備考</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -6727,44 +6724,12 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="AZ20:BO20"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="L20:AB20"/>
-    <mergeCell ref="AC20:AK20"/>
-    <mergeCell ref="AL20:AT20"/>
-    <mergeCell ref="AU20:AY20"/>
-    <mergeCell ref="AZ23:BO23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="L24:AB24"/>
-    <mergeCell ref="AC24:AK24"/>
-    <mergeCell ref="AL24:AT24"/>
-    <mergeCell ref="AU24:AY24"/>
-    <mergeCell ref="AZ24:BO24"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="L23:AB23"/>
-    <mergeCell ref="AC23:AK23"/>
-    <mergeCell ref="AL23:AT23"/>
-    <mergeCell ref="AU23:AY23"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="L22:AB22"/>
-    <mergeCell ref="AC22:AK22"/>
-    <mergeCell ref="AL22:AT22"/>
-    <mergeCell ref="AU22:AY22"/>
-    <mergeCell ref="AZ22:BO22"/>
-    <mergeCell ref="AZ21:BO21"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="L21:AB21"/>
-    <mergeCell ref="AC21:AK21"/>
-    <mergeCell ref="AL21:AT21"/>
-    <mergeCell ref="AU21:AY21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:K19"/>
-    <mergeCell ref="L18:AB19"/>
-    <mergeCell ref="AC18:AK19"/>
-    <mergeCell ref="AL18:BO18"/>
-    <mergeCell ref="AL19:AT19"/>
-    <mergeCell ref="AU19:AY19"/>
-    <mergeCell ref="AZ19:BO19"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BJ7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BJ8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BJ9"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="Y13:AE13"/>
     <mergeCell ref="Y14:AE14"/>
@@ -6779,12 +6744,44 @@
     <mergeCell ref="U13:X13"/>
     <mergeCell ref="I14:N14"/>
     <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BJ7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BJ8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BJ9"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:K19"/>
+    <mergeCell ref="L18:AB19"/>
+    <mergeCell ref="AC18:AK19"/>
+    <mergeCell ref="AL18:BO18"/>
+    <mergeCell ref="AL19:AT19"/>
+    <mergeCell ref="AU19:AY19"/>
+    <mergeCell ref="AZ19:BO19"/>
+    <mergeCell ref="AZ22:BO22"/>
+    <mergeCell ref="AZ21:BO21"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="L21:AB21"/>
+    <mergeCell ref="AC21:AK21"/>
+    <mergeCell ref="AL21:AT21"/>
+    <mergeCell ref="AU21:AY21"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="L22:AB22"/>
+    <mergeCell ref="AC22:AK22"/>
+    <mergeCell ref="AL22:AT22"/>
+    <mergeCell ref="AU22:AY22"/>
+    <mergeCell ref="AZ23:BO23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="L24:AB24"/>
+    <mergeCell ref="AC24:AK24"/>
+    <mergeCell ref="AL24:AT24"/>
+    <mergeCell ref="AU24:AY24"/>
+    <mergeCell ref="AZ24:BO24"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="L23:AB23"/>
+    <mergeCell ref="AC23:AK23"/>
+    <mergeCell ref="AL23:AT23"/>
+    <mergeCell ref="AU23:AY23"/>
+    <mergeCell ref="AZ20:BO20"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="L20:AB20"/>
+    <mergeCell ref="AC20:AK20"/>
+    <mergeCell ref="AL20:AT20"/>
+    <mergeCell ref="AU20:AY20"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7030,7 +7027,7 @@
     </row>
     <row r="4" spans="1:63" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
@@ -7163,7 +7160,7 @@
     <row r="6" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A6" s="2"/>
       <c r="B6" s="30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -7231,7 +7228,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
@@ -7240,8 +7237,8 @@
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="57" t="s">
-        <v>45</v>
+      <c r="K7" s="72" t="s">
+        <v>41</v>
       </c>
       <c r="L7" s="51"/>
       <c r="M7" s="51"/>
@@ -7300,7 +7297,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
@@ -7309,8 +7306,8 @@
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
       <c r="J8" s="32"/>
-      <c r="K8" s="57" t="s">
-        <v>47</v>
+      <c r="K8" s="72" t="s">
+        <v>43</v>
       </c>
       <c r="L8" s="51"/>
       <c r="M8" s="51"/>
@@ -7369,7 +7366,7 @@
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
@@ -7378,8 +7375,8 @@
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
-      <c r="K9" s="57" t="s">
-        <v>48</v>
+      <c r="K9" s="72" t="s">
+        <v>44</v>
       </c>
       <c r="L9" s="51"/>
       <c r="M9" s="51"/>
@@ -7502,7 +7499,7 @@
     <row r="11" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A11" s="2"/>
       <c r="B11" s="30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -7570,7 +7567,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -7637,8 +7634,8 @@
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="35"/>
-      <c r="D13" s="75" t="s">
-        <v>18</v>
+      <c r="D13" s="76" t="s">
+        <v>17</v>
       </c>
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
@@ -7658,60 +7655,60 @@
       <c r="T13" s="51"/>
       <c r="U13" s="51"/>
       <c r="V13" s="52"/>
-      <c r="W13" s="75" t="s">
-        <v>19</v>
+      <c r="W13" s="76" t="s">
+        <v>18</v>
       </c>
       <c r="X13" s="51"/>
       <c r="Y13" s="51"/>
       <c r="Z13" s="51"/>
       <c r="AA13" s="51"/>
       <c r="AB13" s="52"/>
-      <c r="AC13" s="75" t="s">
-        <v>20</v>
+      <c r="AC13" s="76" t="s">
+        <v>19</v>
       </c>
       <c r="AD13" s="51"/>
       <c r="AE13" s="51"/>
       <c r="AF13" s="51"/>
       <c r="AG13" s="51"/>
       <c r="AH13" s="52"/>
-      <c r="AI13" s="76" t="s">
-        <v>51</v>
+      <c r="AI13" s="77" t="s">
+        <v>47</v>
       </c>
-      <c r="AJ13" s="73"/>
-      <c r="AK13" s="73"/>
-      <c r="AL13" s="73"/>
-      <c r="AM13" s="73"/>
-      <c r="AN13" s="73"/>
-      <c r="AO13" s="73"/>
-      <c r="AP13" s="73"/>
-      <c r="AQ13" s="73"/>
-      <c r="AR13" s="73"/>
-      <c r="AS13" s="73"/>
-      <c r="AT13" s="73"/>
-      <c r="AU13" s="73"/>
-      <c r="AV13" s="73"/>
-      <c r="AW13" s="73"/>
-      <c r="AX13" s="73"/>
-      <c r="AY13" s="73"/>
-      <c r="AZ13" s="73"/>
-      <c r="BA13" s="73"/>
-      <c r="BB13" s="73"/>
-      <c r="BC13" s="73"/>
-      <c r="BD13" s="73"/>
-      <c r="BE13" s="73"/>
-      <c r="BF13" s="73"/>
-      <c r="BG13" s="73"/>
-      <c r="BH13" s="73"/>
-      <c r="BI13" s="73"/>
-      <c r="BJ13" s="74"/>
+      <c r="AJ13" s="78"/>
+      <c r="AK13" s="78"/>
+      <c r="AL13" s="78"/>
+      <c r="AM13" s="78"/>
+      <c r="AN13" s="78"/>
+      <c r="AO13" s="78"/>
+      <c r="AP13" s="78"/>
+      <c r="AQ13" s="78"/>
+      <c r="AR13" s="78"/>
+      <c r="AS13" s="78"/>
+      <c r="AT13" s="78"/>
+      <c r="AU13" s="78"/>
+      <c r="AV13" s="78"/>
+      <c r="AW13" s="78"/>
+      <c r="AX13" s="78"/>
+      <c r="AY13" s="78"/>
+      <c r="AZ13" s="78"/>
+      <c r="BA13" s="78"/>
+      <c r="BB13" s="78"/>
+      <c r="BC13" s="78"/>
+      <c r="BD13" s="78"/>
+      <c r="BE13" s="78"/>
+      <c r="BF13" s="78"/>
+      <c r="BG13" s="78"/>
+      <c r="BH13" s="78"/>
+      <c r="BI13" s="78"/>
+      <c r="BJ13" s="79"/>
       <c r="BK13" s="2"/>
     </row>
     <row r="14" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="35"/>
-      <c r="D14" s="71" t="s">
-        <v>52</v>
+      <c r="D14" s="80" t="s">
+        <v>48</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
@@ -7731,24 +7728,24 @@
       <c r="T14" s="51"/>
       <c r="U14" s="51"/>
       <c r="V14" s="52"/>
-      <c r="W14" s="71" t="s">
-        <v>24</v>
+      <c r="W14" s="80" t="s">
+        <v>23</v>
       </c>
       <c r="X14" s="51"/>
       <c r="Y14" s="51"/>
       <c r="Z14" s="51"/>
       <c r="AA14" s="51"/>
       <c r="AB14" s="52"/>
-      <c r="AC14" s="71" t="s">
-        <v>53</v>
+      <c r="AC14" s="80" t="s">
+        <v>49</v>
       </c>
       <c r="AD14" s="51"/>
       <c r="AE14" s="51"/>
       <c r="AF14" s="51"/>
       <c r="AG14" s="51"/>
       <c r="AH14" s="52"/>
-      <c r="AI14" s="71" t="s">
-        <v>54</v>
+      <c r="AI14" s="80" t="s">
+        <v>50</v>
       </c>
       <c r="AJ14" s="51"/>
       <c r="AK14" s="51"/>
@@ -7783,45 +7780,45 @@
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="35"/>
-      <c r="D15" s="72" t="s">
-        <v>55</v>
+      <c r="D15" s="81" t="s">
+        <v>51</v>
       </c>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="73"/>
-      <c r="U15" s="73"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="71" t="s">
-        <v>56</v>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="80" t="s">
+        <v>52</v>
       </c>
       <c r="X15" s="51"/>
       <c r="Y15" s="51"/>
       <c r="Z15" s="51"/>
       <c r="AA15" s="51"/>
       <c r="AB15" s="52"/>
-      <c r="AC15" s="71" t="s">
-        <v>53</v>
+      <c r="AC15" s="80" t="s">
+        <v>49</v>
       </c>
       <c r="AD15" s="51"/>
       <c r="AE15" s="51"/>
       <c r="AF15" s="51"/>
       <c r="AG15" s="51"/>
       <c r="AH15" s="52"/>
-      <c r="AI15" s="71" t="s">
-        <v>57</v>
+      <c r="AI15" s="80" t="s">
+        <v>53</v>
       </c>
       <c r="AJ15" s="51"/>
       <c r="AK15" s="51"/>
@@ -7856,45 +7853,45 @@
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="35"/>
-      <c r="D16" s="72" t="s">
-        <v>58</v>
+      <c r="D16" s="81" t="s">
+        <v>54</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="71" t="s">
-        <v>56</v>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="80" t="s">
+        <v>52</v>
       </c>
       <c r="X16" s="51"/>
       <c r="Y16" s="51"/>
       <c r="Z16" s="51"/>
       <c r="AA16" s="51"/>
       <c r="AB16" s="52"/>
-      <c r="AC16" s="71" t="s">
-        <v>53</v>
+      <c r="AC16" s="80" t="s">
+        <v>49</v>
       </c>
       <c r="AD16" s="51"/>
       <c r="AE16" s="51"/>
       <c r="AF16" s="51"/>
       <c r="AG16" s="51"/>
       <c r="AH16" s="52"/>
-      <c r="AI16" s="71" t="s">
-        <v>59</v>
+      <c r="AI16" s="80" t="s">
+        <v>55</v>
       </c>
       <c r="AJ16" s="51"/>
       <c r="AK16" s="51"/>
@@ -7929,45 +7926,45 @@
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="35"/>
-      <c r="D17" s="72" t="s">
-        <v>60</v>
+      <c r="D17" s="81" t="s">
+        <v>56</v>
       </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="71" t="s">
-        <v>56</v>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="80" t="s">
+        <v>52</v>
       </c>
       <c r="X17" s="51"/>
       <c r="Y17" s="51"/>
       <c r="Z17" s="51"/>
       <c r="AA17" s="51"/>
       <c r="AB17" s="52"/>
-      <c r="AC17" s="71" t="s">
-        <v>53</v>
+      <c r="AC17" s="80" t="s">
+        <v>49</v>
       </c>
       <c r="AD17" s="51"/>
       <c r="AE17" s="51"/>
       <c r="AF17" s="51"/>
       <c r="AG17" s="51"/>
       <c r="AH17" s="52"/>
-      <c r="AI17" s="71" t="s">
-        <v>61</v>
+      <c r="AI17" s="80" t="s">
+        <v>57</v>
       </c>
       <c r="AJ17" s="51"/>
       <c r="AK17" s="51"/>
@@ -8002,45 +7999,45 @@
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="35"/>
-      <c r="D18" s="72" t="s">
-        <v>62</v>
+      <c r="D18" s="81" t="s">
+        <v>58</v>
       </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="71" t="s">
-        <v>56</v>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="80" t="s">
+        <v>52</v>
       </c>
       <c r="X18" s="51"/>
       <c r="Y18" s="51"/>
       <c r="Z18" s="51"/>
       <c r="AA18" s="51"/>
       <c r="AB18" s="52"/>
-      <c r="AC18" s="71" t="s">
-        <v>53</v>
+      <c r="AC18" s="80" t="s">
+        <v>49</v>
       </c>
       <c r="AD18" s="51"/>
       <c r="AE18" s="51"/>
       <c r="AF18" s="51"/>
       <c r="AG18" s="51"/>
       <c r="AH18" s="52"/>
-      <c r="AI18" s="71" t="s">
-        <v>63</v>
+      <c r="AI18" s="80" t="s">
+        <v>59</v>
       </c>
       <c r="AJ18" s="51"/>
       <c r="AK18" s="51"/>
@@ -8075,8 +8072,8 @@
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="71" t="s">
-        <v>64</v>
+      <c r="D19" s="80" t="s">
+        <v>60</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
@@ -8096,24 +8093,24 @@
       <c r="T19" s="51"/>
       <c r="U19" s="51"/>
       <c r="V19" s="52"/>
-      <c r="W19" s="71" t="s">
-        <v>24</v>
+      <c r="W19" s="80" t="s">
+        <v>23</v>
       </c>
       <c r="X19" s="51"/>
       <c r="Y19" s="51"/>
       <c r="Z19" s="51"/>
       <c r="AA19" s="51"/>
       <c r="AB19" s="52"/>
-      <c r="AC19" s="71" t="s">
-        <v>53</v>
+      <c r="AC19" s="80" t="s">
+        <v>49</v>
       </c>
       <c r="AD19" s="51"/>
       <c r="AE19" s="51"/>
       <c r="AF19" s="51"/>
       <c r="AG19" s="51"/>
       <c r="AH19" s="52"/>
-      <c r="AI19" s="71" t="s">
-        <v>65</v>
+      <c r="AI19" s="80" t="s">
+        <v>61</v>
       </c>
       <c r="AJ19" s="51"/>
       <c r="AK19" s="51"/>
@@ -8148,8 +8145,8 @@
       <c r="A20" s="4"/>
       <c r="B20" s="23"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="71" t="s">
-        <v>66</v>
+      <c r="D20" s="80" t="s">
+        <v>62</v>
       </c>
       <c r="E20" s="51"/>
       <c r="F20" s="51"/>
@@ -8169,24 +8166,24 @@
       <c r="T20" s="51"/>
       <c r="U20" s="51"/>
       <c r="V20" s="52"/>
-      <c r="W20" s="71" t="s">
-        <v>67</v>
+      <c r="W20" s="80" t="s">
+        <v>63</v>
       </c>
       <c r="X20" s="51"/>
       <c r="Y20" s="51"/>
       <c r="Z20" s="51"/>
       <c r="AA20" s="51"/>
       <c r="AB20" s="52"/>
-      <c r="AC20" s="71" t="s">
-        <v>53</v>
+      <c r="AC20" s="80" t="s">
+        <v>49</v>
       </c>
       <c r="AD20" s="51"/>
       <c r="AE20" s="51"/>
       <c r="AF20" s="51"/>
       <c r="AG20" s="51"/>
       <c r="AH20" s="52"/>
-      <c r="AI20" s="71" t="s">
-        <v>68</v>
+      <c r="AI20" s="80" t="s">
+        <v>64</v>
       </c>
       <c r="AJ20" s="51"/>
       <c r="AK20" s="51"/>
@@ -8221,8 +8218,8 @@
       <c r="A21" s="4"/>
       <c r="B21" s="23"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="71" t="s">
-        <v>125</v>
+      <c r="D21" s="80" t="s">
+        <v>121</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
@@ -8242,24 +8239,24 @@
       <c r="T21" s="51"/>
       <c r="U21" s="51"/>
       <c r="V21" s="52"/>
-      <c r="W21" s="71" t="s">
-        <v>24</v>
+      <c r="W21" s="80" t="s">
+        <v>23</v>
       </c>
       <c r="X21" s="51"/>
       <c r="Y21" s="51"/>
       <c r="Z21" s="51"/>
       <c r="AA21" s="51"/>
       <c r="AB21" s="52"/>
-      <c r="AC21" s="71" t="s">
-        <v>53</v>
+      <c r="AC21" s="80" t="s">
+        <v>49</v>
       </c>
       <c r="AD21" s="51"/>
       <c r="AE21" s="51"/>
       <c r="AF21" s="51"/>
       <c r="AG21" s="51"/>
       <c r="AH21" s="52"/>
-      <c r="AI21" s="71" t="s">
-        <v>69</v>
+      <c r="AI21" s="80" t="s">
+        <v>65</v>
       </c>
       <c r="AJ21" s="51"/>
       <c r="AK21" s="51"/>
@@ -8294,7 +8291,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="23"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="80" t="s">
         <v>0</v>
       </c>
       <c r="E22" s="51"/>
@@ -8315,24 +8312,24 @@
       <c r="T22" s="51"/>
       <c r="U22" s="51"/>
       <c r="V22" s="52"/>
-      <c r="W22" s="71" t="s">
-        <v>67</v>
+      <c r="W22" s="80" t="s">
+        <v>63</v>
       </c>
       <c r="X22" s="51"/>
       <c r="Y22" s="51"/>
       <c r="Z22" s="51"/>
       <c r="AA22" s="51"/>
       <c r="AB22" s="52"/>
-      <c r="AC22" s="71" t="s">
-        <v>53</v>
+      <c r="AC22" s="80" t="s">
+        <v>49</v>
       </c>
       <c r="AD22" s="51"/>
       <c r="AE22" s="51"/>
       <c r="AF22" s="51"/>
       <c r="AG22" s="51"/>
       <c r="AH22" s="52"/>
-      <c r="AI22" s="71" t="s">
-        <v>70</v>
+      <c r="AI22" s="80" t="s">
+        <v>66</v>
       </c>
       <c r="AJ22" s="51"/>
       <c r="AK22" s="51"/>
@@ -8367,8 +8364,8 @@
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="37"/>
-      <c r="D23" s="71" t="s">
-        <v>71</v>
+      <c r="D23" s="80" t="s">
+        <v>67</v>
       </c>
       <c r="E23" s="51"/>
       <c r="F23" s="51"/>
@@ -8388,24 +8385,24 @@
       <c r="T23" s="51"/>
       <c r="U23" s="51"/>
       <c r="V23" s="52"/>
-      <c r="W23" s="71" t="s">
-        <v>67</v>
+      <c r="W23" s="80" t="s">
+        <v>63</v>
       </c>
       <c r="X23" s="51"/>
       <c r="Y23" s="51"/>
       <c r="Z23" s="51"/>
       <c r="AA23" s="51"/>
       <c r="AB23" s="52"/>
-      <c r="AC23" s="71" t="s">
-        <v>53</v>
+      <c r="AC23" s="80" t="s">
+        <v>49</v>
       </c>
       <c r="AD23" s="51"/>
       <c r="AE23" s="51"/>
       <c r="AF23" s="51"/>
       <c r="AG23" s="51"/>
       <c r="AH23" s="52"/>
-      <c r="AI23" s="71" t="s">
-        <v>72</v>
+      <c r="AI23" s="80" t="s">
+        <v>68</v>
       </c>
       <c r="AJ23" s="51"/>
       <c r="AK23" s="51"/>
@@ -8503,37 +8500,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="D13:V13"/>
-    <mergeCell ref="W13:AB13"/>
-    <mergeCell ref="AC13:AH13"/>
-    <mergeCell ref="AI13:BJ13"/>
-    <mergeCell ref="W14:AB14"/>
-    <mergeCell ref="AC14:AH14"/>
-    <mergeCell ref="AI14:BJ14"/>
-    <mergeCell ref="D14:V14"/>
-    <mergeCell ref="D15:V15"/>
-    <mergeCell ref="W15:AB15"/>
-    <mergeCell ref="AC15:AH15"/>
-    <mergeCell ref="AI15:BJ15"/>
-    <mergeCell ref="D16:V16"/>
-    <mergeCell ref="W16:AB16"/>
-    <mergeCell ref="AC16:AH16"/>
-    <mergeCell ref="AI16:BJ16"/>
-    <mergeCell ref="D17:V17"/>
-    <mergeCell ref="W17:AB17"/>
-    <mergeCell ref="AC17:AH17"/>
-    <mergeCell ref="AI17:BJ17"/>
-    <mergeCell ref="D18:V18"/>
-    <mergeCell ref="AI18:BJ18"/>
-    <mergeCell ref="AC21:AH21"/>
-    <mergeCell ref="W19:AB19"/>
-    <mergeCell ref="W22:AB22"/>
-    <mergeCell ref="AC22:AH22"/>
-    <mergeCell ref="D19:V19"/>
-    <mergeCell ref="D20:V20"/>
-    <mergeCell ref="W20:AB20"/>
-    <mergeCell ref="AC20:AH20"/>
-    <mergeCell ref="D21:V21"/>
     <mergeCell ref="K7:BJ7"/>
     <mergeCell ref="K8:BJ8"/>
     <mergeCell ref="K9:BJ9"/>
@@ -8550,6 +8516,37 @@
     <mergeCell ref="AI21:BJ21"/>
     <mergeCell ref="D22:V22"/>
     <mergeCell ref="W21:AB21"/>
+    <mergeCell ref="AC21:AH21"/>
+    <mergeCell ref="W19:AB19"/>
+    <mergeCell ref="W22:AB22"/>
+    <mergeCell ref="AC22:AH22"/>
+    <mergeCell ref="D19:V19"/>
+    <mergeCell ref="D20:V20"/>
+    <mergeCell ref="W20:AB20"/>
+    <mergeCell ref="AC20:AH20"/>
+    <mergeCell ref="D21:V21"/>
+    <mergeCell ref="D17:V17"/>
+    <mergeCell ref="W17:AB17"/>
+    <mergeCell ref="AC17:AH17"/>
+    <mergeCell ref="AI17:BJ17"/>
+    <mergeCell ref="D18:V18"/>
+    <mergeCell ref="AI18:BJ18"/>
+    <mergeCell ref="D15:V15"/>
+    <mergeCell ref="W15:AB15"/>
+    <mergeCell ref="AC15:AH15"/>
+    <mergeCell ref="AI15:BJ15"/>
+    <mergeCell ref="D16:V16"/>
+    <mergeCell ref="W16:AB16"/>
+    <mergeCell ref="AC16:AH16"/>
+    <mergeCell ref="AI16:BJ16"/>
+    <mergeCell ref="D13:V13"/>
+    <mergeCell ref="W13:AB13"/>
+    <mergeCell ref="AC13:AH13"/>
+    <mergeCell ref="AI13:BJ13"/>
+    <mergeCell ref="W14:AB14"/>
+    <mergeCell ref="AC14:AH14"/>
+    <mergeCell ref="AI14:BJ14"/>
+    <mergeCell ref="D14:V14"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8601,16 +8598,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="43" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="18"/>
@@ -8620,16 +8617,16 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="39" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="18"/>
@@ -8639,16 +8636,16 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E3" s="39"/>
       <c r="F3" s="18"/>
@@ -8658,14 +8655,14 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="39" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="47" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="18"/>
@@ -8675,14 +8672,14 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="47" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="18"/>
@@ -8692,10 +8689,10 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="39" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="47"/>
@@ -8708,7 +8705,7 @@
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="39"/>
       <c r="B7" s="39" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="47"/>
@@ -8721,7 +8718,7 @@
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="39"/>
       <c r="B8" s="39" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="47"/>
@@ -8734,7 +8731,7 @@
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="39"/>
       <c r="B9" s="39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="47"/>
@@ -8747,7 +8744,7 @@
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="39"/>
       <c r="B10" s="39" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="47"/>
@@ -8760,7 +8757,7 @@
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="39"/>
       <c r="B11" s="39" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="47"/>
@@ -8773,7 +8770,7 @@
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="39"/>
       <c r="B12" s="39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="47"/>
@@ -8786,7 +8783,7 @@
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="39"/>
       <c r="B13" s="39" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="47"/>
@@ -8799,7 +8796,7 @@
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="39"/>
       <c r="B14" s="39" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="47"/>
@@ -8812,7 +8809,7 @@
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="39"/>
       <c r="B15" s="39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="47"/>
@@ -8825,7 +8822,7 @@
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="39"/>
       <c r="B16" s="39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="47"/>
@@ -8838,7 +8835,7 @@
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="39"/>
       <c r="B17" s="39" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="47"/>
@@ -8851,7 +8848,7 @@
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="39"/>
       <c r="B18" s="39" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C18" s="46"/>
       <c r="D18" s="47"/>
@@ -8864,7 +8861,7 @@
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="39"/>
       <c r="B19" s="39" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C19" s="46"/>
       <c r="D19" s="47"/>
@@ -8877,7 +8874,7 @@
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="39"/>
       <c r="B20" s="39" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C20" s="46"/>
       <c r="D20" s="47"/>
@@ -8890,7 +8887,7 @@
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="39"/>
       <c r="B21" s="39" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C21" s="46"/>
       <c r="D21" s="47"/>
@@ -8903,7 +8900,7 @@
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="39"/>
       <c r="B22" s="39" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="47"/>
@@ -8916,7 +8913,7 @@
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="39"/>
       <c r="B23" s="39" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C23" s="46"/>
       <c r="D23" s="47"/>
